--- a/Painting Record.xlsx
+++ b/Painting Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strath-my.sharepoint.com/personal/francisco_lopez-marquez_2023_uni_strath_ac_uk/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopez\Desktop\V2.0 Javier_LeonhArt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0B6198B-5E77-48A4-BD2F-859F66FE2AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE4E6F32-D61D-458F-9B8C-5A3B66CBA60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="9766" windowHeight="12083" xr2:uid="{8FABD0BB-35D2-4746-8BF5-22ED6BD8493F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{8FABD0BB-35D2-4746-8BF5-22ED6BD8493F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="175">
   <si>
     <t>Date</t>
   </si>
@@ -555,13 +555,19 @@
   </si>
   <si>
     <t>Tree-Revenants</t>
+  </si>
+  <si>
+    <t>Current Project</t>
+  </si>
+  <si>
+    <t>5x Tree-Revenants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,63 +604,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -774,6 +723,63 @@
           <bgColor theme="8"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2693,7 +2699,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{61558924-6BAF-41CB-A458-0F8F58CE51F4}" name="Table2" displayName="Table2" ref="A1:F168" totalsRowShown="0">
   <autoFilter ref="A1:F168" xr:uid="{61558924-6BAF-41CB-A458-0F8F58CE51F4}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A1C8C315-1AF4-46A9-829B-F6F66670A080}" name="Date" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{A1C8C315-1AF4-46A9-829B-F6F66670A080}" name="Date" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{5DD88343-1F7A-4E8C-82DC-76B842BC6326}" name="Project"/>
     <tableColumn id="3" xr3:uid="{67609590-421E-40D3-9386-469D330E5B1F}" name="Models"/>
     <tableColumn id="4" xr3:uid="{9FCCF59F-1639-4D57-AF65-D761F289622C}" name="Description"/>
@@ -2705,10 +2711,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FC8574FA-7BC0-4EFA-AA32-0A78DAD891B2}" name="Table3" displayName="Table3" ref="J1:J11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FC8574FA-7BC0-4EFA-AA32-0A78DAD891B2}" name="Table3" displayName="Table3" ref="J1:J11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="J1:J11" xr:uid="{FC8574FA-7BC0-4EFA-AA32-0A78DAD891B2}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{7B07971A-E433-4A37-8E69-8414A8DAFA6A}" name="Project List" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7B07971A-E433-4A37-8E69-8414A8DAFA6A}" name="Project List" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2721,6 +2727,16 @@
     <tableColumn id="1" xr3:uid="{55DB5F22-E9C6-43F4-91B3-C8775CAB6E79}" name="Total Painted">
       <calculatedColumnFormula>SUM(C2:C1020)</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE71C9D9-D413-42D0-B286-843925E7A779}" name="Table1" displayName="Table1" ref="H4:H5" totalsRowShown="0">
+  <autoFilter ref="H4:H5" xr:uid="{DE71C9D9-D413-42D0-B286-843925E7A779}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{285C54AE-A2BC-44AD-A7FA-881113AFB25A}" name="Current Project"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3046,22 +3062,22 @@
   <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3087,7 +3103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>43405</v>
       </c>
@@ -3114,7 +3130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>43770</v>
       </c>
@@ -3137,7 +3153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>43435</v>
       </c>
@@ -3156,11 +3172,14 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
+      <c r="H4" t="s">
+        <v>173</v>
+      </c>
       <c r="J4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>43466</v>
       </c>
@@ -3179,11 +3198,14 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
+      <c r="H5" t="s">
+        <v>174</v>
+      </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>43466</v>
       </c>
@@ -3206,7 +3228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>43466</v>
       </c>
@@ -3229,7 +3251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>43497</v>
       </c>
@@ -3252,7 +3274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>43497</v>
       </c>
@@ -3275,7 +3297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>43525</v>
       </c>
@@ -3298,7 +3320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>43556</v>
       </c>
@@ -3321,7 +3343,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>43586</v>
       </c>
@@ -3341,7 +3363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>43586</v>
       </c>
@@ -3361,7 +3383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>43586</v>
       </c>
@@ -3381,7 +3403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>43586</v>
       </c>
@@ -3401,7 +3423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>43617</v>
       </c>
@@ -3421,7 +3443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>43617</v>
       </c>
@@ -3441,7 +3463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>43617</v>
       </c>
@@ -3461,7 +3483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>43617</v>
       </c>
@@ -3481,7 +3503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>43647</v>
       </c>
@@ -3501,7 +3523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>43647</v>
       </c>
@@ -3521,7 +3543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>43678</v>
       </c>
@@ -3541,7 +3563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>43678</v>
       </c>
@@ -3561,7 +3583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>43678</v>
       </c>
@@ -3581,7 +3603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>43678</v>
       </c>
@@ -3601,7 +3623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>43709</v>
       </c>
@@ -3621,7 +3643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>43709</v>
       </c>
@@ -3641,7 +3663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>43709</v>
       </c>
@@ -3661,7 +3683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>43739</v>
       </c>
@@ -3681,7 +3703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>43739</v>
       </c>
@@ -3701,7 +3723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>43739</v>
       </c>
@@ -3721,7 +3743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>43739</v>
       </c>
@@ -3741,7 +3763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>43739</v>
       </c>
@@ -3761,7 +3783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>43739</v>
       </c>
@@ -3781,7 +3803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>43739</v>
       </c>
@@ -3801,7 +3823,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>43739</v>
       </c>
@@ -3821,7 +3843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>43739</v>
       </c>
@@ -3841,7 +3863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>43770</v>
       </c>
@@ -3861,7 +3883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>43770</v>
       </c>
@@ -3881,7 +3903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>43770</v>
       </c>
@@ -3901,7 +3923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>43800</v>
       </c>
@@ -3921,7 +3943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>43831</v>
       </c>
@@ -3941,7 +3963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>43831</v>
       </c>
@@ -3961,7 +3983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43831</v>
       </c>
@@ -3981,7 +4003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>43831</v>
       </c>
@@ -4001,7 +4023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>43831</v>
       </c>
@@ -4021,7 +4043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>43862</v>
       </c>
@@ -4041,7 +4063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>43862</v>
       </c>
@@ -4061,7 +4083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>43862</v>
       </c>
@@ -4081,7 +4103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>43862</v>
       </c>
@@ -4101,7 +4123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>43862</v>
       </c>
@@ -4121,7 +4143,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>43862</v>
       </c>
@@ -4141,7 +4163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>43862</v>
       </c>
@@ -4161,7 +4183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>43862</v>
       </c>
@@ -4181,7 +4203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>43862</v>
       </c>
@@ -4201,7 +4223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>43862</v>
       </c>
@@ -4221,7 +4243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>43862</v>
       </c>
@@ -4241,7 +4263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>43862</v>
       </c>
@@ -4261,7 +4283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>43862</v>
       </c>
@@ -4281,7 +4303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>43891</v>
       </c>
@@ -4301,7 +4323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>43891</v>
       </c>
@@ -4321,7 +4343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>43891</v>
       </c>
@@ -4341,7 +4363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>43891</v>
       </c>
@@ -4361,7 +4383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>43891</v>
       </c>
@@ -4381,7 +4403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>43891</v>
       </c>
@@ -4401,7 +4423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>43922</v>
       </c>
@@ -4421,7 +4443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>43922</v>
       </c>
@@ -4441,7 +4463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>43922</v>
       </c>
@@ -4461,7 +4483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>43922</v>
       </c>
@@ -4481,7 +4503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>43922</v>
       </c>
@@ -4501,7 +4523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>43952</v>
       </c>
@@ -4521,7 +4543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>43952</v>
       </c>
@@ -4541,7 +4563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>43952</v>
       </c>
@@ -4561,7 +4583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>43952</v>
       </c>
@@ -4581,7 +4603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>43952</v>
       </c>
@@ -4601,7 +4623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>43952</v>
       </c>
@@ -4621,7 +4643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>43983</v>
       </c>
@@ -4641,7 +4663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>43983</v>
       </c>
@@ -4661,7 +4683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>43983</v>
       </c>
@@ -4681,7 +4703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>43983</v>
       </c>
@@ -4701,7 +4723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>43983</v>
       </c>
@@ -4721,7 +4743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>43983</v>
       </c>
@@ -4741,7 +4763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>44013</v>
       </c>
@@ -4749,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>44044</v>
       </c>
@@ -4769,7 +4791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>44044</v>
       </c>
@@ -4789,7 +4811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>44044</v>
       </c>
@@ -4809,7 +4831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>44044</v>
       </c>
@@ -4829,7 +4851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>44044</v>
       </c>
@@ -4849,7 +4871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>44044</v>
       </c>
@@ -4869,7 +4891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>44044</v>
       </c>
@@ -4889,7 +4911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>44075</v>
       </c>
@@ -4909,7 +4931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>44075</v>
       </c>
@@ -4929,7 +4951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>44075</v>
       </c>
@@ -4949,7 +4971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>44075</v>
       </c>
@@ -4969,7 +4991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>44075</v>
       </c>
@@ -4989,7 +5011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>44075</v>
       </c>
@@ -5009,7 +5031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>44075</v>
       </c>
@@ -5029,7 +5051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>44075</v>
       </c>
@@ -5049,7 +5071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>44075</v>
       </c>
@@ -5069,7 +5091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>44075</v>
       </c>
@@ -5089,7 +5111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>44075</v>
       </c>
@@ -5109,7 +5131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>44075</v>
       </c>
@@ -5129,7 +5151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>44105</v>
       </c>
@@ -5137,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>44136</v>
       </c>
@@ -5145,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>44166</v>
       </c>
@@ -5153,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>44197</v>
       </c>
@@ -5161,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>44228</v>
       </c>
@@ -5169,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>44256</v>
       </c>
@@ -5189,7 +5211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>44287</v>
       </c>
@@ -5209,7 +5231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>44287</v>
       </c>
@@ -5229,7 +5251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>44287</v>
       </c>
@@ -5249,7 +5271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>44317</v>
       </c>
@@ -5269,7 +5291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>44317</v>
       </c>
@@ -5289,7 +5311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>44317</v>
       </c>
@@ -5309,7 +5331,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>44348</v>
       </c>
@@ -5317,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>44378</v>
       </c>
@@ -5325,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>44409</v>
       </c>
@@ -5345,7 +5367,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>44409</v>
       </c>
@@ -5365,7 +5387,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>44409</v>
       </c>
@@ -5385,7 +5407,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>44409</v>
       </c>
@@ -5405,7 +5427,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>44409</v>
       </c>
@@ -5425,7 +5447,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>44409</v>
       </c>
@@ -5445,7 +5467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>44440</v>
       </c>
@@ -5465,7 +5487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>44470</v>
       </c>
@@ -5473,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>44501</v>
       </c>
@@ -5493,7 +5515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>44531</v>
       </c>
@@ -5513,7 +5535,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>44531</v>
       </c>
@@ -5533,7 +5555,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>44531</v>
       </c>
@@ -5553,7 +5575,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>44531</v>
       </c>
@@ -5573,7 +5595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>44562</v>
       </c>
@@ -5593,7 +5615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>44593</v>
       </c>
@@ -5613,7 +5635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>44593</v>
       </c>
@@ -5633,7 +5655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>44621</v>
       </c>
@@ -5653,7 +5675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>44621</v>
       </c>
@@ -5673,7 +5695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>44621</v>
       </c>
@@ -5693,7 +5715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>44652</v>
       </c>
@@ -5713,7 +5735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>44682</v>
       </c>
@@ -5733,7 +5755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>44682</v>
       </c>
@@ -5753,7 +5775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>44682</v>
       </c>
@@ -5773,7 +5795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>44713</v>
       </c>
@@ -5793,7 +5815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>44713</v>
       </c>
@@ -5813,7 +5835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>44743</v>
       </c>
@@ -5833,7 +5855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>44774</v>
       </c>
@@ -5853,7 +5875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>44805</v>
       </c>
@@ -5873,7 +5895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>44835</v>
       </c>
@@ -5893,7 +5915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>44866</v>
       </c>
@@ -5913,7 +5935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>44896</v>
       </c>
@@ -5921,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>44927</v>
       </c>
@@ -5941,7 +5963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>44927</v>
       </c>
@@ -5961,7 +5983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>44958</v>
       </c>
@@ -5981,7 +6003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>44986</v>
       </c>
@@ -6001,7 +6023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>44986</v>
       </c>
@@ -6021,7 +6043,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>45017</v>
       </c>
@@ -6029,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>45047</v>
       </c>
@@ -6037,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>45078</v>
       </c>
@@ -6045,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>45108</v>
       </c>
@@ -6053,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>45139</v>
       </c>
@@ -6061,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>45170</v>
       </c>
@@ -6081,7 +6103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>45200</v>
       </c>
@@ -6089,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>45231</v>
       </c>
@@ -6097,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>45261</v>
       </c>
@@ -6117,7 +6139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>45292</v>
       </c>
@@ -6125,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>45323</v>
       </c>
@@ -6133,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>45352</v>
       </c>
@@ -6141,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>45383</v>
       </c>
@@ -6149,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>45413</v>
       </c>
@@ -6169,7 +6191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>45474</v>
       </c>
@@ -6189,39 +6211,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J11 B2:B1048576">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Sylvaneth Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Tunguska Warband"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"35mm Models"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"High Elves Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Lumineth Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Harlequins Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>"Ulthwé Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
       <formula>"Slaves Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
       <formula>"Khorne Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
       <formula>"Practice"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6233,10 +6255,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Painting Record.xlsx
+++ b/Painting Record.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopez\Desktop\V2.0 Javier_LeonhArt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE4E6F32-D61D-458F-9B8C-5A3B66CBA60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B101A4F2-9412-482A-9A51-6FAA7CC1D737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{8FABD0BB-35D2-4746-8BF5-22ED6BD8493F}"/>
+    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="12083" xr2:uid="{8FABD0BB-35D2-4746-8BF5-22ED6BD8493F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Paints" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="474">
   <si>
     <t>Date</t>
   </si>
@@ -561,13 +584,910 @@
   </si>
   <si>
     <t>5x Tree-Revenants</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>Ulthwé</t>
+  </si>
+  <si>
+    <t>Ynnari</t>
+  </si>
+  <si>
+    <t>Harlequins</t>
+  </si>
+  <si>
+    <t>Lumineth</t>
+  </si>
+  <si>
+    <t>Kimera</t>
+  </si>
+  <si>
+    <t>Titanium White</t>
+  </si>
+  <si>
+    <t>Carbon Black</t>
+  </si>
+  <si>
+    <t>Violet</t>
+  </si>
+  <si>
+    <t>Phthalo Green</t>
+  </si>
+  <si>
+    <t>Phthalo Blue G.</t>
+  </si>
+  <si>
+    <t>Phthalo Blue R.</t>
+  </si>
+  <si>
+    <t>Magenta</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Red Oxide</t>
+  </si>
+  <si>
+    <t>Yellow Oxide</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Warm Yellow</t>
+  </si>
+  <si>
+    <t>Cold Yellow</t>
+  </si>
+  <si>
+    <t>Oxide Brown Dark</t>
+  </si>
+  <si>
+    <t>Oxide Brown Medium</t>
+  </si>
+  <si>
+    <t>Oxide Brown Light</t>
+  </si>
+  <si>
+    <t>Mars Orange</t>
+  </si>
+  <si>
+    <t>Honey Moon Yellow</t>
+  </si>
+  <si>
+    <t>Dark Ochre</t>
+  </si>
+  <si>
+    <t>Diarylide Yellow</t>
+  </si>
+  <si>
+    <t>Alizarin Crimson</t>
+  </si>
+  <si>
+    <t>Royal Brown</t>
+  </si>
+  <si>
+    <t>Ultramarine Blue</t>
+  </si>
+  <si>
+    <t>Toluidine Red</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Oxide Green</t>
+  </si>
+  <si>
+    <t>Cobalt Bluegreen</t>
+  </si>
+  <si>
+    <t>Cartacci Red</t>
+  </si>
+  <si>
+    <t>Caucasian Skintone</t>
+  </si>
+  <si>
+    <t>Golden Brown</t>
+  </si>
+  <si>
+    <t>Kiwi Brown</t>
+  </si>
+  <si>
+    <t>Samurai Green</t>
+  </si>
+  <si>
+    <t>Silver Grey</t>
+  </si>
+  <si>
+    <t>Iron Hue</t>
+  </si>
+  <si>
+    <t>Morning Sky</t>
+  </si>
+  <si>
+    <t>Ground Brown</t>
+  </si>
+  <si>
+    <t>Fallen Grass</t>
+  </si>
+  <si>
+    <t>Cloud Sky</t>
+  </si>
+  <si>
+    <t>Sun Ray</t>
+  </si>
+  <si>
+    <t>Bright Yellow Ochre</t>
+  </si>
+  <si>
+    <t>Pro Acryl</t>
+  </si>
+  <si>
+    <t>Dark Plum</t>
+  </si>
+  <si>
+    <t>Drab Brown</t>
+  </si>
+  <si>
+    <t>Red Grey</t>
+  </si>
+  <si>
+    <t>Details H</t>
+  </si>
+  <si>
+    <t>Details U</t>
+  </si>
+  <si>
+    <t>Details Y</t>
+  </si>
+  <si>
+    <t>Details S</t>
+  </si>
+  <si>
+    <t>Details L</t>
+  </si>
+  <si>
+    <t>Details H2</t>
+  </si>
+  <si>
+    <t>Bright Ivory</t>
+  </si>
+  <si>
+    <t>Bold Titanium White</t>
+  </si>
+  <si>
+    <t>Naphthol Crimson</t>
+  </si>
+  <si>
+    <t>Liquitex</t>
+  </si>
+  <si>
+    <t>Yellow Medium Azo</t>
+  </si>
+  <si>
+    <t>Phthalocyanine Blue (g)</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Michal Pisarski</t>
+  </si>
+  <si>
+    <t>Danilo Cartacci</t>
+  </si>
+  <si>
+    <t>Flameon</t>
+  </si>
+  <si>
+    <t>Adepticon</t>
+  </si>
+  <si>
+    <t>Ninjon</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Ink</t>
+  </si>
+  <si>
+    <t>Vivid Lime Green</t>
+  </si>
+  <si>
+    <t>ink</t>
+  </si>
+  <si>
+    <t>Muted Green</t>
+  </si>
+  <si>
+    <t>Transparent Raw Umber</t>
+  </si>
+  <si>
+    <t>Muted Turquoise</t>
+  </si>
+  <si>
+    <t>Muted Grey</t>
+  </si>
+  <si>
+    <t>Muted Pink</t>
+  </si>
+  <si>
+    <t>Muted Violed</t>
+  </si>
+  <si>
+    <t>Fiery Red</t>
+  </si>
+  <si>
+    <t>Nocturna</t>
+  </si>
+  <si>
+    <t>Deep Scarlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asphalt </t>
+  </si>
+  <si>
+    <t>Midnight</t>
+  </si>
+  <si>
+    <t>Olive</t>
+  </si>
+  <si>
+    <t>Turquoise</t>
+  </si>
+  <si>
+    <t>Umber</t>
+  </si>
+  <si>
+    <t>Brown Beast</t>
+  </si>
+  <si>
+    <t>Chesnut</t>
+  </si>
+  <si>
+    <t>Scale 75</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Death White</t>
+  </si>
+  <si>
+    <t>Vallejo</t>
+  </si>
+  <si>
+    <t>Game (old)</t>
+  </si>
+  <si>
+    <t>Model (old)</t>
+  </si>
+  <si>
+    <t>Sunset Red</t>
+  </si>
+  <si>
+    <t>Beige Red</t>
+  </si>
+  <si>
+    <t>Sunny Skin tone</t>
+  </si>
+  <si>
+    <t>Prussian Blue</t>
+  </si>
+  <si>
+    <t>Aethermatic Blue</t>
+  </si>
+  <si>
+    <t>Citadel</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Aldeari Emerald</t>
+  </si>
+  <si>
+    <t>Cygor Brown</t>
+  </si>
+  <si>
+    <t>Gryph-Hound Orange</t>
+  </si>
+  <si>
+    <t>Iyanden Yellow</t>
+  </si>
+  <si>
+    <t>Volupus Pink</t>
+  </si>
+  <si>
+    <t>Skeleton Horde</t>
+  </si>
+  <si>
+    <t>Nazdreg Yellow</t>
+  </si>
+  <si>
+    <t>Snakebite Leather</t>
+  </si>
+  <si>
+    <t>Gryph-Charger Grey</t>
+  </si>
+  <si>
+    <t>Apothecary White</t>
+  </si>
+  <si>
+    <t>Mummy White</t>
+  </si>
+  <si>
+    <t>Xpress</t>
+  </si>
+  <si>
+    <t>Hospitallier Black</t>
+  </si>
+  <si>
+    <t>Twilight Rose</t>
+  </si>
+  <si>
+    <t>Heavy Charcoal</t>
+  </si>
+  <si>
+    <t>Extra Opaque</t>
+  </si>
+  <si>
+    <t>Dark Sea Blue</t>
+  </si>
+  <si>
+    <t>French Blue</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Graphite</t>
+  </si>
+  <si>
+    <t>3rd Gen</t>
+  </si>
+  <si>
+    <t>Luftwafe Unif. WWII</t>
+  </si>
+  <si>
+    <t>Heavy Bluegrey</t>
+  </si>
+  <si>
+    <t>Basalt Grey</t>
+  </si>
+  <si>
+    <t>Dark Blue Grey</t>
+  </si>
+  <si>
+    <t>Green Grey</t>
+  </si>
+  <si>
+    <t>Pale Grey Blue</t>
+  </si>
+  <si>
+    <t>Ivory</t>
+  </si>
+  <si>
+    <t>Hull Red</t>
+  </si>
+  <si>
+    <t>Deep Purple</t>
+  </si>
+  <si>
+    <t>Deep Violet</t>
+  </si>
+  <si>
+    <t>Dragon Blood</t>
+  </si>
+  <si>
+    <t>Emerald</t>
+  </si>
+  <si>
+    <t>Park Green</t>
+  </si>
+  <si>
+    <t>Ghost Green</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Scorpena Green</t>
+  </si>
+  <si>
+    <t>Aquatic Turquoise</t>
+  </si>
+  <si>
+    <t>Blue Green</t>
+  </si>
+  <si>
+    <t>British Khaki</t>
+  </si>
+  <si>
+    <t>Japanese Brown</t>
+  </si>
+  <si>
+    <t>Heavy Goldbrown</t>
+  </si>
+  <si>
+    <t>Color Punch</t>
+  </si>
+  <si>
+    <t>Sahara Yellow</t>
+  </si>
+  <si>
+    <t>Heavy Ochre</t>
+  </si>
+  <si>
+    <t>Golden Yellow</t>
+  </si>
+  <si>
+    <t>Bronze Brown</t>
+  </si>
+  <si>
+    <t>Gold Yellow</t>
+  </si>
+  <si>
+    <t>Chocolate Brown</t>
+  </si>
+  <si>
+    <t>Luminous Green</t>
+  </si>
+  <si>
+    <t>Purulent Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pistachio </t>
+  </si>
+  <si>
+    <t>Ger. C. Beige WWII</t>
+  </si>
+  <si>
+    <t>Exp. Pack</t>
+  </si>
+  <si>
+    <t>Barak-Nar Burgundy</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Gal Vorbak Red</t>
+  </si>
+  <si>
+    <t>Screamer Pink</t>
+  </si>
+  <si>
+    <t>Pink Horror</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>Emperor's Children</t>
+  </si>
+  <si>
+    <t>Daemonette Hide</t>
+  </si>
+  <si>
+    <t>Khorne Red</t>
+  </si>
+  <si>
+    <t>Mephiston Red</t>
+  </si>
+  <si>
+    <t>Evil Sunz Scarlet</t>
+  </si>
+  <si>
+    <t>Wild Rider Red</t>
+  </si>
+  <si>
+    <t>Trollslayer Orange</t>
+  </si>
+  <si>
+    <t>Fire Dragon Bright</t>
+  </si>
+  <si>
+    <t>Averland Sunset</t>
+  </si>
+  <si>
+    <t>Yriel Yellow</t>
+  </si>
+  <si>
+    <t>Flash Gitz Yellow</t>
+  </si>
+  <si>
+    <t>Phalanx Yellow</t>
+  </si>
+  <si>
+    <t>Incubi Darkness</t>
+  </si>
+  <si>
+    <t>Dark Reaper</t>
+  </si>
+  <si>
+    <t>Thunderhawk Blue</t>
+  </si>
+  <si>
+    <t>Phoenician Purple</t>
+  </si>
+  <si>
+    <t>Kakophoni Purple</t>
+  </si>
+  <si>
+    <t>Macragge Blue</t>
+  </si>
+  <si>
+    <t>The Fang</t>
+  </si>
+  <si>
+    <t>Thousand Sons blue</t>
+  </si>
+  <si>
+    <t>Temple Guard Blue</t>
+  </si>
+  <si>
+    <t>Baharroth Blue</t>
+  </si>
+  <si>
+    <t>Fenrisian Grey</t>
+  </si>
+  <si>
+    <t>Kabalite Green</t>
+  </si>
+  <si>
+    <t>Sybarite Green</t>
+  </si>
+  <si>
+    <t>Moot Green</t>
+  </si>
+  <si>
+    <t>Squig Orange</t>
+  </si>
+  <si>
+    <t>Rhinox Hide</t>
+  </si>
+  <si>
+    <t>Mournfang Brown</t>
+  </si>
+  <si>
+    <t>XV-88</t>
+  </si>
+  <si>
+    <t>Balor Brown</t>
+  </si>
+  <si>
+    <t>Zandri Dust</t>
+  </si>
+  <si>
+    <t>Morghast Bone</t>
+  </si>
+  <si>
+    <t>Ushabti Bone</t>
+  </si>
+  <si>
+    <t>Rakarth Flesh</t>
+  </si>
+  <si>
+    <t>Wraithbone</t>
+  </si>
+  <si>
+    <t>Dawnstone</t>
+  </si>
+  <si>
+    <t>Administratum Grey</t>
+  </si>
+  <si>
+    <t>Celestra Grey</t>
+  </si>
+  <si>
+    <t>Corax White</t>
+  </si>
+  <si>
+    <t>Abaddon Black</t>
+  </si>
+  <si>
+    <t>Jokaero Orange</t>
+  </si>
+  <si>
+    <t>Heavy Siena</t>
+  </si>
+  <si>
+    <t>Scrofulous Brown</t>
+  </si>
+  <si>
+    <t>Sand Yellow</t>
+  </si>
+  <si>
+    <t>Ice Yellow</t>
+  </si>
+  <si>
+    <t>Gore-Grunta Fur</t>
+  </si>
+  <si>
+    <t>Gorgon Brown</t>
+  </si>
+  <si>
+    <t>Grunge Brown</t>
+  </si>
+  <si>
+    <t>Succubus Skin</t>
+  </si>
+  <si>
+    <t>Black Templar</t>
+  </si>
+  <si>
+    <t>Corvus Black</t>
+  </si>
+  <si>
+    <t>Anthracite Grey</t>
+  </si>
+  <si>
+    <t>Lilac</t>
+  </si>
+  <si>
+    <t>Wine Red</t>
+  </si>
+  <si>
+    <t>Nocturnal Red</t>
+  </si>
+  <si>
+    <t>Scarlet Red</t>
+  </si>
+  <si>
+    <t>Reddish Grey</t>
+  </si>
+  <si>
+    <t>Grey Seer</t>
+  </si>
+  <si>
+    <t>Ulthuan Grey</t>
+  </si>
+  <si>
+    <t>Bugman's Glow</t>
+  </si>
+  <si>
+    <t>Brown Rose</t>
+  </si>
+  <si>
+    <t>Luminous Flesh</t>
+  </si>
+  <si>
+    <t>Heavy Grey</t>
+  </si>
+  <si>
+    <t>Stone Grey</t>
+  </si>
+  <si>
+    <t>Middlestone</t>
+  </si>
+  <si>
+    <t>Deck Tan</t>
+  </si>
+  <si>
+    <t>Midnight Purple</t>
+  </si>
+  <si>
+    <t>Warlock Purple</t>
+  </si>
+  <si>
+    <t>Kraken Lavender</t>
+  </si>
+  <si>
+    <t>Army Painter</t>
+  </si>
+  <si>
+    <t>Fanatic</t>
+  </si>
+  <si>
+    <t>Tenebrous Grey</t>
+  </si>
+  <si>
+    <t>Black Red</t>
+  </si>
+  <si>
+    <t>Laser Yellow</t>
+  </si>
+  <si>
+    <t>Golden Olive</t>
+  </si>
+  <si>
+    <t>Toxic Yellow</t>
+  </si>
+  <si>
+    <t>Ratling Grime</t>
+  </si>
+  <si>
+    <t>Afro Shadow</t>
+  </si>
+  <si>
+    <t>Charred Brown</t>
+  </si>
+  <si>
+    <t>Barbarian Skin</t>
+  </si>
+  <si>
+    <t>Gems</t>
+  </si>
+  <si>
+    <t>White NMMM</t>
+  </si>
+  <si>
+    <t>Green NMM</t>
+  </si>
+  <si>
+    <t>Grimy Grey</t>
+  </si>
+  <si>
+    <t>White Wood</t>
+  </si>
+  <si>
+    <t>Whole Wood</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Ghost Grey</t>
+  </si>
+  <si>
+    <t>Luminous Orange</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Volcanic Yellow</t>
+  </si>
+  <si>
+    <t>Dorn Yellow</t>
+  </si>
+  <si>
+    <t>Wicked Purple</t>
+  </si>
+  <si>
+    <t>Shadow NMM</t>
+  </si>
+  <si>
+    <t>Evil Red</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>Deep Magenta</t>
+  </si>
+  <si>
+    <t>Violed Red</t>
+  </si>
+  <si>
+    <t>Heavy Warmgrey</t>
+  </si>
+  <si>
+    <t>Light Flesh</t>
+  </si>
+  <si>
+    <t>Vampiric Purple</t>
+  </si>
+  <si>
+    <t>Skin / Leaves / Gems</t>
+  </si>
+  <si>
+    <t>Steel Legion Drab</t>
+  </si>
+  <si>
+    <t>Khaki</t>
+  </si>
+  <si>
+    <t>Elfic Flesh</t>
+  </si>
+  <si>
+    <t>Burnt Red</t>
+  </si>
+  <si>
+    <t>Cloth / Leather</t>
+  </si>
+  <si>
+    <t>Leather Shadow</t>
+  </si>
+  <si>
+    <t>Skin /  Leather</t>
+  </si>
+  <si>
+    <t>NMM / W. Wood</t>
+  </si>
+  <si>
+    <t>Up Dragon Blood</t>
+  </si>
+  <si>
+    <t>Up Tenebrous</t>
+  </si>
+  <si>
+    <t>Up Skin</t>
+  </si>
+  <si>
+    <t>Reds</t>
+  </si>
+  <si>
+    <t>Up NMM</t>
+  </si>
+  <si>
+    <t>Clothes</t>
+  </si>
+  <si>
+    <t>NMM Gold</t>
+  </si>
+  <si>
+    <t>Bone</t>
+  </si>
+  <si>
+    <t>NMM Shadow</t>
+  </si>
+  <si>
+    <t>Shadow Tenebrous</t>
+  </si>
+  <si>
+    <t>Start Pack</t>
+  </si>
+  <si>
+    <t>Hue Dragon</t>
+  </si>
+  <si>
+    <t>Gold NMM</t>
+  </si>
+  <si>
+    <t>Leather</t>
+  </si>
+  <si>
+    <t>Tenebrous</t>
+  </si>
+  <si>
+    <t>Hue Bone</t>
+  </si>
+  <si>
+    <t>Must</t>
+  </si>
+  <si>
+    <t>Lizard Scales</t>
+  </si>
+  <si>
+    <t>Lizard Whole</t>
+  </si>
+  <si>
+    <t>Lizard Skin</t>
+  </si>
+  <si>
+    <t>Lizard / NMM Gold</t>
+  </si>
+  <si>
+    <t>Total Used</t>
+  </si>
+  <si>
+    <t>Most Used Paints</t>
+  </si>
+  <si>
+    <t>Armour</t>
+  </si>
+  <si>
+    <t>My Must-Have Paints</t>
+  </si>
+  <si>
+    <t>Inks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,16 +1495,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -592,18 +1538,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -723,6 +1783,20 @@
           <bgColor theme="8"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2658,16 +3732,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>183355</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>54768</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>16667</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>35717</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
+      <xdr:colOff>516729</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>26193</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2699,7 +3773,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{61558924-6BAF-41CB-A458-0F8F58CE51F4}" name="Table2" displayName="Table2" ref="A1:F168" totalsRowShown="0">
   <autoFilter ref="A1:F168" xr:uid="{61558924-6BAF-41CB-A458-0F8F58CE51F4}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A1C8C315-1AF4-46A9-829B-F6F66670A080}" name="Date" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{A1C8C315-1AF4-46A9-829B-F6F66670A080}" name="Date" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{5DD88343-1F7A-4E8C-82DC-76B842BC6326}" name="Project"/>
     <tableColumn id="3" xr3:uid="{67609590-421E-40D3-9386-469D330E5B1F}" name="Models"/>
     <tableColumn id="4" xr3:uid="{9FCCF59F-1639-4D57-AF65-D761F289622C}" name="Description"/>
@@ -2711,10 +3785,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FC8574FA-7BC0-4EFA-AA32-0A78DAD891B2}" name="Table3" displayName="Table3" ref="J1:J11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FC8574FA-7BC0-4EFA-AA32-0A78DAD891B2}" name="Table3" displayName="Table3" ref="J1:J11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="J1:J11" xr:uid="{FC8574FA-7BC0-4EFA-AA32-0A78DAD891B2}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{7B07971A-E433-4A37-8E69-8414A8DAFA6A}" name="Project List" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{7B07971A-E433-4A37-8E69-8414A8DAFA6A}" name="Project List" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2739,6 +3813,58 @@
     <tableColumn id="1" xr3:uid="{285C54AE-A2BC-44AD-A7FA-881113AFB25A}" name="Current Project"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B0E51E21-B64D-4E10-8563-34A940B352C4}" name="Table6" displayName="Table6" ref="H7:H13" totalsRowCount="1" totalsRowDxfId="15">
+  <autoFilter ref="H7:H12" xr:uid="{B0E51E21-B64D-4E10-8563-34A940B352C4}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{7B090651-2C60-4C03-90ED-88CCE0E1420F}" name="Most Used Paints" dataDxfId="14" totalsRowDxfId="3">
+      <calculatedColumnFormula array="1">IFERROR(INDEX(Paints!A:A, SMALL(IF(Paints!D:D=LARGE(Paints!D:D, 4), ROW(Paints!D:D), ""), 4)), INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 5), Paints!D:D, 0)))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B9A40675-99AD-4CB0-8477-A26935ECFD67}" name="Table7" displayName="Table7" ref="H18:H26" totalsRowShown="0" dataDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="H18:H26" xr:uid="{B9A40675-99AD-4CB0-8477-A26935ECFD67}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{F637755A-8A41-423F-B17E-C4FC9A5B79DF}" name="My Must-Have Paints" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F21A842-DBF6-43AE-B39A-A0811F55AAD9}" name="Table5" displayName="Table5" ref="A1:P226" totalsRowShown="0">
+  <autoFilter ref="A1:P226" xr:uid="{0F21A842-DBF6-43AE-B39A-A0811F55AAD9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P226">
+    <sortCondition ref="B1:B226"/>
+  </sortState>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{303018FD-1CFE-44C3-A9A5-27F54CDD884C}" name="Paint"/>
+    <tableColumn id="2" xr3:uid="{B32C3219-7783-470F-9B8D-4411542EEB03}" name="Brand"/>
+    <tableColumn id="18" xr3:uid="{C9C6C9E7-253D-434F-8152-39220E482730}" name="Series"/>
+    <tableColumn id="12" xr3:uid="{256C903D-A120-4BDA-9E7D-8DC83C23941F}" name="Total Used" dataDxfId="16">
+      <calculatedColumnFormula>SUM(E2,G2,I2,K2,M2,O2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{8445F356-6FD4-456C-B5A7-CF9631604BDD}" name="Ulthwé"/>
+    <tableColumn id="13" xr3:uid="{E91CFFBF-76EE-4C50-A5B8-ACD794E38F97}" name="Details U"/>
+    <tableColumn id="4" xr3:uid="{BF77BD1A-54E4-4677-871A-75FF9DCC9B98}" name="Ynnari"/>
+    <tableColumn id="11" xr3:uid="{AB9B4EFF-A4C0-4FEF-BBD9-2529E90B8647}" name="Details Y"/>
+    <tableColumn id="5" xr3:uid="{9761498C-16E2-4818-8D55-CCA8A7F19140}" name="Harlequins"/>
+    <tableColumn id="14" xr3:uid="{F04B5AD8-0334-497E-AD14-4E197341B676}" name="Details H"/>
+    <tableColumn id="6" xr3:uid="{57589D22-FC3C-49AC-A5C3-21D013E9598A}" name="Sylvaneth"/>
+    <tableColumn id="10" xr3:uid="{F83F6DA4-D3E1-4096-9EF7-C2870DBD019E}" name="Details S"/>
+    <tableColumn id="7" xr3:uid="{9A391F49-CDE7-43C7-84AA-3F4DF8B76B1E}" name="Lumineth"/>
+    <tableColumn id="16" xr3:uid="{42A38991-9E6C-44D8-A82D-EA6C841676BF}" name="Details L"/>
+    <tableColumn id="17" xr3:uid="{B4B6888A-BA13-4462-AD6B-BF71A79B6C26}" name="High Elves"/>
+    <tableColumn id="8" xr3:uid="{2B542F58-A774-498E-9FA4-49CED880F8F5}" name="Details H2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3061,8 +4187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F725C0D8-4E5E-44F7-BED9-972635B5DB06}">
   <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3073,7 +4199,7 @@
     <col min="4" max="4" width="28.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
     <col min="10" max="10" width="15.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3247,6 +4373,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
+      <c r="H7" t="s">
+        <v>470</v>
+      </c>
       <c r="J7" t="s">
         <v>23</v>
       </c>
@@ -3270,6 +4399,10 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
+      <c r="H8" s="3" t="str">
+        <f>INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 1), Paints!D:D, 0))</f>
+        <v>Grimy Grey</v>
+      </c>
       <c r="J8" t="s">
         <v>26</v>
       </c>
@@ -3293,6 +4426,10 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
+      <c r="H9" s="3" t="str" cm="1">
+        <f t="array" ref="H9">IFERROR(INDEX(Paints!A:A, SMALL(IF(Paints!D:D=LARGE(Paints!D:D, 2), ROW(Paints!D:D), ""), 2)), INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 3), Paints!D:D, 0)))</f>
+        <v>Afro Shadow</v>
+      </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
@@ -3316,6 +4453,10 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
+      <c r="H10" s="3" t="str" cm="1">
+        <f t="array" ref="H10">IFERROR(INDEX(Paints!A:A, SMALL(IF(Paints!D:D=LARGE(Paints!D:D, 3), ROW(Paints!D:D), ""), 3)), INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 4), Paints!D:D, 0)))</f>
+        <v>Dragon Blood</v>
+      </c>
       <c r="J10" t="s">
         <v>30</v>
       </c>
@@ -3339,6 +4480,10 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
+      <c r="H11" s="3" t="str" cm="1">
+        <f t="array" ref="H11">IFERROR(INDEX(Paints!A:A, SMALL(IF(Paints!D:D=LARGE(Paints!D:D, 4), ROW(Paints!D:D), ""), 4)), INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 5), Paints!D:D, 0)))</f>
+        <v>Wine Red</v>
+      </c>
       <c r="J11" t="s">
         <v>32</v>
       </c>
@@ -3362,6 +4507,10 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
+      <c r="H12" s="3" t="str" cm="1">
+        <f t="array" ref="H12">IFERROR(INDEX(Paints!A:A, SMALL(IF(Paints!D:D=LARGE(Paints!D:D, 5), ROW(Paints!D:D), ""), 5)), INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 6), Paints!D:D, 0)))</f>
+        <v>Red Grey</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
@@ -3382,6 +4531,7 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
@@ -3443,7 +4593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>43617</v>
       </c>
@@ -3463,7 +4613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>43617</v>
       </c>
@@ -3482,8 +4632,11 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H18" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>43617</v>
       </c>
@@ -3502,8 +4655,11 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H19" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>43647</v>
       </c>
@@ -3522,8 +4678,11 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H20" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>43647</v>
       </c>
@@ -3542,8 +4701,11 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H21" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>43678</v>
       </c>
@@ -3562,8 +4724,11 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H22" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>43678</v>
       </c>
@@ -3582,8 +4747,11 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H23" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>43678</v>
       </c>
@@ -3602,8 +4770,11 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H24" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>43678</v>
       </c>
@@ -3622,8 +4793,11 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H25" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>43709</v>
       </c>
@@ -3642,8 +4816,11 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H26" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>43709</v>
       </c>
@@ -3663,7 +4840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>43709</v>
       </c>
@@ -3683,7 +4860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>43739</v>
       </c>
@@ -3703,7 +4880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>43739</v>
       </c>
@@ -3723,7 +4900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>43739</v>
       </c>
@@ -3743,7 +4920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>43739</v>
       </c>
@@ -6216,34 +7393,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J11 B2:B1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"Sylvaneth Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"Tunguska Warband"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"35mm Models"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"High Elves Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"Lumineth Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"Harlequins Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"Ulthwé Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>"Slaves Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
       <formula>"Khorne Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
       <formula>"Practice"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6255,11 +7432,4297 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="4">
+  <tableParts count="6">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD12CC97-8595-4312-A700-76C39152E1F0}">
+  <dimension ref="A1:P226"/>
+  <sheetViews>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2">
+        <f>SUM(E2,G2,I2,K2,M2,O2)</f>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>455</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>455</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3">
+        <f>SUM(E3,G3,I3,K3,M3,O3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>464</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>464</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>464</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>464</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>464</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4">
+        <f>SUM(E4,G4,I4,K4,M4,O4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>464</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>464</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>464</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>464</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5">
+        <f>SUM(E5,G5,I5,K5,M5,O5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>464</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>464</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>464</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>464</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>464</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6">
+        <f>SUM(E6,G6,I6,K6,M6,O6)</f>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>456</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>454</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7">
+        <f>SUM(E7,G7,I7,K7,M7,O7)</f>
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8">
+        <f>SUM(E8,G8,I8,K8,M8,O8)</f>
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>451</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>451</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9">
+        <f>SUM(E9,G9,I9,K9,M9,O9)</f>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>449</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10">
+        <f>SUM(E10,G10,I10,K10,M10,O10)</f>
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>420</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11">
+        <f>SUM(E11,G11,I11,K11,M11,O11)</f>
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>454</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12">
+        <f>SUM(E12,G12,I12,K12,M12,O12)</f>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13">
+        <f>SUM(E13,G13,I13,K13,M13,O13)</f>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D14">
+        <f>SUM(E14,G14,I14,K14,M14,O14)</f>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15">
+        <f>SUM(E15,G15,I15,K15,M15,O15)</f>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16">
+        <f>SUM(E16,G16,I16,K16,M16,O16)</f>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17">
+        <f>SUM(E17,G17,I17,K17,M17,O17)</f>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18">
+        <f>SUM(E18,G18,I18,K18,M18,O18)</f>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19">
+        <f>SUM(E19,G19,I19,K19,M19,O19)</f>
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D20">
+        <f>SUM(E20,G20,I20,K20,M20,O20)</f>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" t="s">
+        <v>297</v>
+      </c>
+      <c r="D21">
+        <f>SUM(E21,G21,I21,K21,M21,O21)</f>
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B22" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" t="s">
+        <v>297</v>
+      </c>
+      <c r="D22">
+        <f>SUM(E22,G22,I22,K22,M22,O22)</f>
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" t="s">
+        <v>297</v>
+      </c>
+      <c r="D23">
+        <f>SUM(E23,G23,I23,K23,M23,O23)</f>
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B24" t="s">
+        <v>295</v>
+      </c>
+      <c r="C24" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24">
+        <f>SUM(E24,G24,I24,K24,M24,O24)</f>
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" t="s">
+        <v>295</v>
+      </c>
+      <c r="C25" t="s">
+        <v>297</v>
+      </c>
+      <c r="D25">
+        <f>SUM(E25,G25,I25,K25,M25,O25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" t="s">
+        <v>297</v>
+      </c>
+      <c r="D26">
+        <f>SUM(E26,G26,I26,K26,M26,O26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27" t="s">
+        <v>295</v>
+      </c>
+      <c r="C27" t="s">
+        <v>297</v>
+      </c>
+      <c r="D27">
+        <f>SUM(E27,G27,I27,K27,M27,O27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" t="s">
+        <v>297</v>
+      </c>
+      <c r="D28">
+        <f>SUM(E28,G28,I28,K28,M28,O28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29">
+        <f>SUM(E29,G29,I29,K29,M29,O29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B30" t="s">
+        <v>295</v>
+      </c>
+      <c r="C30" t="s">
+        <v>297</v>
+      </c>
+      <c r="D30">
+        <f>SUM(E30,G30,I30,K30,M30,O30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B31" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" t="s">
+        <v>297</v>
+      </c>
+      <c r="D31">
+        <f>SUM(E31,G31,I31,K31,M31,O31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D32">
+        <f>SUM(E32,G32,I32,K32,M32,O32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33" t="s">
+        <v>295</v>
+      </c>
+      <c r="C33" t="s">
+        <v>297</v>
+      </c>
+      <c r="D33">
+        <f>SUM(E33,G33,I33,K33,M33,O33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B34" t="s">
+        <v>407</v>
+      </c>
+      <c r="C34" t="s">
+        <v>408</v>
+      </c>
+      <c r="D34">
+        <f>SUM(E34,G34,I34,K34,M34,O34)</f>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>464</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>464</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>464</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>464</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>464</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B35" t="s">
+        <v>275</v>
+      </c>
+      <c r="C35" t="s">
+        <v>276</v>
+      </c>
+      <c r="D35">
+        <f>SUM(E35,G35,I35,K35,M35,O35)</f>
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>455</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B36" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" t="s">
+        <v>276</v>
+      </c>
+      <c r="D36">
+        <f>SUM(E36,G36,I36,K36,M36,O36)</f>
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>457</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" t="s">
+        <v>275</v>
+      </c>
+      <c r="C37" t="s">
+        <v>332</v>
+      </c>
+      <c r="D37">
+        <f>SUM(E37,G37,I37,K37,M37,O37)</f>
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B38" t="s">
+        <v>275</v>
+      </c>
+      <c r="C38" t="s">
+        <v>332</v>
+      </c>
+      <c r="D38">
+        <f>SUM(E38,G38,I38,K38,M38,O38)</f>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B39" t="s">
+        <v>275</v>
+      </c>
+      <c r="C39" t="s">
+        <v>332</v>
+      </c>
+      <c r="D39">
+        <f>SUM(E39,G39,I39,K39,M39,O39)</f>
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C40" t="s">
+        <v>332</v>
+      </c>
+      <c r="D40">
+        <f>SUM(E40,G40,I40,K40,M40,O40)</f>
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B41" t="s">
+        <v>275</v>
+      </c>
+      <c r="C41" t="s">
+        <v>332</v>
+      </c>
+      <c r="D41">
+        <f>SUM(E41,G41,I41,K41,M41,O41)</f>
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B42" t="s">
+        <v>275</v>
+      </c>
+      <c r="C42" t="s">
+        <v>332</v>
+      </c>
+      <c r="D42">
+        <f>SUM(E42,G42,I42,K42,M42,O42)</f>
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B43" t="s">
+        <v>275</v>
+      </c>
+      <c r="C43" t="s">
+        <v>332</v>
+      </c>
+      <c r="D43">
+        <f>SUM(E43,G43,I43,K43,M43,O43)</f>
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B44" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44" t="s">
+        <v>332</v>
+      </c>
+      <c r="D44">
+        <f>SUM(E44,G44,I44,K44,M44,O44)</f>
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B45" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45" t="s">
+        <v>276</v>
+      </c>
+      <c r="D45">
+        <f>SUM(E45,G45,I45,K45,M45,O45)</f>
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B46" t="s">
+        <v>275</v>
+      </c>
+      <c r="C46" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46">
+        <f>SUM(E46,G46,I46,K46,M46,O46)</f>
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B47" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47" t="s">
+        <v>276</v>
+      </c>
+      <c r="D47">
+        <f>SUM(E47,G47,I47,K47,M47,O47)</f>
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A48" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B48" t="s">
+        <v>275</v>
+      </c>
+      <c r="C48" t="s">
+        <v>276</v>
+      </c>
+      <c r="D48">
+        <f>SUM(E48,G48,I48,K48,M48,O48)</f>
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A49" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B49" t="s">
+        <v>275</v>
+      </c>
+      <c r="C49" t="s">
+        <v>276</v>
+      </c>
+      <c r="D49">
+        <f>SUM(E49,G49,I49,K49,M49,O49)</f>
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B50" t="s">
+        <v>275</v>
+      </c>
+      <c r="C50" t="s">
+        <v>336</v>
+      </c>
+      <c r="D50">
+        <f>SUM(E50,G50,I50,K50,M50,O50)</f>
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A51" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B51" t="s">
+        <v>275</v>
+      </c>
+      <c r="C51" t="s">
+        <v>336</v>
+      </c>
+      <c r="D51">
+        <f>SUM(E51,G51,I51,K51,M51,O51)</f>
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A52" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B52" t="s">
+        <v>275</v>
+      </c>
+      <c r="C52" t="s">
+        <v>336</v>
+      </c>
+      <c r="D52">
+        <f>SUM(E52,G52,I52,K52,M52,O52)</f>
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A53" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B53" t="s">
+        <v>275</v>
+      </c>
+      <c r="C53" t="s">
+        <v>332</v>
+      </c>
+      <c r="D53">
+        <f>SUM(E53,G53,I53,K53,M53,O53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A54" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B54" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" t="s">
+        <v>332</v>
+      </c>
+      <c r="D54">
+        <f>SUM(E54,G54,I54,K54,M54,O54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A55" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B55" t="s">
+        <v>275</v>
+      </c>
+      <c r="C55" t="s">
+        <v>332</v>
+      </c>
+      <c r="D55">
+        <f>SUM(E55,G55,I55,K55,M55,O55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A56" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B56" t="s">
+        <v>275</v>
+      </c>
+      <c r="C56" t="s">
+        <v>332</v>
+      </c>
+      <c r="D56">
+        <f>SUM(E56,G56,I56,K56,M56,O56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A57" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B57" t="s">
+        <v>275</v>
+      </c>
+      <c r="C57" t="s">
+        <v>332</v>
+      </c>
+      <c r="D57">
+        <f>SUM(E57,G57,I57,K57,M57,O57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A58" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B58" t="s">
+        <v>275</v>
+      </c>
+      <c r="C58" t="s">
+        <v>332</v>
+      </c>
+      <c r="D58">
+        <f>SUM(E58,G58,I58,K58,M58,O58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B59" t="s">
+        <v>275</v>
+      </c>
+      <c r="C59" t="s">
+        <v>332</v>
+      </c>
+      <c r="D59">
+        <f>SUM(E59,G59,I59,K59,M59,O59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A60" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B60" t="s">
+        <v>275</v>
+      </c>
+      <c r="C60" t="s">
+        <v>332</v>
+      </c>
+      <c r="D60">
+        <f>SUM(E60,G60,I60,K60,M60,O60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A61" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B61" t="s">
+        <v>275</v>
+      </c>
+      <c r="C61" t="s">
+        <v>332</v>
+      </c>
+      <c r="D61">
+        <f>SUM(E61,G61,I61,K61,M61,O61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A62" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B62" t="s">
+        <v>275</v>
+      </c>
+      <c r="C62" t="s">
+        <v>332</v>
+      </c>
+      <c r="D62">
+        <f>SUM(E62,G62,I62,K62,M62,O62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A63" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B63" t="s">
+        <v>275</v>
+      </c>
+      <c r="C63" t="s">
+        <v>332</v>
+      </c>
+      <c r="D63">
+        <f>SUM(E63,G63,I63,K63,M63,O63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A64" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B64" t="s">
+        <v>275</v>
+      </c>
+      <c r="C64" t="s">
+        <v>332</v>
+      </c>
+      <c r="D64">
+        <f>SUM(E64,G64,I64,K64,M64,O64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B65" t="s">
+        <v>275</v>
+      </c>
+      <c r="C65" t="s">
+        <v>332</v>
+      </c>
+      <c r="D65">
+        <f>SUM(E65,G65,I65,K65,M65,O65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B66" t="s">
+        <v>275</v>
+      </c>
+      <c r="C66" t="s">
+        <v>332</v>
+      </c>
+      <c r="D66">
+        <f>SUM(E66,G66,I66,K66,M66,O66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B67" t="s">
+        <v>275</v>
+      </c>
+      <c r="C67" t="s">
+        <v>332</v>
+      </c>
+      <c r="D67">
+        <f>SUM(E67,G67,I67,K67,M67,O67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B68" t="s">
+        <v>275</v>
+      </c>
+      <c r="C68" t="s">
+        <v>332</v>
+      </c>
+      <c r="D68">
+        <f>SUM(E68,G68,I68,K68,M68,O68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B69" t="s">
+        <v>275</v>
+      </c>
+      <c r="C69" t="s">
+        <v>332</v>
+      </c>
+      <c r="D69">
+        <f>SUM(E69,G69,I69,K69,M69,O69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B70" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" t="s">
+        <v>332</v>
+      </c>
+      <c r="D70">
+        <f>SUM(E70,G70,I70,K70,M70,O70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B71" t="s">
+        <v>275</v>
+      </c>
+      <c r="C71" t="s">
+        <v>276</v>
+      </c>
+      <c r="D71">
+        <f>SUM(E71,G71,I71,K71,M71,O71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B72" t="s">
+        <v>275</v>
+      </c>
+      <c r="C72" t="s">
+        <v>276</v>
+      </c>
+      <c r="D72">
+        <f>SUM(E72,G72,I72,K72,M72,O72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B73" t="s">
+        <v>275</v>
+      </c>
+      <c r="C73" t="s">
+        <v>276</v>
+      </c>
+      <c r="D73">
+        <f>SUM(E73,G73,I73,K73,M73,O73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B74" t="s">
+        <v>275</v>
+      </c>
+      <c r="C74" t="s">
+        <v>276</v>
+      </c>
+      <c r="D74">
+        <f>SUM(E74,G74,I74,K74,M74,O74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B75" t="s">
+        <v>275</v>
+      </c>
+      <c r="C75" t="s">
+        <v>276</v>
+      </c>
+      <c r="D75">
+        <f>SUM(E75,G75,I75,K75,M75,O75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B76" t="s">
+        <v>275</v>
+      </c>
+      <c r="C76" t="s">
+        <v>276</v>
+      </c>
+      <c r="D76">
+        <f>SUM(E76,G76,I76,K76,M76,O76)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B77" t="s">
+        <v>275</v>
+      </c>
+      <c r="C77" t="s">
+        <v>276</v>
+      </c>
+      <c r="D77">
+        <f>SUM(E77,G77,I77,K77,M77,O77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B78" t="s">
+        <v>275</v>
+      </c>
+      <c r="C78" t="s">
+        <v>276</v>
+      </c>
+      <c r="D78">
+        <f>SUM(E78,G78,I78,K78,M78,O78)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B79" t="s">
+        <v>275</v>
+      </c>
+      <c r="C79" t="s">
+        <v>336</v>
+      </c>
+      <c r="D79">
+        <f>SUM(E79,G79,I79,K79,M79,O79)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B80" t="s">
+        <v>275</v>
+      </c>
+      <c r="C80" t="s">
+        <v>336</v>
+      </c>
+      <c r="D80">
+        <f>SUM(E80,G80,I80,K80,M80,O80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B81" t="s">
+        <v>275</v>
+      </c>
+      <c r="C81" t="s">
+        <v>336</v>
+      </c>
+      <c r="D81">
+        <f>SUM(E81,G81,I81,K81,M81,O81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B82" t="s">
+        <v>275</v>
+      </c>
+      <c r="C82" t="s">
+        <v>336</v>
+      </c>
+      <c r="D82">
+        <f>SUM(E82,G82,I82,K82,M82,O82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B83" t="s">
+        <v>275</v>
+      </c>
+      <c r="C83" t="s">
+        <v>336</v>
+      </c>
+      <c r="D83">
+        <f>SUM(E83,G83,I83,K83,M83,O83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B84" t="s">
+        <v>275</v>
+      </c>
+      <c r="C84" t="s">
+        <v>336</v>
+      </c>
+      <c r="D84">
+        <f>SUM(E84,G84,I84,K84,M84,O84)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B85" t="s">
+        <v>275</v>
+      </c>
+      <c r="C85" t="s">
+        <v>336</v>
+      </c>
+      <c r="D85">
+        <f>SUM(E85,G85,I85,K85,M85,O85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B86" t="s">
+        <v>275</v>
+      </c>
+      <c r="C86" t="s">
+        <v>336</v>
+      </c>
+      <c r="D86">
+        <f>SUM(E86,G86,I86,K86,M86,O86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B87" t="s">
+        <v>275</v>
+      </c>
+      <c r="C87" t="s">
+        <v>336</v>
+      </c>
+      <c r="D87">
+        <f>SUM(E87,G87,I87,K87,M87,O87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B88" t="s">
+        <v>275</v>
+      </c>
+      <c r="C88" t="s">
+        <v>336</v>
+      </c>
+      <c r="D88">
+        <f>SUM(E88,G88,I88,K88,M88,O88)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B89" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" t="s">
+        <v>336</v>
+      </c>
+      <c r="D89">
+        <f>SUM(E89,G89,I89,K89,M89,O89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B90" t="s">
+        <v>275</v>
+      </c>
+      <c r="C90" t="s">
+        <v>336</v>
+      </c>
+      <c r="D90">
+        <f>SUM(E90,G90,I90,K90,M90,O90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B91" t="s">
+        <v>275</v>
+      </c>
+      <c r="C91" t="s">
+        <v>336</v>
+      </c>
+      <c r="D91">
+        <f>SUM(E91,G91,I91,K91,M91,O91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B92" t="s">
+        <v>275</v>
+      </c>
+      <c r="C92" t="s">
+        <v>336</v>
+      </c>
+      <c r="D92">
+        <f>SUM(E92,G92,I92,K92,M92,O92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B93" t="s">
+        <v>275</v>
+      </c>
+      <c r="C93" t="s">
+        <v>336</v>
+      </c>
+      <c r="D93">
+        <f>SUM(E93,G93,I93,K93,M93,O93)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B94" t="s">
+        <v>275</v>
+      </c>
+      <c r="C94" t="s">
+        <v>336</v>
+      </c>
+      <c r="D94">
+        <f>SUM(E94,G94,I94,K94,M94,O94)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B95" t="s">
+        <v>275</v>
+      </c>
+      <c r="C95" t="s">
+        <v>336</v>
+      </c>
+      <c r="D95">
+        <f>SUM(E95,G95,I95,K95,M95,O95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B96" t="s">
+        <v>275</v>
+      </c>
+      <c r="C96" t="s">
+        <v>336</v>
+      </c>
+      <c r="D96">
+        <f>SUM(E96,G96,I96,K96,M96,O96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A97" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B97" t="s">
+        <v>275</v>
+      </c>
+      <c r="C97" t="s">
+        <v>336</v>
+      </c>
+      <c r="D97">
+        <f>SUM(E97,G97,I97,K97,M97,O97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A98" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B98" t="s">
+        <v>275</v>
+      </c>
+      <c r="C98" t="s">
+        <v>336</v>
+      </c>
+      <c r="D98">
+        <f>SUM(E98,G98,I98,K98,M98,O98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A99" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B99" t="s">
+        <v>275</v>
+      </c>
+      <c r="C99" t="s">
+        <v>336</v>
+      </c>
+      <c r="D99">
+        <f>SUM(E99,G99,I99,K99,M99,O99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A100" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B100" t="s">
+        <v>275</v>
+      </c>
+      <c r="C100" t="s">
+        <v>336</v>
+      </c>
+      <c r="D100">
+        <f>SUM(E100,G100,I100,K100,M100,O100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A101" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B101" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" t="s">
+        <v>330</v>
+      </c>
+      <c r="D101">
+        <f>SUM(E101,G101,I101,K101,M101,O101)</f>
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A102" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" t="s">
+        <v>330</v>
+      </c>
+      <c r="D102">
+        <f>SUM(E102,G102,I102,K102,M102,O102)</f>
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A103" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B103" t="s">
+        <v>180</v>
+      </c>
+      <c r="C103" t="s">
+        <v>330</v>
+      </c>
+      <c r="D103">
+        <f>SUM(E103,G103,I103,K103,M103,O103)</f>
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A104" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104" t="s">
+        <v>239</v>
+      </c>
+      <c r="D104">
+        <f>SUM(E104,G104,I104,K104,M104,O104)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A105" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" t="s">
+        <v>180</v>
+      </c>
+      <c r="C105" t="s">
+        <v>239</v>
+      </c>
+      <c r="D105">
+        <f>SUM(E105,G105,I105,K105,M105,O105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A106" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" t="s">
+        <v>239</v>
+      </c>
+      <c r="D106">
+        <f>SUM(E106,G106,I106,K106,M106,O106)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A107" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" t="s">
+        <v>180</v>
+      </c>
+      <c r="C107" t="s">
+        <v>239</v>
+      </c>
+      <c r="D107">
+        <f>SUM(E107,G107,I107,K107,M107,O107)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A108" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" t="s">
+        <v>180</v>
+      </c>
+      <c r="C108" t="s">
+        <v>239</v>
+      </c>
+      <c r="D108">
+        <f>SUM(E108,G108,I108,K108,M108,O108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A109" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B109" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109" t="s">
+        <v>239</v>
+      </c>
+      <c r="D109">
+        <f>SUM(E109,G109,I109,K109,M109,O109)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A110" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B110" t="s">
+        <v>180</v>
+      </c>
+      <c r="C110" t="s">
+        <v>330</v>
+      </c>
+      <c r="D110">
+        <f>SUM(E110,G110,I110,K110,M110,O110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A111" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B111" t="s">
+        <v>180</v>
+      </c>
+      <c r="C111" t="s">
+        <v>330</v>
+      </c>
+      <c r="D111">
+        <f>SUM(E111,G111,I111,K111,M111,O111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A112" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B112" t="s">
+        <v>180</v>
+      </c>
+      <c r="C112" t="s">
+        <v>330</v>
+      </c>
+      <c r="D112">
+        <f>SUM(E112,G112,I112,K112,M112,O112)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A113" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B113" t="s">
+        <v>180</v>
+      </c>
+      <c r="C113" t="s">
+        <v>330</v>
+      </c>
+      <c r="D113">
+        <f>SUM(E113,G113,I113,K113,M113,O113)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A114" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B114" t="s">
+        <v>180</v>
+      </c>
+      <c r="C114" t="s">
+        <v>330</v>
+      </c>
+      <c r="D114">
+        <f>SUM(E114,G114,I114,K114,M114,O114)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A115" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B115" t="s">
+        <v>180</v>
+      </c>
+      <c r="C115" t="s">
+        <v>330</v>
+      </c>
+      <c r="D115">
+        <f>SUM(E115,G115,I115,K115,M115,O115)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A116" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B116" t="s">
+        <v>180</v>
+      </c>
+      <c r="C116" t="s">
+        <v>330</v>
+      </c>
+      <c r="D116">
+        <f>SUM(E116,G116,I116,K116,M116,O116)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A117" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B117" t="s">
+        <v>180</v>
+      </c>
+      <c r="C117" t="s">
+        <v>330</v>
+      </c>
+      <c r="D117">
+        <f>SUM(E117,G117,I117,K117,M117,O117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A118" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B118" t="s">
+        <v>180</v>
+      </c>
+      <c r="C118" t="s">
+        <v>330</v>
+      </c>
+      <c r="D118">
+        <f>SUM(E118,G118,I118,K118,M118,O118)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A119" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B119" t="s">
+        <v>180</v>
+      </c>
+      <c r="C119" t="s">
+        <v>330</v>
+      </c>
+      <c r="D119">
+        <f>SUM(E119,G119,I119,K119,M119,O119)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A120" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B120" t="s">
+        <v>180</v>
+      </c>
+      <c r="C120" t="s">
+        <v>330</v>
+      </c>
+      <c r="D120">
+        <f>SUM(E120,G120,I120,K120,M120,O120)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A121" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B121" t="s">
+        <v>180</v>
+      </c>
+      <c r="C121" t="s">
+        <v>238</v>
+      </c>
+      <c r="D121">
+        <f>SUM(E121,G121,I121,K121,M121,O121)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A122" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B122" t="s">
+        <v>180</v>
+      </c>
+      <c r="C122" t="s">
+        <v>238</v>
+      </c>
+      <c r="D122">
+        <f>SUM(E122,G122,I122,K122,M122,O122)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A123" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B123" t="s">
+        <v>180</v>
+      </c>
+      <c r="C123" t="s">
+        <v>238</v>
+      </c>
+      <c r="D123">
+        <f>SUM(E123,G123,I123,K123,M123,O123)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A124" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B124" t="s">
+        <v>180</v>
+      </c>
+      <c r="C124" t="s">
+        <v>238</v>
+      </c>
+      <c r="D124">
+        <f>SUM(E124,G124,I124,K124,M124,O124)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A125" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B125" t="s">
+        <v>180</v>
+      </c>
+      <c r="C125" t="s">
+        <v>238</v>
+      </c>
+      <c r="D125">
+        <f>SUM(E125,G125,I125,K125,M125,O125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A126" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B126" t="s">
+        <v>180</v>
+      </c>
+      <c r="C126" t="s">
+        <v>238</v>
+      </c>
+      <c r="D126">
+        <f>SUM(E126,G126,I126,K126,M126,O126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A127" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B127" t="s">
+        <v>180</v>
+      </c>
+      <c r="C127" t="s">
+        <v>458</v>
+      </c>
+      <c r="D127">
+        <f>SUM(E127,G127,I127,K127,M127,O127)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A128" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B128" t="s">
+        <v>180</v>
+      </c>
+      <c r="C128" t="s">
+        <v>458</v>
+      </c>
+      <c r="D128">
+        <f>SUM(E128,G128,I128,K128,M128,O128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A129" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B129" t="s">
+        <v>180</v>
+      </c>
+      <c r="C129" t="s">
+        <v>458</v>
+      </c>
+      <c r="D129">
+        <f>SUM(E129,G129,I129,K129,M129,O129)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A130" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B130" t="s">
+        <v>180</v>
+      </c>
+      <c r="C130" t="s">
+        <v>458</v>
+      </c>
+      <c r="D130">
+        <f>SUM(E130,G130,I130,K130,M130,O130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A131" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B131" t="s">
+        <v>180</v>
+      </c>
+      <c r="C131" t="s">
+        <v>458</v>
+      </c>
+      <c r="D131">
+        <f>SUM(E131,G131,I131,K131,M131,O131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A132" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B132" t="s">
+        <v>180</v>
+      </c>
+      <c r="C132" t="s">
+        <v>458</v>
+      </c>
+      <c r="D132">
+        <f>SUM(E132,G132,I132,K132,M132,O132)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A133" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B133" t="s">
+        <v>180</v>
+      </c>
+      <c r="C133" t="s">
+        <v>458</v>
+      </c>
+      <c r="D133">
+        <f>SUM(E133,G133,I133,K133,M133,O133)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A134" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B134" t="s">
+        <v>180</v>
+      </c>
+      <c r="C134" t="s">
+        <v>458</v>
+      </c>
+      <c r="D134">
+        <f>SUM(E134,G134,I134,K134,M134,O134)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A135" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B135" t="s">
+        <v>180</v>
+      </c>
+      <c r="C135" t="s">
+        <v>458</v>
+      </c>
+      <c r="D135">
+        <f>SUM(E135,G135,I135,K135,M135,O135)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A136" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B136" t="s">
+        <v>180</v>
+      </c>
+      <c r="C136" t="s">
+        <v>458</v>
+      </c>
+      <c r="D136">
+        <f>SUM(E136,G136,I136,K136,M136,O136)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A137" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B137" t="s">
+        <v>180</v>
+      </c>
+      <c r="C137" t="s">
+        <v>458</v>
+      </c>
+      <c r="D137">
+        <f>SUM(E137,G137,I137,K137,M137,O137)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A138" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B138" t="s">
+        <v>180</v>
+      </c>
+      <c r="C138" t="s">
+        <v>458</v>
+      </c>
+      <c r="D138">
+        <f>SUM(E138,G138,I138,K138,M138,O138)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A139" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C139" t="s">
+        <v>458</v>
+      </c>
+      <c r="D139">
+        <f>SUM(E139,G139,I139,K139,M139,O139)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A140" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B140" t="s">
+        <v>234</v>
+      </c>
+      <c r="C140" t="s">
+        <v>244</v>
+      </c>
+      <c r="D140">
+        <f>SUM(E140,G140,I140,K140,M140,O140)</f>
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A141" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B141" t="s">
+        <v>234</v>
+      </c>
+      <c r="C141" t="s">
+        <v>244</v>
+      </c>
+      <c r="D141">
+        <f>SUM(E141,G141,I141,K141,M141,O141)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A142" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B142" t="s">
+        <v>234</v>
+      </c>
+      <c r="C142" t="s">
+        <v>244</v>
+      </c>
+      <c r="D142">
+        <f>SUM(E142,G142,I142,K142,M142,O142)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A143" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B143" t="s">
+        <v>234</v>
+      </c>
+      <c r="C143" t="s">
+        <v>244</v>
+      </c>
+      <c r="D143">
+        <f>SUM(E143,G143,I143,K143,M143,O143)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A144" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B144" t="s">
+        <v>234</v>
+      </c>
+      <c r="C144" t="s">
+        <v>244</v>
+      </c>
+      <c r="D144">
+        <f>SUM(E144,G144,I144,K144,M144,O144)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A145" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B145" t="s">
+        <v>234</v>
+      </c>
+      <c r="C145" t="s">
+        <v>244</v>
+      </c>
+      <c r="D145">
+        <f>SUM(E145,G145,I145,K145,M145,O145)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A146" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B146" t="s">
+        <v>234</v>
+      </c>
+      <c r="C146" t="s">
+        <v>246</v>
+      </c>
+      <c r="D146">
+        <f>SUM(E146,G146,I146,K146,M146,O146)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A147" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B147" t="s">
+        <v>234</v>
+      </c>
+      <c r="C147" t="s">
+        <v>244</v>
+      </c>
+      <c r="D147">
+        <f>SUM(E147,G147,I147,K147,M147,O147)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A148" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B148" t="s">
+        <v>234</v>
+      </c>
+      <c r="C148" t="s">
+        <v>244</v>
+      </c>
+      <c r="D148">
+        <f>SUM(E148,G148,I148,K148,M148,O148)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A149" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B149" t="s">
+        <v>234</v>
+      </c>
+      <c r="C149" t="s">
+        <v>244</v>
+      </c>
+      <c r="D149">
+        <f>SUM(E149,G149,I149,K149,M149,O149)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A150" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B150" t="s">
+        <v>234</v>
+      </c>
+      <c r="C150" t="s">
+        <v>244</v>
+      </c>
+      <c r="D150">
+        <f>SUM(E150,G150,I150,K150,M150,O150)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A151" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B151" t="s">
+        <v>234</v>
+      </c>
+      <c r="C151" t="s">
+        <v>244</v>
+      </c>
+      <c r="D151">
+        <f>SUM(E151,G151,I151,K151,M151,O151)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A152" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B152" t="s">
+        <v>254</v>
+      </c>
+      <c r="C152" t="s">
+        <v>244</v>
+      </c>
+      <c r="D152">
+        <f>SUM(E152,G152,I152,K152,M152,O152)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A153" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B153" t="s">
+        <v>254</v>
+      </c>
+      <c r="C153" t="s">
+        <v>244</v>
+      </c>
+      <c r="D153">
+        <f>SUM(E153,G153,I153,K153,M153,O153)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A154" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B154" t="s">
+        <v>254</v>
+      </c>
+      <c r="C154" t="s">
+        <v>244</v>
+      </c>
+      <c r="D154">
+        <f>SUM(E154,G154,I154,K154,M154,O154)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A155" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B155" t="s">
+        <v>254</v>
+      </c>
+      <c r="C155" t="s">
+        <v>244</v>
+      </c>
+      <c r="D155">
+        <f>SUM(E155,G155,I155,K155,M155,O155)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A156" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B156" t="s">
+        <v>254</v>
+      </c>
+      <c r="C156" t="s">
+        <v>244</v>
+      </c>
+      <c r="D156">
+        <f>SUM(E156,G156,I156,K156,M156,O156)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A157" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B157" t="s">
+        <v>254</v>
+      </c>
+      <c r="C157" t="s">
+        <v>244</v>
+      </c>
+      <c r="D157">
+        <f>SUM(E157,G157,I157,K157,M157,O157)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A158" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B158" t="s">
+        <v>254</v>
+      </c>
+      <c r="C158" t="s">
+        <v>244</v>
+      </c>
+      <c r="D158">
+        <f>SUM(E158,G158,I158,K158,M158,O158)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A159" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B159" t="s">
+        <v>254</v>
+      </c>
+      <c r="C159" t="s">
+        <v>244</v>
+      </c>
+      <c r="D159">
+        <f>SUM(E159,G159,I159,K159,M159,O159)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A160" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B160" t="s">
+        <v>221</v>
+      </c>
+      <c r="C160" t="s">
+        <v>243</v>
+      </c>
+      <c r="D160">
+        <f>SUM(E160,G160,I160,K160,M160,O160)</f>
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160" t="s">
+        <v>464</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160" t="s">
+        <v>464</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160" t="s">
+        <v>464</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160" t="s">
+        <v>447</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160" t="s">
+        <v>464</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A161" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B161" t="s">
+        <v>221</v>
+      </c>
+      <c r="C161" t="s">
+        <v>243</v>
+      </c>
+      <c r="D161">
+        <f>SUM(E161,G161,I161,K161,M161,O161)</f>
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161" t="s">
+        <v>464</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161" t="s">
+        <v>464</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161" t="s">
+        <v>464</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161" t="s">
+        <v>447</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161" t="s">
+        <v>464</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A162" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B162" t="s">
+        <v>221</v>
+      </c>
+      <c r="C162" t="s">
+        <v>242</v>
+      </c>
+      <c r="D162">
+        <f>SUM(E162,G162,I162,K162,M162,O162)</f>
+        <v>3</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" t="s">
+        <v>449</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162" t="s">
+        <v>448</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A163" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B163" t="s">
+        <v>221</v>
+      </c>
+      <c r="C163" t="s">
+        <v>242</v>
+      </c>
+      <c r="D163">
+        <f>SUM(E163,G163,I163,K163,M163,O163)</f>
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A164" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B164" t="s">
+        <v>221</v>
+      </c>
+      <c r="C164" t="s">
+        <v>241</v>
+      </c>
+      <c r="D164">
+        <f>SUM(E164,G164,I164,K164,M164,O164)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A165" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B165" t="s">
+        <v>221</v>
+      </c>
+      <c r="C165" t="s">
+        <v>240</v>
+      </c>
+      <c r="D165">
+        <f>SUM(E165,G165,I165,K165,M165,O165)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A166" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B166" t="s">
+        <v>263</v>
+      </c>
+      <c r="C166" t="s">
+        <v>244</v>
+      </c>
+      <c r="D166">
+        <f>SUM(E166,G166,I166,K166,M166,O166)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A167" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B167" t="s">
+        <v>263</v>
+      </c>
+      <c r="C167" t="s">
+        <v>244</v>
+      </c>
+      <c r="D167">
+        <f>SUM(E167,G167,I167,K167,M167,O167)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A168" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B168" t="s">
+        <v>263</v>
+      </c>
+      <c r="C168" t="s">
+        <v>244</v>
+      </c>
+      <c r="D168">
+        <f>SUM(E168,G168,I168,K168,M168,O168)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A169" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B169" t="s">
+        <v>267</v>
+      </c>
+      <c r="C169" t="s">
+        <v>288</v>
+      </c>
+      <c r="D169">
+        <f>SUM(E169,G169,I169,K169,M169,O169)</f>
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A170" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B170" t="s">
+        <v>267</v>
+      </c>
+      <c r="C170" t="s">
+        <v>269</v>
+      </c>
+      <c r="D170">
+        <f>SUM(E170,G170,I170,K170,M170,O170)</f>
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A171" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B171" t="s">
+        <v>267</v>
+      </c>
+      <c r="C171" t="s">
+        <v>269</v>
+      </c>
+      <c r="D171">
+        <f>SUM(E171,G171,I171,K171,M171,O171)</f>
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171" t="s">
+        <v>454</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171" t="s">
+        <v>454</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171" t="s">
+        <v>454</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171" t="s">
+        <v>454</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171" t="s">
+        <v>454</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="P171" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A172" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B172" t="s">
+        <v>267</v>
+      </c>
+      <c r="C172" t="s">
+        <v>288</v>
+      </c>
+      <c r="D172">
+        <f>SUM(E172,G172,I172,K172,M172,O172)</f>
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172" t="s">
+        <v>462</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A173" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B173" t="s">
+        <v>267</v>
+      </c>
+      <c r="C173" t="s">
+        <v>288</v>
+      </c>
+      <c r="D173">
+        <f>SUM(E173,G173,I173,K173,M173,O173)</f>
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A174" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B174" t="s">
+        <v>267</v>
+      </c>
+      <c r="C174" t="s">
+        <v>292</v>
+      </c>
+      <c r="D174">
+        <f>SUM(E174,G174,I174,K174,M174,O174)</f>
+        <v>3</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174" t="s">
+        <v>449</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174" t="s">
+        <v>448</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A175" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B175" t="s">
+        <v>267</v>
+      </c>
+      <c r="C175" t="s">
+        <v>292</v>
+      </c>
+      <c r="D175">
+        <f>SUM(E175,G175,I175,K175,M175,O175)</f>
+        <v>2</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175" t="s">
+        <v>460</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A176" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B176" t="s">
+        <v>267</v>
+      </c>
+      <c r="C176" t="s">
+        <v>269</v>
+      </c>
+      <c r="D176">
+        <f>SUM(E176,G176,I176,K176,M176,O176)</f>
+        <v>2</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176" t="s">
+        <v>444</v>
+      </c>
+      <c r="O176">
+        <v>1</v>
+      </c>
+      <c r="P176" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A177" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B177" t="s">
+        <v>267</v>
+      </c>
+      <c r="C177" t="s">
+        <v>269</v>
+      </c>
+      <c r="D177">
+        <f>SUM(E177,G177,I177,K177,M177,O177)</f>
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177" t="s">
+        <v>433</v>
+      </c>
+      <c r="O177">
+        <v>1</v>
+      </c>
+      <c r="P177" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A178" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B178" t="s">
+        <v>267</v>
+      </c>
+      <c r="C178" t="s">
+        <v>292</v>
+      </c>
+      <c r="D178">
+        <f>SUM(E178,G178,I178,K178,M178,O178)</f>
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A179" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B179" t="s">
+        <v>267</v>
+      </c>
+      <c r="C179" t="s">
+        <v>312</v>
+      </c>
+      <c r="D179">
+        <f>SUM(E179,G179,I179,K179,M179,O179)</f>
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A180" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B180" t="s">
+        <v>267</v>
+      </c>
+      <c r="C180" t="s">
+        <v>312</v>
+      </c>
+      <c r="D180">
+        <f>SUM(E180,G180,I180,K180,M180,O180)</f>
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A181" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B181" t="s">
+        <v>267</v>
+      </c>
+      <c r="C181" t="s">
+        <v>312</v>
+      </c>
+      <c r="D181">
+        <f>SUM(E181,G181,I181,K181,M181,O181)</f>
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A182" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B182" t="s">
+        <v>267</v>
+      </c>
+      <c r="C182" t="s">
+        <v>312</v>
+      </c>
+      <c r="D182">
+        <f>SUM(E182,G182,I182,K182,M182,O182)</f>
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A183" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B183" t="s">
+        <v>267</v>
+      </c>
+      <c r="C183" t="s">
+        <v>312</v>
+      </c>
+      <c r="D183">
+        <f>SUM(E183,G183,I183,K183,M183,O183)</f>
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A184" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B184" t="s">
+        <v>267</v>
+      </c>
+      <c r="C184" t="s">
+        <v>312</v>
+      </c>
+      <c r="D184">
+        <f>SUM(E184,G184,I184,K184,M184,O184)</f>
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A185" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B185" t="s">
+        <v>267</v>
+      </c>
+      <c r="C185" t="s">
+        <v>312</v>
+      </c>
+      <c r="D185">
+        <f>SUM(E185,G185,I185,K185,M185,O185)</f>
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A186" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B186" t="s">
+        <v>267</v>
+      </c>
+      <c r="C186" t="s">
+        <v>312</v>
+      </c>
+      <c r="D186">
+        <f>SUM(E186,G186,I186,K186,M186,O186)</f>
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A187" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B187" t="s">
+        <v>267</v>
+      </c>
+      <c r="C187" t="s">
+        <v>312</v>
+      </c>
+      <c r="D187">
+        <f>SUM(E187,G187,I187,K187,M187,O187)</f>
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A188" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B188" t="s">
+        <v>267</v>
+      </c>
+      <c r="C188" t="s">
+        <v>312</v>
+      </c>
+      <c r="D188">
+        <f>SUM(E188,G188,I188,K188,M188,O188)</f>
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A189" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B189" t="s">
+        <v>267</v>
+      </c>
+      <c r="C189" t="s">
+        <v>312</v>
+      </c>
+      <c r="D189">
+        <f>SUM(E189,G189,I189,K189,M189,O189)</f>
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A190" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B190" t="s">
+        <v>267</v>
+      </c>
+      <c r="C190" t="s">
+        <v>312</v>
+      </c>
+      <c r="D190">
+        <f>SUM(E190,G190,I190,K190,M190,O190)</f>
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A191" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B191" t="s">
+        <v>267</v>
+      </c>
+      <c r="C191" t="s">
+        <v>312</v>
+      </c>
+      <c r="D191">
+        <f>SUM(E191,G191,I191,K191,M191,O191)</f>
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A192" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B192" t="s">
+        <v>267</v>
+      </c>
+      <c r="C192" t="s">
+        <v>312</v>
+      </c>
+      <c r="D192">
+        <f>SUM(E192,G192,I192,K192,M192,O192)</f>
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A193" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B193" t="s">
+        <v>267</v>
+      </c>
+      <c r="C193" t="s">
+        <v>312</v>
+      </c>
+      <c r="D193">
+        <f>SUM(E193,G193,I193,K193,M193,O193)</f>
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A194" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B194" t="s">
+        <v>267</v>
+      </c>
+      <c r="C194" t="s">
+        <v>269</v>
+      </c>
+      <c r="D194">
+        <f>SUM(E194,G194,I194,K194,M194,O194)</f>
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A195" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B195" t="s">
+        <v>267</v>
+      </c>
+      <c r="C195" t="s">
+        <v>269</v>
+      </c>
+      <c r="D195">
+        <f>SUM(E195,G195,I195,K195,M195,O195)</f>
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A196" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B196" t="s">
+        <v>267</v>
+      </c>
+      <c r="C196" t="s">
+        <v>269</v>
+      </c>
+      <c r="D196">
+        <f>SUM(E196,G196,I196,K196,M196,O196)</f>
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A197" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B197" t="s">
+        <v>267</v>
+      </c>
+      <c r="C197" t="s">
+        <v>269</v>
+      </c>
+      <c r="D197">
+        <f>SUM(E197,G197,I197,K197,M197,O197)</f>
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A198" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B198" t="s">
+        <v>267</v>
+      </c>
+      <c r="C198" t="s">
+        <v>269</v>
+      </c>
+      <c r="D198">
+        <f>SUM(E198,G198,I198,K198,M198,O198)</f>
+        <v>1</v>
+      </c>
+      <c r="O198">
+        <v>1</v>
+      </c>
+      <c r="P198" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A199" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B199" t="s">
+        <v>267</v>
+      </c>
+      <c r="C199" t="s">
+        <v>288</v>
+      </c>
+      <c r="D199">
+        <f>SUM(E199,G199,I199,K199,M199,O199)</f>
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A200" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B200" t="s">
+        <v>267</v>
+      </c>
+      <c r="C200" t="s">
+        <v>288</v>
+      </c>
+      <c r="D200">
+        <f>SUM(E200,G200,I200,K200,M200,O200)</f>
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A201" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B201" t="s">
+        <v>267</v>
+      </c>
+      <c r="C201" t="s">
+        <v>288</v>
+      </c>
+      <c r="D201">
+        <f>SUM(E201,G201,I201,K201,M201,O201)</f>
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A202" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B202" t="s">
+        <v>267</v>
+      </c>
+      <c r="C202" t="s">
+        <v>292</v>
+      </c>
+      <c r="D202">
+        <f>SUM(E202,G202,I202,K202,M202,O202)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A203" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B203" t="s">
+        <v>267</v>
+      </c>
+      <c r="C203" t="s">
+        <v>292</v>
+      </c>
+      <c r="D203">
+        <f>SUM(E203,G203,I203,K203,M203,O203)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A204" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B204" t="s">
+        <v>267</v>
+      </c>
+      <c r="C204" t="s">
+        <v>292</v>
+      </c>
+      <c r="D204">
+        <f>SUM(E204,G204,I204,K204,M204,O204)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A205" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B205" t="s">
+        <v>267</v>
+      </c>
+      <c r="C205" t="s">
+        <v>292</v>
+      </c>
+      <c r="D205">
+        <f>SUM(E205,G205,I205,K205,M205,O205)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A206" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B206" t="s">
+        <v>267</v>
+      </c>
+      <c r="C206" t="s">
+        <v>312</v>
+      </c>
+      <c r="D206">
+        <f>SUM(E206,G206,I206,K206,M206,O206)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A207" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B207" t="s">
+        <v>267</v>
+      </c>
+      <c r="C207" t="s">
+        <v>312</v>
+      </c>
+      <c r="D207">
+        <f>SUM(E207,G207,I207,K207,M207,O207)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A208" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B208" t="s">
+        <v>267</v>
+      </c>
+      <c r="C208" t="s">
+        <v>312</v>
+      </c>
+      <c r="D208">
+        <f>SUM(E208,G208,I208,K208,M208,O208)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A209" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B209" t="s">
+        <v>267</v>
+      </c>
+      <c r="C209" t="s">
+        <v>268</v>
+      </c>
+      <c r="D209">
+        <f>SUM(E209,G209,I209,K209,M209,O209)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A210" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B210" t="s">
+        <v>267</v>
+      </c>
+      <c r="C210" t="s">
+        <v>268</v>
+      </c>
+      <c r="D210">
+        <f>SUM(E210,G210,I210,K210,M210,O210)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A211" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B211" t="s">
+        <v>267</v>
+      </c>
+      <c r="C211" t="s">
+        <v>268</v>
+      </c>
+      <c r="D211">
+        <f>SUM(E211,G211,I211,K211,M211,O211)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A212" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B212" t="s">
+        <v>267</v>
+      </c>
+      <c r="C212" t="s">
+        <v>269</v>
+      </c>
+      <c r="D212">
+        <f>SUM(E212,G212,I212,K212,M212,O212)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A213" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B213" t="s">
+        <v>267</v>
+      </c>
+      <c r="C213" t="s">
+        <v>269</v>
+      </c>
+      <c r="D213">
+        <f>SUM(E213,G213,I213,K213,M213,O213)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A214" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B214" t="s">
+        <v>267</v>
+      </c>
+      <c r="C214" t="s">
+        <v>269</v>
+      </c>
+      <c r="D214">
+        <f>SUM(E214,G214,I214,K214,M214,O214)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A215" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B215" t="s">
+        <v>267</v>
+      </c>
+      <c r="C215" t="s">
+        <v>269</v>
+      </c>
+      <c r="D215">
+        <f>SUM(E215,G215,I215,K215,M215,O215)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A216" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B216" t="s">
+        <v>267</v>
+      </c>
+      <c r="C216" t="s">
+        <v>269</v>
+      </c>
+      <c r="D216">
+        <f>SUM(E216,G216,I216,K216,M216,O216)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A217" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B217" t="s">
+        <v>267</v>
+      </c>
+      <c r="C217" t="s">
+        <v>269</v>
+      </c>
+      <c r="D217">
+        <f>SUM(E217,G217,I217,K217,M217,O217)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A218" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B218" t="s">
+        <v>267</v>
+      </c>
+      <c r="C218" t="s">
+        <v>269</v>
+      </c>
+      <c r="D218">
+        <f>SUM(E218,G218,I218,K218,M218,O218)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A219" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B219" t="s">
+        <v>267</v>
+      </c>
+      <c r="C219" t="s">
+        <v>269</v>
+      </c>
+      <c r="D219">
+        <f>SUM(E219,G219,I219,K219,M219,O219)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A220" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B220" t="s">
+        <v>267</v>
+      </c>
+      <c r="C220" t="s">
+        <v>269</v>
+      </c>
+      <c r="D220">
+        <f>SUM(E220,G220,I220,K220,M220,O220)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A221" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B221" t="s">
+        <v>267</v>
+      </c>
+      <c r="C221" t="s">
+        <v>269</v>
+      </c>
+      <c r="D221">
+        <f>SUM(E221,G221,I221,K221,M221,O221)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A222" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B222" t="s">
+        <v>267</v>
+      </c>
+      <c r="C222" t="s">
+        <v>269</v>
+      </c>
+      <c r="D222">
+        <f>SUM(E222,G222,I222,K222,M222,O222)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A223" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B223" t="s">
+        <v>267</v>
+      </c>
+      <c r="C223" t="s">
+        <v>269</v>
+      </c>
+      <c r="D223">
+        <f>SUM(E223,G223,I223,K223,M223,O223)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A224" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B224" t="s">
+        <v>267</v>
+      </c>
+      <c r="C224" t="s">
+        <v>269</v>
+      </c>
+      <c r="D224">
+        <f>SUM(E224,G224,I224,K224,M224,O224)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A225" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B225" t="s">
+        <v>267</v>
+      </c>
+      <c r="C225" t="s">
+        <v>269</v>
+      </c>
+      <c r="D225">
+        <f>SUM(E225,G225,I225,K225,M225,O225)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A226" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B226" t="s">
+        <v>267</v>
+      </c>
+      <c r="C226" t="s">
+        <v>269</v>
+      </c>
+      <c r="D226">
+        <f>SUM(E226,G226,I226,K226,M226,O226)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Painting Record.xlsx
+++ b/Painting Record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopez\Desktop\V2.0 Javier_LeonhArt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopez\Desktop\V2.2.1 Javier_LeonhArt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B101A4F2-9412-482A-9A51-6FAA7CC1D737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A1B11F8-BAC1-4C4F-9FD1-1D9AFD6121DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="12083" xr2:uid="{8FABD0BB-35D2-4746-8BF5-22ED6BD8493F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{8FABD0BB-35D2-4746-8BF5-22ED6BD8493F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="473">
   <si>
     <t>Date</t>
   </si>
@@ -1478,9 +1478,6 @@
   </si>
   <si>
     <t>My Must-Have Paints</t>
-  </si>
-  <si>
-    <t>Inks</t>
   </si>
 </sst>
 </file>
@@ -1566,104 +1563,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1785,6 +1696,94 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
       </font>
@@ -1794,9 +1793,6 @@
       <font>
         <b val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -3817,10 +3813,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B0E51E21-B64D-4E10-8563-34A940B352C4}" name="Table6" displayName="Table6" ref="H7:H13" totalsRowCount="1" totalsRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B0E51E21-B64D-4E10-8563-34A940B352C4}" name="Table6" displayName="Table6" ref="H7:H13" totalsRowCount="1" totalsRowDxfId="16">
   <autoFilter ref="H7:H12" xr:uid="{B0E51E21-B64D-4E10-8563-34A940B352C4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{7B090651-2C60-4C03-90ED-88CCE0E1420F}" name="Most Used Paints" dataDxfId="14" totalsRowDxfId="3">
+    <tableColumn id="1" xr3:uid="{7B090651-2C60-4C03-90ED-88CCE0E1420F}" name="Most Used Paints" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Paints!A:A, SMALL(IF(Paints!D:D=LARGE(Paints!D:D, 4), ROW(Paints!D:D), ""), 4)), INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 5), Paints!D:D, 0)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3829,10 +3825,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B9A40675-99AD-4CB0-8477-A26935ECFD67}" name="Table7" displayName="Table7" ref="H18:H26" totalsRowShown="0" dataDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B9A40675-99AD-4CB0-8477-A26935ECFD67}" name="Table7" displayName="Table7" ref="H18:H26" totalsRowShown="0" dataDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="H18:H26" xr:uid="{B9A40675-99AD-4CB0-8477-A26935ECFD67}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{F637755A-8A41-423F-B17E-C4FC9A5B79DF}" name="My Must-Have Paints" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F637755A-8A41-423F-B17E-C4FC9A5B79DF}" name="My Must-Have Paints" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3842,13 +3838,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F21A842-DBF6-43AE-B39A-A0811F55AAD9}" name="Table5" displayName="Table5" ref="A1:P226" totalsRowShown="0">
   <autoFilter ref="A1:P226" xr:uid="{0F21A842-DBF6-43AE-B39A-A0811F55AAD9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P226">
-    <sortCondition ref="B1:B226"/>
+    <sortCondition ref="A1:A226"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{303018FD-1CFE-44C3-A9A5-27F54CDD884C}" name="Paint"/>
     <tableColumn id="2" xr3:uid="{B32C3219-7783-470F-9B8D-4411542EEB03}" name="Brand"/>
     <tableColumn id="18" xr3:uid="{C9C6C9E7-253D-434F-8152-39220E482730}" name="Series"/>
-    <tableColumn id="12" xr3:uid="{256C903D-A120-4BDA-9E7D-8DC83C23941F}" name="Total Used" dataDxfId="16">
+    <tableColumn id="12" xr3:uid="{256C903D-A120-4BDA-9E7D-8DC83C23941F}" name="Total Used" dataDxfId="10">
       <calculatedColumnFormula>SUM(E2,G2,I2,K2,M2,O2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{8445F356-6FD4-456C-B5A7-CF9631604BDD}" name="Ulthwé"/>
@@ -4188,7 +4184,7 @@
   <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4399,9 +4395,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="H8" t="str">
         <f>INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 1), Paints!D:D, 0))</f>
-        <v>Grimy Grey</v>
+        <v>Afro Shadow</v>
       </c>
       <c r="J8" t="s">
         <v>26</v>
@@ -4426,9 +4422,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="3" t="str" cm="1">
+      <c r="H9" t="str" cm="1">
         <f t="array" ref="H9">IFERROR(INDEX(Paints!A:A, SMALL(IF(Paints!D:D=LARGE(Paints!D:D, 2), ROW(Paints!D:D), ""), 2)), INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 3), Paints!D:D, 0)))</f>
-        <v>Afro Shadow</v>
+        <v>Dragon Blood</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
@@ -4453,9 +4449,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="3" t="str" cm="1">
+      <c r="H10" t="str" cm="1">
         <f t="array" ref="H10">IFERROR(INDEX(Paints!A:A, SMALL(IF(Paints!D:D=LARGE(Paints!D:D, 3), ROW(Paints!D:D), ""), 3)), INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 4), Paints!D:D, 0)))</f>
-        <v>Dragon Blood</v>
+        <v>Grimy Grey</v>
       </c>
       <c r="J10" t="s">
         <v>30</v>
@@ -4480,9 +4476,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="3" t="str" cm="1">
+      <c r="H11" t="str" cm="1">
         <f t="array" ref="H11">IFERROR(INDEX(Paints!A:A, SMALL(IF(Paints!D:D=LARGE(Paints!D:D, 4), ROW(Paints!D:D), ""), 4)), INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 5), Paints!D:D, 0)))</f>
-        <v>Wine Red</v>
+        <v>Heavy Warmgrey</v>
       </c>
       <c r="J11" t="s">
         <v>32</v>
@@ -4507,7 +4503,7 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="3" t="str" cm="1">
+      <c r="H12" t="str" cm="1">
         <f t="array" ref="H12">IFERROR(INDEX(Paints!A:A, SMALL(IF(Paints!D:D=LARGE(Paints!D:D, 5), ROW(Paints!D:D), ""), 5)), INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 6), Paints!D:D, 0)))</f>
         <v>Red Grey</v>
       </c>
@@ -4531,7 +4527,6 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
@@ -4655,8 +4650,8 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>473</v>
+      <c r="H19" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -4678,8 +4673,8 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>232</v>
+      <c r="H20" s="3" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -4701,8 +4696,8 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>231</v>
+      <c r="H21" s="4" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -4724,8 +4719,8 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>437</v>
+      <c r="H22" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -4748,7 +4743,7 @@
         <v>11</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -4770,9 +4765,7 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
@@ -4793,9 +4786,7 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>409</v>
-      </c>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
@@ -4816,9 +4807,7 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>265</v>
-      </c>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
@@ -7393,34 +7382,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J11 B2:B1048576">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Sylvaneth Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Tunguska Warband"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"35mm Models"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"High Elves Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Lumineth Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Harlequins Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>"Ulthwé Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
       <formula>"Slaves Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
       <formula>"Khorne Army"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
       <formula>"Practice"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7447,8 +7436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD12CC97-8595-4312-A700-76C39152E1F0}">
   <dimension ref="A1:P226"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A101" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7523,259 +7512,127 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="D2">
         <f>SUM(E2,G2,I2,K2,M2,O2)</f>
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>455</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>455</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="D3">
         <f>SUM(E3,G3,I3,K3,M3,O3)</f>
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>464</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>464</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>464</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>464</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>464</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>411</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="D4">
         <f>SUM(E4,G4,I4,K4,M4,O4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>464</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>464</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>464</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>464</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>464</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
         <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="D5">
         <f>SUM(E5,G5,I5,K5,M5,O5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>464</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>464</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>415</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="D6">
         <f>SUM(E6,G6,I6,K6,M6,O6)</f>
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>454</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="D7">
         <f>SUM(E7,G7,I7,K7,M7,O7)</f>
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>471</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B8" t="s">
         <v>295</v>
@@ -7785,57 +7642,33 @@
       </c>
       <c r="D8">
         <f>SUM(E8,G8,I8,K8,M8,O8)</f>
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>451</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>213</v>
+        <v>286</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="D9">
         <f>SUM(E9,G9,I9,K9,M9,O9)</f>
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>449</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>410</v>
+        <v>314</v>
       </c>
       <c r="B10" t="s">
         <v>295</v>
@@ -7845,183 +7678,144 @@
       </c>
       <c r="D10">
         <f>SUM(E10,G10,I10,K10,M10,O10)</f>
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>420</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>466</v>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="D11">
         <f>SUM(E11,G11,I11,K11,M11,O11)</f>
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>454</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11" t="s">
-        <v>460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>412</v>
+        <v>345</v>
       </c>
       <c r="B12" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C12" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="D12">
         <f>SUM(E12,G12,I12,K12,M12,O12)</f>
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
       <c r="B13" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C13" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="D13">
         <f>SUM(E13,G13,I13,K13,M13,O13)</f>
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>428</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="D14">
         <f>SUM(E14,G14,I14,K14,M14,O14)</f>
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="B15" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C15" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="D15">
         <f>SUM(E15,G15,I15,K15,M15,O15)</f>
         <v>1</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15" t="s">
-        <v>433</v>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C16" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="D16">
         <f>SUM(E16,G16,I16,K16,M16,O16)</f>
         <v>1</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>418</v>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C17" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D17">
         <f>SUM(E17,G17,I17,K17,M17,O17)</f>
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="B18" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C18" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D18">
         <f>SUM(E18,G18,I18,K18,M18,O18)</f>
@@ -8031,54 +7825,42 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="C19" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="D19">
         <f>SUM(E19,G19,I19,K19,M19,O19)</f>
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19" t="s">
-        <v>460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>381</v>
+        <v>265</v>
       </c>
       <c r="B20" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C20" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D20">
         <f>SUM(E20,G20,I20,K20,M20,O20)</f>
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="B21" t="s">
         <v>295</v>
@@ -8088,102 +7870,171 @@
       </c>
       <c r="D21">
         <f>SUM(E21,G21,I21,K21,M21,O21)</f>
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>452</v>
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>420</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B22" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C22" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="D22">
         <f>SUM(E22,G22,I22,K22,M22,O22)</f>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>457</v>
       </c>
       <c r="M22">
         <v>1</v>
-      </c>
-      <c r="N22" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>394</v>
+        <v>315</v>
       </c>
       <c r="B23" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C23" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D23">
         <f>SUM(E23,G23,I23,K23,M23,O23)</f>
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
-        <v>453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>399</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>221</v>
       </c>
       <c r="C24" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="D24">
         <f>SUM(E24,G24,I24,K24,M24,O24)</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>464</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>464</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>464</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>447</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>433</v>
+        <v>464</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
-        <v>295</v>
+        <v>221</v>
       </c>
       <c r="C25" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="D25">
         <f>SUM(E25,G25,I25,K25,M25,O25)</f>
         <v>0</v>
       </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>464</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>464</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>464</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>447</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>464</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>296</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s">
-        <v>295</v>
+        <v>221</v>
       </c>
       <c r="C26" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="D26">
         <f>SUM(E26,G26,I26,K26,M26,O26)</f>
@@ -8192,7 +8043,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="B27" t="s">
         <v>295</v>
@@ -8202,18 +8053,24 @@
       </c>
       <c r="D27">
         <f>SUM(E27,G27,I27,K27,M27,O27)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="B28" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C28" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="D28">
         <f>SUM(E28,G28,I28,K28,M28,O28)</f>
@@ -8222,13 +8079,13 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="C29" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="D29">
         <f>SUM(E29,G29,I29,K29,M29,O29)</f>
@@ -8237,169 +8094,142 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>307</v>
+        <v>398</v>
       </c>
       <c r="B30" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C30" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D30">
         <f>SUM(E30,G30,I30,K30,M30,O30)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>433</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>326</v>
+        <v>397</v>
       </c>
       <c r="B31" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C31" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="D31">
         <f>SUM(E31,G31,I31,K31,M31,O31)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>327</v>
+        <v>443</v>
       </c>
       <c r="B32" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C32" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D32">
         <f>SUM(E32,G32,I32,K32,M32,O32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>444</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>328</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="C33" t="s">
-        <v>297</v>
+        <v>458</v>
       </c>
       <c r="D33">
         <f>SUM(E33,G33,I33,K33,M33,O33)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>406</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s">
-        <v>407</v>
+        <v>234</v>
       </c>
       <c r="C34" t="s">
-        <v>408</v>
+        <v>246</v>
       </c>
       <c r="D34">
         <f>SUM(E34,G34,I34,K34,M34,O34)</f>
         <v>0</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>464</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>464</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>464</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>464</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34" t="s">
-        <v>464</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>414</v>
+        <v>208</v>
       </c>
       <c r="B35" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="C35" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="D35">
         <f>SUM(E35,G35,I35,K35,M35,O35)</f>
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>455</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>387</v>
+        <v>209</v>
       </c>
       <c r="B36" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="C36" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="D36">
         <f>SUM(E36,G36,I36,K36,M36,O36)</f>
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>457</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="B37" t="s">
         <v>275</v>
@@ -8409,147 +8239,114 @@
       </c>
       <c r="D37">
         <f>SUM(E37,G37,I37,K37,M37,O37)</f>
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>331</v>
+        <v>416</v>
       </c>
       <c r="B38" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C38" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="D38">
         <f>SUM(E38,G38,I38,K38,M38,O38)</f>
         <v>1</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
-        <v>440</v>
+        <v>262</v>
       </c>
       <c r="B39" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C39" t="s">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c r="D39">
         <f>SUM(E39,G39,I39,K39,M39,O39)</f>
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C40" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="D40">
         <f>SUM(E40,G40,I40,K40,M40,O40)</f>
         <v>1</v>
       </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
-        <v>372</v>
+        <v>218</v>
       </c>
       <c r="B41" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
-        <v>332</v>
+        <v>238</v>
       </c>
       <c r="D41">
         <f>SUM(E41,G41,I41,K41,M41,O41)</f>
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="P41" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
-        <v>378</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="C42" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D42">
         <f>SUM(E42,G42,I42,K42,M42,O42)</f>
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
-        <v>395</v>
+        <v>193</v>
       </c>
       <c r="B43" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
-        <v>332</v>
+        <v>458</v>
       </c>
       <c r="D43">
         <f>SUM(E43,G43,I43,K43,M43,O43)</f>
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="B44" t="s">
         <v>275</v>
@@ -8559,18 +8356,12 @@
       </c>
       <c r="D44">
         <f>SUM(E44,G44,I44,K44,M44,O44)</f>
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
-        <v>278</v>
+        <v>388</v>
       </c>
       <c r="B45" t="s">
         <v>275</v>
@@ -8582,16 +8373,13 @@
         <f>SUM(E45,G45,I45,K45,M45,O45)</f>
         <v>1</v>
       </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B46" t="s">
         <v>275</v>
@@ -8603,94 +8391,85 @@
         <f>SUM(E46,G46,I46,K46,M46,O46)</f>
         <v>1</v>
       </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
-        <v>277</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s">
         <v>275</v>
       </c>
       <c r="C47" t="s">
-        <v>276</v>
+        <v>332</v>
       </c>
       <c r="D47">
         <f>SUM(E47,G47,I47,K47,M47,O47)</f>
         <v>1</v>
       </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>383</v>
+        <v>301</v>
       </c>
       <c r="B48" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C48" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D48">
         <f>SUM(E48,G48,I48,K48,M48,O48)</f>
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
-        <v>388</v>
+        <v>199</v>
       </c>
       <c r="B49" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="C49" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="D49">
         <f>SUM(E49,G49,I49,K49,M49,O49)</f>
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>429</v>
+        <v>222</v>
       </c>
       <c r="B50" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="C50" t="s">
-        <v>336</v>
+        <v>242</v>
       </c>
       <c r="D50">
         <f>SUM(E50,G50,I50,K50,M50,O50)</f>
         <v>1</v>
       </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="B51" t="s">
         <v>275</v>
@@ -8700,759 +8479,885 @@
       </c>
       <c r="D51">
         <f>SUM(E51,G51,I51,K51,M51,O51)</f>
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-      <c r="P51" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
-        <v>396</v>
+        <v>293</v>
       </c>
       <c r="B52" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C52" t="s">
-        <v>336</v>
+        <v>269</v>
       </c>
       <c r="D52">
         <f>SUM(E52,G52,I52,K52,M52,O52)</f>
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="B53" t="s">
         <v>275</v>
       </c>
       <c r="C53" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D53">
         <f>SUM(E53,G53,I53,K53,M53,O53)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="B54" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C54" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="D54">
         <f>SUM(E54,G54,I54,K54,M54,O54)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
-        <v>339</v>
+        <v>403</v>
       </c>
       <c r="B55" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C55" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="D55">
         <f>SUM(E55,G55,I55,K55,M55,O55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
-        <v>340</v>
+        <v>434</v>
       </c>
       <c r="B56" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="D56">
         <f>SUM(E56,G56,I56,K56,M56,O56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="B57" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C57" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="D57">
         <f>SUM(E57,G57,I57,K57,M57,O57)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="B58" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C58" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="D58">
         <f>SUM(E58,G58,I58,K58,M58,O58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
-        <v>352</v>
+        <v>255</v>
       </c>
       <c r="B59" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="C59" t="s">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c r="D59">
         <f>SUM(E59,G59,I59,K59,M59,O59)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="B60" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C60" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="D60">
         <f>SUM(E60,G60,I60,K60,M60,O60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
-        <v>355</v>
+        <v>200</v>
       </c>
       <c r="B61" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="C61" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D61">
         <f>SUM(E61,G61,I61,K61,M61,O61)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
-        <v>356</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s">
         <v>275</v>
       </c>
       <c r="C62" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D62">
         <f>SUM(E62,G62,I62,K62,M62,O62)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="B63" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="C63" t="s">
-        <v>332</v>
+        <v>241</v>
       </c>
       <c r="D63">
         <f>SUM(E63,G63,I63,K63,M63,O63)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="B64" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C64" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D64">
         <f>SUM(E64,G64,I64,K64,M64,O64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>451</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>471</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
-        <v>366</v>
+        <v>442</v>
       </c>
       <c r="B65" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C65" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="D65">
         <f>SUM(E65,G65,I65,K65,M65,O65)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="B66" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C66" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="D66">
         <f>SUM(E66,G66,I66,K66,M66,O66)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="B67" t="s">
         <v>275</v>
       </c>
       <c r="C67" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D67">
         <f>SUM(E67,G67,I67,K67,M67,O67)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
-        <v>375</v>
+        <v>432</v>
       </c>
       <c r="B68" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C68" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="D68">
         <f>SUM(E68,G68,I68,K68,M68,O68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s">
         <v>275</v>
       </c>
       <c r="C69" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D69">
         <f>SUM(E69,G69,I69,K69,M69,O69)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
-        <v>377</v>
+        <v>217</v>
       </c>
       <c r="B70" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="C70" t="s">
-        <v>332</v>
+        <v>238</v>
       </c>
       <c r="D70">
         <f>SUM(E70,G70,I70,K70,M70,O70)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
-        <v>279</v>
+        <v>359</v>
       </c>
       <c r="B71" t="s">
         <v>275</v>
       </c>
       <c r="C71" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="D71">
         <f>SUM(E71,G71,I71,K71,M71,O71)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="B72" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="C72" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="D72">
         <f>SUM(E72,G72,I72,K72,M72,O72)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
-        <v>281</v>
+        <v>344</v>
       </c>
       <c r="B73" t="s">
         <v>275</v>
       </c>
       <c r="C73" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="D73">
         <f>SUM(E73,G73,I73,K73,M73,O73)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s">
         <v>275</v>
       </c>
       <c r="C74" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="D74">
         <f>SUM(E74,G74,I74,K74,M74,O74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B75" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C75" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="D75">
         <f>SUM(E75,G75,I75,K75,M75,O75)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="B76" t="s">
         <v>275</v>
       </c>
       <c r="C76" t="s">
-        <v>276</v>
+        <v>332</v>
       </c>
       <c r="D76">
         <f>SUM(E76,G76,I76,K76,M76,O76)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="B77" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C77" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D77">
         <f>SUM(E77,G77,I77,K77,M77,O77)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="B78" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C78" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="D78">
         <f>SUM(E78,G78,I78,K78,M78,O78)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
-        <v>335</v>
+        <v>425</v>
       </c>
       <c r="B79" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C79" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="D79">
         <f>SUM(E79,G79,I79,K79,M79,O79)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B80" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C80" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="D80">
         <f>SUM(E80,G80,I80,K80,M80,O80)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
-        <v>341</v>
+        <v>210</v>
       </c>
       <c r="B81" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="C81" t="s">
-        <v>336</v>
+        <v>239</v>
       </c>
       <c r="D81">
         <f>SUM(E81,G81,I81,K81,M81,O81)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
-        <v>342</v>
+        <v>412</v>
       </c>
       <c r="B82" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C82" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="D82">
         <f>SUM(E82,G82,I82,K82,M82,O82)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="B83" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C83" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="D83">
         <f>SUM(E83,G83,I83,K83,M83,O83)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="B84" t="s">
         <v>275</v>
       </c>
       <c r="C84" t="s">
-        <v>336</v>
+        <v>276</v>
       </c>
       <c r="D84">
         <f>SUM(E84,G84,I84,K84,M84,O84)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="B85" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C85" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="D85">
         <f>SUM(E85,G85,I85,K85,M85,O85)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="B86" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C86" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="D86">
         <f>SUM(E86,G86,I86,K86,M86,O86)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="B87" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C87" t="s">
-        <v>336</v>
+        <v>269</v>
       </c>
       <c r="D87">
         <f>SUM(E87,G87,I87,K87,M87,O87)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="B88" t="s">
         <v>275</v>
       </c>
       <c r="C88" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D88">
         <f>SUM(E88,G88,I88,K88,M88,O88)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="B89" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C89" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="D89">
         <f>SUM(E89,G89,I89,K89,M89,O89)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>455</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>455</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
-        <v>353</v>
+        <v>216</v>
       </c>
       <c r="B90" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="C90" t="s">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="D90">
         <f>SUM(E90,G90,I90,K90,M90,O90)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="B91" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C91" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="D91">
         <f>SUM(E91,G91,I91,K91,M91,O91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
-        <v>358</v>
+        <v>285</v>
       </c>
       <c r="B92" t="s">
         <v>275</v>
       </c>
       <c r="C92" t="s">
-        <v>336</v>
+        <v>276</v>
       </c>
       <c r="D92">
         <f>SUM(E92,G92,I92,K92,M92,O92)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
-        <v>359</v>
+        <v>279</v>
       </c>
       <c r="B93" t="s">
         <v>275</v>
       </c>
       <c r="C93" t="s">
-        <v>336</v>
+        <v>276</v>
       </c>
       <c r="D93">
         <f>SUM(E93,G93,I93,K93,M93,O93)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
-        <v>360</v>
+        <v>299</v>
       </c>
       <c r="B94" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C94" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="D94">
         <f>SUM(E94,G94,I94,K94,M94,O94)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
-        <v>361</v>
+        <v>291</v>
       </c>
       <c r="B95" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C95" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="D95">
         <f>SUM(E95,G95,I95,K95,M95,O95)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="B96" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C96" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="D96">
         <f>SUM(E96,G96,I96,K96,M96,O96)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="B97" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C97" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="D97">
         <f>SUM(E97,G97,I97,K97,M97,O97)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="B98" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C98" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="D98">
         <f>SUM(E98,G98,I98,K98,M98,O98)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B99" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C99" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="D99">
         <f>SUM(E99,G99,I99,K99,M99,O99)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>460</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
-        <v>374</v>
+        <v>436</v>
       </c>
       <c r="B100" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C100" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="D100">
         <f>SUM(E100,G100,I100,K100,M100,O100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>449</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>448</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B101" t="s">
         <v>180</v>
@@ -9462,598 +9367,790 @@
       </c>
       <c r="D101">
         <f>SUM(E101,G101,I101,K101,M101,O101)</f>
-        <v>1</v>
-      </c>
-      <c r="K101">
-        <v>1</v>
-      </c>
-      <c r="L101" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="B102" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="C102" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="D102">
         <f>SUM(E102,G102,I102,K102,M102,O102)</f>
         <v>1</v>
       </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="L102" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
-        <v>196</v>
+        <v>305</v>
       </c>
       <c r="B103" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="C103" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="D103">
         <f>SUM(E103,G103,I103,K103,M103,O103)</f>
-        <v>1</v>
-      </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-      <c r="L103" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
-        <v>208</v>
+        <v>382</v>
       </c>
       <c r="B104" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="C104" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="D104">
         <f>SUM(E104,G104,I104,K104,M104,O104)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>464</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>464</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>464</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104" t="s">
+        <v>464</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104" t="s">
+        <v>464</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
-        <v>209</v>
+        <v>349</v>
       </c>
       <c r="B105" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="C105" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
       <c r="D105">
         <f>SUM(E105,G105,I105,K105,M105,O105)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B106" t="s">
         <v>180</v>
       </c>
       <c r="C106" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D106">
         <f>SUM(E106,G106,I106,K106,M106,O106)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A107" s="2" t="s">
-        <v>211</v>
+        <v>304</v>
       </c>
       <c r="B107" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="C107" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="D107">
         <f>SUM(E107,G107,I107,K107,M107,O107)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="B108" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="C108" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="D108">
         <f>SUM(E108,G108,I108,K108,M108,O108)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
-        <v>213</v>
+        <v>317</v>
       </c>
       <c r="B109" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="C109" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="D109">
         <f>SUM(E109,G109,I109,K109,M109,O109)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109" t="s">
+        <v>454</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
-        <v>197</v>
+        <v>378</v>
       </c>
       <c r="B110" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="C110" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D110">
         <f>SUM(E110,G110,I110,K110,M110,O110)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
-        <v>199</v>
+        <v>360</v>
       </c>
       <c r="B111" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="C111" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D111">
         <f>SUM(E111,G111,I111,K111,M111,O111)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
-        <v>198</v>
+        <v>353</v>
       </c>
       <c r="B112" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="C112" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D112">
         <f>SUM(E112,G112,I112,K112,M112,O112)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
-        <v>200</v>
+        <v>441</v>
       </c>
       <c r="B113" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="C113" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="D113">
         <f>SUM(E113,G113,I113,K113,M113,O113)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
-        <v>201</v>
+        <v>339</v>
       </c>
       <c r="B114" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="C114" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D114">
         <f>SUM(E114,G114,I114,K114,M114,O114)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B115" t="s">
         <v>180</v>
       </c>
       <c r="C115" t="s">
-        <v>330</v>
+        <v>239</v>
       </c>
       <c r="D115">
         <f>SUM(E115,G115,I115,K115,M115,O115)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
-        <v>203</v>
+        <v>406</v>
       </c>
       <c r="B116" t="s">
-        <v>180</v>
+        <v>407</v>
       </c>
       <c r="C116" t="s">
-        <v>330</v>
+        <v>408</v>
       </c>
       <c r="D116">
         <f>SUM(E116,G116,I116,K116,M116,O116)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116" t="s">
+        <v>464</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>464</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116" t="s">
+        <v>464</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116" t="s">
+        <v>464</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116" t="s">
+        <v>464</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
-        <v>204</v>
+        <v>411</v>
       </c>
       <c r="B117" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="C117" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="D117">
         <f>SUM(E117,G117,I117,K117,M117,O117)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117" t="s">
+        <v>464</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>464</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117" t="s">
+        <v>464</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117" t="s">
+        <v>464</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117" t="s">
+        <v>464</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
-        <v>205</v>
+        <v>437</v>
       </c>
       <c r="B118" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="C118" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="D118">
         <f>SUM(E118,G118,I118,K118,M118,O118)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118" t="s">
+        <v>464</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>464</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" t="s">
+        <v>464</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118" t="s">
+        <v>464</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118" t="s">
+        <v>464</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
-        <v>206</v>
+        <v>390</v>
       </c>
       <c r="B119" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="C119" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="D119">
         <f>SUM(E119,G119,I119,K119,M119,O119)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
-        <v>207</v>
+        <v>298</v>
       </c>
       <c r="B120" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="C120" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="D120">
         <f>SUM(E120,G120,I120,K120,M120,O120)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
-        <v>214</v>
+        <v>399</v>
       </c>
       <c r="B121" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="C121" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="D121">
         <f>SUM(E121,G121,I121,K121,M121,O121)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
-        <v>215</v>
+        <v>326</v>
       </c>
       <c r="B122" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="C122" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="D122">
         <f>SUM(E122,G122,I122,K122,M122,O122)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
-        <v>216</v>
+        <v>426</v>
       </c>
       <c r="B123" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="C123" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="D123">
         <f>SUM(E123,G123,I123,K123,M123,O123)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="B124" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="C124" t="s">
-        <v>238</v>
+        <v>332</v>
       </c>
       <c r="D124">
         <f>SUM(E124,G124,I124,K124,M124,O124)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="B125" t="s">
         <v>180</v>
       </c>
       <c r="C125" t="s">
-        <v>238</v>
+        <v>458</v>
       </c>
       <c r="D125">
         <f>SUM(E125,G125,I125,K125,M125,O125)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="B126" t="s">
         <v>180</v>
       </c>
       <c r="C126" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
       <c r="D126">
         <f>SUM(E126,G126,I126,K126,M126,O126)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
-        <v>181</v>
+        <v>340</v>
       </c>
       <c r="B127" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="C127" t="s">
-        <v>458</v>
+        <v>332</v>
       </c>
       <c r="D127">
         <f>SUM(E127,G127,I127,K127,M127,O127)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
-        <v>182</v>
+        <v>402</v>
       </c>
       <c r="B128" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="C128" t="s">
-        <v>458</v>
+        <v>269</v>
       </c>
       <c r="D128">
         <f>SUM(E128,G128,I128,K128,M128,O128)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A129" s="2" t="s">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="B129" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="C129" t="s">
-        <v>458</v>
+        <v>244</v>
       </c>
       <c r="D129">
         <f>SUM(E129,G129,I129,K129,M129,O129)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A130" s="2" t="s">
-        <v>184</v>
+        <v>404</v>
       </c>
       <c r="B130" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="C130" t="s">
-        <v>458</v>
+        <v>312</v>
       </c>
       <c r="D130">
         <f>SUM(E130,G130,I130,K130,M130,O130)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A131" s="2" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
       <c r="B131" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="C131" t="s">
-        <v>458</v>
+        <v>336</v>
       </c>
       <c r="D131">
         <f>SUM(E131,G131,I131,K131,M131,O131)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
-        <v>186</v>
+        <v>369</v>
       </c>
       <c r="B132" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="C132" t="s">
-        <v>458</v>
+        <v>332</v>
       </c>
       <c r="D132">
         <f>SUM(E132,G132,I132,K132,M132,O132)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A133" s="2" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="B133" t="s">
         <v>180</v>
       </c>
       <c r="C133" t="s">
-        <v>458</v>
+        <v>238</v>
       </c>
       <c r="D133">
         <f>SUM(E133,G133,I133,K133,M133,O133)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A134" s="2" t="s">
-        <v>188</v>
+        <v>365</v>
       </c>
       <c r="B134" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="C134" t="s">
-        <v>458</v>
+        <v>332</v>
       </c>
       <c r="D134">
         <f>SUM(E134,G134,I134,K134,M134,O134)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A135" s="2" t="s">
-        <v>189</v>
+        <v>287</v>
       </c>
       <c r="B135" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="C135" t="s">
-        <v>458</v>
+        <v>288</v>
       </c>
       <c r="D135">
         <f>SUM(E135,G135,I135,K135,M135,O135)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A136" s="2" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="B136" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="C136" t="s">
-        <v>458</v>
+        <v>244</v>
       </c>
       <c r="D136">
         <f>SUM(E136,G136,I136,K136,M136,O136)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="B137" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="C137" t="s">
-        <v>458</v>
+        <v>244</v>
       </c>
       <c r="D137">
         <f>SUM(E137,G137,I137,K137,M137,O137)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="B138" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="C138" t="s">
-        <v>458</v>
+        <v>244</v>
       </c>
       <c r="D138">
         <f>SUM(E138,G138,I138,K138,M138,O138)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="B139" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="C139" t="s">
-        <v>458</v>
+        <v>244</v>
       </c>
       <c r="D139">
         <f>SUM(E139,G139,I139,K139,M139,O139)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
         <v>252</v>
       </c>
@@ -10074,7 +10171,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
         <v>233</v>
       </c>
@@ -10089,42 +10186,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A142" s="2" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="B142" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="C142" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="D142">
         <f>SUM(E142,G142,I142,K142,M142,O142)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
-        <v>236</v>
+        <v>392</v>
       </c>
       <c r="B143" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="C143" t="s">
-        <v>244</v>
+        <v>312</v>
       </c>
       <c r="D143">
         <f>SUM(E143,G143,I143,K143,M143,O143)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A144" s="2" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="B144" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C144" t="s">
         <v>244</v>
@@ -10134,192 +10237,210 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145" s="2" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B145" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="C145" t="s">
-        <v>244</v>
+        <v>458</v>
       </c>
       <c r="D145">
         <f>SUM(E145,G145,I145,K145,M145,O145)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B146" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="C146" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="D146">
         <f>SUM(E146,G146,I146,K146,M146,O146)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147" s="2" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="B147" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="C147" t="s">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="D147">
         <f>SUM(E147,G147,I147,K147,M147,O147)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="B148" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="C148" t="s">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="D148">
         <f>SUM(E148,G148,I148,K148,M148,O148)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="B149" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="C149" t="s">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="D149">
         <f>SUM(E149,G149,I149,K149,M149,O149)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="B150" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="C150" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="D150">
         <f>SUM(E150,G150,I150,K150,M150,O150)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="B151" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="C151" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="D151">
         <f>SUM(E151,G151,I151,K151,M151,O151)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
-        <v>253</v>
+        <v>348</v>
       </c>
       <c r="B152" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C152" t="s">
-        <v>244</v>
+        <v>336</v>
       </c>
       <c r="D152">
         <f>SUM(E152,G152,I152,K152,M152,O152)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" s="2" t="s">
-        <v>255</v>
+        <v>352</v>
       </c>
       <c r="B153" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C153" t="s">
-        <v>244</v>
+        <v>332</v>
       </c>
       <c r="D153">
         <f>SUM(E153,G153,I153,K153,M153,O153)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="B154" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="C154" t="s">
-        <v>244</v>
+        <v>458</v>
       </c>
       <c r="D154">
         <f>SUM(E154,G154,I154,K154,M154,O154)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155" s="2" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="B155" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="C155" t="s">
-        <v>244</v>
+        <v>458</v>
       </c>
       <c r="D155">
         <f>SUM(E155,G155,I155,K155,M155,O155)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" s="2" t="s">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="B156" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="C156" t="s">
-        <v>244</v>
+        <v>458</v>
       </c>
       <c r="D156">
         <f>SUM(E156,G156,I156,K156,M156,O156)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" s="2" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B157" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="C157" t="s">
         <v>244</v>
@@ -10329,198 +10450,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" s="2" t="s">
-        <v>260</v>
+        <v>335</v>
       </c>
       <c r="B158" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C158" t="s">
-        <v>244</v>
+        <v>336</v>
       </c>
       <c r="D158">
         <f>SUM(E158,G158,I158,K158,M158,O158)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" s="2" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="B159" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="C159" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="D159">
         <f>SUM(E159,G159,I159,K159,M159,O159)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="2" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="B160" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="C160" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="D160">
         <f>SUM(E160,G160,I160,K160,M160,O160)</f>
         <v>0</v>
       </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160" t="s">
-        <v>464</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160" t="s">
-        <v>464</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160" t="s">
-        <v>464</v>
-      </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
-      <c r="L160" t="s">
-        <v>447</v>
-      </c>
-      <c r="M160">
-        <v>0</v>
-      </c>
-      <c r="N160" t="s">
-        <v>464</v>
-      </c>
-      <c r="O160">
-        <v>0</v>
-      </c>
-      <c r="P160" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A161" s="2" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="B161" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="C161" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="D161">
         <f>SUM(E161,G161,I161,K161,M161,O161)</f>
         <v>0</v>
       </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161" t="s">
-        <v>464</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161" t="s">
-        <v>464</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161" t="s">
-        <v>464</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-      <c r="L161" t="s">
-        <v>447</v>
-      </c>
-      <c r="M161">
-        <v>0</v>
-      </c>
-      <c r="N161" t="s">
-        <v>464</v>
-      </c>
-      <c r="O161">
-        <v>0</v>
-      </c>
-      <c r="P161" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A162" s="2" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B162" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="C162" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="D162">
         <f>SUM(E162,G162,I162,K162,M162,O162)</f>
-        <v>3</v>
-      </c>
-      <c r="E162">
-        <v>1</v>
-      </c>
-      <c r="F162" t="s">
-        <v>449</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
-      </c>
-      <c r="H162" t="s">
-        <v>448</v>
-      </c>
-      <c r="K162">
-        <v>1</v>
-      </c>
-      <c r="L162" t="s">
-        <v>446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A163" s="2" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
       <c r="B163" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="C163" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="D163">
         <f>SUM(E163,G163,I163,K163,M163,O163)</f>
-        <v>1</v>
-      </c>
-      <c r="G163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A164" s="2" t="s">
-        <v>223</v>
+        <v>371</v>
       </c>
       <c r="B164" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="C164" t="s">
-        <v>241</v>
+        <v>332</v>
       </c>
       <c r="D164">
         <f>SUM(E164,G164,I164,K164,M164,O164)</f>
@@ -10529,28 +10557,40 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A165" s="2" t="s">
-        <v>220</v>
+        <v>414</v>
       </c>
       <c r="B165" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="C165" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="D165">
         <f>SUM(E165,G165,I165,K165,M165,O165)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165" t="s">
+        <v>455</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A166" s="2" t="s">
-        <v>262</v>
+        <v>188</v>
       </c>
       <c r="B166" t="s">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="C166" t="s">
-        <v>244</v>
+        <v>458</v>
       </c>
       <c r="D166">
         <f>SUM(E166,G166,I166,K166,M166,O166)</f>
@@ -10559,28 +10599,46 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A167" s="2" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="B167" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="C167" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D167">
         <f>SUM(E167,G167,I167,K167,M167,O167)</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
+        <v>449</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167" t="s">
+        <v>448</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A168" s="2" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="B168" t="s">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="C168" t="s">
-        <v>244</v>
+        <v>458</v>
       </c>
       <c r="D168">
         <f>SUM(E168,G168,I168,K168,M168,O168)</f>
@@ -10589,349 +10647,250 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A169" s="2" t="s">
-        <v>287</v>
+        <v>394</v>
       </c>
       <c r="B169" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="C169" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D169">
         <f>SUM(E169,G169,I169,K169,M169,O169)</f>
         <v>1</v>
       </c>
-      <c r="E169">
-        <v>1</v>
-      </c>
-      <c r="F169" t="s">
-        <v>463</v>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A170" s="2" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="B170" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C170" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="D170">
         <f>SUM(E170,G170,I170,K170,M170,O170)</f>
-        <v>1</v>
-      </c>
-      <c r="E170">
-        <v>1</v>
-      </c>
-      <c r="F170" t="s">
-        <v>454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A171" s="2" t="s">
-        <v>382</v>
+        <v>202</v>
       </c>
       <c r="B171" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="C171" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="D171">
         <f>SUM(E171,G171,I171,K171,M171,O171)</f>
         <v>0</v>
       </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171" t="s">
-        <v>454</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-      <c r="H171" t="s">
-        <v>454</v>
-      </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-      <c r="J171" t="s">
-        <v>454</v>
-      </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
-      <c r="L171" t="s">
-        <v>454</v>
-      </c>
-      <c r="M171">
-        <v>0</v>
-      </c>
-      <c r="N171" t="s">
-        <v>454</v>
-      </c>
-      <c r="O171">
-        <v>0</v>
-      </c>
-      <c r="P171" t="s">
-        <v>454</v>
-      </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A172" s="2" t="s">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="B172" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="C172" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D172">
         <f>SUM(E172,G172,I172,K172,M172,O172)</f>
-        <v>2</v>
-      </c>
-      <c r="E172">
-        <v>1</v>
-      </c>
-      <c r="F172" t="s">
-        <v>462</v>
-      </c>
-      <c r="K172">
-        <v>1</v>
-      </c>
-      <c r="L172" t="s">
-        <v>431</v>
+        <v>1</v>
+      </c>
+      <c r="O172">
+        <v>1</v>
+      </c>
+      <c r="P172" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A173" s="2" t="s">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c r="B173" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="C173" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="D173">
         <f>SUM(E173,G173,I173,K173,M173,O173)</f>
-        <v>1</v>
-      </c>
-      <c r="E173">
-        <v>1</v>
-      </c>
-      <c r="F173" t="s">
-        <v>462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A174" s="2" t="s">
-        <v>436</v>
+        <v>381</v>
       </c>
       <c r="B174" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="C174" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D174">
         <f>SUM(E174,G174,I174,K174,M174,O174)</f>
-        <v>3</v>
-      </c>
-      <c r="E174">
-        <v>1</v>
-      </c>
-      <c r="F174" t="s">
-        <v>449</v>
-      </c>
-      <c r="G174">
-        <v>1</v>
-      </c>
-      <c r="H174" t="s">
-        <v>448</v>
-      </c>
-      <c r="K174">
-        <v>1</v>
-      </c>
-      <c r="L174" t="s">
-        <v>450</v>
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A175" s="2" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="B175" t="s">
         <v>267</v>
       </c>
       <c r="C175" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="D175">
         <f>SUM(E175,G175,I175,K175,M175,O175)</f>
-        <v>2</v>
-      </c>
-      <c r="G175">
-        <v>1</v>
-      </c>
-      <c r="H175" t="s">
-        <v>460</v>
+        <v>1</v>
       </c>
       <c r="M175">
         <v>1</v>
+      </c>
+      <c r="N175" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A176" s="2" t="s">
-        <v>443</v>
+        <v>313</v>
       </c>
       <c r="B176" t="s">
         <v>267</v>
       </c>
       <c r="C176" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D176">
         <f>SUM(E176,G176,I176,K176,M176,O176)</f>
-        <v>2</v>
-      </c>
-      <c r="K176">
-        <v>1</v>
-      </c>
-      <c r="L176" t="s">
-        <v>444</v>
-      </c>
-      <c r="O176">
-        <v>1</v>
-      </c>
-      <c r="P176" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A177" s="2" t="s">
-        <v>398</v>
+        <v>334</v>
       </c>
       <c r="B177" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C177" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="D177">
         <f>SUM(E177,G177,I177,K177,M177,O177)</f>
-        <v>2</v>
-      </c>
-      <c r="M177">
-        <v>1</v>
-      </c>
-      <c r="N177" t="s">
-        <v>433</v>
-      </c>
-      <c r="O177">
-        <v>1</v>
-      </c>
-      <c r="P177" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A178" s="2" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="B178" t="s">
         <v>267</v>
       </c>
       <c r="C178" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="D178">
         <f>SUM(E178,G178,I178,K178,M178,O178)</f>
         <v>1</v>
       </c>
-      <c r="K178">
-        <v>1</v>
-      </c>
-      <c r="L178" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A179" s="2" t="s">
-        <v>404</v>
+        <v>213</v>
       </c>
       <c r="B179" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="C179" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D179">
         <f>SUM(E179,G179,I179,K179,M179,O179)</f>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179" t="s">
+        <v>449</v>
       </c>
       <c r="K179">
         <v>1</v>
       </c>
       <c r="L179" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A180" s="2" t="s">
-        <v>405</v>
+        <v>213</v>
       </c>
       <c r="B180" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="C180" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="D180">
         <f>SUM(E180,G180,I180,K180,M180,O180)</f>
-        <v>1</v>
-      </c>
-      <c r="K180">
-        <v>1</v>
-      </c>
-      <c r="L180" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A181" s="2" t="s">
-        <v>413</v>
+        <v>282</v>
       </c>
       <c r="B181" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C181" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="D181">
         <f>SUM(E181,G181,I181,K181,M181,O181)</f>
-        <v>1</v>
-      </c>
-      <c r="K181">
-        <v>1</v>
-      </c>
-      <c r="L181" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A182" s="2" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B182" t="s">
         <v>267</v>
       </c>
       <c r="C182" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="D182">
         <f>SUM(E182,G182,I182,K182,M182,O182)</f>
@@ -10941,60 +10900,48 @@
         <v>1</v>
       </c>
       <c r="L182" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.45">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A183" s="2" t="s">
-        <v>417</v>
+        <v>284</v>
       </c>
       <c r="B183" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C183" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="D183">
         <f>SUM(E183,G183,I183,K183,M183,O183)</f>
-        <v>1</v>
-      </c>
-      <c r="K183">
-        <v>1</v>
-      </c>
-      <c r="L183" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A184" s="2" t="s">
-        <v>432</v>
+        <v>363</v>
       </c>
       <c r="B184" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C184" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="D184">
         <f>SUM(E184,G184,I184,K184,M184,O184)</f>
-        <v>1</v>
-      </c>
-      <c r="K184">
-        <v>1</v>
-      </c>
-      <c r="L184" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A185" s="2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B185" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C185" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="D185">
         <f>SUM(E185,G185,I185,K185,M185,O185)</f>
@@ -11004,18 +10951,18 @@
         <v>1</v>
       </c>
       <c r="L185" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.45">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A186" s="2" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="B186" t="s">
         <v>267</v>
       </c>
       <c r="C186" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="D186">
         <f>SUM(E186,G186,I186,K186,M186,O186)</f>
@@ -11025,12 +10972,12 @@
         <v>1</v>
       </c>
       <c r="L186" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.45">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A187" s="2" t="s">
-        <v>442</v>
+        <v>386</v>
       </c>
       <c r="B187" t="s">
         <v>267</v>
@@ -11042,274 +10989,238 @@
         <f>SUM(E187,G187,I187,K187,M187,O187)</f>
         <v>1</v>
       </c>
-      <c r="K187">
-        <v>1</v>
-      </c>
-      <c r="L187" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A188" s="2" t="s">
-        <v>380</v>
+        <v>219</v>
       </c>
       <c r="B188" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="C188" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="D188">
         <f>SUM(E188,G188,I188,K188,M188,O188)</f>
-        <v>1</v>
-      </c>
-      <c r="M188">
-        <v>1</v>
-      </c>
-      <c r="N188" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A189" s="2" t="s">
-        <v>384</v>
+        <v>272</v>
       </c>
       <c r="B189" t="s">
         <v>267</v>
       </c>
       <c r="C189" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="D189">
         <f>SUM(E189,G189,I189,K189,M189,O189)</f>
-        <v>1</v>
-      </c>
-      <c r="M189">
-        <v>1</v>
-      </c>
-      <c r="N189" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A190" s="2" t="s">
-        <v>385</v>
+        <v>270</v>
       </c>
       <c r="B190" t="s">
         <v>267</v>
       </c>
       <c r="C190" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="D190">
         <f>SUM(E190,G190,I190,K190,M190,O190)</f>
-        <v>1</v>
-      </c>
-      <c r="M190">
-        <v>1</v>
-      </c>
-      <c r="N190" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A191" s="2" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="B191" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C191" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="D191">
         <f>SUM(E191,G191,I191,K191,M191,O191)</f>
-        <v>1</v>
-      </c>
-      <c r="M191">
-        <v>1</v>
-      </c>
-      <c r="N191" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A192" s="2" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="B192" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C192" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="D192">
         <f>SUM(E192,G192,I192,K192,M192,O192)</f>
-        <v>1</v>
-      </c>
-      <c r="M192">
-        <v>1</v>
-      </c>
-      <c r="N192" t="s">
-        <v>451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A193" s="2" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="B193" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="C193" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D193">
         <f>SUM(E193,G193,I193,K193,M193,O193)</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193" t="s">
+        <v>464</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193" t="s">
+        <v>464</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193" t="s">
+        <v>464</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193" t="s">
+        <v>464</v>
       </c>
       <c r="M193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N193" t="s">
-        <v>451</v>
+        <v>464</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="P193" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A194" s="2" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="B194" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C194" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="D194">
         <f>SUM(E194,G194,I194,K194,M194,O194)</f>
-        <v>1</v>
-      </c>
-      <c r="K194">
-        <v>1</v>
-      </c>
-      <c r="L194" t="s">
-        <v>332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A195" s="2" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="B195" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C195" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="D195">
         <f>SUM(E195,G195,I195,K195,M195,O195)</f>
-        <v>1</v>
-      </c>
-      <c r="K195">
-        <v>1</v>
-      </c>
-      <c r="L195" t="s">
-        <v>332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A196" s="2" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
       <c r="B196" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C196" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="D196">
         <f>SUM(E196,G196,I196,K196,M196,O196)</f>
-        <v>1</v>
-      </c>
-      <c r="K196">
-        <v>1</v>
-      </c>
-      <c r="L196" t="s">
-        <v>332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A197" s="2" t="s">
-        <v>424</v>
+        <v>181</v>
       </c>
       <c r="B197" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="C197" t="s">
-        <v>269</v>
+        <v>458</v>
       </c>
       <c r="D197">
         <f>SUM(E197,G197,I197,K197,M197,O197)</f>
-        <v>1</v>
-      </c>
-      <c r="K197">
-        <v>1</v>
-      </c>
-      <c r="L197" t="s">
-        <v>332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A198" s="2" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="B198" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="C198" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="D198">
         <f>SUM(E198,G198,I198,K198,M198,O198)</f>
-        <v>1</v>
-      </c>
-      <c r="O198">
-        <v>1</v>
-      </c>
-      <c r="P198" t="s">
-        <v>465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A199" s="2" t="s">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="B199" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="C199" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="D199">
         <f>SUM(E199,G199,I199,K199,M199,O199)</f>
-        <v>1</v>
-      </c>
-      <c r="K199">
-        <v>1</v>
-      </c>
-      <c r="L199" t="s">
-        <v>439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A200" s="2" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="B200" t="s">
         <v>267</v>
       </c>
       <c r="C200" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="D200">
         <f>SUM(E200,G200,I200,K200,M200,O200)</f>
@@ -11319,39 +11230,33 @@
         <v>1</v>
       </c>
       <c r="L200" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A201" s="2" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="B201" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="C201" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="D201">
         <f>SUM(E201,G201,I201,K201,M201,O201)</f>
-        <v>1</v>
-      </c>
-      <c r="G201">
-        <v>1</v>
-      </c>
-      <c r="H201" t="s">
-        <v>459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A202" s="2" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="B202" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C202" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="D202">
         <f>SUM(E202,G202,I202,K202,M202,O202)</f>
@@ -11360,13 +11265,13 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A203" s="2" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="B203" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C203" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="D203">
         <f>SUM(E203,G203,I203,K203,M203,O203)</f>
@@ -11375,43 +11280,55 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A204" s="2" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="B204" t="s">
         <v>267</v>
       </c>
       <c r="C204" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D204">
         <f>SUM(E204,G204,I204,K204,M204,O204)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A205" s="2" t="s">
-        <v>321</v>
+        <v>396</v>
       </c>
       <c r="B205" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C205" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="D205">
         <f>SUM(E205,G205,I205,K205,M205,O205)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="N205" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A206" s="2" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="C206" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D206">
         <f>SUM(E206,G206,I206,K206,M206,O206)</f>
@@ -11420,13 +11337,13 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A207" s="2" t="s">
-        <v>323</v>
+        <v>260</v>
       </c>
       <c r="B207" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C207" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
       <c r="D207">
         <f>SUM(E207,G207,I207,K207,M207,O207)</f>
@@ -11435,287 +11352,359 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A208" s="2" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="B208" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C208" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="D208">
         <f>SUM(E208,G208,I208,K208,M208,O208)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="O208">
+        <v>1</v>
+      </c>
+      <c r="P208" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A209" s="2" t="s">
-        <v>266</v>
+        <v>438</v>
       </c>
       <c r="B209" t="s">
         <v>267</v>
       </c>
       <c r="C209" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="D209">
         <f>SUM(E209,G209,I209,K209,M209,O209)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A210" s="2" t="s">
-        <v>313</v>
+        <v>435</v>
       </c>
       <c r="B210" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="C210" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="D210">
         <f>SUM(E210,G210,I210,K210,M210,O210)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A211" s="2" t="s">
-        <v>425</v>
+        <v>183</v>
       </c>
       <c r="B211" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="C211" t="s">
-        <v>268</v>
+        <v>458</v>
       </c>
       <c r="D211">
         <f>SUM(E211,G211,I211,K211,M211,O211)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A212" s="2" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="B212" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="C212" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="D212">
         <f>SUM(E212,G212,I212,K212,M212,O212)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A213" s="2" t="s">
-        <v>270</v>
+        <v>428</v>
       </c>
       <c r="B213" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="C213" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="D213">
         <f>SUM(E213,G213,I213,K213,M213,O213)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A214" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B214" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C214" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D214">
         <f>SUM(E214,G214,I214,K214,M214,O214)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A215" s="2" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="B215" t="s">
         <v>267</v>
       </c>
       <c r="C215" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="D215">
         <f>SUM(E215,G215,I215,K215,M215,O215)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A216" s="2" t="s">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="B216" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="C216" t="s">
-        <v>269</v>
+        <v>458</v>
       </c>
       <c r="D216">
         <f>SUM(E216,G216,I216,K216,M216,O216)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A217" s="2" t="s">
-        <v>298</v>
+        <v>430</v>
       </c>
       <c r="B217" t="s">
         <v>267</v>
       </c>
       <c r="C217" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="D217">
         <f>SUM(E217,G217,I217,K217,M217,O217)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217" t="s">
+        <v>462</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A218" s="2" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="B218" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C218" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="D218">
         <f>SUM(E218,G218,I218,K218,M218,O218)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A219" s="2" t="s">
-        <v>301</v>
+        <v>391</v>
       </c>
       <c r="B219" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="C219" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="D219">
         <f>SUM(E219,G219,I219,K219,M219,O219)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219" t="s">
+        <v>451</v>
+      </c>
+      <c r="M219">
+        <v>1</v>
+      </c>
+      <c r="N219" t="s">
+        <v>451</v>
+      </c>
+      <c r="O219">
+        <v>1</v>
+      </c>
+      <c r="P219" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A220" s="2" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="B220" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C220" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="D220">
         <f>SUM(E220,G220,I220,K220,M220,O220)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A221" s="2" t="s">
-        <v>303</v>
+        <v>372</v>
       </c>
       <c r="B221" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C221" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="D221">
         <f>SUM(E221,G221,I221,K221,M221,O221)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="O221">
+        <v>1</v>
+      </c>
+      <c r="P221" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A222" s="2" t="s">
-        <v>304</v>
+        <v>366</v>
       </c>
       <c r="B222" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C222" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="D222">
         <f>SUM(E222,G222,I222,K222,M222,O222)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A223" s="2" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
       <c r="B223" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="C223" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="D223">
         <f>SUM(E223,G223,I223,K223,M223,O223)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A224" s="2" t="s">
-        <v>310</v>
+        <v>190</v>
       </c>
       <c r="B224" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="C224" t="s">
-        <v>269</v>
+        <v>458</v>
       </c>
       <c r="D224">
         <f>SUM(E224,G224,I224,K224,M224,O224)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A225" s="2" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="B225" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C225" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="D225">
         <f>SUM(E225,G225,I225,K225,M225,O225)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A226" s="2" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="B226" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C226" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="D226">
         <f>SUM(E226,G226,I226,K226,M226,O226)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O226">
+        <v>1</v>
+      </c>
+      <c r="P226" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/Painting Record.xlsx
+++ b/Painting Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopez\Desktop\V2.2.1 Javier_LeonhArt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A1B11F8-BAC1-4C4F-9FD1-1D9AFD6121DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19CC4C66-FE7E-455F-B857-29D4A438581C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{8FABD0BB-35D2-4746-8BF5-22ED6BD8493F}"/>
   </bookViews>
@@ -4184,7 +4184,7 @@
   <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7521,7 +7521,7 @@
         <v>332</v>
       </c>
       <c r="D2">
-        <f>SUM(E2,G2,I2,K2,M2,O2)</f>
+        <f t="shared" ref="D2:D65" si="0">SUM(E2,G2,I2,K2,M2,O2)</f>
         <v>0</v>
       </c>
     </row>
@@ -7536,7 +7536,7 @@
         <v>336</v>
       </c>
       <c r="D3">
-        <f>SUM(E3,G3,I3,K3,M3,O3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7551,7 +7551,7 @@
         <v>276</v>
       </c>
       <c r="D4">
-        <f>SUM(E4,G4,I4,K4,M4,O4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G4">
@@ -7572,7 +7572,7 @@
         <v>319</v>
       </c>
       <c r="D5">
-        <f>SUM(E5,G5,I5,K5,M5,O5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E5">
@@ -7605,7 +7605,7 @@
         <v>276</v>
       </c>
       <c r="D6">
-        <f>SUM(E6,G6,I6,K6,M6,O6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G6">
@@ -7626,7 +7626,7 @@
         <v>330</v>
       </c>
       <c r="D7">
-        <f>SUM(E7,G7,I7,K7,M7,O7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7641,7 +7641,7 @@
         <v>297</v>
       </c>
       <c r="D8">
-        <f>SUM(E8,G8,I8,K8,M8,O8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M8">
@@ -7662,7 +7662,7 @@
         <v>276</v>
       </c>
       <c r="D9">
-        <f>SUM(E9,G9,I9,K9,M9,O9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7677,7 +7677,7 @@
         <v>297</v>
       </c>
       <c r="D10">
-        <f>SUM(E10,G10,I10,K10,M10,O10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G10">
@@ -7698,7 +7698,7 @@
         <v>244</v>
       </c>
       <c r="D11">
-        <f>SUM(E11,G11,I11,K11,M11,O11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7713,7 +7713,7 @@
         <v>332</v>
       </c>
       <c r="D12">
-        <f>SUM(E12,G12,I12,K12,M12,O12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7728,7 +7728,7 @@
         <v>336</v>
       </c>
       <c r="D13">
-        <f>SUM(E13,G13,I13,K13,M13,O13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7743,7 +7743,7 @@
         <v>336</v>
       </c>
       <c r="D14">
-        <f>SUM(E14,G14,I14,K14,M14,O14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7758,7 +7758,7 @@
         <v>332</v>
       </c>
       <c r="D15">
-        <f>SUM(E15,G15,I15,K15,M15,O15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H15">
@@ -7782,7 +7782,7 @@
         <v>312</v>
       </c>
       <c r="D16">
-        <f>SUM(E16,G16,I16,K16,M16,O16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K16">
@@ -7803,7 +7803,7 @@
         <v>269</v>
       </c>
       <c r="D17">
-        <f>SUM(E17,G17,I17,K17,M17,O17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7818,7 +7818,7 @@
         <v>269</v>
       </c>
       <c r="D18">
-        <f>SUM(E18,G18,I18,K18,M18,O18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O18">
@@ -7839,7 +7839,7 @@
         <v>244</v>
       </c>
       <c r="D19">
-        <f>SUM(E19,G19,I19,K19,M19,O19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7854,7 +7854,7 @@
         <v>269</v>
       </c>
       <c r="D20">
-        <f>SUM(E20,G20,I20,K20,M20,O20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7869,7 +7869,7 @@
         <v>297</v>
       </c>
       <c r="D21">
-        <f>SUM(E21,G21,I21,K21,M21,O21)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K21">
@@ -7896,7 +7896,7 @@
         <v>276</v>
       </c>
       <c r="D22">
-        <f>SUM(E22,G22,I22,K22,M22,O22)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E22">
@@ -7920,7 +7920,7 @@
         <v>269</v>
       </c>
       <c r="D23">
-        <f>SUM(E23,G23,I23,K23,M23,O23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7935,7 +7935,7 @@
         <v>243</v>
       </c>
       <c r="D24">
-        <f>SUM(E24,G24,I24,K24,M24,O24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24">
@@ -7986,7 +7986,7 @@
         <v>243</v>
       </c>
       <c r="D25">
-        <f>SUM(E25,G25,I25,K25,M25,O25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25">
@@ -8037,7 +8037,7 @@
         <v>240</v>
       </c>
       <c r="D26">
-        <f>SUM(E26,G26,I26,K26,M26,O26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
         <v>297</v>
       </c>
       <c r="D27">
-        <f>SUM(E27,G27,I27,K27,M27,O27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G27">
@@ -8073,7 +8073,7 @@
         <v>312</v>
       </c>
       <c r="D28">
-        <f>SUM(E28,G28,I28,K28,M28,O28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8088,7 +8088,7 @@
         <v>244</v>
       </c>
       <c r="D29">
-        <f>SUM(E29,G29,I29,K29,M29,O29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
         <v>269</v>
       </c>
       <c r="D30">
-        <f>SUM(E30,G30,I30,K30,M30,O30)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M30">
@@ -8130,7 +8130,7 @@
         <v>332</v>
       </c>
       <c r="D31">
-        <f>SUM(E31,G31,I31,K31,M31,O31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M31">
@@ -8151,7 +8151,7 @@
         <v>269</v>
       </c>
       <c r="D32">
-        <f>SUM(E32,G32,I32,K32,M32,O32)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K32">
@@ -8178,7 +8178,7 @@
         <v>458</v>
       </c>
       <c r="D33">
-        <f>SUM(E33,G33,I33,K33,M33,O33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8193,7 +8193,7 @@
         <v>246</v>
       </c>
       <c r="D34">
-        <f>SUM(E34,G34,I34,K34,M34,O34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8208,7 +8208,7 @@
         <v>239</v>
       </c>
       <c r="D35">
-        <f>SUM(E35,G35,I35,K35,M35,O35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8223,7 +8223,7 @@
         <v>239</v>
       </c>
       <c r="D36">
-        <f>SUM(E36,G36,I36,K36,M36,O36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8238,7 +8238,7 @@
         <v>332</v>
       </c>
       <c r="D37">
-        <f>SUM(E37,G37,I37,K37,M37,O37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8253,7 +8253,7 @@
         <v>312</v>
       </c>
       <c r="D38">
-        <f>SUM(E38,G38,I38,K38,M38,O38)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K38">
@@ -8274,7 +8274,7 @@
         <v>244</v>
       </c>
       <c r="D39">
-        <f>SUM(E39,G39,I39,K39,M39,O39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8289,7 +8289,7 @@
         <v>269</v>
       </c>
       <c r="D40">
-        <f>SUM(E40,G40,I40,K40,M40,O40)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E40">
@@ -8310,7 +8310,7 @@
         <v>238</v>
       </c>
       <c r="D41">
-        <f>SUM(E41,G41,I41,K41,M41,O41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8325,7 +8325,7 @@
         <v>330</v>
       </c>
       <c r="D42">
-        <f>SUM(E42,G42,I42,K42,M42,O42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8340,7 +8340,7 @@
         <v>458</v>
       </c>
       <c r="D43">
-        <f>SUM(E43,G43,I43,K43,M43,O43)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8355,7 +8355,7 @@
         <v>332</v>
       </c>
       <c r="D44">
-        <f>SUM(E44,G44,I44,K44,M44,O44)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8370,7 +8370,7 @@
         <v>276</v>
       </c>
       <c r="D45">
-        <f>SUM(E45,G45,I45,K45,M45,O45)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M45">
@@ -8388,7 +8388,7 @@
         <v>276</v>
       </c>
       <c r="D46">
-        <f>SUM(E46,G46,I46,K46,M46,O46)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K46">
@@ -8409,7 +8409,7 @@
         <v>332</v>
       </c>
       <c r="D47">
-        <f>SUM(E47,G47,I47,K47,M47,O47)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E47">
@@ -8430,7 +8430,7 @@
         <v>269</v>
       </c>
       <c r="D48">
-        <f>SUM(E48,G48,I48,K48,M48,O48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8445,7 +8445,7 @@
         <v>330</v>
       </c>
       <c r="D49">
-        <f>SUM(E49,G49,I49,K49,M49,O49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8460,7 +8460,7 @@
         <v>242</v>
       </c>
       <c r="D50">
-        <f>SUM(E50,G50,I50,K50,M50,O50)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G50">
@@ -8478,7 +8478,7 @@
         <v>336</v>
       </c>
       <c r="D51">
-        <f>SUM(E51,G51,I51,K51,M51,O51)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8493,7 +8493,7 @@
         <v>269</v>
       </c>
       <c r="D52">
-        <f>SUM(E52,G52,I52,K52,M52,O52)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8508,7 +8508,7 @@
         <v>336</v>
       </c>
       <c r="D53">
-        <f>SUM(E53,G53,I53,K53,M53,O53)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8523,7 +8523,7 @@
         <v>268</v>
       </c>
       <c r="D54">
-        <f>SUM(E54,G54,I54,K54,M54,O54)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8538,7 +8538,7 @@
         <v>269</v>
       </c>
       <c r="D55">
-        <f>SUM(E55,G55,I55,K55,M55,O55)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K55">
@@ -8559,7 +8559,7 @@
         <v>312</v>
       </c>
       <c r="D56">
-        <f>SUM(E56,G56,I56,K56,M56,O56)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K56">
@@ -8580,7 +8580,7 @@
         <v>297</v>
       </c>
       <c r="D57">
-        <f>SUM(E57,G57,I57,K57,M57,O57)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8595,7 +8595,7 @@
         <v>288</v>
       </c>
       <c r="D58">
-        <f>SUM(E58,G58,I58,K58,M58,O58)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K58">
@@ -8616,7 +8616,7 @@
         <v>244</v>
       </c>
       <c r="D59">
-        <f>SUM(E59,G59,I59,K59,M59,O59)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8631,7 +8631,7 @@
         <v>297</v>
       </c>
       <c r="D60">
-        <f>SUM(E60,G60,I60,K60,M60,O60)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8646,7 +8646,7 @@
         <v>330</v>
       </c>
       <c r="D61">
-        <f>SUM(E61,G61,I61,K61,M61,O61)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8661,7 +8661,7 @@
         <v>336</v>
       </c>
       <c r="D62">
-        <f>SUM(E62,G62,I62,K62,M62,O62)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K62">
@@ -8682,7 +8682,7 @@
         <v>241</v>
       </c>
       <c r="D63">
-        <f>SUM(E63,G63,I63,K63,M63,O63)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8697,7 +8697,7 @@
         <v>319</v>
       </c>
       <c r="D64">
-        <f>SUM(E64,G64,I64,K64,M64,O64)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E64">
@@ -8730,7 +8730,7 @@
         <v>312</v>
       </c>
       <c r="D65">
-        <f>SUM(E65,G65,I65,K65,M65,O65)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K65">
@@ -8751,7 +8751,7 @@
         <v>269</v>
       </c>
       <c r="D66">
-        <f>SUM(E66,G66,I66,K66,M66,O66)</f>
+        <f t="shared" ref="D66:D129" si="1">SUM(E66,G66,I66,K66,M66,O66)</f>
         <v>0</v>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
         <v>336</v>
       </c>
       <c r="D67">
-        <f>SUM(E67,G67,I67,K67,M67,O67)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
         <v>312</v>
       </c>
       <c r="D68">
-        <f>SUM(E68,G68,I68,K68,M68,O68)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K68">
@@ -8802,7 +8802,7 @@
         <v>336</v>
       </c>
       <c r="D69">
-        <f>SUM(E69,G69,I69,K69,M69,O69)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8817,7 +8817,7 @@
         <v>238</v>
       </c>
       <c r="D70">
-        <f>SUM(E70,G70,I70,K70,M70,O70)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8832,7 +8832,7 @@
         <v>336</v>
       </c>
       <c r="D71">
-        <f>SUM(E71,G71,I71,K71,M71,O71)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8847,7 +8847,7 @@
         <v>244</v>
       </c>
       <c r="D72">
-        <f>SUM(E72,G72,I72,K72,M72,O72)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8862,7 +8862,7 @@
         <v>336</v>
       </c>
       <c r="D73">
-        <f>SUM(E73,G73,I73,K73,M73,O73)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8877,7 +8877,7 @@
         <v>336</v>
       </c>
       <c r="D74">
-        <f>SUM(E74,G74,I74,K74,M74,O74)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8892,7 +8892,7 @@
         <v>297</v>
       </c>
       <c r="D75">
-        <f>SUM(E75,G75,I75,K75,M75,O75)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8907,7 +8907,7 @@
         <v>332</v>
       </c>
       <c r="D76">
-        <f>SUM(E76,G76,I76,K76,M76,O76)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8922,7 +8922,7 @@
         <v>269</v>
       </c>
       <c r="D77">
-        <f>SUM(E77,G77,I77,K77,M77,O77)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8937,7 +8937,7 @@
         <v>312</v>
       </c>
       <c r="D78">
-        <f>SUM(E78,G78,I78,K78,M78,O78)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8952,7 +8952,7 @@
         <v>268</v>
       </c>
       <c r="D79">
-        <f>SUM(E79,G79,I79,K79,M79,O79)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8967,7 +8967,7 @@
         <v>312</v>
       </c>
       <c r="D80">
-        <f>SUM(E80,G80,I80,K80,M80,O80)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8982,7 +8982,7 @@
         <v>239</v>
       </c>
       <c r="D81">
-        <f>SUM(E81,G81,I81,K81,M81,O81)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
         <v>297</v>
       </c>
       <c r="D82">
-        <f>SUM(E82,G82,I82,K82,M82,O82)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K82">
@@ -9018,7 +9018,7 @@
         <v>297</v>
       </c>
       <c r="D83">
-        <f>SUM(E83,G83,I83,K83,M83,O83)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O83">
@@ -9039,7 +9039,7 @@
         <v>276</v>
       </c>
       <c r="D84">
-        <f>SUM(E84,G84,I84,K84,M84,O84)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M84">
@@ -9057,7 +9057,7 @@
         <v>312</v>
       </c>
       <c r="D85">
-        <f>SUM(E85,G85,I85,K85,M85,O85)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M85">
@@ -9078,7 +9078,7 @@
         <v>297</v>
       </c>
       <c r="D86">
-        <f>SUM(E86,G86,I86,K86,M86,O86)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9093,7 +9093,7 @@
         <v>269</v>
       </c>
       <c r="D87">
-        <f>SUM(E87,G87,I87,K87,M87,O87)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9108,7 +9108,7 @@
         <v>332</v>
       </c>
       <c r="D88">
-        <f>SUM(E88,G88,I88,K88,M88,O88)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M88">
@@ -9129,7 +9129,7 @@
         <v>297</v>
       </c>
       <c r="D89">
-        <f>SUM(E89,G89,I89,K89,M89,O89)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E89">
@@ -9162,7 +9162,7 @@
         <v>238</v>
       </c>
       <c r="D90">
-        <f>SUM(E90,G90,I90,K90,M90,O90)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9177,7 +9177,7 @@
         <v>312</v>
       </c>
       <c r="D91">
-        <f>SUM(E91,G91,I91,K91,M91,O91)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M91">
@@ -9198,7 +9198,7 @@
         <v>276</v>
       </c>
       <c r="D92">
-        <f>SUM(E92,G92,I92,K92,M92,O92)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9213,7 +9213,7 @@
         <v>276</v>
       </c>
       <c r="D93">
-        <f>SUM(E93,G93,I93,K93,M93,O93)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9228,7 +9228,7 @@
         <v>292</v>
       </c>
       <c r="D94">
-        <f>SUM(E94,G94,I94,K94,M94,O94)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9243,7 +9243,7 @@
         <v>292</v>
       </c>
       <c r="D95">
-        <f>SUM(E95,G95,I95,K95,M95,O95)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9258,7 +9258,7 @@
         <v>292</v>
       </c>
       <c r="D96">
-        <f>SUM(E96,G96,I96,K96,M96,O96)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9273,7 +9273,7 @@
         <v>292</v>
       </c>
       <c r="D97">
-        <f>SUM(E97,G97,I97,K97,M97,O97)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K97">
@@ -9294,7 +9294,7 @@
         <v>292</v>
       </c>
       <c r="D98">
-        <f>SUM(E98,G98,I98,K98,M98,O98)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9309,7 +9309,7 @@
         <v>292</v>
       </c>
       <c r="D99">
-        <f>SUM(E99,G99,I99,K99,M99,O99)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G99">
@@ -9333,7 +9333,7 @@
         <v>292</v>
       </c>
       <c r="D100">
-        <f>SUM(E100,G100,I100,K100,M100,O100)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E100">
@@ -9366,7 +9366,7 @@
         <v>330</v>
       </c>
       <c r="D101">
-        <f>SUM(E101,G101,I101,K101,M101,O101)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
         <v>288</v>
       </c>
       <c r="D102">
-        <f>SUM(E102,G102,I102,K102,M102,O102)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E102">
@@ -9402,7 +9402,7 @@
         <v>297</v>
       </c>
       <c r="D103">
-        <f>SUM(E103,G103,I103,K103,M103,O103)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9417,7 +9417,7 @@
         <v>269</v>
       </c>
       <c r="D104">
-        <f>SUM(E104,G104,I104,K104,M104,O104)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E104">
@@ -9468,7 +9468,7 @@
         <v>332</v>
       </c>
       <c r="D105">
-        <f>SUM(E105,G105,I105,K105,M105,O105)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9483,7 +9483,7 @@
         <v>238</v>
       </c>
       <c r="D106">
-        <f>SUM(E106,G106,I106,K106,M106,O106)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9498,7 +9498,7 @@
         <v>269</v>
       </c>
       <c r="D107">
-        <f>SUM(E107,G107,I107,K107,M107,O107)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9513,7 +9513,7 @@
         <v>276</v>
       </c>
       <c r="D108">
-        <f>SUM(E108,G108,I108,K108,M108,O108)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9528,7 +9528,7 @@
         <v>297</v>
       </c>
       <c r="D109">
-        <f>SUM(E109,G109,I109,K109,M109,O109)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G109">
@@ -9555,7 +9555,7 @@
         <v>332</v>
       </c>
       <c r="D110">
-        <f>SUM(E110,G110,I110,K110,M110,O110)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M110">
@@ -9576,7 +9576,7 @@
         <v>336</v>
       </c>
       <c r="D111">
-        <f>SUM(E111,G111,I111,K111,M111,O111)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9591,7 +9591,7 @@
         <v>336</v>
       </c>
       <c r="D112">
-        <f>SUM(E112,G112,I112,K112,M112,O112)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9606,7 +9606,7 @@
         <v>312</v>
       </c>
       <c r="D113">
-        <f>SUM(E113,G113,I113,K113,M113,O113)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K113">
@@ -9627,7 +9627,7 @@
         <v>332</v>
       </c>
       <c r="D114">
-        <f>SUM(E114,G114,I114,K114,M114,O114)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9642,7 +9642,7 @@
         <v>239</v>
       </c>
       <c r="D115">
-        <f>SUM(E115,G115,I115,K115,M115,O115)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9657,7 +9657,7 @@
         <v>408</v>
       </c>
       <c r="D116">
-        <f>SUM(E116,G116,I116,K116,M116,O116)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E116">
@@ -9708,7 +9708,7 @@
         <v>297</v>
       </c>
       <c r="D117">
-        <f>SUM(E117,G117,I117,K117,M117,O117)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E117">
@@ -9759,7 +9759,7 @@
         <v>297</v>
       </c>
       <c r="D118">
-        <f>SUM(E118,G118,I118,K118,M118,O118)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E118">
@@ -9810,7 +9810,7 @@
         <v>297</v>
       </c>
       <c r="D119">
-        <f>SUM(E119,G119,I119,K119,M119,O119)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M119">
@@ -9831,7 +9831,7 @@
         <v>269</v>
       </c>
       <c r="D120">
-        <f>SUM(E120,G120,I120,K120,M120,O120)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9846,7 +9846,7 @@
         <v>297</v>
       </c>
       <c r="D121">
-        <f>SUM(E121,G121,I121,K121,M121,O121)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M121">
@@ -9867,7 +9867,7 @@
         <v>297</v>
       </c>
       <c r="D122">
-        <f>SUM(E122,G122,I122,K122,M122,O122)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9882,7 +9882,7 @@
         <v>297</v>
       </c>
       <c r="D123">
-        <f>SUM(E123,G123,I123,K123,M123,O123)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K123">
@@ -9903,7 +9903,7 @@
         <v>332</v>
       </c>
       <c r="D124">
-        <f>SUM(E124,G124,I124,K124,M124,O124)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9918,7 +9918,7 @@
         <v>458</v>
       </c>
       <c r="D125">
-        <f>SUM(E125,G125,I125,K125,M125,O125)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9933,7 +9933,7 @@
         <v>330</v>
       </c>
       <c r="D126">
-        <f>SUM(E126,G126,I126,K126,M126,O126)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9948,7 +9948,7 @@
         <v>332</v>
       </c>
       <c r="D127">
-        <f>SUM(E127,G127,I127,K127,M127,O127)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9963,7 +9963,7 @@
         <v>269</v>
       </c>
       <c r="D128">
-        <f>SUM(E128,G128,I128,K128,M128,O128)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K128">
@@ -9984,7 +9984,7 @@
         <v>244</v>
       </c>
       <c r="D129">
-        <f>SUM(E129,G129,I129,K129,M129,O129)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9999,7 +9999,7 @@
         <v>312</v>
       </c>
       <c r="D130">
-        <f>SUM(E130,G130,I130,K130,M130,O130)</f>
+        <f t="shared" ref="D130:D193" si="2">SUM(E130,G130,I130,K130,M130,O130)</f>
         <v>1</v>
       </c>
       <c r="K130">
@@ -10020,7 +10020,7 @@
         <v>336</v>
       </c>
       <c r="D131">
-        <f>SUM(E131,G131,I131,K131,M131,O131)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10035,7 +10035,7 @@
         <v>332</v>
       </c>
       <c r="D132">
-        <f>SUM(E132,G132,I132,K132,M132,O132)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10050,7 +10050,7 @@
         <v>238</v>
       </c>
       <c r="D133">
-        <f>SUM(E133,G133,I133,K133,M133,O133)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10065,7 +10065,7 @@
         <v>332</v>
       </c>
       <c r="D134">
-        <f>SUM(E134,G134,I134,K134,M134,O134)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10080,7 +10080,7 @@
         <v>288</v>
       </c>
       <c r="D135">
-        <f>SUM(E135,G135,I135,K135,M135,O135)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E135">
@@ -10101,7 +10101,7 @@
         <v>244</v>
       </c>
       <c r="D136">
-        <f>SUM(E136,G136,I136,K136,M136,O136)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10116,7 +10116,7 @@
         <v>244</v>
       </c>
       <c r="D137">
-        <f>SUM(E137,G137,I137,K137,M137,O137)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10131,7 +10131,7 @@
         <v>244</v>
       </c>
       <c r="D138">
-        <f>SUM(E138,G138,I138,K138,M138,O138)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10146,7 +10146,7 @@
         <v>244</v>
       </c>
       <c r="D139">
-        <f>SUM(E139,G139,I139,K139,M139,O139)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10161,7 +10161,7 @@
         <v>244</v>
       </c>
       <c r="D140">
-        <f>SUM(E140,G140,I140,K140,M140,O140)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G140">
@@ -10182,7 +10182,7 @@
         <v>244</v>
       </c>
       <c r="D141">
-        <f>SUM(E141,G141,I141,K141,M141,O141)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10197,7 +10197,7 @@
         <v>276</v>
       </c>
       <c r="D142">
-        <f>SUM(E142,G142,I142,K142,M142,O142)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10212,7 +10212,7 @@
         <v>312</v>
       </c>
       <c r="D143">
-        <f>SUM(E143,G143,I143,K143,M143,O143)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M143">
@@ -10233,7 +10233,7 @@
         <v>244</v>
       </c>
       <c r="D144">
-        <f>SUM(E144,G144,I144,K144,M144,O144)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10248,7 +10248,7 @@
         <v>458</v>
       </c>
       <c r="D145">
-        <f>SUM(E145,G145,I145,K145,M145,O145)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10263,7 +10263,7 @@
         <v>330</v>
       </c>
       <c r="D146">
-        <f>SUM(E146,G146,I146,K146,M146,O146)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K146">
@@ -10284,7 +10284,7 @@
         <v>330</v>
       </c>
       <c r="D147">
-        <f>SUM(E147,G147,I147,K147,M147,O147)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K147">
@@ -10305,7 +10305,7 @@
         <v>330</v>
       </c>
       <c r="D148">
-        <f>SUM(E148,G148,I148,K148,M148,O148)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K148">
@@ -10326,7 +10326,7 @@
         <v>330</v>
       </c>
       <c r="D149">
-        <f>SUM(E149,G149,I149,K149,M149,O149)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10341,7 +10341,7 @@
         <v>269</v>
       </c>
       <c r="D150">
-        <f>SUM(E150,G150,I150,K150,M150,O150)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10356,7 +10356,7 @@
         <v>269</v>
       </c>
       <c r="D151">
-        <f>SUM(E151,G151,I151,K151,M151,O151)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10371,7 +10371,7 @@
         <v>336</v>
       </c>
       <c r="D152">
-        <f>SUM(E152,G152,I152,K152,M152,O152)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10386,7 +10386,7 @@
         <v>332</v>
       </c>
       <c r="D153">
-        <f>SUM(E153,G153,I153,K153,M153,O153)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10401,7 +10401,7 @@
         <v>458</v>
       </c>
       <c r="D154">
-        <f>SUM(E154,G154,I154,K154,M154,O154)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10416,7 +10416,7 @@
         <v>458</v>
       </c>
       <c r="D155">
-        <f>SUM(E155,G155,I155,K155,M155,O155)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10431,7 +10431,7 @@
         <v>458</v>
       </c>
       <c r="D156">
-        <f>SUM(E156,G156,I156,K156,M156,O156)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10446,7 +10446,7 @@
         <v>244</v>
       </c>
       <c r="D157">
-        <f>SUM(E157,G157,I157,K157,M157,O157)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10461,7 +10461,7 @@
         <v>336</v>
       </c>
       <c r="D158">
-        <f>SUM(E158,G158,I158,K158,M158,O158)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10476,7 +10476,7 @@
         <v>297</v>
       </c>
       <c r="D159">
-        <f>SUM(E159,G159,I159,K159,M159,O159)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10491,7 +10491,7 @@
         <v>269</v>
       </c>
       <c r="D160">
-        <f>SUM(E160,G160,I160,K160,M160,O160)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10506,7 +10506,7 @@
         <v>297</v>
       </c>
       <c r="D161">
-        <f>SUM(E161,G161,I161,K161,M161,O161)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10521,7 +10521,7 @@
         <v>330</v>
       </c>
       <c r="D162">
-        <f>SUM(E162,G162,I162,K162,M162,O162)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10536,7 +10536,7 @@
         <v>297</v>
       </c>
       <c r="D163">
-        <f>SUM(E163,G163,I163,K163,M163,O163)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
         <v>332</v>
       </c>
       <c r="D164">
-        <f>SUM(E164,G164,I164,K164,M164,O164)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10566,7 +10566,7 @@
         <v>276</v>
       </c>
       <c r="D165">
-        <f>SUM(E165,G165,I165,K165,M165,O165)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E165">
@@ -10593,7 +10593,7 @@
         <v>458</v>
       </c>
       <c r="D166">
-        <f>SUM(E166,G166,I166,K166,M166,O166)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10608,7 +10608,7 @@
         <v>242</v>
       </c>
       <c r="D167">
-        <f>SUM(E167,G167,I167,K167,M167,O167)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E167">
@@ -10641,7 +10641,7 @@
         <v>458</v>
       </c>
       <c r="D168">
-        <f>SUM(E168,G168,I168,K168,M168,O168)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10656,7 +10656,7 @@
         <v>297</v>
       </c>
       <c r="D169">
-        <f>SUM(E169,G169,I169,K169,M169,O169)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M169">
@@ -10677,7 +10677,7 @@
         <v>332</v>
       </c>
       <c r="D170">
-        <f>SUM(E170,G170,I170,K170,M170,O170)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10692,7 +10692,7 @@
         <v>330</v>
       </c>
       <c r="D171">
-        <f>SUM(E171,G171,I171,K171,M171,O171)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10707,7 +10707,7 @@
         <v>297</v>
       </c>
       <c r="D172">
-        <f>SUM(E172,G172,I172,K172,M172,O172)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O172">
@@ -10728,7 +10728,7 @@
         <v>239</v>
       </c>
       <c r="D173">
-        <f>SUM(E173,G173,I173,K173,M173,O173)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10743,7 +10743,7 @@
         <v>297</v>
       </c>
       <c r="D174">
-        <f>SUM(E174,G174,I174,K174,M174,O174)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M174">
@@ -10764,7 +10764,7 @@
         <v>312</v>
       </c>
       <c r="D175">
-        <f>SUM(E175,G175,I175,K175,M175,O175)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M175">
@@ -10785,7 +10785,7 @@
         <v>268</v>
       </c>
       <c r="D176">
-        <f>SUM(E176,G176,I176,K176,M176,O176)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10800,7 +10800,7 @@
         <v>332</v>
       </c>
       <c r="D177">
-        <f>SUM(E177,G177,I177,K177,M177,O177)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10815,7 +10815,7 @@
         <v>312</v>
       </c>
       <c r="D178">
-        <f>SUM(E178,G178,I178,K178,M178,O178)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M178">
@@ -10836,7 +10836,7 @@
         <v>297</v>
       </c>
       <c r="D179">
-        <f>SUM(E179,G179,I179,K179,M179,O179)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E179">
@@ -10863,7 +10863,7 @@
         <v>239</v>
       </c>
       <c r="D180">
-        <f>SUM(E180,G180,I180,K180,M180,O180)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10878,7 +10878,7 @@
         <v>276</v>
       </c>
       <c r="D181">
-        <f>SUM(E181,G181,I181,K181,M181,O181)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10893,7 +10893,7 @@
         <v>269</v>
       </c>
       <c r="D182">
-        <f>SUM(E182,G182,I182,K182,M182,O182)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K182">
@@ -10914,7 +10914,7 @@
         <v>276</v>
       </c>
       <c r="D183">
-        <f>SUM(E183,G183,I183,K183,M183,O183)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10929,7 +10929,7 @@
         <v>336</v>
       </c>
       <c r="D184">
-        <f>SUM(E184,G184,I184,K184,M184,O184)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10944,7 +10944,7 @@
         <v>332</v>
       </c>
       <c r="D185">
-        <f>SUM(E185,G185,I185,K185,M185,O185)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K185">
@@ -10965,7 +10965,7 @@
         <v>269</v>
       </c>
       <c r="D186">
-        <f>SUM(E186,G186,I186,K186,M186,O186)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K186">
@@ -10986,7 +10986,7 @@
         <v>312</v>
       </c>
       <c r="D187">
-        <f>SUM(E187,G187,I187,K187,M187,O187)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M187">
@@ -11007,7 +11007,7 @@
         <v>238</v>
       </c>
       <c r="D188">
-        <f>SUM(E188,G188,I188,K188,M188,O188)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11022,7 +11022,7 @@
         <v>269</v>
       </c>
       <c r="D189">
-        <f>SUM(E189,G189,I189,K189,M189,O189)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11037,7 +11037,7 @@
         <v>269</v>
       </c>
       <c r="D190">
-        <f>SUM(E190,G190,I190,K190,M190,O190)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11052,7 +11052,7 @@
         <v>336</v>
       </c>
       <c r="D191">
-        <f>SUM(E191,G191,I191,K191,M191,O191)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11067,7 +11067,7 @@
         <v>336</v>
       </c>
       <c r="D192">
-        <f>SUM(E192,G192,I192,K192,M192,O192)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11082,7 +11082,7 @@
         <v>297</v>
       </c>
       <c r="D193">
-        <f>SUM(E193,G193,I193,K193,M193,O193)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E193">
@@ -11133,7 +11133,7 @@
         <v>332</v>
       </c>
       <c r="D194">
-        <f>SUM(E194,G194,I194,K194,M194,O194)</f>
+        <f t="shared" ref="D194:D257" si="3">SUM(E194,G194,I194,K194,M194,O194)</f>
         <v>0</v>
       </c>
     </row>
@@ -11148,7 +11148,7 @@
         <v>332</v>
       </c>
       <c r="D195">
-        <f>SUM(E195,G195,I195,K195,M195,O195)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11163,7 +11163,7 @@
         <v>336</v>
       </c>
       <c r="D196">
-        <f>SUM(E196,G196,I196,K196,M196,O196)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11178,7 +11178,7 @@
         <v>458</v>
       </c>
       <c r="D197">
-        <f>SUM(E197,G197,I197,K197,M197,O197)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11193,7 +11193,7 @@
         <v>244</v>
       </c>
       <c r="D198">
-        <f>SUM(E198,G198,I198,K198,M198,O198)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11208,7 +11208,7 @@
         <v>330</v>
       </c>
       <c r="D199">
-        <f>SUM(E199,G199,I199,K199,M199,O199)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11223,7 +11223,7 @@
         <v>312</v>
       </c>
       <c r="D200">
-        <f>SUM(E200,G200,I200,K200,M200,O200)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K200">
@@ -11244,7 +11244,7 @@
         <v>244</v>
       </c>
       <c r="D201">
-        <f>SUM(E201,G201,I201,K201,M201,O201)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11259,7 +11259,7 @@
         <v>336</v>
       </c>
       <c r="D202">
-        <f>SUM(E202,G202,I202,K202,M202,O202)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11274,7 +11274,7 @@
         <v>244</v>
       </c>
       <c r="D203">
-        <f>SUM(E203,G203,I203,K203,M203,O203)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11289,7 +11289,7 @@
         <v>288</v>
       </c>
       <c r="D204">
-        <f>SUM(E204,G204,I204,K204,M204,O204)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G204">
@@ -11310,7 +11310,7 @@
         <v>336</v>
       </c>
       <c r="D205">
-        <f>SUM(E205,G205,I205,K205,M205,O205)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M205">
@@ -11331,7 +11331,7 @@
         <v>330</v>
       </c>
       <c r="D206">
-        <f>SUM(E206,G206,I206,K206,M206,O206)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11346,7 +11346,7 @@
         <v>244</v>
       </c>
       <c r="D207">
-        <f>SUM(E207,G207,I207,K207,M207,O207)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11361,7 +11361,7 @@
         <v>336</v>
       </c>
       <c r="D208">
-        <f>SUM(E208,G208,I208,K208,M208,O208)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O208">
@@ -11382,7 +11382,7 @@
         <v>288</v>
       </c>
       <c r="D209">
-        <f>SUM(E209,G209,I209,K209,M209,O209)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K209">
@@ -11403,7 +11403,7 @@
         <v>297</v>
       </c>
       <c r="D210">
-        <f>SUM(E210,G210,I210,K210,M210,O210)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K210">
@@ -11424,7 +11424,7 @@
         <v>458</v>
       </c>
       <c r="D211">
-        <f>SUM(E211,G211,I211,K211,M211,O211)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11439,7 +11439,7 @@
         <v>244</v>
       </c>
       <c r="D212">
-        <f>SUM(E212,G212,I212,K212,M212,O212)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11454,7 +11454,7 @@
         <v>297</v>
       </c>
       <c r="D213">
-        <f>SUM(E213,G213,I213,K213,M213,O213)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K213">
@@ -11475,7 +11475,7 @@
         <v>276</v>
       </c>
       <c r="D214">
-        <f>SUM(E214,G214,I214,K214,M214,O214)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11490,7 +11490,7 @@
         <v>312</v>
       </c>
       <c r="D215">
-        <f>SUM(E215,G215,I215,K215,M215,O215)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K215">
@@ -11511,7 +11511,7 @@
         <v>458</v>
       </c>
       <c r="D216">
-        <f>SUM(E216,G216,I216,K216,M216,O216)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11526,7 +11526,7 @@
         <v>288</v>
       </c>
       <c r="D217">
-        <f>SUM(E217,G217,I217,K217,M217,O217)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E217">
@@ -11553,7 +11553,7 @@
         <v>336</v>
       </c>
       <c r="D218">
-        <f>SUM(E218,G218,I218,K218,M218,O218)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11568,7 +11568,7 @@
         <v>297</v>
       </c>
       <c r="D219">
-        <f>SUM(E219,G219,I219,K219,M219,O219)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E219">
@@ -11601,7 +11601,7 @@
         <v>244</v>
       </c>
       <c r="D220">
-        <f>SUM(E220,G220,I220,K220,M220,O220)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11616,7 +11616,7 @@
         <v>332</v>
       </c>
       <c r="D221">
-        <f>SUM(E221,G221,I221,K221,M221,O221)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O221">
@@ -11637,7 +11637,7 @@
         <v>332</v>
       </c>
       <c r="D222">
-        <f>SUM(E222,G222,I222,K222,M222,O222)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11652,7 +11652,7 @@
         <v>244</v>
       </c>
       <c r="D223">
-        <f>SUM(E223,G223,I223,K223,M223,O223)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11667,7 +11667,7 @@
         <v>458</v>
       </c>
       <c r="D224">
-        <f>SUM(E224,G224,I224,K224,M224,O224)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11682,7 +11682,7 @@
         <v>336</v>
       </c>
       <c r="D225">
-        <f>SUM(E225,G225,I225,K225,M225,O225)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11697,7 +11697,7 @@
         <v>332</v>
       </c>
       <c r="D226">
-        <f>SUM(E226,G226,I226,K226,M226,O226)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O226">

--- a/Painting Record.xlsx
+++ b/Painting Record.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopez\Desktop\V2.2.1 Javier_LeonhArt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopez\Desktop\V2.3.0 Javier_LeonhArt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19CC4C66-FE7E-455F-B857-29D4A438581C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79642233-B8DA-496F-A9A7-7FD1AAE550AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{8FABD0BB-35D2-4746-8BF5-22ED6BD8493F}"/>
   </bookViews>
@@ -3838,7 +3838,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F21A842-DBF6-43AE-B39A-A0811F55AAD9}" name="Table5" displayName="Table5" ref="A1:P226" totalsRowShown="0">
   <autoFilter ref="A1:P226" xr:uid="{0F21A842-DBF6-43AE-B39A-A0811F55AAD9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P226">
-    <sortCondition ref="A1:A226"/>
+    <sortCondition descending="1" ref="D1:D226"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{303018FD-1CFE-44C3-A9A5-27F54CDD884C}" name="Paint"/>
@@ -4183,8 +4183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F725C0D8-4E5E-44F7-BED9-972635B5DB06}">
   <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="H8" t="str">
         <f>INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 1), Paints!D:D, 0))</f>
-        <v>Afro Shadow</v>
+        <v>Wine Red</v>
       </c>
       <c r="J8" t="s">
         <v>26</v>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="H9" t="str" cm="1">
         <f t="array" ref="H9">IFERROR(INDEX(Paints!A:A, SMALL(IF(Paints!D:D=LARGE(Paints!D:D, 2), ROW(Paints!D:D), ""), 2)), INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 3), Paints!D:D, 0)))</f>
-        <v>Dragon Blood</v>
+        <v>Afro Shadow</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="H10" t="str" cm="1">
         <f t="array" ref="H10">IFERROR(INDEX(Paints!A:A, SMALL(IF(Paints!D:D=LARGE(Paints!D:D, 3), ROW(Paints!D:D), ""), 3)), INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 4), Paints!D:D, 0)))</f>
-        <v>Grimy Grey</v>
+        <v>Dragon Blood</v>
       </c>
       <c r="J10" t="s">
         <v>30</v>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="H11" t="str" cm="1">
         <f t="array" ref="H11">IFERROR(INDEX(Paints!A:A, SMALL(IF(Paints!D:D=LARGE(Paints!D:D, 4), ROW(Paints!D:D), ""), 4)), INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 5), Paints!D:D, 0)))</f>
-        <v>Heavy Warmgrey</v>
+        <v>Grimy Grey</v>
       </c>
       <c r="J11" t="s">
         <v>32</v>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="H12" t="str" cm="1">
         <f t="array" ref="H12">IFERROR(INDEX(Paints!A:A, SMALL(IF(Paints!D:D=LARGE(Paints!D:D, 5), ROW(Paints!D:D), ""), 5)), INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 6), Paints!D:D, 0)))</f>
-        <v>Red Grey</v>
+        <v>Heavy Warmgrey</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -7413,7 +7413,7 @@
       <formula>"Practice"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{E5EC503B-AF18-4AEA-8372-C88D05DDCDE6}">
       <formula1>$J$2:$J$11</formula1>
     </dataValidation>
@@ -7436,8 +7436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD12CC97-8595-4312-A700-76C39152E1F0}">
   <dimension ref="A1:P226"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7512,739 +7512,877 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D65" si="0">SUM(E2,G2,I2,K2,M2,O2)</f>
-        <v>0</v>
+        <f>SUM(E2,G2,I2,K2,M2,O2)</f>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>451</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C3" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(E3,G3,I3,K3,M3,O3)</f>
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>454</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(E4,G4,I4,K4,M4,O4)</f>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>451</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>418</v>
+        <v>471</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
         <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f>SUM(E5,G5,I5,K5,M5,O5)</f>
         <v>3</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>456</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>454</v>
+        <v>455</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>455</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>423</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>277</v>
+        <v>436</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(E6,G6,I6,K6,M6,O6)</f>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>449</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>418</v>
+        <v>448</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(E7,G7,I7,K7,M7,O7)</f>
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(E8,G8,I8,K8,M8,O8)</f>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>457</v>
       </c>
       <c r="M8">
         <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>286</v>
+        <v>398</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(E9,G9,I9,K9,M9,O9)</f>
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>433</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>314</v>
+        <v>379</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(E10,G10,I10,K10,M10,O10)</f>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>418</v>
+        <v>460</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>256</v>
+        <v>410</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(E11,G11,I11,K11,M11,O11)</f>
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>420</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>345</v>
+        <v>443</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C12" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(E12,G12,I12,K12,M12,O12)</f>
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>444</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="B13" t="s">
         <v>275</v>
       </c>
       <c r="C13" t="s">
-        <v>336</v>
+        <v>276</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(E13,G13,I13,K13,M13,O13)</f>
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>455</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>367</v>
+        <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(E14,G14,I14,K14,M14,O14)</f>
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>449</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>331</v>
+        <v>430</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15" t="s">
-        <v>467</v>
+        <f>SUM(E15,G15,I15,K15,M15,O15)</f>
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>462</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="B16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16">
+        <f>SUM(E16,G16,I16,K16,M16,O16)</f>
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>454</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17">
+        <f>SUM(E17,G17,I17,K17,M17,O17)</f>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" t="s">
+        <v>332</v>
+      </c>
+      <c r="D18">
+        <f>SUM(E18,G18,I18,K18,M18,O18)</f>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19">
+        <f>SUM(E19,G19,I19,K19,M19,O19)</f>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20">
+        <f>SUM(E20,G20,I20,K20,M20,O20)</f>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B21" t="s">
         <v>267</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C21" t="s">
         <v>312</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C17" t="s">
-        <v>269</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B18" t="s">
-        <v>267</v>
-      </c>
-      <c r="C18" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B19" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B21" t="s">
-        <v>295</v>
-      </c>
-      <c r="C21" t="s">
-        <v>297</v>
-      </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
-        <v>420</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E21,G21,I21,K21,M21,O21)</f>
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B22" t="s">
         <v>275</v>
       </c>
       <c r="C22" t="s">
-        <v>276</v>
+        <v>332</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>457</v>
+        <f>SUM(E22,G22,I22,K22,M22,O22)</f>
+        <v>1</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N22" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>315</v>
+        <v>385</v>
       </c>
       <c r="B23" t="s">
         <v>267</v>
       </c>
       <c r="C23" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E23,G23,I23,K23,M23,O23)</f>
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="C24" t="s">
-        <v>243</v>
+        <v>332</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>464</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>464</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>464</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
-        <v>447</v>
+        <f>SUM(E24,G24,I24,K24,M24,O24)</f>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>464</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>231</v>
+        <v>390</v>
       </c>
       <c r="B25" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="C25" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>464</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>464</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>464</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>447</v>
+        <f>SUM(E25,G25,I25,K25,M25,O25)</f>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>464</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>220</v>
+        <v>399</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="C26" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E26,G26,I26,K26,M26,O26)</f>
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>316</v>
+        <v>392</v>
       </c>
       <c r="B27" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" t="s">
+        <v>312</v>
+      </c>
+      <c r="D27">
+        <f>SUM(E27,G27,I27,K27,M27,O27)</f>
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B28" t="s">
         <v>295</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>297</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B28" t="s">
-        <v>267</v>
-      </c>
-      <c r="C28" t="s">
-        <v>312</v>
-      </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E28,G28,I28,K28,M28,O28)</f>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>261</v>
+        <v>381</v>
       </c>
       <c r="B29" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="C29" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E29,G29,I29,K29,M29,O29)</f>
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B30" t="s">
         <v>267</v>
       </c>
       <c r="C30" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(E30,G30,I30,K30,M30,O30)</f>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>433</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="B31" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C31" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f>SUM(E31,G31,I31,K31,M31,O31)</f>
         <v>1</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="B32" t="s">
         <v>267</v>
       </c>
       <c r="C32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D32">
+        <f>SUM(E32,G32,I32,K32,M32,O32)</f>
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B33" t="s">
+        <v>275</v>
+      </c>
+      <c r="C33" t="s">
+        <v>336</v>
+      </c>
+      <c r="D33">
+        <f>SUM(E33,G33,I33,K33,M33,O33)</f>
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C34" t="s">
+        <v>312</v>
+      </c>
+      <c r="D34">
+        <f>SUM(E34,G34,I34,K34,M34,O34)</f>
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C35" t="s">
+        <v>312</v>
+      </c>
+      <c r="D35">
+        <f>SUM(E35,G35,I35,K35,M35,O35)</f>
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B36" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" t="s">
+        <v>276</v>
+      </c>
+      <c r="D36">
+        <f>SUM(E36,G36,I36,K36,M36,O36)</f>
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" t="s">
         <v>269</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" t="s">
-        <v>444</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B33" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33" t="s">
-        <v>458</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B34" t="s">
-        <v>234</v>
-      </c>
-      <c r="C34" t="s">
-        <v>246</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B35" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" t="s">
-        <v>239</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" t="s">
-        <v>180</v>
-      </c>
-      <c r="C36" t="s">
-        <v>239</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B37" t="s">
-        <v>275</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37">
+        <f>SUM(E37,G37,I37,K37,M37,O37)</f>
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
         <v>332</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B38" t="s">
         <v>267</v>
@@ -8253,190 +8391,229 @@
         <v>312</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f>SUM(E38,G38,I38,K38,M38,O38)</f>
         <v>1</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C39" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+        <f>SUM(E39,G39,I39,K39,M39,O39)</f>
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
-        <v>325</v>
+        <v>429</v>
       </c>
       <c r="B40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C40" t="s">
+        <v>336</v>
+      </c>
+      <c r="D40">
+        <f>SUM(E40,G40,I40,K40,M40,O40)</f>
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B41" t="s">
         <v>267</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
+        <v>312</v>
+      </c>
+      <c r="D41">
+        <f>SUM(E41,G41,I41,K41,M41,O41)</f>
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B42" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" t="s">
+        <v>312</v>
+      </c>
+      <c r="D42">
+        <f>SUM(E42,G42,I42,K42,M42,O42)</f>
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B43" t="s">
+        <v>295</v>
+      </c>
+      <c r="C43" t="s">
+        <v>297</v>
+      </c>
+      <c r="D43">
+        <f>SUM(E43,G43,I43,K43,M43,O43)</f>
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B44" t="s">
+        <v>267</v>
+      </c>
+      <c r="C44" t="s">
+        <v>292</v>
+      </c>
+      <c r="D44">
+        <f>SUM(E44,G44,I44,K44,M44,O44)</f>
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B45" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45" t="s">
+        <v>312</v>
+      </c>
+      <c r="D45">
+        <f>SUM(E45,G45,I45,K45,M45,O45)</f>
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B46" t="s">
+        <v>295</v>
+      </c>
+      <c r="C46" t="s">
+        <v>297</v>
+      </c>
+      <c r="D46">
+        <f>SUM(E46,G46,I46,K46,M46,O46)</f>
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B47" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" t="s">
         <v>269</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A41" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B41" t="s">
-        <v>180</v>
-      </c>
-      <c r="C41" t="s">
-        <v>238</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A42" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B42" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" t="s">
-        <v>330</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A43" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" t="s">
-        <v>458</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A44" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B44" t="s">
-        <v>275</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D47">
+        <f>SUM(E47,G47,I47,K47,M47,O47)</f>
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
         <v>332</v>
       </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B45" t="s">
-        <v>275</v>
-      </c>
-      <c r="C45" t="s">
-        <v>276</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A46" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B46" t="s">
-        <v>275</v>
-      </c>
-      <c r="C46" t="s">
-        <v>276</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A47" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B47" t="s">
-        <v>275</v>
-      </c>
-      <c r="C47" t="s">
-        <v>332</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>301</v>
+        <v>404</v>
       </c>
       <c r="B48" t="s">
         <v>267</v>
       </c>
       <c r="C48" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E48,G48,I48,K48,M48,O48)</f>
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B49" t="s">
         <v>180</v>
@@ -8445,46 +8622,61 @@
         <v>330</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E49,G49,I49,K49,M49,O49)</f>
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B50" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E50,G50,I50,K50,M50,O50)</f>
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
-        <v>350</v>
+        <v>195</v>
       </c>
       <c r="B51" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="C51" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E51,G51,I51,K51,M51,O51)</f>
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
-        <v>293</v>
+        <v>424</v>
       </c>
       <c r="B52" t="s">
         <v>267</v>
@@ -8493,73 +8685,91 @@
         <v>269</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E52,G52,I52,K52,M52,O52)</f>
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="B53" t="s">
         <v>275</v>
       </c>
       <c r="C53" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E53,G53,I53,K53,M53,O53)</f>
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
-        <v>266</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s">
         <v>267</v>
       </c>
       <c r="C54" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E54,G54,I54,K54,M54,O54)</f>
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s">
         <v>267</v>
       </c>
       <c r="C55" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
+        <f>SUM(E55,G55,I55,K55,M55,O55)</f>
         <v>1</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B56" t="s">
         <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
+        <f>SUM(E56,G56,I56,K56,M56,O56)</f>
         <v>1</v>
       </c>
       <c r="K56">
@@ -8569,9 +8779,9 @@
         <v>433</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
-        <v>306</v>
+        <v>435</v>
       </c>
       <c r="B57" t="s">
         <v>295</v>
@@ -8580,169 +8790,190 @@
         <v>297</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E57,G57,I57,K57,M57,O57)</f>
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
-        <v>306</v>
+        <v>428</v>
       </c>
       <c r="B58" t="s">
+        <v>295</v>
+      </c>
+      <c r="C58" t="s">
+        <v>297</v>
+      </c>
+      <c r="D58">
+        <f>SUM(E58,G58,I58,K58,M58,O58)</f>
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B59" t="s">
         <v>267</v>
       </c>
-      <c r="C58" t="s">
-        <v>288</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A59" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B59" t="s">
-        <v>254</v>
-      </c>
       <c r="C59" t="s">
-        <v>244</v>
+        <v>312</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E59,G59,I59,K59,M59,O59)</f>
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="B60" t="s">
+        <v>275</v>
+      </c>
+      <c r="C60" t="s">
+        <v>276</v>
+      </c>
+      <c r="D60">
+        <f>SUM(E60,G60,I60,K60,M60,O60)</f>
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A61" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>275</v>
+      </c>
+      <c r="C61" t="s">
+        <v>276</v>
+      </c>
+      <c r="D61">
+        <f>SUM(E61,G61,I61,K61,M61,O61)</f>
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A62" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B62" t="s">
         <v>295</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C62" t="s">
         <v>297</v>
       </c>
-      <c r="D60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A61" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B61" t="s">
-        <v>180</v>
-      </c>
-      <c r="C61" t="s">
-        <v>330</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A62" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="D62">
+        <f>SUM(E62,G62,I62,K62,M62,O62)</f>
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A63" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B63" t="s">
         <v>275</v>
       </c>
-      <c r="C62" t="s">
-        <v>336</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A63" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B63" t="s">
-        <v>221</v>
-      </c>
       <c r="C63" t="s">
-        <v>241</v>
+        <v>332</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E63,G63,I63,K63,M63,O63)</f>
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="B64" t="s">
+        <v>267</v>
+      </c>
+      <c r="C64" t="s">
+        <v>269</v>
+      </c>
+      <c r="D64">
+        <f>SUM(E64,G64,I64,K64,M64,O64)</f>
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A65" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B65" t="s">
         <v>295</v>
       </c>
-      <c r="C64" t="s">
-        <v>319</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" t="s">
-        <v>451</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
-        <v>471</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A65" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B65" t="s">
-        <v>267</v>
-      </c>
       <c r="C65" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E65,G65,I65,K65,M65,O65)</f>
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="B66" t="s">
         <v>267</v>
@@ -8751,154 +8982,205 @@
         <v>269</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D129" si="1">SUM(E66,G66,I66,K66,M66,O66)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E66,G66,I66,K66,M66,O66)</f>
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B67" t="s">
         <v>275</v>
       </c>
       <c r="C67" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D67">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E67,G67,I67,K67,M67,O67)</f>
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
-        <v>432</v>
+        <v>222</v>
       </c>
       <c r="B68" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" t="s">
+        <v>242</v>
+      </c>
+      <c r="D68">
+        <f>SUM(E68,G68,I68,K68,M68,O68)</f>
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B69" t="s">
+        <v>295</v>
+      </c>
+      <c r="C69" t="s">
+        <v>297</v>
+      </c>
+      <c r="D69">
+        <f>SUM(E69,G69,I69,K69,M69,O69)</f>
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A70" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B70" t="s">
         <v>267</v>
       </c>
-      <c r="C68" t="s">
-        <v>312</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="L68" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A69" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B69" t="s">
-        <v>275</v>
-      </c>
-      <c r="C69" t="s">
-        <v>336</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A70" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B70" t="s">
-        <v>180</v>
-      </c>
       <c r="C70" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E70,G70,I70,K70,M70,O70)</f>
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
-        <v>359</v>
+        <v>287</v>
       </c>
       <c r="B71" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C71" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E71,G71,I71,K71,M71,O71)</f>
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B72" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="C72" t="s">
         <v>244</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E72,G72,I72,K72,M72,O72)</f>
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="B73" t="s">
+        <v>295</v>
+      </c>
+      <c r="C73" t="s">
+        <v>297</v>
+      </c>
+      <c r="D73">
+        <f>SUM(E73,G73,I73,K73,M73,O73)</f>
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A74" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74" t="s">
+        <v>267</v>
+      </c>
+      <c r="C74" t="s">
+        <v>288</v>
+      </c>
+      <c r="D74">
+        <f>SUM(E74,G74,I74,K74,M74,O74)</f>
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A75" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B75" t="s">
         <v>275</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C75" t="s">
         <v>336</v>
       </c>
-      <c r="D73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A74" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B74" t="s">
-        <v>275</v>
-      </c>
-      <c r="C74" t="s">
-        <v>336</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A75" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B75" t="s">
-        <v>295</v>
-      </c>
-      <c r="C75" t="s">
-        <v>297</v>
-      </c>
       <c r="D75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E75,G75,I75,K75,M75,O75)</f>
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="B76" t="s">
         <v>275</v>
@@ -8907,88 +9189,244 @@
         <v>332</v>
       </c>
       <c r="D76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E76,G76,I76,K76,M76,O76)</f>
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="B77" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C77" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="D77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E77,G77,I77,K77,M77,O77)</f>
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="B78" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C78" t="s">
-        <v>312</v>
+        <v>243</v>
       </c>
       <c r="D78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E78,G78,I78,K78,M78,O78)</f>
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>464</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>464</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>464</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>447</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
+        <v>464</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
-        <v>425</v>
+        <v>231</v>
       </c>
       <c r="B79" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C79" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E79,G79,I79,K79,M79,O79)</f>
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>464</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>464</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" t="s">
+        <v>464</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>447</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
+        <v>464</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
       <c r="B80" t="s">
         <v>267</v>
       </c>
       <c r="C80" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="D80">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(E80,G80,I80,K80,M80,O80)</f>
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>464</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>464</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>464</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>464</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
+        <v>464</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
-        <v>210</v>
+        <v>406</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>407</v>
       </c>
       <c r="C81" t="s">
-        <v>239</v>
+        <v>408</v>
       </c>
       <c r="D81">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(E81,G81,I81,K81,M81,O81)</f>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>464</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>464</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81" t="s">
+        <v>464</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81" t="s">
+        <v>464</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
+        <v>464</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B82" t="s">
         <v>295</v>
@@ -8997,19 +9435,49 @@
         <v>297</v>
       </c>
       <c r="D82">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(E82,G82,I82,K82,M82,O82)</f>
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>464</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>464</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>464</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>420</v>
+        <v>464</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
+        <v>464</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
-        <v>322</v>
+        <v>437</v>
       </c>
       <c r="B83" t="s">
         <v>295</v>
@@ -9018,463 +9486,415 @@
         <v>297</v>
       </c>
       <c r="D83">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(E83,G83,I83,K83,M83,O83)</f>
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>464</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>464</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>464</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83" t="s">
+        <v>464</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>464</v>
       </c>
       <c r="O83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="B84" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C84" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="D84">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(E84,G84,I84,K84,M84,O84)</f>
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>464</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>464</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>464</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84" t="s">
+        <v>464</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
+        <v>464</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B85" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C85" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="D85">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M85">
-        <v>1</v>
-      </c>
-      <c r="N85" t="s">
-        <v>461</v>
+        <f>SUM(E85,G85,I85,K85,M85,O85)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
-        <v>296</v>
+        <v>374</v>
       </c>
       <c r="B86" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C86" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="D86">
-        <f t="shared" si="1"/>
+        <f>SUM(E86,G86,I86,K86,M86,O86)</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="B87" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="C87" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="D87">
-        <f t="shared" si="1"/>
+        <f>SUM(E87,G87,I87,K87,M87,O87)</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
-        <v>395</v>
+        <v>286</v>
       </c>
       <c r="B88" t="s">
         <v>275</v>
       </c>
       <c r="C88" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="D88">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M88">
-        <v>1</v>
-      </c>
-      <c r="N88" t="s">
-        <v>453</v>
+        <f>SUM(E88,G88,I88,K88,M88,O88)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
-        <v>421</v>
+        <v>256</v>
       </c>
       <c r="B89" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="C89" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="D89">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89" t="s">
-        <v>455</v>
-      </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-      <c r="J89" t="s">
-        <v>455</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89" t="s">
-        <v>264</v>
+        <f>SUM(E89,G89,I89,K89,M89,O89)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
-        <v>216</v>
+        <v>345</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="C90" t="s">
-        <v>238</v>
+        <v>332</v>
       </c>
       <c r="D90">
-        <f t="shared" si="1"/>
+        <f>SUM(E90,G90,I90,K90,M90,O90)</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="B91" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C91" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="D91">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M91">
-        <v>1</v>
-      </c>
-      <c r="N91" t="s">
-        <v>461</v>
+        <f>SUM(E91,G91,I91,K91,M91,O91)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="B92" t="s">
         <v>275</v>
       </c>
       <c r="C92" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="D92">
-        <f t="shared" si="1"/>
+        <f>SUM(E92,G92,I92,K92,M92,O92)</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="B93" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C93" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D93">
-        <f t="shared" si="1"/>
+        <f>SUM(E93,G93,I93,K93,M93,O93)</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="B94" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C94" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="D94">
-        <f t="shared" si="1"/>
+        <f>SUM(E94,G94,I94,K94,M94,O94)</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="B95" t="s">
         <v>267</v>
       </c>
       <c r="C95" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="D95">
-        <f t="shared" si="1"/>
+        <f>SUM(E95,G95,I95,K95,M95,O95)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B96" t="s">
         <v>267</v>
       </c>
       <c r="C96" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="D96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E96,G96,I96,K96,M96,O96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="B97" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C97" t="s">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="D97">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="L97" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E97,G97,I97,K97,M97,O97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B98" t="s">
         <v>267</v>
       </c>
       <c r="C98" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="D98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E98,G98,I98,K98,M98,O98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
-        <v>379</v>
+        <v>261</v>
       </c>
       <c r="B99" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C99" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="D99">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99" t="s">
-        <v>460</v>
-      </c>
-      <c r="M99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E99,G99,I99,K99,M99,O99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
-        <v>436</v>
+        <v>182</v>
       </c>
       <c r="B100" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="C100" t="s">
-        <v>292</v>
+        <v>458</v>
       </c>
       <c r="D100">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100" t="s">
-        <v>449</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100" t="s">
-        <v>448</v>
-      </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-      <c r="L100" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E100,G100,I100,K100,M100,O100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B101" t="s">
+        <v>234</v>
+      </c>
+      <c r="C101" t="s">
+        <v>246</v>
+      </c>
+      <c r="D101">
+        <f>SUM(E101,G101,I101,K101,M101,O101)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B102" t="s">
         <v>180</v>
       </c>
-      <c r="C101" t="s">
-        <v>330</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A102" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B102" t="s">
-        <v>267</v>
-      </c>
       <c r="C102" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="D102">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="F102" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E102,G102,I102,K102,M102,O102)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
-        <v>305</v>
+        <v>209</v>
       </c>
       <c r="B103" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="C103" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="D103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E103,G103,I103,K103,M103,O103)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B104" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C104" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="D104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104" t="s">
-        <v>464</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104" t="s">
-        <v>464</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104" t="s">
-        <v>464</v>
-      </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
-      <c r="L104" t="s">
-        <v>464</v>
-      </c>
-      <c r="M104">
-        <v>0</v>
-      </c>
-      <c r="N104" t="s">
-        <v>464</v>
-      </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-      <c r="P104" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E104,G104,I104,K104,M104,O104)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
-        <v>349</v>
+        <v>262</v>
       </c>
       <c r="B105" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C105" t="s">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c r="D105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E105,G105,I105,K105,M105,O105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B106" t="s">
         <v>180</v>
@@ -9483,106 +9903,88 @@
         <v>238</v>
       </c>
       <c r="D106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E106,G106,I106,K106,M106,O106)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="2" t="s">
-        <v>304</v>
+        <v>207</v>
       </c>
       <c r="B107" t="s">
+        <v>180</v>
+      </c>
+      <c r="C107" t="s">
+        <v>330</v>
+      </c>
+      <c r="D107">
+        <f>SUM(E107,G107,I107,K107,M107,O107)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B108" t="s">
+        <v>180</v>
+      </c>
+      <c r="C108" t="s">
+        <v>458</v>
+      </c>
+      <c r="D108">
+        <f>SUM(E108,G108,I108,K108,M108,O108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B109" t="s">
+        <v>275</v>
+      </c>
+      <c r="C109" t="s">
+        <v>332</v>
+      </c>
+      <c r="D109">
+        <f>SUM(E109,G109,I109,K109,M109,O109)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B110" t="s">
         <v>267</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C110" t="s">
         <v>269</v>
       </c>
-      <c r="D107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A108" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B108" t="s">
-        <v>275</v>
-      </c>
-      <c r="C108" t="s">
-        <v>276</v>
-      </c>
-      <c r="D108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A109" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B109" t="s">
-        <v>295</v>
-      </c>
-      <c r="C109" t="s">
-        <v>297</v>
-      </c>
-      <c r="D109">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109" t="s">
-        <v>454</v>
-      </c>
-      <c r="O109">
-        <v>1</v>
-      </c>
-      <c r="P109" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A110" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B110" t="s">
-        <v>275</v>
-      </c>
-      <c r="C110" t="s">
-        <v>332</v>
-      </c>
       <c r="D110">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M110">
-        <v>1</v>
-      </c>
-      <c r="N110" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E110,G110,I110,K110,M110,O110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
-        <v>360</v>
+        <v>199</v>
       </c>
       <c r="B111" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="C111" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E111,G111,I111,K111,M111,O111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B112" t="s">
         <v>275</v>
@@ -9591,166 +9993,88 @@
         <v>336</v>
       </c>
       <c r="D112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E112,G112,I112,K112,M112,O112)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
-        <v>441</v>
+        <v>293</v>
       </c>
       <c r="B113" t="s">
         <v>267</v>
       </c>
       <c r="C113" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="D113">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
-      <c r="L113" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E113,G113,I113,K113,M113,O113)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="B114" t="s">
         <v>275</v>
       </c>
       <c r="C114" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E114,G114,I114,K114,M114,O114)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="B115" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="C115" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="D115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E115,G115,I115,K115,M115,O115)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
       <c r="B116" t="s">
-        <v>407</v>
+        <v>295</v>
       </c>
       <c r="C116" t="s">
-        <v>408</v>
+        <v>297</v>
       </c>
       <c r="D116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116" t="s">
-        <v>464</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116" t="s">
-        <v>464</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116" t="s">
-        <v>464</v>
-      </c>
-      <c r="K116">
-        <v>0</v>
-      </c>
-      <c r="L116" t="s">
-        <v>464</v>
-      </c>
-      <c r="M116">
-        <v>0</v>
-      </c>
-      <c r="N116" t="s">
-        <v>464</v>
-      </c>
-      <c r="O116">
-        <v>0</v>
-      </c>
-      <c r="P116" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E116,G116,I116,K116,M116,O116)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
-        <v>411</v>
+        <v>255</v>
       </c>
       <c r="B117" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="C117" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="D117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117" t="s">
-        <v>464</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117" t="s">
-        <v>464</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117" t="s">
-        <v>464</v>
-      </c>
-      <c r="K117">
-        <v>0</v>
-      </c>
-      <c r="L117" t="s">
-        <v>464</v>
-      </c>
-      <c r="M117">
-        <v>0</v>
-      </c>
-      <c r="N117" t="s">
-        <v>464</v>
-      </c>
-      <c r="O117">
-        <v>0</v>
-      </c>
-      <c r="P117" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E117,G117,I117,K117,M117,O117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
       <c r="B118" t="s">
         <v>295</v>
@@ -9759,610 +10083,508 @@
         <v>297</v>
       </c>
       <c r="D118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118" t="s">
-        <v>464</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118" t="s">
-        <v>464</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118" t="s">
-        <v>464</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118" t="s">
-        <v>464</v>
-      </c>
-      <c r="M118">
-        <v>0</v>
-      </c>
-      <c r="N118" t="s">
-        <v>464</v>
-      </c>
-      <c r="O118">
-        <v>0</v>
-      </c>
-      <c r="P118" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E118,G118,I118,K118,M118,O118)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
-        <v>390</v>
+        <v>200</v>
       </c>
       <c r="B119" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="C119" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D119">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M119">
-        <v>1</v>
-      </c>
-      <c r="N119" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E119,G119,I119,K119,M119,O119)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
-        <v>298</v>
+        <v>223</v>
       </c>
       <c r="B120" t="s">
+        <v>221</v>
+      </c>
+      <c r="C120" t="s">
+        <v>241</v>
+      </c>
+      <c r="D120">
+        <f>SUM(E120,G120,I120,K120,M120,O120)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A121" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B121" t="s">
         <v>267</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>269</v>
       </c>
-      <c r="D120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A121" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B121" t="s">
-        <v>295</v>
-      </c>
-      <c r="C121" t="s">
-        <v>297</v>
-      </c>
       <c r="D121">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M121">
-        <v>1</v>
-      </c>
-      <c r="N121" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E121,G121,I121,K121,M121,O121)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="B122" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C122" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="D122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E122,G122,I122,K122,M122,O122)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
-        <v>426</v>
+        <v>341</v>
       </c>
       <c r="B123" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C123" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="D123">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K123">
-        <v>1</v>
-      </c>
-      <c r="L123" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E123,G123,I123,K123,M123,O123)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
-        <v>354</v>
+        <v>217</v>
       </c>
       <c r="B124" t="s">
+        <v>180</v>
+      </c>
+      <c r="C124" t="s">
+        <v>238</v>
+      </c>
+      <c r="D124">
+        <f>SUM(E124,G124,I124,K124,M124,O124)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A125" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B125" t="s">
         <v>275</v>
       </c>
-      <c r="C124" t="s">
-        <v>332</v>
-      </c>
-      <c r="D124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A125" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B125" t="s">
-        <v>180</v>
-      </c>
       <c r="C125" t="s">
-        <v>458</v>
+        <v>336</v>
       </c>
       <c r="D125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E125,G125,I125,K125,M125,O125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="B126" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="D126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E126,G126,I126,K126,M126,O126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B127" t="s">
         <v>275</v>
       </c>
       <c r="C127" t="s">
+        <v>336</v>
+      </c>
+      <c r="D127">
+        <f>SUM(E127,G127,I127,K127,M127,O127)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A128" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B128" t="s">
+        <v>275</v>
+      </c>
+      <c r="C128" t="s">
+        <v>336</v>
+      </c>
+      <c r="D128">
+        <f>SUM(E128,G128,I128,K128,M128,O128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A129" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B129" t="s">
+        <v>295</v>
+      </c>
+      <c r="C129" t="s">
+        <v>297</v>
+      </c>
+      <c r="D129">
+        <f>SUM(E129,G129,I129,K129,M129,O129)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A130" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B130" t="s">
+        <v>275</v>
+      </c>
+      <c r="C130" t="s">
         <v>332</v>
       </c>
-      <c r="D127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A128" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B128" t="s">
+      <c r="D130">
+        <f>SUM(E130,G130,I130,K130,M130,O130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A131" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B131" t="s">
         <v>267</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C131" t="s">
         <v>269</v>
       </c>
-      <c r="D128">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K128">
-        <v>1</v>
-      </c>
-      <c r="L128" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A129" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B129" t="s">
-        <v>254</v>
-      </c>
-      <c r="C129" t="s">
-        <v>244</v>
-      </c>
-      <c r="D129">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A130" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="D131">
+        <f>SUM(E131,G131,I131,K131,M131,O131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A132" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B132" t="s">
         <v>267</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C132" t="s">
         <v>312</v>
       </c>
-      <c r="D130">
-        <f t="shared" ref="D130:D193" si="2">SUM(E130,G130,I130,K130,M130,O130)</f>
-        <v>1</v>
-      </c>
-      <c r="K130">
-        <v>1</v>
-      </c>
-      <c r="L130" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A131" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="D132">
+        <f>SUM(E132,G132,I132,K132,M132,O132)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A133" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B133" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133" t="s">
+        <v>268</v>
+      </c>
+      <c r="D133">
+        <f>SUM(E133,G133,I133,K133,M133,O133)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A134" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" t="s">
+        <v>312</v>
+      </c>
+      <c r="D134">
+        <f>SUM(E134,G134,I134,K134,M134,O134)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A135" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B135" t="s">
+        <v>180</v>
+      </c>
+      <c r="C135" t="s">
+        <v>239</v>
+      </c>
+      <c r="D135">
+        <f>SUM(E135,G135,I135,K135,M135,O135)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A136" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B136" t="s">
+        <v>295</v>
+      </c>
+      <c r="C136" t="s">
+        <v>297</v>
+      </c>
+      <c r="D136">
+        <f>SUM(E136,G136,I136,K136,M136,O136)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A137" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B137" t="s">
+        <v>267</v>
+      </c>
+      <c r="C137" t="s">
+        <v>269</v>
+      </c>
+      <c r="D137">
+        <f>SUM(E137,G137,I137,K137,M137,O137)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A138" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B138" t="s">
+        <v>180</v>
+      </c>
+      <c r="C138" t="s">
+        <v>238</v>
+      </c>
+      <c r="D138">
+        <f>SUM(E138,G138,I138,K138,M138,O138)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A139" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B139" t="s">
         <v>275</v>
       </c>
-      <c r="C131" t="s">
-        <v>336</v>
-      </c>
-      <c r="D131">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A132" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="C139" t="s">
+        <v>276</v>
+      </c>
+      <c r="D139">
+        <f>SUM(E139,G139,I139,K139,M139,O139)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A140" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B140" t="s">
         <v>275</v>
       </c>
-      <c r="C132" t="s">
-        <v>332</v>
-      </c>
-      <c r="D132">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A133" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B133" t="s">
-        <v>180</v>
-      </c>
-      <c r="C133" t="s">
-        <v>238</v>
-      </c>
-      <c r="D133">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A134" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B134" t="s">
-        <v>275</v>
-      </c>
-      <c r="C134" t="s">
-        <v>332</v>
-      </c>
-      <c r="D134">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A135" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="C140" t="s">
+        <v>276</v>
+      </c>
+      <c r="D140">
+        <f>SUM(E140,G140,I140,K140,M140,O140)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A141" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B141" t="s">
         <v>267</v>
       </c>
-      <c r="C135" t="s">
-        <v>288</v>
-      </c>
-      <c r="D135">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E135">
-        <v>1</v>
-      </c>
-      <c r="F135" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A136" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B136" t="s">
-        <v>234</v>
-      </c>
-      <c r="C136" t="s">
-        <v>244</v>
-      </c>
-      <c r="D136">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A137" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B137" t="s">
-        <v>234</v>
-      </c>
-      <c r="C137" t="s">
-        <v>244</v>
-      </c>
-      <c r="D137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A138" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B138" t="s">
-        <v>234</v>
-      </c>
-      <c r="C138" t="s">
-        <v>244</v>
-      </c>
-      <c r="D138">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A139" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B139" t="s">
-        <v>234</v>
-      </c>
-      <c r="C139" t="s">
-        <v>244</v>
-      </c>
-      <c r="D139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A140" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B140" t="s">
-        <v>234</v>
-      </c>
-      <c r="C140" t="s">
-        <v>244</v>
-      </c>
-      <c r="D140">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G140">
-        <v>1</v>
-      </c>
-      <c r="H140" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A141" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B141" t="s">
-        <v>234</v>
-      </c>
       <c r="C141" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="D141">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E141,G141,I141,K141,M141,O141)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B142" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C142" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="D142">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E142,G142,I142,K142,M142,O142)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
-        <v>392</v>
+        <v>318</v>
       </c>
       <c r="B143" t="s">
         <v>267</v>
       </c>
       <c r="C143" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="D143">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M143">
-        <v>1</v>
-      </c>
-      <c r="N143" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E143,G143,I143,K143,M143,O143)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="2" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
       <c r="B144" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C144" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="D144">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E144,G144,I144,K144,M144,O144)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B145" t="s">
         <v>180</v>
       </c>
       <c r="C145" t="s">
-        <v>458</v>
+        <v>330</v>
       </c>
       <c r="D145">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E145,G145,I145,K145,M145,O145)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="2" t="s">
-        <v>194</v>
+        <v>305</v>
       </c>
       <c r="B146" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="C146" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="D146">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K146">
-        <v>1</v>
-      </c>
-      <c r="L146" t="s">
+        <f>SUM(E146,G146,I146,K146,M146,O146)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A147" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B147" t="s">
+        <v>275</v>
+      </c>
+      <c r="C147" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A147" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B147" t="s">
-        <v>180</v>
-      </c>
-      <c r="C147" t="s">
-        <v>330</v>
-      </c>
       <c r="D147">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K147">
-        <v>1</v>
-      </c>
-      <c r="L147" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E147,G147,I147,K147,M147,O147)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="B148" t="s">
         <v>180</v>
       </c>
       <c r="C148" t="s">
-        <v>330</v>
+        <v>238</v>
       </c>
       <c r="D148">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K148">
-        <v>1</v>
-      </c>
-      <c r="L148" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E148,G148,I148,K148,M148,O148)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
-        <v>206</v>
+        <v>304</v>
       </c>
       <c r="B149" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="C149" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="D149">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E149,G149,I149,K149,M149,O149)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="B150" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C150" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D150">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E150,G150,I150,K150,M150,O150)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="B151" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C151" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="D151">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E151,G151,I151,K151,M151,O151)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B152" t="s">
         <v>275</v>
@@ -10371,13 +10593,13 @@
         <v>336</v>
       </c>
       <c r="D152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E152,G152,I152,K152,M152,O152)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="2" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B153" t="s">
         <v>275</v>
@@ -10386,922 +10608,778 @@
         <v>332</v>
       </c>
       <c r="D153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+        <f>SUM(E153,G153,I153,K153,M153,O153)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B154" t="s">
         <v>180</v>
       </c>
       <c r="C154" t="s">
+        <v>239</v>
+      </c>
+      <c r="D154">
+        <f>SUM(E154,G154,I154,K154,M154,O154)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A155" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B155" t="s">
+        <v>267</v>
+      </c>
+      <c r="C155" t="s">
+        <v>269</v>
+      </c>
+      <c r="D155">
+        <f>SUM(E155,G155,I155,K155,M155,O155)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A156" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B156" t="s">
+        <v>295</v>
+      </c>
+      <c r="C156" t="s">
+        <v>297</v>
+      </c>
+      <c r="D156">
+        <f>SUM(E156,G156,I156,K156,M156,O156)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A157" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B157" t="s">
+        <v>275</v>
+      </c>
+      <c r="C157" t="s">
+        <v>332</v>
+      </c>
+      <c r="D157">
+        <f>SUM(E157,G157,I157,K157,M157,O157)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A158" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B158" t="s">
+        <v>180</v>
+      </c>
+      <c r="C158" t="s">
         <v>458</v>
       </c>
-      <c r="D154">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A155" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B155" t="s">
+      <c r="D158">
+        <f>SUM(E158,G158,I158,K158,M158,O158)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A159" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B159" t="s">
         <v>180</v>
       </c>
-      <c r="C155" t="s">
-        <v>458</v>
-      </c>
-      <c r="D155">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A156" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B156" t="s">
+      <c r="C159" t="s">
+        <v>330</v>
+      </c>
+      <c r="D159">
+        <f>SUM(E159,G159,I159,K159,M159,O159)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A160" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B160" t="s">
+        <v>275</v>
+      </c>
+      <c r="C160" t="s">
+        <v>332</v>
+      </c>
+      <c r="D160">
+        <f>SUM(E160,G160,I160,K160,M160,O160)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A161" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B161" t="s">
+        <v>254</v>
+      </c>
+      <c r="C161" t="s">
+        <v>244</v>
+      </c>
+      <c r="D161">
+        <f>SUM(E161,G161,I161,K161,M161,O161)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A162" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B162" t="s">
+        <v>275</v>
+      </c>
+      <c r="C162" t="s">
+        <v>336</v>
+      </c>
+      <c r="D162">
+        <f>SUM(E162,G162,I162,K162,M162,O162)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A163" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B163" t="s">
+        <v>275</v>
+      </c>
+      <c r="C163" t="s">
+        <v>332</v>
+      </c>
+      <c r="D163">
+        <f>SUM(E163,G163,I163,K163,M163,O163)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A164" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B164" t="s">
         <v>180</v>
       </c>
-      <c r="C156" t="s">
-        <v>458</v>
-      </c>
-      <c r="D156">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A157" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B157" t="s">
-        <v>234</v>
-      </c>
-      <c r="C157" t="s">
-        <v>244</v>
-      </c>
-      <c r="D157">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A158" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B158" t="s">
-        <v>275</v>
-      </c>
-      <c r="C158" t="s">
-        <v>336</v>
-      </c>
-      <c r="D158">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A159" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B159" t="s">
-        <v>295</v>
-      </c>
-      <c r="C159" t="s">
-        <v>297</v>
-      </c>
-      <c r="D159">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A160" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B160" t="s">
-        <v>267</v>
-      </c>
-      <c r="C160" t="s">
-        <v>269</v>
-      </c>
-      <c r="D160">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A161" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B161" t="s">
-        <v>295</v>
-      </c>
-      <c r="C161" t="s">
-        <v>297</v>
-      </c>
-      <c r="D161">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A162" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B162" t="s">
-        <v>180</v>
-      </c>
-      <c r="C162" t="s">
-        <v>330</v>
-      </c>
-      <c r="D162">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A163" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B163" t="s">
-        <v>295</v>
-      </c>
-      <c r="C163" t="s">
-        <v>297</v>
-      </c>
-      <c r="D163">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A164" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B164" t="s">
-        <v>275</v>
-      </c>
       <c r="C164" t="s">
-        <v>332</v>
+        <v>238</v>
       </c>
       <c r="D164">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E164,G164,I164,K164,M164,O164)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="2" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="B165" t="s">
         <v>275</v>
       </c>
       <c r="C165" t="s">
+        <v>332</v>
+      </c>
+      <c r="D165">
+        <f>SUM(E165,G165,I165,K165,M165,O165)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A166" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B166" t="s">
+        <v>234</v>
+      </c>
+      <c r="C166" t="s">
+        <v>244</v>
+      </c>
+      <c r="D166">
+        <f>SUM(E166,G166,I166,K166,M166,O166)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A167" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B167" t="s">
+        <v>234</v>
+      </c>
+      <c r="C167" t="s">
+        <v>244</v>
+      </c>
+      <c r="D167">
+        <f>SUM(E167,G167,I167,K167,M167,O167)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A168" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B168" t="s">
+        <v>234</v>
+      </c>
+      <c r="C168" t="s">
+        <v>244</v>
+      </c>
+      <c r="D168">
+        <f>SUM(E168,G168,I168,K168,M168,O168)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A169" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B169" t="s">
+        <v>234</v>
+      </c>
+      <c r="C169" t="s">
+        <v>244</v>
+      </c>
+      <c r="D169">
+        <f>SUM(E169,G169,I169,K169,M169,O169)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A170" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B170" t="s">
+        <v>234</v>
+      </c>
+      <c r="C170" t="s">
+        <v>244</v>
+      </c>
+      <c r="D170">
+        <f>SUM(E170,G170,I170,K170,M170,O170)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A171" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B171" t="s">
+        <v>275</v>
+      </c>
+      <c r="C171" t="s">
         <v>276</v>
       </c>
-      <c r="D165">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E165">
-        <v>1</v>
-      </c>
-      <c r="F165" t="s">
-        <v>455</v>
-      </c>
-      <c r="K165">
-        <v>1</v>
-      </c>
-      <c r="L165" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A166" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B166" t="s">
-        <v>180</v>
-      </c>
-      <c r="C166" t="s">
-        <v>458</v>
-      </c>
-      <c r="D166">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A167" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B167" t="s">
-        <v>221</v>
-      </c>
-      <c r="C167" t="s">
-        <v>242</v>
-      </c>
-      <c r="D167">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E167">
-        <v>1</v>
-      </c>
-      <c r="F167" t="s">
-        <v>449</v>
-      </c>
-      <c r="G167">
-        <v>1</v>
-      </c>
-      <c r="H167" t="s">
-        <v>448</v>
-      </c>
-      <c r="K167">
-        <v>1</v>
-      </c>
-      <c r="L167" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A168" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B168" t="s">
-        <v>180</v>
-      </c>
-      <c r="C168" t="s">
-        <v>458</v>
-      </c>
-      <c r="D168">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A169" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B169" t="s">
-        <v>295</v>
-      </c>
-      <c r="C169" t="s">
-        <v>297</v>
-      </c>
-      <c r="D169">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M169">
-        <v>1</v>
-      </c>
-      <c r="N169" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A170" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B170" t="s">
-        <v>275</v>
-      </c>
-      <c r="C170" t="s">
-        <v>332</v>
-      </c>
-      <c r="D170">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A171" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B171" t="s">
-        <v>180</v>
-      </c>
-      <c r="C171" t="s">
-        <v>330</v>
-      </c>
       <c r="D171">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E171,G171,I171,K171,M171,O171)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="2" t="s">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="B172" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="C172" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="D172">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O172">
-        <v>1</v>
-      </c>
-      <c r="P172" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E172,G172,I172,K172,M172,O172)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="2" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B173" t="s">
         <v>180</v>
       </c>
       <c r="C173" t="s">
-        <v>239</v>
+        <v>458</v>
       </c>
       <c r="D173">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E173,G173,I173,K173,M173,O173)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="2" t="s">
-        <v>381</v>
+        <v>206</v>
       </c>
       <c r="B174" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="C174" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D174">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M174">
-        <v>1</v>
-      </c>
-      <c r="N174" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E174,G174,I174,K174,M174,O174)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="2" t="s">
-        <v>393</v>
+        <v>303</v>
       </c>
       <c r="B175" t="s">
         <v>267</v>
       </c>
       <c r="C175" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="D175">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M175">
-        <v>1</v>
-      </c>
-      <c r="N175" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E175,G175,I175,K175,M175,O175)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B176" t="s">
         <v>267</v>
       </c>
       <c r="C176" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D176">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E176,G176,I176,K176,M176,O176)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="2" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="B177" t="s">
         <v>275</v>
       </c>
       <c r="C177" t="s">
+        <v>336</v>
+      </c>
+      <c r="D177">
+        <f>SUM(E177,G177,I177,K177,M177,O177)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A178" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B178" t="s">
+        <v>275</v>
+      </c>
+      <c r="C178" t="s">
         <v>332</v>
       </c>
-      <c r="D177">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A178" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B178" t="s">
-        <v>267</v>
-      </c>
-      <c r="C178" t="s">
-        <v>312</v>
-      </c>
       <c r="D178">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M178">
-        <v>1</v>
-      </c>
-      <c r="N178" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E178,G178,I178,K178,M178,O178)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="2" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="B179" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>297</v>
+        <v>458</v>
       </c>
       <c r="D179">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E179">
-        <v>1</v>
-      </c>
-      <c r="F179" t="s">
-        <v>449</v>
-      </c>
-      <c r="K179">
-        <v>1</v>
-      </c>
-      <c r="L179" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E179,G179,I179,K179,M179,O179)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="2" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="B180" t="s">
         <v>180</v>
       </c>
       <c r="C180" t="s">
-        <v>239</v>
+        <v>458</v>
       </c>
       <c r="D180">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E180,G180,I180,K180,M180,O180)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="2" t="s">
-        <v>282</v>
+        <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>276</v>
+        <v>458</v>
       </c>
       <c r="D181">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E181,G181,I181,K181,M181,O181)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="2" t="s">
-        <v>424</v>
+        <v>236</v>
       </c>
       <c r="B182" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="C182" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="D182">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K182">
-        <v>1</v>
-      </c>
-      <c r="L182" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E182,G182,I182,K182,M182,O182)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="2" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="B183" t="s">
         <v>275</v>
       </c>
       <c r="C183" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="D183">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E183,G183,I183,K183,M183,O183)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="2" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="B184" t="s">
+        <v>295</v>
+      </c>
+      <c r="C184" t="s">
+        <v>297</v>
+      </c>
+      <c r="D184">
+        <f>SUM(E184,G184,I184,K184,M184,O184)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A185" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B185" t="s">
+        <v>267</v>
+      </c>
+      <c r="C185" t="s">
+        <v>269</v>
+      </c>
+      <c r="D185">
+        <f>SUM(E185,G185,I185,K185,M185,O185)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A186" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B186" t="s">
+        <v>295</v>
+      </c>
+      <c r="C186" t="s">
+        <v>297</v>
+      </c>
+      <c r="D186">
+        <f>SUM(E186,G186,I186,K186,M186,O186)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A187" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B187" t="s">
+        <v>180</v>
+      </c>
+      <c r="C187" t="s">
+        <v>330</v>
+      </c>
+      <c r="D187">
+        <f>SUM(E187,G187,I187,K187,M187,O187)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A188" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B188" t="s">
+        <v>295</v>
+      </c>
+      <c r="C188" t="s">
+        <v>297</v>
+      </c>
+      <c r="D188">
+        <f>SUM(E188,G188,I188,K188,M188,O188)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A189" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B189" t="s">
         <v>275</v>
       </c>
-      <c r="C184" t="s">
-        <v>336</v>
-      </c>
-      <c r="D184">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A185" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B185" t="s">
-        <v>275</v>
-      </c>
-      <c r="C185" t="s">
+      <c r="C189" t="s">
         <v>332</v>
       </c>
-      <c r="D185">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K185">
-        <v>1</v>
-      </c>
-      <c r="L185" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A186" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B186" t="s">
-        <v>267</v>
-      </c>
-      <c r="C186" t="s">
-        <v>269</v>
-      </c>
-      <c r="D186">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K186">
-        <v>1</v>
-      </c>
-      <c r="L186" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A187" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B187" t="s">
-        <v>267</v>
-      </c>
-      <c r="C187" t="s">
-        <v>312</v>
-      </c>
-      <c r="D187">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M187">
-        <v>1</v>
-      </c>
-      <c r="N187" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A188" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B188" t="s">
+      <c r="D189">
+        <f>SUM(E189,G189,I189,K189,M189,O189)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A190" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
         <v>180</v>
       </c>
-      <c r="C188" t="s">
-        <v>238</v>
-      </c>
-      <c r="D188">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A189" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B189" t="s">
-        <v>267</v>
-      </c>
-      <c r="C189" t="s">
-        <v>269</v>
-      </c>
-      <c r="D189">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A190" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B190" t="s">
-        <v>267</v>
-      </c>
       <c r="C190" t="s">
-        <v>269</v>
+        <v>458</v>
       </c>
       <c r="D190">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E190,G190,I190,K190,M190,O190)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="2" t="s">
-        <v>361</v>
+        <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="C191" t="s">
-        <v>336</v>
+        <v>458</v>
       </c>
       <c r="D191">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E191,G191,I191,K191,M191,O191)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="2" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B192" t="s">
         <v>275</v>
       </c>
       <c r="C192" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D192">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E192,G192,I192,K192,M192,O192)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="2" t="s">
-        <v>409</v>
+        <v>202</v>
       </c>
       <c r="B193" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="C193" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D193">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E193">
-        <v>0</v>
-      </c>
-      <c r="F193" t="s">
-        <v>464</v>
-      </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
-      <c r="H193" t="s">
-        <v>464</v>
-      </c>
-      <c r="I193">
-        <v>0</v>
-      </c>
-      <c r="J193" t="s">
-        <v>464</v>
-      </c>
-      <c r="K193">
-        <v>0</v>
-      </c>
-      <c r="L193" t="s">
-        <v>464</v>
-      </c>
-      <c r="M193">
-        <v>0</v>
-      </c>
-      <c r="N193" t="s">
-        <v>464</v>
-      </c>
-      <c r="O193">
-        <v>0</v>
-      </c>
-      <c r="P193" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E193,G193,I193,K193,M193,O193)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="2" t="s">
-        <v>355</v>
+        <v>212</v>
       </c>
       <c r="B194" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="C194" t="s">
-        <v>332</v>
+        <v>239</v>
       </c>
       <c r="D194">
-        <f t="shared" ref="D194:D257" si="3">SUM(E194,G194,I194,K194,M194,O194)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E194,G194,I194,K194,M194,O194)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="2" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="B195" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C195" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="D195">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E195,G195,I195,K195,M195,O195)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="2" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="B196" t="s">
         <v>275</v>
       </c>
       <c r="C196" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D196">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E196,G196,I196,K196,M196,O196)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="2" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="B197" t="s">
         <v>180</v>
       </c>
       <c r="C197" t="s">
-        <v>458</v>
+        <v>239</v>
       </c>
       <c r="D197">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E197,G197,I197,K197,M197,O197)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="2" t="s">
-        <v>181</v>
+        <v>282</v>
       </c>
       <c r="B198" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="C198" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="D198">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E198,G198,I198,K198,M198,O198)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="2" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="B199" t="s">
+        <v>275</v>
+      </c>
+      <c r="C199" t="s">
+        <v>276</v>
+      </c>
+      <c r="D199">
+        <f>SUM(E199,G199,I199,K199,M199,O199)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A200" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B200" t="s">
+        <v>275</v>
+      </c>
+      <c r="C200" t="s">
+        <v>336</v>
+      </c>
+      <c r="D200">
+        <f>SUM(E200,G200,I200,K200,M200,O200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A201" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B201" t="s">
         <v>180</v>
       </c>
-      <c r="C199" t="s">
-        <v>330</v>
-      </c>
-      <c r="D199">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A200" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B200" t="s">
+      <c r="C201" t="s">
+        <v>238</v>
+      </c>
+      <c r="D201">
+        <f>SUM(E201,G201,I201,K201,M201,O201)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A202" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B202" t="s">
         <v>267</v>
       </c>
-      <c r="C200" t="s">
-        <v>312</v>
-      </c>
-      <c r="D200">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K200">
-        <v>1</v>
-      </c>
-      <c r="L200" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A201" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B201" t="s">
-        <v>234</v>
-      </c>
-      <c r="C201" t="s">
-        <v>244</v>
-      </c>
-      <c r="D201">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A202" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
+        <v>269</v>
+      </c>
+      <c r="D202">
+        <f>SUM(E202,G202,I202,K202,M202,O202)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A203" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B203" t="s">
+        <v>267</v>
+      </c>
+      <c r="C203" t="s">
+        <v>269</v>
+      </c>
+      <c r="D203">
+        <f>SUM(E203,G203,I203,K203,M203,O203)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A204" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B204" t="s">
         <v>275</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C204" t="s">
         <v>336</v>
       </c>
-      <c r="D202">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A203" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B203" t="s">
-        <v>254</v>
-      </c>
-      <c r="C203" t="s">
-        <v>244</v>
-      </c>
-      <c r="D203">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A204" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B204" t="s">
-        <v>267</v>
-      </c>
-      <c r="C204" t="s">
-        <v>288</v>
-      </c>
       <c r="D204">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G204">
-        <v>1</v>
-      </c>
-      <c r="H204" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E204,G204,I204,K204,M204,O204)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="2" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="B205" t="s">
         <v>275</v>
@@ -11310,49 +11388,43 @@
         <v>336</v>
       </c>
       <c r="D205">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M205">
-        <v>1</v>
-      </c>
-      <c r="N205" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E205,G205,I205,K205,M205,O205)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="2" t="s">
-        <v>203</v>
+        <v>355</v>
       </c>
       <c r="B206" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="C206" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D206">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E206,G206,I206,K206,M206,O206)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="2" t="s">
-        <v>260</v>
+        <v>356</v>
       </c>
       <c r="B207" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C207" t="s">
-        <v>244</v>
+        <v>332</v>
       </c>
       <c r="D207">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E207,G207,I207,K207,M207,O207)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="2" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B208" t="s">
         <v>275</v>
@@ -11361,76 +11433,58 @@
         <v>336</v>
       </c>
       <c r="D208">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O208">
-        <v>1</v>
-      </c>
-      <c r="P208" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E208,G208,I208,K208,M208,O208)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="2" t="s">
-        <v>438</v>
+        <v>181</v>
       </c>
       <c r="B209" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="C209" t="s">
-        <v>288</v>
+        <v>458</v>
       </c>
       <c r="D209">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K209">
-        <v>1</v>
-      </c>
-      <c r="L209" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E209,G209,I209,K209,M209,O209)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="2" t="s">
-        <v>435</v>
+        <v>181</v>
       </c>
       <c r="B210" t="s">
-        <v>295</v>
+        <v>234</v>
       </c>
       <c r="C210" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="D210">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K210">
-        <v>1</v>
-      </c>
-      <c r="L210" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E210,G210,I210,K210,M210,O210)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="2" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="B211" t="s">
         <v>180</v>
       </c>
       <c r="C211" t="s">
-        <v>458</v>
+        <v>330</v>
       </c>
       <c r="D211">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E211,G211,I211,K211,M211,O211)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B212" t="s">
         <v>234</v>
@@ -11439,272 +11493,218 @@
         <v>244</v>
       </c>
       <c r="D212">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E212,G212,I212,K212,M212,O212)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="2" t="s">
-        <v>428</v>
+        <v>343</v>
       </c>
       <c r="B213" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C213" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="D213">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K213">
-        <v>1</v>
-      </c>
-      <c r="L213" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.45">
+        <f>SUM(E213,G213,I213,K213,M213,O213)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B214" t="s">
+        <v>254</v>
+      </c>
+      <c r="C214" t="s">
+        <v>244</v>
+      </c>
+      <c r="D214">
+        <f>SUM(E214,G214,I214,K214,M214,O214)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A215" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B215" t="s">
+        <v>180</v>
+      </c>
+      <c r="C215" t="s">
+        <v>330</v>
+      </c>
+      <c r="D215">
+        <f>SUM(E215,G215,I215,K215,M215,O215)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A216" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B216" t="s">
+        <v>254</v>
+      </c>
+      <c r="C216" t="s">
+        <v>244</v>
+      </c>
+      <c r="D216">
+        <f>SUM(E216,G216,I216,K216,M216,O216)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A217" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B217" t="s">
+        <v>180</v>
+      </c>
+      <c r="C217" t="s">
+        <v>458</v>
+      </c>
+      <c r="D217">
+        <f>SUM(E217,G217,I217,K217,M217,O217)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A218" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B218" t="s">
+        <v>234</v>
+      </c>
+      <c r="C218" t="s">
+        <v>244</v>
+      </c>
+      <c r="D218">
+        <f>SUM(E218,G218,I218,K218,M218,O218)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A219" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B219" t="s">
         <v>275</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C219" t="s">
         <v>276</v>
       </c>
-      <c r="D214">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A215" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B215" t="s">
-        <v>267</v>
-      </c>
-      <c r="C215" t="s">
-        <v>312</v>
-      </c>
-      <c r="D215">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K215">
-        <v>1</v>
-      </c>
-      <c r="L215" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A216" s="2" t="s">
+      <c r="D219">
+        <f>SUM(E219,G219,I219,K219,M219,O219)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A220" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B220" t="s">
         <v>180</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C220" t="s">
         <v>458</v>
       </c>
-      <c r="D216">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A217" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B217" t="s">
-        <v>267</v>
-      </c>
-      <c r="C217" t="s">
-        <v>288</v>
-      </c>
-      <c r="D217">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E217">
-        <v>1</v>
-      </c>
-      <c r="F217" t="s">
-        <v>462</v>
-      </c>
-      <c r="K217">
-        <v>1</v>
-      </c>
-      <c r="L217" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A218" s="2" t="s">
+      <c r="D220">
+        <f>SUM(E220,G220,I220,K220,M220,O220)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A221" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="B218" t="s">
-        <v>275</v>
-      </c>
-      <c r="C218" t="s">
-        <v>336</v>
-      </c>
-      <c r="D218">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A219" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B219" t="s">
-        <v>295</v>
-      </c>
-      <c r="C219" t="s">
-        <v>297</v>
-      </c>
-      <c r="D219">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="E219">
-        <v>1</v>
-      </c>
-      <c r="F219" t="s">
-        <v>451</v>
-      </c>
-      <c r="M219">
-        <v>1</v>
-      </c>
-      <c r="N219" t="s">
-        <v>451</v>
-      </c>
-      <c r="O219">
-        <v>1</v>
-      </c>
-      <c r="P219" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A220" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B220" t="s">
-        <v>263</v>
-      </c>
-      <c r="C220" t="s">
-        <v>244</v>
-      </c>
-      <c r="D220">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A221" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="B221" t="s">
         <v>275</v>
       </c>
       <c r="C221" t="s">
+        <v>336</v>
+      </c>
+      <c r="D221">
+        <f>SUM(E221,G221,I221,K221,M221,O221)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A222" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B222" t="s">
+        <v>263</v>
+      </c>
+      <c r="C222" t="s">
+        <v>244</v>
+      </c>
+      <c r="D222">
+        <f>SUM(E222,G222,I222,K222,M222,O222)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A223" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B223" t="s">
+        <v>275</v>
+      </c>
+      <c r="C223" t="s">
         <v>332</v>
       </c>
-      <c r="D221">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O221">
-        <v>1</v>
-      </c>
-      <c r="P221" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A222" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B222" t="s">
-        <v>275</v>
-      </c>
-      <c r="C222" t="s">
-        <v>332</v>
-      </c>
-      <c r="D222">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A223" s="2" t="s">
+      <c r="D223">
+        <f>SUM(E223,G223,I223,K223,M223,O223)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A224" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B224" t="s">
         <v>234</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C224" t="s">
         <v>244</v>
       </c>
-      <c r="D223">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A224" s="2" t="s">
+      <c r="D224">
+        <f>SUM(E224,G224,I224,K224,M224,O224)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A225" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" t="s">
         <v>180</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C225" t="s">
         <v>458</v>
       </c>
-      <c r="D224">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A225" s="2" t="s">
+      <c r="D225">
+        <f>SUM(E225,G225,I225,K225,M225,O225)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A226" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="B225" t="s">
-        <v>275</v>
-      </c>
-      <c r="C225" t="s">
-        <v>336</v>
-      </c>
-      <c r="D225">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A226" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="B226" t="s">
         <v>275</v>
       </c>
       <c r="C226" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D226">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O226">
-        <v>1</v>
-      </c>
-      <c r="P226" t="s">
-        <v>455</v>
+        <f>SUM(E226,G226,I226,K226,M226,O226)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Painting Record.xlsx
+++ b/Painting Record.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopez\Desktop\V2.3.0 Javier_LeonhArt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopez\Desktop\V2.3.6 Javier_LeonhArt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79642233-B8DA-496F-A9A7-7FD1AAE550AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D96AE42-AC89-4725-A917-9B8648365015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{8FABD0BB-35D2-4746-8BF5-22ED6BD8493F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="486">
   <si>
     <t>Date</t>
   </si>
@@ -583,9 +583,6 @@
     <t>Current Project</t>
   </si>
   <si>
-    <t>5x Tree-Revenants</t>
-  </si>
-  <si>
     <t>Paint</t>
   </si>
   <si>
@@ -1285,9 +1282,6 @@
     <t>Army Painter</t>
   </si>
   <si>
-    <t>Fanatic</t>
-  </si>
-  <si>
     <t>Tenebrous Grey</t>
   </si>
   <si>
@@ -1478,6 +1472,51 @@
   </si>
   <si>
     <t>My Must-Have Paints</t>
+  </si>
+  <si>
+    <t>Orange Red</t>
+  </si>
+  <si>
+    <t>Rogue Hobby</t>
+  </si>
+  <si>
+    <t>Dark Hot Pink</t>
+  </si>
+  <si>
+    <t>Bright Green</t>
+  </si>
+  <si>
+    <t>Dark Turquoise</t>
+  </si>
+  <si>
+    <t>Ultramarine</t>
+  </si>
+  <si>
+    <t>Bismuth Yellow</t>
+  </si>
+  <si>
+    <t>Doomfire Drab</t>
+  </si>
+  <si>
+    <t>Warpaints</t>
+  </si>
+  <si>
+    <t>Weird Elixir</t>
+  </si>
+  <si>
+    <t>Hexed Violet</t>
+  </si>
+  <si>
+    <t>Fey</t>
+  </si>
+  <si>
+    <t>Lights</t>
+  </si>
+  <si>
+    <t>Shadows</t>
+  </si>
+  <si>
+    <t>Arch-Revenant</t>
   </si>
 </sst>
 </file>
@@ -1974,10 +2013,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$168</c:f>
+              <c:f>Sheet1!$A$2:$A$169</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="167"/>
+                <c:ptCount val="168"/>
                 <c:pt idx="0">
                   <c:v>43405</c:v>
                 </c:pt>
@@ -2475,16 +2514,19 @@
                 </c:pt>
                 <c:pt idx="165">
                   <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>45505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$168</c:f>
+              <c:f>Sheet1!$C$2:$C$169</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="167"/>
+                <c:ptCount val="168"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -2981,6 +3023,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="165">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="166">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -3766,8 +3811,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{61558924-6BAF-41CB-A458-0F8F58CE51F4}" name="Table2" displayName="Table2" ref="A1:F168" totalsRowShown="0">
-  <autoFilter ref="A1:F168" xr:uid="{61558924-6BAF-41CB-A458-0F8F58CE51F4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{61558924-6BAF-41CB-A458-0F8F58CE51F4}" name="Table2" displayName="Table2" ref="A1:F169" totalsRowShown="0">
+  <autoFilter ref="A1:F169" xr:uid="{61558924-6BAF-41CB-A458-0F8F58CE51F4}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A1C8C315-1AF4-46A9-829B-F6F66670A080}" name="Date" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{5DD88343-1F7A-4E8C-82DC-76B842BC6326}" name="Project"/>
@@ -3795,7 +3840,7 @@
   <autoFilter ref="H1:H2" xr:uid="{E331850F-6965-449B-A1DC-94B726771513}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{55DB5F22-E9C6-43F4-91B3-C8775CAB6E79}" name="Total Painted">
-      <calculatedColumnFormula>SUM(C2:C1020)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(C2:C1021)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3835,10 +3880,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F21A842-DBF6-43AE-B39A-A0811F55AAD9}" name="Table5" displayName="Table5" ref="A1:P226" totalsRowShown="0">
-  <autoFilter ref="A1:P226" xr:uid="{0F21A842-DBF6-43AE-B39A-A0811F55AAD9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P226">
-    <sortCondition descending="1" ref="D1:D226"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F21A842-DBF6-43AE-B39A-A0811F55AAD9}" name="Table5" displayName="Table5" ref="A1:P236" totalsRowShown="0">
+  <autoFilter ref="A1:P236" xr:uid="{0F21A842-DBF6-43AE-B39A-A0811F55AAD9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P236">
+    <sortCondition descending="1" ref="D1:D236"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{303018FD-1CFE-44C3-A9A5-27F54CDD884C}" name="Paint"/>
@@ -4181,10 +4226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F725C0D8-4E5E-44F7-BED9-972635B5DB06}">
-  <dimension ref="A1:J168"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4245,8 +4290,8 @@
         <v>11</v>
       </c>
       <c r="H2">
-        <f>SUM(C2:C1020)</f>
-        <v>517</v>
+        <f>SUM(C2:C1021)</f>
+        <v>522</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
@@ -4321,7 +4366,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>485</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -4370,7 +4415,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
@@ -4397,7 +4442,7 @@
       </c>
       <c r="H8" t="str">
         <f>INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 1), Paints!D:D, 0))</f>
-        <v>Wine Red</v>
+        <v>Deep Scarlet</v>
       </c>
       <c r="J8" t="s">
         <v>26</v>
@@ -4505,7 +4550,7 @@
       </c>
       <c r="H12" t="str" cm="1">
         <f t="array" ref="H12">IFERROR(INDEX(Paints!A:A, SMALL(IF(Paints!D:D=LARGE(Paints!D:D, 5), ROW(Paints!D:D), ""), 5)), INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 6), Paints!D:D, 0)))</f>
-        <v>Heavy Warmgrey</v>
+        <v>Red Grey</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -4628,7 +4673,7 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -4651,7 +4696,7 @@
         <v>11</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -4674,7 +4719,7 @@
         <v>11</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -4697,7 +4742,7 @@
         <v>11</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -4720,7 +4765,7 @@
         <v>11</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>382</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -4743,7 +4788,7 @@
         <v>11</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -7378,7 +7423,27 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A168" s="1"/>
+      <c r="A168" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B168" t="s">
+        <v>32</v>
+      </c>
+      <c r="C168">
+        <v>5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>172</v>
+      </c>
+      <c r="E168" t="s">
+        <v>170</v>
+      </c>
+      <c r="F168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A169" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J11 B2:B1048576">
@@ -7413,7 +7478,7 @@
       <formula>"Practice"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{E5EC503B-AF18-4AEA-8372-C88D05DDCDE6}">
       <formula1>$J$2:$J$11</formula1>
     </dataValidation>
@@ -7434,10 +7499,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD12CC97-8595-4312-A700-76C39152E1F0}">
-  <dimension ref="A1:P226"/>
+  <dimension ref="A1:P236"/>
   <sheetViews>
     <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7462,199 +7527,199 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" t="s">
         <v>176</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>226</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>177</v>
       </c>
-      <c r="H1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I1" t="s">
-        <v>178</v>
-      </c>
       <c r="J1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K1" t="s">
         <v>170</v>
       </c>
       <c r="L1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" t="s">
         <v>228</v>
-      </c>
-      <c r="M1" t="s">
-        <v>179</v>
-      </c>
-      <c r="N1" t="s">
-        <v>229</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
       </c>
       <c r="P1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D2">
-        <f>SUM(E2,G2,I2,K2,M2,O2)</f>
+        <f t="shared" ref="D2:D65" si="0">SUM(E2,G2,I2,K2,M2,O2)</f>
         <v>3</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D3">
-        <f>SUM(E3,G3,I3,K3,M3,O3)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D4">
-        <f>SUM(E4,G4,I4,K4,M4,O4)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D5">
-        <f>SUM(E5,G5,I5,K5,M5,O5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>436</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="D6">
-        <f>SUM(E6,G6,I6,K6,M6,O6)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -7666,991 +7731,1021 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>448</v>
+        <v>484</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>449</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>450</v>
+        <v>482</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>449</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D7">
-        <f>SUM(E7,G7,I7,K7,M7,O7)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="D8">
-        <f>SUM(E8,G8,I8,K8,M8,O8)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>457</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
+        <v>447</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>446</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="C9" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="D9">
-        <f>SUM(E9,G9,I9,K9,M9,O9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>433</v>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>418</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>379</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D10">
-        <f>SUM(E10,G10,I10,K10,M10,O10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>460</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>447</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>410</v>
+        <v>316</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D11">
-        <f>SUM(E11,G11,I11,K11,M11,O11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
-        <v>420</v>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>452</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="B12" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C12" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D12">
-        <f>SUM(E12,G12,I12,K12,M12,O12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>444</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
-        <v>468</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>455</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" t="s">
         <v>275</v>
       </c>
-      <c r="C13" t="s">
-        <v>276</v>
-      </c>
       <c r="D13">
-        <f>SUM(E13,G13,I13,K13,M13,O13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>213</v>
+        <v>397</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="D14">
-        <f>SUM(E14,G14,I14,K14,M14,O14)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>449</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>419</v>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>431</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>430</v>
+        <v>378</v>
       </c>
       <c r="B15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C15" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D15">
-        <f>SUM(E15,G15,I15,K15,M15,O15)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>462</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15" t="s">
-        <v>431</v>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>458</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>317</v>
+        <v>441</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C16" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="D16">
-        <f>SUM(E16,G16,I16,K16,M16,O16)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>454</v>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>442</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
       <c r="P16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" t="s">
+        <v>296</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B17" t="s">
-        <v>295</v>
-      </c>
-      <c r="C17" t="s">
-        <v>297</v>
-      </c>
-      <c r="D17">
-        <f>SUM(E17,G17,I17,K17,M17,O17)</f>
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="B19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" t="s">
+        <v>296</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" t="s">
+        <v>296</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" t="s">
+        <v>296</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" t="s">
+        <v>296</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" t="s">
+        <v>296</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C26" t="s">
+        <v>296</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" t="s">
+        <v>296</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B28" t="s">
+        <v>294</v>
+      </c>
+      <c r="C28" t="s">
+        <v>296</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C29" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B30" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B31" t="s">
+        <v>406</v>
+      </c>
+      <c r="C31" t="s">
+        <v>479</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B32" t="s">
+        <v>406</v>
+      </c>
+      <c r="C32" t="s">
+        <v>479</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B33" t="s">
+        <v>406</v>
+      </c>
+      <c r="C33" t="s">
+        <v>479</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" t="s">
+        <v>331</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B35" t="s">
+        <v>274</v>
+      </c>
+      <c r="C35" t="s">
         <v>275</v>
       </c>
-      <c r="C18" t="s">
-        <v>332</v>
-      </c>
-      <c r="D18">
-        <f>SUM(E18,G18,I18,K18,M18,O18)</f>
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B36" t="s">
+        <v>274</v>
+      </c>
+      <c r="C36" t="s">
         <v>275</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" t="s">
+        <v>331</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C38" t="s">
+        <v>331</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B39" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39" t="s">
+        <v>335</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40" t="s">
+        <v>274</v>
+      </c>
+      <c r="C40" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C41" t="s">
+        <v>335</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B42" t="s">
+        <v>274</v>
+      </c>
+      <c r="C42" t="s">
+        <v>331</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" t="s">
+        <v>275</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D19">
-        <f>SUM(E19,G19,I19,K19,M19,O19)</f>
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B44" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" t="s">
         <v>275</v>
       </c>
-      <c r="C20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20">
-        <f>SUM(E20,G20,I20,K20,M20,O20)</f>
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B21" t="s">
-        <v>267</v>
-      </c>
-      <c r="C21" t="s">
-        <v>312</v>
-      </c>
-      <c r="D21">
-        <f>SUM(E21,G21,I21,K21,M21,O21)</f>
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B22" t="s">
-        <v>275</v>
-      </c>
-      <c r="C22" t="s">
-        <v>332</v>
-      </c>
-      <c r="D22">
-        <f>SUM(E22,G22,I22,K22,M22,O22)</f>
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B45" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" t="s">
+        <v>331</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B46" t="s">
+        <v>274</v>
+      </c>
+      <c r="C46" t="s">
+        <v>331</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B47" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" t="s">
+        <v>335</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B23" t="s">
-        <v>267</v>
-      </c>
-      <c r="C23" t="s">
-        <v>312</v>
-      </c>
-      <c r="D23">
-        <f>SUM(E23,G23,I23,K23,M23,O23)</f>
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B24" t="s">
-        <v>275</v>
-      </c>
-      <c r="C24" t="s">
-        <v>332</v>
-      </c>
-      <c r="D24">
-        <f>SUM(E24,G24,I24,K24,M24,O24)</f>
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B25" t="s">
-        <v>295</v>
-      </c>
-      <c r="C25" t="s">
-        <v>297</v>
-      </c>
-      <c r="D25">
-        <f>SUM(E25,G25,I25,K25,M25,O25)</f>
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B26" t="s">
-        <v>295</v>
-      </c>
-      <c r="C26" t="s">
-        <v>297</v>
-      </c>
-      <c r="D26">
-        <f>SUM(E26,G26,I26,K26,M26,O26)</f>
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B27" t="s">
-        <v>267</v>
-      </c>
-      <c r="C27" t="s">
-        <v>312</v>
-      </c>
-      <c r="D27">
-        <f>SUM(E27,G27,I27,K27,M27,O27)</f>
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B28" t="s">
-        <v>295</v>
-      </c>
-      <c r="C28" t="s">
-        <v>297</v>
-      </c>
-      <c r="D28">
-        <f>SUM(E28,G28,I28,K28,M28,O28)</f>
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A48" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B48" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" t="s">
+        <v>331</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B29" t="s">
-        <v>295</v>
-      </c>
-      <c r="C29" t="s">
-        <v>297</v>
-      </c>
-      <c r="D29">
-        <f>SUM(E29,G29,I29,K29,M29,O29)</f>
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B30" t="s">
-        <v>267</v>
-      </c>
-      <c r="C30" t="s">
-        <v>312</v>
-      </c>
-      <c r="D30">
-        <f>SUM(E30,G30,I30,K30,M30,O30)</f>
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B31" t="s">
-        <v>267</v>
-      </c>
-      <c r="C31" t="s">
-        <v>312</v>
-      </c>
-      <c r="D31">
-        <f>SUM(E31,G31,I31,K31,M31,O31)</f>
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B32" t="s">
-        <v>267</v>
-      </c>
-      <c r="C32" t="s">
-        <v>312</v>
-      </c>
-      <c r="D32">
-        <f>SUM(E32,G32,I32,K32,M32,O32)</f>
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B33" t="s">
-        <v>275</v>
-      </c>
-      <c r="C33" t="s">
-        <v>336</v>
-      </c>
-      <c r="D33">
-        <f>SUM(E33,G33,I33,K33,M33,O33)</f>
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B34" t="s">
-        <v>267</v>
-      </c>
-      <c r="C34" t="s">
-        <v>312</v>
-      </c>
-      <c r="D34">
-        <f>SUM(E34,G34,I34,K34,M34,O34)</f>
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B35" t="s">
-        <v>267</v>
-      </c>
-      <c r="C35" t="s">
-        <v>312</v>
-      </c>
-      <c r="D35">
-        <f>SUM(E35,G35,I35,K35,M35,O35)</f>
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B36" t="s">
-        <v>275</v>
-      </c>
-      <c r="C36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D36">
-        <f>SUM(E36,G36,I36,K36,M36,O36)</f>
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B37" t="s">
-        <v>267</v>
-      </c>
-      <c r="C37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D37">
-        <f>SUM(E37,G37,I37,K37,M37,O37)</f>
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B38" t="s">
-        <v>267</v>
-      </c>
-      <c r="C38" t="s">
-        <v>312</v>
-      </c>
-      <c r="D38">
-        <f>SUM(E38,G38,I38,K38,M38,O38)</f>
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A39" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B39" t="s">
-        <v>267</v>
-      </c>
-      <c r="C39" t="s">
-        <v>288</v>
-      </c>
-      <c r="D39">
-        <f>SUM(E39,G39,I39,K39,M39,O39)</f>
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A40" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B40" t="s">
-        <v>275</v>
-      </c>
-      <c r="C40" t="s">
-        <v>336</v>
-      </c>
-      <c r="D40">
-        <f>SUM(E40,G40,I40,K40,M40,O40)</f>
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A41" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B41" t="s">
-        <v>267</v>
-      </c>
-      <c r="C41" t="s">
-        <v>312</v>
-      </c>
-      <c r="D41">
-        <f>SUM(E41,G41,I41,K41,M41,O41)</f>
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A42" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B42" t="s">
-        <v>267</v>
-      </c>
-      <c r="C42" t="s">
-        <v>312</v>
-      </c>
-      <c r="D42">
-        <f>SUM(E42,G42,I42,K42,M42,O42)</f>
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A43" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B43" t="s">
-        <v>295</v>
-      </c>
-      <c r="C43" t="s">
-        <v>297</v>
-      </c>
-      <c r="D43">
-        <f>SUM(E43,G43,I43,K43,M43,O43)</f>
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A44" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B44" t="s">
-        <v>267</v>
-      </c>
-      <c r="C44" t="s">
-        <v>292</v>
-      </c>
-      <c r="D44">
-        <f>SUM(E44,G44,I44,K44,M44,O44)</f>
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B45" t="s">
-        <v>267</v>
-      </c>
-      <c r="C45" t="s">
-        <v>312</v>
-      </c>
-      <c r="D45">
-        <f>SUM(E45,G45,I45,K45,M45,O45)</f>
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A46" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B46" t="s">
-        <v>295</v>
-      </c>
-      <c r="C46" t="s">
-        <v>297</v>
-      </c>
-      <c r="D46">
-        <f>SUM(E46,G46,I46,K46,M46,O46)</f>
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A47" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B47" t="s">
-        <v>267</v>
-      </c>
-      <c r="C47" t="s">
-        <v>269</v>
-      </c>
-      <c r="D47">
-        <f>SUM(E47,G47,I47,K47,M47,O47)</f>
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A48" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B48" t="s">
-        <v>267</v>
-      </c>
-      <c r="C48" t="s">
-        <v>312</v>
-      </c>
-      <c r="D48">
-        <f>SUM(E48,G48,I48,K48,M48,O48)</f>
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
-        <v>194</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="C49" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D49">
-        <f>SUM(E49,G49,I49,K49,M49,O49)</f>
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49" t="s">
-        <v>332</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D50">
-        <f>SUM(E50,G50,I50,K50,M50,O50)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.45">
@@ -8658,770 +8753,647 @@
         <v>195</v>
       </c>
       <c r="B51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C51" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D51">
-        <f>SUM(E51,G51,I51,K51,M51,O51)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
-        <v>424</v>
+        <v>194</v>
       </c>
       <c r="B52" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="C52" t="s">
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="D52">
-        <f>SUM(E52,G52,I52,K52,M52,O52)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
-        <v>440</v>
+        <v>251</v>
       </c>
       <c r="B53" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="C53" t="s">
-        <v>332</v>
+        <v>243</v>
       </c>
       <c r="D53">
-        <f>SUM(E53,G53,I53,K53,M53,O53)</f>
-        <v>1</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53" t="s">
-        <v>422</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
-        <v>401</v>
+        <v>244</v>
       </c>
       <c r="B54" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="C54" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="D54">
-        <f>SUM(E54,G54,I54,K54,M54,O54)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>332</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
-        <v>413</v>
+        <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="C55" t="s">
-        <v>312</v>
+        <v>241</v>
       </c>
       <c r="D55">
-        <f>SUM(E55,G55,I55,K55,M55,O55)</f>
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55" t="s">
-        <v>420</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
-        <v>438</v>
+        <v>471</v>
       </c>
       <c r="B56" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="C56" t="s">
-        <v>288</v>
+        <v>472</v>
       </c>
       <c r="D56">
-        <f>SUM(E56,G56,I56,K56,M56,O56)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="B57" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
       <c r="C57" t="s">
-        <v>297</v>
+        <v>472</v>
       </c>
       <c r="D57">
-        <f>SUM(E57,G57,I57,K57,M57,O57)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="B58" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
       <c r="C58" t="s">
-        <v>297</v>
+        <v>472</v>
       </c>
       <c r="D58">
-        <f>SUM(E58,G58,I58,K58,M58,O58)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="B59" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="C59" t="s">
-        <v>312</v>
+        <v>472</v>
       </c>
       <c r="D59">
-        <f>SUM(E59,G59,I59,K59,M59,O59)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>418</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
-        <v>274</v>
+        <v>476</v>
       </c>
       <c r="B60" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="C60" t="s">
-        <v>276</v>
+        <v>472</v>
       </c>
       <c r="D60">
-        <f>SUM(E60,G60,I60,K60,M60,O60)</f>
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>418</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
-        <v>277</v>
+        <v>477</v>
       </c>
       <c r="B61" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="C61" t="s">
-        <v>276</v>
+        <v>472</v>
       </c>
       <c r="D61">
-        <f>SUM(E61,G61,I61,K61,M61,O61)</f>
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61" t="s">
-        <v>418</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B62" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
       <c r="C62" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="D62">
-        <f>SUM(E62,G62,I62,K62,M62,O62)</f>
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>418</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="B63" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C63" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="D63">
-        <f>SUM(E63,G63,I63,K63,M63,O63)</f>
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>1</v>
-      </c>
-      <c r="P63" t="s">
-        <v>467</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
-        <v>271</v>
+        <v>384</v>
       </c>
       <c r="B64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C64" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="D64">
-        <f>SUM(E64,G64,I64,K64,M64,O64)</f>
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="P64" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
-        <v>316</v>
+        <v>391</v>
       </c>
       <c r="B65" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C65" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="D65">
-        <f>SUM(E65,G65,I65,K65,M65,O65)</f>
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
-        <v>325</v>
+        <v>392</v>
       </c>
       <c r="B66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C66" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="D66">
-        <f>SUM(E66,G66,I66,K66,M66,O66)</f>
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
+        <f t="shared" ref="D66:D129" si="1">SUM(E66,G66,I66,K66,M66,O66)</f>
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="B67" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C67" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="D67">
-        <f>SUM(E67,G67,I67,K67,M67,O67)</f>
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
-        <v>222</v>
+        <v>385</v>
       </c>
       <c r="B68" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="C68" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
       <c r="D68">
-        <f>SUM(E68,G68,I68,K68,M68,O68)</f>
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
-        <v>322</v>
+        <v>415</v>
       </c>
       <c r="B69" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C69" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="D69">
-        <f>SUM(E69,G69,I69,K69,M69,O69)</f>
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>1</v>
-      </c>
-      <c r="P69" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
-        <v>289</v>
+        <v>414</v>
       </c>
       <c r="B70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C70" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="D70">
-        <f>SUM(E70,G70,I70,K70,M70,O70)</f>
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B71" t="s">
+        <v>266</v>
+      </c>
+      <c r="C71" t="s">
+        <v>268</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A72" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B72" t="s">
+        <v>266</v>
+      </c>
+      <c r="C72" t="s">
+        <v>311</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A73" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B73" t="s">
+        <v>266</v>
+      </c>
+      <c r="C73" t="s">
         <v>287</v>
       </c>
-      <c r="B71" t="s">
-        <v>267</v>
-      </c>
-      <c r="C71" t="s">
-        <v>288</v>
-      </c>
-      <c r="D71">
-        <f>SUM(E71,G71,I71,K71,M71,O71)</f>
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A72" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B72" t="s">
-        <v>234</v>
-      </c>
-      <c r="C72" t="s">
-        <v>244</v>
-      </c>
-      <c r="D72">
-        <f>SUM(E72,G72,I72,K72,M72,O72)</f>
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A73" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B73" t="s">
-        <v>295</v>
-      </c>
-      <c r="C73" t="s">
-        <v>297</v>
-      </c>
       <c r="D73">
-        <f>SUM(E73,G73,I73,K73,M73,O73)</f>
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>1</v>
-      </c>
-      <c r="P73" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="B74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C74" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="D74">
-        <f>SUM(E74,G74,I74,K74,M74,O74)</f>
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
-        <v>370</v>
+        <v>430</v>
       </c>
       <c r="B75" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C75" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D75">
-        <f>SUM(E75,G75,I75,K75,M75,O75)</f>
-        <v>1</v>
-      </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="P75" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="B76" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C76" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="D76">
-        <f>SUM(E76,G76,I76,K76,M76,O76)</f>
-        <v>1</v>
-      </c>
-      <c r="O76">
-        <v>1</v>
-      </c>
-      <c r="P76" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
-        <v>368</v>
+        <v>439</v>
       </c>
       <c r="B77" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C77" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="D77">
-        <f>SUM(E77,G77,I77,K77,M77,O77)</f>
-        <v>1</v>
-      </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
-      <c r="P77" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
-        <v>232</v>
+        <v>401</v>
       </c>
       <c r="B78" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="C78" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="D78">
-        <f>SUM(E78,G78,I78,K78,M78,O78)</f>
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78" t="s">
-        <v>464</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78" t="s">
-        <v>464</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78" t="s">
-        <v>464</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="s">
-        <v>447</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78" t="s">
-        <v>464</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
-        <v>231</v>
+        <v>403</v>
       </c>
       <c r="B79" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="C79" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="D79">
-        <f>SUM(E79,G79,I79,K79,M79,O79)</f>
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79" t="s">
-        <v>464</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79" t="s">
-        <v>464</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79" t="s">
-        <v>464</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" t="s">
-        <v>447</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79" t="s">
-        <v>464</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="B80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C80" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D80">
-        <f>SUM(E80,G80,I80,K80,M80,O80)</f>
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80" t="s">
-        <v>464</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80" t="s">
-        <v>464</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80" t="s">
-        <v>464</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" t="s">
-        <v>464</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80" t="s">
-        <v>464</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80" t="s">
-        <v>464</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B81" t="s">
-        <v>407</v>
+        <v>266</v>
       </c>
       <c r="C81" t="s">
-        <v>408</v>
+        <v>268</v>
       </c>
       <c r="D81">
-        <f>SUM(E81,G81,I81,K81,M81,O81)</f>
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81" t="s">
-        <v>464</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81" t="s">
-        <v>464</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81" t="s">
-        <v>464</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="s">
-        <v>464</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81" t="s">
-        <v>464</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81" t="s">
-        <v>464</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.45">
@@ -9429,197 +9401,125 @@
         <v>411</v>
       </c>
       <c r="B82" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C82" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="D82">
-        <f>SUM(E82,G82,I82,K82,M82,O82)</f>
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82" t="s">
-        <v>464</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82" t="s">
-        <v>464</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82" t="s">
-        <v>464</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" t="s">
-        <v>464</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82" t="s">
-        <v>464</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82" t="s">
-        <v>464</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B83" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C83" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D83">
-        <f>SUM(E83,G83,I83,K83,M83,O83)</f>
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83" t="s">
-        <v>464</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83" t="s">
-        <v>464</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83" t="s">
-        <v>464</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" t="s">
-        <v>464</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83" t="s">
-        <v>464</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B84" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C84" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="D84">
-        <f>SUM(E84,G84,I84,K84,M84,O84)</f>
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84" t="s">
-        <v>464</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84" t="s">
-        <v>464</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84" t="s">
-        <v>464</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" t="s">
-        <v>464</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84" t="s">
-        <v>464</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84" t="s">
-        <v>464</v>
+        <v>416</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
-        <v>377</v>
+        <v>270</v>
       </c>
       <c r="B85" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C85" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="D85">
-        <f>SUM(E85,G85,I85,K85,M85,O85)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="B86" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C86" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="D86">
-        <f>SUM(E86,G86,I86,K86,M86,O86)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
-        <v>201</v>
+        <v>288</v>
       </c>
       <c r="B87" t="s">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="C87" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="D87">
-        <f>SUM(E87,G87,I87,K87,M87,O87)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.45">
@@ -9627,2083 +9527,2497 @@
         <v>286</v>
       </c>
       <c r="B88" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C88" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="D88">
-        <f>SUM(E88,G88,I88,K88,M88,O88)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="B89" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C89" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="D89">
-        <f>SUM(E89,G89,I89,K89,M89,O89)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="B90" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="C90" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="D90">
-        <f>SUM(E90,G90,I90,K90,M90,O90)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>462</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>462</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>462</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90" t="s">
+        <v>462</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
+        <v>462</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
-        <v>358</v>
+        <v>435</v>
       </c>
       <c r="B91" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="C91" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="D91">
-        <f>SUM(E91,G91,I91,K91,M91,O91)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>462</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>462</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>462</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91" t="s">
+        <v>462</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
+        <v>462</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="B92" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="C92" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="D92">
-        <f>SUM(E92,G92,I92,K92,M92,O92)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>462</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>462</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>462</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92" t="s">
+        <v>462</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
+        <v>462</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B93" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="C93" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="D93">
-        <f>SUM(E93,G93,I93,K93,M93,O93)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="B94" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="C94" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="D94">
-        <f>SUM(E94,G94,I94,K94,M94,O94)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="B95" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="C95" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="D95">
-        <f>SUM(E95,G95,I95,K95,M95,O95)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="B96" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="C96" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="D96">
-        <f>SUM(E96,G96,I96,K96,M96,O96)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B97" t="s">
-        <v>221</v>
+        <v>294</v>
       </c>
       <c r="C97" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="D97">
-        <f>SUM(E97,G97,I97,K97,M97,O97)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B98" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="C98" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="D98">
-        <f>SUM(E98,G98,I98,K98,M98,O98)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c r="B99" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="C99" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="D99">
-        <f>SUM(E99,G99,I99,K99,M99,O99)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>294</v>
       </c>
       <c r="C100" t="s">
-        <v>458</v>
+        <v>296</v>
       </c>
       <c r="D100">
-        <f>SUM(E100,G100,I100,K100,M100,O100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
-        <v>182</v>
+        <v>326</v>
       </c>
       <c r="B101" t="s">
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="C101" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="D101">
-        <f>SUM(E101,G101,I101,K101,M101,O101)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
-        <v>208</v>
+        <v>405</v>
       </c>
       <c r="B102" t="s">
-        <v>180</v>
+        <v>406</v>
       </c>
       <c r="C102" t="s">
-        <v>239</v>
+        <v>479</v>
       </c>
       <c r="D102">
-        <f>SUM(E102,G102,I102,K102,M102,O102)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102" t="s">
+        <v>462</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>462</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102" t="s">
+        <v>462</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102" t="s">
+        <v>462</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102" t="s">
+        <v>462</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
-        <v>209</v>
+        <v>376</v>
       </c>
       <c r="B103" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="C103" t="s">
-        <v>239</v>
+        <v>331</v>
       </c>
       <c r="D103">
-        <f>SUM(E103,G103,I103,K103,M103,O103)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B104" t="s">
+        <v>274</v>
+      </c>
+      <c r="C104" t="s">
+        <v>335</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A105" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B105" t="s">
+        <v>274</v>
+      </c>
+      <c r="C105" t="s">
+        <v>275</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A106" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B106" t="s">
+        <v>274</v>
+      </c>
+      <c r="C106" t="s">
+        <v>331</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A107" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B107" t="s">
+        <v>274</v>
+      </c>
+      <c r="C107" t="s">
+        <v>335</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A108" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B108" t="s">
+        <v>274</v>
+      </c>
+      <c r="C108" t="s">
+        <v>335</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A109" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B109" t="s">
+        <v>274</v>
+      </c>
+      <c r="C109" t="s">
+        <v>331</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A110" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B104" t="s">
-        <v>275</v>
-      </c>
-      <c r="C104" t="s">
-        <v>332</v>
-      </c>
-      <c r="D104">
-        <f>SUM(E104,G104,I104,K104,M104,O104)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A105" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B105" t="s">
-        <v>263</v>
-      </c>
-      <c r="C105" t="s">
-        <v>244</v>
-      </c>
-      <c r="D105">
-        <f>SUM(E105,G105,I105,K105,M105,O105)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A106" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B106" t="s">
-        <v>180</v>
-      </c>
-      <c r="C106" t="s">
-        <v>238</v>
-      </c>
-      <c r="D106">
-        <f>SUM(E106,G106,I106,K106,M106,O106)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A107" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B107" t="s">
-        <v>180</v>
-      </c>
-      <c r="C107" t="s">
-        <v>330</v>
-      </c>
-      <c r="D107">
-        <f>SUM(E107,G107,I107,K107,M107,O107)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A108" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B108" t="s">
-        <v>180</v>
-      </c>
-      <c r="C108" t="s">
-        <v>458</v>
-      </c>
-      <c r="D108">
-        <f>SUM(E108,G108,I108,K108,M108,O108)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A109" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B109" t="s">
-        <v>275</v>
-      </c>
-      <c r="C109" t="s">
-        <v>332</v>
-      </c>
-      <c r="D109">
-        <f>SUM(E109,G109,I109,K109,M109,O109)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A110" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="B110" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C110" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="D110">
-        <f>SUM(E110,G110,I110,K110,M110,O110)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
-        <v>199</v>
+        <v>349</v>
       </c>
       <c r="B111" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="C111" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D111">
-        <f>SUM(E111,G111,I111,K111,M111,O111)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="B112" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C112" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D112">
-        <f>SUM(E112,G112,I112,K112,M112,O112)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="B113" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C113" t="s">
-        <v>269</v>
+        <v>335</v>
       </c>
       <c r="D113">
-        <f>SUM(E113,G113,I113,K113,M113,O113)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="B114" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C114" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D114">
-        <f>SUM(E114,G114,I114,K114,M114,O114)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="B115" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C115" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
       <c r="D115">
-        <f>SUM(E115,G115,I115,K115,M115,O115)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="B116" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="C116" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="D116">
-        <f>SUM(E116,G116,I116,K116,M116,O116)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
-        <v>255</v>
+        <v>346</v>
       </c>
       <c r="B117" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="C117" t="s">
-        <v>244</v>
+        <v>335</v>
       </c>
       <c r="D117">
-        <f>SUM(E117,G117,I117,K117,M117,O117)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="B118" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="C118" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="D118">
-        <f>SUM(E118,G118,I118,K118,M118,O118)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="B119" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="C119" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="D119">
-        <f>SUM(E119,G119,I119,K119,M119,O119)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="B120" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="C120" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="D120">
-        <f>SUM(E120,G120,I120,K120,M120,O120)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="B121" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C121" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="D121">
-        <f>SUM(E121,G121,I121,K121,M121,O121)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="B122" t="s">
+        <v>274</v>
+      </c>
+      <c r="C122" t="s">
         <v>275</v>
       </c>
-      <c r="C122" t="s">
-        <v>336</v>
-      </c>
       <c r="D122">
-        <f>SUM(E122,G122,I122,K122,M122,O122)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="B123" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C123" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D123">
-        <f>SUM(E123,G123,I123,K123,M123,O123)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
-        <v>217</v>
+        <v>352</v>
       </c>
       <c r="B124" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="C124" t="s">
-        <v>238</v>
+        <v>335</v>
       </c>
       <c r="D124">
-        <f>SUM(E124,G124,I124,K124,M124,O124)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="B125" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C125" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D125">
-        <f>SUM(E125,G125,I125,K125,M125,O125)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
-        <v>253</v>
+        <v>353</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="C126" t="s">
-        <v>244</v>
+        <v>331</v>
       </c>
       <c r="D126">
-        <f>SUM(E126,G126,I126,K126,M126,O126)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B127" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C127" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D127">
-        <f>SUM(E127,G127,I127,K127,M127,O127)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="B128" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C128" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D128">
-        <f>SUM(E128,G128,I128,K128,M128,O128)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="2" t="s">
-        <v>294</v>
+        <v>368</v>
       </c>
       <c r="B129" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="C129" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="D129">
-        <f>SUM(E129,G129,I129,K129,M129,O129)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="2" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="B130" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C130" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D130">
-        <f>SUM(E130,G130,I130,K130,M130,O130)</f>
+        <f t="shared" ref="D130:D193" si="2">SUM(E130,G130,I130,K130,M130,O130)</f>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="2" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="B131" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C131" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D131">
-        <f>SUM(E131,G131,I131,K131,M131,O131)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="B132" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C132" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="D132">
-        <f>SUM(E132,G132,I132,K132,M132,O132)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="2" t="s">
-        <v>425</v>
+        <v>351</v>
       </c>
       <c r="B133" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C133" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="D133">
-        <f>SUM(E133,G133,I133,K133,M133,O133)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="2" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B134" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C134" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="D134">
-        <f>SUM(E134,G134,I134,K134,M134,O134)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="2" t="s">
-        <v>210</v>
+        <v>370</v>
       </c>
       <c r="B135" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="C135" t="s">
-        <v>239</v>
+        <v>331</v>
       </c>
       <c r="D135">
-        <f>SUM(E135,G135,I135,K135,M135,O135)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="2" t="s">
-        <v>296</v>
+        <v>363</v>
       </c>
       <c r="B136" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="C136" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="D136">
-        <f>SUM(E136,G136,I136,K136,M136,O136)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="B137" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C137" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="D137">
-        <f>SUM(E137,G137,I137,K137,M137,O137)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
-        <v>216</v>
+        <v>281</v>
       </c>
       <c r="B138" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="C138" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="D138">
-        <f>SUM(E138,G138,I138,K138,M138,O138)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B139" t="s">
+        <v>274</v>
+      </c>
+      <c r="C139" t="s">
         <v>275</v>
       </c>
-      <c r="C139" t="s">
-        <v>276</v>
-      </c>
       <c r="D139">
-        <f>SUM(E139,G139,I139,K139,M139,O139)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
-        <v>279</v>
+        <v>362</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C140" t="s">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="D140">
-        <f>SUM(E140,G140,I140,K140,M140,O140)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="B141" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C141" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="D141">
-        <f>SUM(E141,G141,I141,K141,M141,O141)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="2" t="s">
-        <v>291</v>
+        <v>356</v>
       </c>
       <c r="B142" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C142" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="D142">
-        <f>SUM(E142,G142,I142,K142,M142,O142)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="B143" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C143" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="D143">
-        <f>SUM(E143,G143,I143,K143,M143,O143)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="2" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="B144" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C144" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="D144">
-        <f>SUM(E144,G144,I144,K144,M144,O144)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="2" t="s">
-        <v>198</v>
+        <v>350</v>
       </c>
       <c r="B145" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="C145" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D145">
-        <f>SUM(E145,G145,I145,K145,M145,O145)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="2" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="B146" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="C146" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="D146">
-        <f>SUM(E146,G146,I146,K146,M146,O146)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="2" t="s">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="B147" t="s">
+        <v>274</v>
+      </c>
+      <c r="C147" t="s">
         <v>275</v>
       </c>
-      <c r="C147" t="s">
-        <v>332</v>
-      </c>
       <c r="D147">
-        <f>SUM(E147,G147,I147,K147,M147,O147)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
-        <v>214</v>
+        <v>341</v>
       </c>
       <c r="B148" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="C148" t="s">
-        <v>238</v>
+        <v>335</v>
       </c>
       <c r="D148">
-        <f>SUM(E148,G148,I148,K148,M148,O148)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="B149" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C149" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="D149">
-        <f>SUM(E149,G149,I149,K149,M149,O149)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
-        <v>280</v>
+        <v>345</v>
       </c>
       <c r="B150" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C150" t="s">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="D150">
-        <f>SUM(E150,G150,I150,K150,M150,O150)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="B151" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="C151" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D151">
-        <f>SUM(E151,G151,I151,K151,M151,O151)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="B152" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="C152" t="s">
-        <v>336</v>
+        <v>456</v>
       </c>
       <c r="D152">
-        <f>SUM(E152,G152,I152,K152,M152,O152)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="2" t="s">
-        <v>339</v>
+        <v>207</v>
       </c>
       <c r="B153" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="C153" t="s">
-        <v>332</v>
+        <v>238</v>
       </c>
       <c r="D153">
-        <f>SUM(E153,G153,I153,K153,M153,O153)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B154" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C154" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D154">
-        <f>SUM(E154,G154,I154,K154,M154,O154)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="2" t="s">
-        <v>298</v>
+        <v>217</v>
       </c>
       <c r="B155" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="C155" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="D155">
-        <f>SUM(E155,G155,I155,K155,M155,O155)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="2" t="s">
-        <v>326</v>
+        <v>206</v>
       </c>
       <c r="B156" t="s">
-        <v>295</v>
+        <v>179</v>
       </c>
       <c r="C156" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="D156">
-        <f>SUM(E156,G156,I156,K156,M156,O156)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="2" t="s">
-        <v>354</v>
+        <v>192</v>
       </c>
       <c r="B157" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="C157" t="s">
-        <v>332</v>
+        <v>456</v>
       </c>
       <c r="D157">
-        <f>SUM(E157,G157,I157,K157,M157,O157)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B158" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C158" t="s">
-        <v>458</v>
+        <v>329</v>
       </c>
       <c r="D158">
-        <f>SUM(E158,G158,I158,K158,M158,O158)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B159" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C159" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D159">
-        <f>SUM(E159,G159,I159,K159,M159,O159)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="2" t="s">
-        <v>340</v>
+        <v>216</v>
       </c>
       <c r="B160" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="C160" t="s">
-        <v>332</v>
+        <v>237</v>
       </c>
       <c r="D160">
-        <f>SUM(E160,G160,I160,K160,M160,O160)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="2" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="B161" t="s">
-        <v>254</v>
+        <v>179</v>
       </c>
       <c r="C161" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D161">
-        <f>SUM(E161,G161,I161,K161,M161,O161)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="2" t="s">
-        <v>362</v>
+        <v>215</v>
       </c>
       <c r="B162" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="C162" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="D162">
-        <f>SUM(E162,G162,I162,K162,M162,O162)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="2" t="s">
-        <v>369</v>
+        <v>197</v>
       </c>
       <c r="B163" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="C163" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D163">
-        <f>SUM(E163,G163,I163,K163,M163,O163)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C164" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D164">
-        <f>SUM(E164,G164,I164,K164,M164,O164)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="2" t="s">
-        <v>365</v>
+        <v>210</v>
       </c>
       <c r="B165" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="C165" t="s">
-        <v>332</v>
+        <v>238</v>
       </c>
       <c r="D165">
-        <f>SUM(E165,G165,I165,K165,M165,O165)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="2" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="B166" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="C166" t="s">
-        <v>244</v>
+        <v>456</v>
       </c>
       <c r="D166">
-        <f>SUM(E166,G166,I166,K166,M166,O166)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="2" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="B167" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="C167" t="s">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="D167">
-        <f>SUM(E167,G167,I167,K167,M167,O167)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="2" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="B168" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="C168" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D168">
-        <f>SUM(E168,G168,I168,K168,M168,O168)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="2" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="B169" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="C169" t="s">
-        <v>244</v>
+        <v>456</v>
       </c>
       <c r="D169">
-        <f>SUM(E169,G169,I169,K169,M169,O169)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="2" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="B170" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="C170" t="s">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="D170">
-        <f>SUM(E170,G170,I170,K170,M170,O170)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="2" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="B171" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="C171" t="s">
-        <v>276</v>
+        <v>456</v>
       </c>
       <c r="D171">
-        <f>SUM(E171,G171,I171,K171,M171,O171)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="2" t="s">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c r="B172" t="s">
-        <v>254</v>
+        <v>179</v>
       </c>
       <c r="C172" t="s">
-        <v>244</v>
+        <v>456</v>
       </c>
       <c r="D172">
-        <f>SUM(E172,G172,I172,K172,M172,O172)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B173" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C173" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D173">
-        <f>SUM(E173,G173,I173,K173,M173,O173)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B174" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C174" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D174">
-        <f>SUM(E174,G174,I174,K174,M174,O174)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="2" t="s">
-        <v>303</v>
+        <v>187</v>
       </c>
       <c r="B175" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="C175" t="s">
-        <v>269</v>
+        <v>456</v>
       </c>
       <c r="D175">
-        <f>SUM(E175,G175,I175,K175,M175,O175)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="2" t="s">
-        <v>310</v>
+        <v>188</v>
       </c>
       <c r="B176" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>269</v>
+        <v>456</v>
       </c>
       <c r="D176">
-        <f>SUM(E176,G176,I176,K176,M176,O176)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="2" t="s">
-        <v>348</v>
+        <v>201</v>
       </c>
       <c r="B177" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D177">
-        <f>SUM(E177,G177,I177,K177,M177,O177)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="2" t="s">
-        <v>352</v>
+        <v>211</v>
       </c>
       <c r="B178" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>332</v>
+        <v>238</v>
       </c>
       <c r="D178">
-        <f>SUM(E178,G178,I178,K178,M178,O178)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="2" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="B179" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C179" t="s">
-        <v>458</v>
+        <v>238</v>
       </c>
       <c r="D179">
-        <f>SUM(E179,G179,I179,K179,M179,O179)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="2" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>458</v>
+        <v>237</v>
       </c>
       <c r="D180">
-        <f>SUM(E180,G180,I180,K180,M180,O180)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C181" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D181">
-        <f>SUM(E181,G181,I181,K181,M181,O181)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="2" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="B182" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="C182" t="s">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="D182">
-        <f>SUM(E182,G182,I182,K182,M182,O182)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="2" t="s">
-        <v>335</v>
+        <v>202</v>
       </c>
       <c r="B183" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="C183" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D183">
-        <f>SUM(E183,G183,I183,K183,M183,O183)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="2" t="s">
-        <v>328</v>
+        <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>295</v>
+        <v>179</v>
       </c>
       <c r="C184" t="s">
-        <v>297</v>
+        <v>456</v>
       </c>
       <c r="D184">
-        <f>SUM(E184,G184,I184,K184,M184,O184)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="2" t="s">
-        <v>273</v>
+        <v>191</v>
       </c>
       <c r="B185" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="C185" t="s">
-        <v>269</v>
+        <v>456</v>
       </c>
       <c r="D185">
-        <f>SUM(E185,G185,I185,K185,M185,O185)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="2" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>295</v>
+        <v>179</v>
       </c>
       <c r="C186" t="s">
-        <v>297</v>
+        <v>456</v>
       </c>
       <c r="D186">
-        <f>SUM(E186,G186,I186,K186,M186,O186)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="2" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="B187" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="C187" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="D187">
-        <f>SUM(E187,G187,I187,K187,M187,O187)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="2" t="s">
-        <v>327</v>
+        <v>246</v>
       </c>
       <c r="B188" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="C188" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="D188">
-        <f>SUM(E188,G188,I188,K188,M188,O188)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="2" t="s">
-        <v>371</v>
+        <v>249</v>
       </c>
       <c r="B189" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="C189" t="s">
-        <v>332</v>
+        <v>243</v>
       </c>
       <c r="D189">
-        <f>SUM(E189,G189,I189,K189,M189,O189)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="2" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="B190" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="C190" t="s">
-        <v>458</v>
+        <v>243</v>
       </c>
       <c r="D190">
-        <f>SUM(E190,G190,I190,K190,M190,O190)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="2" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="B191" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="C191" t="s">
-        <v>458</v>
+        <v>243</v>
       </c>
       <c r="D191">
-        <f>SUM(E191,G191,I191,K191,M191,O191)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="2" t="s">
-        <v>364</v>
+        <v>232</v>
       </c>
       <c r="B192" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="C192" t="s">
-        <v>332</v>
+        <v>243</v>
       </c>
       <c r="D192">
-        <f>SUM(E192,G192,I192,K192,M192,O192)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A193" s="2" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="B193" t="s">
+        <v>233</v>
+      </c>
+      <c r="C193" t="s">
+        <v>243</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A194" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C193" t="s">
-        <v>330</v>
-      </c>
-      <c r="D193">
-        <f>SUM(E193,G193,I193,K193,M193,O193)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A194" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="B194" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="C194" t="s">
+        <v>243</v>
+      </c>
+      <c r="D194">
+        <f t="shared" ref="D194:D257" si="3">SUM(E194,G194,I194,K194,M194,O194)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A195" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B195" t="s">
+        <v>233</v>
+      </c>
+      <c r="C195" t="s">
+        <v>243</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A196" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B196" t="s">
+        <v>233</v>
+      </c>
+      <c r="C196" t="s">
+        <v>243</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A197" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B197" t="s">
+        <v>253</v>
+      </c>
+      <c r="C197" t="s">
+        <v>243</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A198" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B198" t="s">
+        <v>253</v>
+      </c>
+      <c r="C198" t="s">
+        <v>243</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A199" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B199" t="s">
+        <v>253</v>
+      </c>
+      <c r="C199" t="s">
+        <v>243</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A200" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B200" t="s">
+        <v>253</v>
+      </c>
+      <c r="C200" t="s">
+        <v>243</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A201" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B201" t="s">
+        <v>253</v>
+      </c>
+      <c r="C201" t="s">
+        <v>243</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A202" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B202" t="s">
+        <v>253</v>
+      </c>
+      <c r="C202" t="s">
+        <v>243</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A203" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B203" t="s">
+        <v>253</v>
+      </c>
+      <c r="C203" t="s">
+        <v>243</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A204" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B204" t="s">
+        <v>220</v>
+      </c>
+      <c r="C204" t="s">
+        <v>242</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204" t="s">
+        <v>462</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204" t="s">
+        <v>462</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204" t="s">
+        <v>462</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204" t="s">
+        <v>445</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204" t="s">
+        <v>462</v>
+      </c>
+      <c r="O204">
+        <v>0</v>
+      </c>
+      <c r="P204" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A205" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B205" t="s">
+        <v>220</v>
+      </c>
+      <c r="C205" t="s">
+        <v>242</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205" t="s">
+        <v>462</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205" t="s">
+        <v>462</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205" t="s">
+        <v>462</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205" t="s">
+        <v>445</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205" t="s">
+        <v>462</v>
+      </c>
+      <c r="O205">
+        <v>0</v>
+      </c>
+      <c r="P205" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A206" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B206" t="s">
+        <v>220</v>
+      </c>
+      <c r="C206" t="s">
         <v>239</v>
       </c>
-      <c r="D194">
-        <f>SUM(E194,G194,I194,K194,M194,O194)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A195" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B195" t="s">
+      <c r="D206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A207" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B207" t="s">
+        <v>220</v>
+      </c>
+      <c r="C207" t="s">
+        <v>240</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A208" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B208" t="s">
+        <v>262</v>
+      </c>
+      <c r="C208" t="s">
+        <v>243</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A209" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B209" t="s">
+        <v>262</v>
+      </c>
+      <c r="C209" t="s">
+        <v>243</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A210" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B210" t="s">
+        <v>262</v>
+      </c>
+      <c r="C210" t="s">
+        <v>243</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A211" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B211" t="s">
+        <v>266</v>
+      </c>
+      <c r="C211" t="s">
+        <v>268</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211" t="s">
+        <v>462</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211" t="s">
+        <v>462</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>462</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211" t="s">
+        <v>462</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211" t="s">
+        <v>462</v>
+      </c>
+      <c r="O211">
+        <v>0</v>
+      </c>
+      <c r="P211" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A212" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B212" t="s">
+        <v>266</v>
+      </c>
+      <c r="C212" t="s">
+        <v>268</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A213" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B213" t="s">
+        <v>266</v>
+      </c>
+      <c r="C213" t="s">
+        <v>268</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A214" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B214" t="s">
+        <v>266</v>
+      </c>
+      <c r="C214" t="s">
+        <v>268</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A215" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B215" t="s">
+        <v>266</v>
+      </c>
+      <c r="C215" t="s">
+        <v>311</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A216" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B216" t="s">
+        <v>266</v>
+      </c>
+      <c r="C216" t="s">
+        <v>268</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A217" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B217" t="s">
+        <v>266</v>
+      </c>
+      <c r="C217" t="s">
+        <v>268</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A218" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B218" t="s">
+        <v>266</v>
+      </c>
+      <c r="C218" t="s">
         <v>267</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D218">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A219" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B219" t="s">
+        <v>266</v>
+      </c>
+      <c r="C219" t="s">
         <v>268</v>
       </c>
-      <c r="D195">
-        <f>SUM(E195,G195,I195,K195,M195,O195)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A196" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B196" t="s">
-        <v>275</v>
-      </c>
-      <c r="C196" t="s">
-        <v>332</v>
-      </c>
-      <c r="D196">
-        <f>SUM(E196,G196,I196,K196,M196,O196)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A197" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B197" t="s">
-        <v>180</v>
-      </c>
-      <c r="C197" t="s">
-        <v>239</v>
-      </c>
-      <c r="D197">
-        <f>SUM(E197,G197,I197,K197,M197,O197)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A198" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B198" t="s">
-        <v>275</v>
-      </c>
-      <c r="C198" t="s">
-        <v>276</v>
-      </c>
-      <c r="D198">
-        <f>SUM(E198,G198,I198,K198,M198,O198)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A199" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B199" t="s">
-        <v>275</v>
-      </c>
-      <c r="C199" t="s">
-        <v>276</v>
-      </c>
-      <c r="D199">
-        <f>SUM(E199,G199,I199,K199,M199,O199)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A200" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B200" t="s">
-        <v>275</v>
-      </c>
-      <c r="C200" t="s">
-        <v>336</v>
-      </c>
-      <c r="D200">
-        <f>SUM(E200,G200,I200,K200,M200,O200)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A201" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B201" t="s">
-        <v>180</v>
-      </c>
-      <c r="C201" t="s">
-        <v>238</v>
-      </c>
-      <c r="D201">
-        <f>SUM(E201,G201,I201,K201,M201,O201)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A202" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B202" t="s">
+      <c r="D219">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A220" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B220" t="s">
+        <v>266</v>
+      </c>
+      <c r="C220" t="s">
+        <v>268</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A221" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B221" t="s">
+        <v>266</v>
+      </c>
+      <c r="C221" t="s">
+        <v>311</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A222" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B222" t="s">
+        <v>266</v>
+      </c>
+      <c r="C222" t="s">
         <v>267</v>
       </c>
-      <c r="C202" t="s">
-        <v>269</v>
-      </c>
-      <c r="D202">
-        <f>SUM(E202,G202,I202,K202,M202,O202)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A203" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B203" t="s">
-        <v>267</v>
-      </c>
-      <c r="C203" t="s">
-        <v>269</v>
-      </c>
-      <c r="D203">
-        <f>SUM(E203,G203,I203,K203,M203,O203)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A204" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B204" t="s">
-        <v>275</v>
-      </c>
-      <c r="C204" t="s">
-        <v>336</v>
-      </c>
-      <c r="D204">
-        <f>SUM(E204,G204,I204,K204,M204,O204)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A205" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B205" t="s">
-        <v>275</v>
-      </c>
-      <c r="C205" t="s">
-        <v>336</v>
-      </c>
-      <c r="D205">
-        <f>SUM(E205,G205,I205,K205,M205,O205)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A206" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B206" t="s">
-        <v>275</v>
-      </c>
-      <c r="C206" t="s">
-        <v>332</v>
-      </c>
-      <c r="D206">
-        <f>SUM(E206,G206,I206,K206,M206,O206)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A207" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B207" t="s">
-        <v>275</v>
-      </c>
-      <c r="C207" t="s">
-        <v>332</v>
-      </c>
-      <c r="D207">
-        <f>SUM(E207,G207,I207,K207,M207,O207)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A208" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B208" t="s">
-        <v>275</v>
-      </c>
-      <c r="C208" t="s">
-        <v>336</v>
-      </c>
-      <c r="D208">
-        <f>SUM(E208,G208,I208,K208,M208,O208)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A209" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B209" t="s">
-        <v>180</v>
-      </c>
-      <c r="C209" t="s">
-        <v>458</v>
-      </c>
-      <c r="D209">
-        <f>SUM(E209,G209,I209,K209,M209,O209)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A210" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B210" t="s">
-        <v>234</v>
-      </c>
-      <c r="C210" t="s">
-        <v>244</v>
-      </c>
-      <c r="D210">
-        <f>SUM(E210,G210,I210,K210,M210,O210)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A211" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B211" t="s">
-        <v>180</v>
-      </c>
-      <c r="C211" t="s">
-        <v>330</v>
-      </c>
-      <c r="D211">
-        <f>SUM(E211,G211,I211,K211,M211,O211)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A212" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B212" t="s">
-        <v>234</v>
-      </c>
-      <c r="C212" t="s">
-        <v>244</v>
-      </c>
-      <c r="D212">
-        <f>SUM(E212,G212,I212,K212,M212,O212)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A213" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B213" t="s">
-        <v>275</v>
-      </c>
-      <c r="C213" t="s">
-        <v>336</v>
-      </c>
-      <c r="D213">
-        <f>SUM(E213,G213,I213,K213,M213,O213)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A214" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B214" t="s">
-        <v>254</v>
-      </c>
-      <c r="C214" t="s">
-        <v>244</v>
-      </c>
-      <c r="D214">
-        <f>SUM(E214,G214,I214,K214,M214,O214)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A215" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B215" t="s">
-        <v>180</v>
-      </c>
-      <c r="C215" t="s">
-        <v>330</v>
-      </c>
-      <c r="D215">
-        <f>SUM(E215,G215,I215,K215,M215,O215)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A216" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B216" t="s">
-        <v>254</v>
-      </c>
-      <c r="C216" t="s">
-        <v>244</v>
-      </c>
-      <c r="D216">
-        <f>SUM(E216,G216,I216,K216,M216,O216)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A217" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B217" t="s">
-        <v>180</v>
-      </c>
-      <c r="C217" t="s">
-        <v>458</v>
-      </c>
-      <c r="D217">
-        <f>SUM(E217,G217,I217,K217,M217,O217)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A218" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B218" t="s">
-        <v>234</v>
-      </c>
-      <c r="C218" t="s">
-        <v>244</v>
-      </c>
-      <c r="D218">
-        <f>SUM(E218,G218,I218,K218,M218,O218)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A219" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B219" t="s">
-        <v>275</v>
-      </c>
-      <c r="C219" t="s">
-        <v>276</v>
-      </c>
-      <c r="D219">
-        <f>SUM(E219,G219,I219,K219,M219,O219)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A220" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B220" t="s">
-        <v>180</v>
-      </c>
-      <c r="C220" t="s">
-        <v>458</v>
-      </c>
-      <c r="D220">
-        <f>SUM(E220,G220,I220,K220,M220,O220)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A221" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B221" t="s">
-        <v>275</v>
-      </c>
-      <c r="C221" t="s">
-        <v>336</v>
-      </c>
-      <c r="D221">
-        <f>SUM(E221,G221,I221,K221,M221,O221)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A222" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B222" t="s">
-        <v>263</v>
-      </c>
-      <c r="C222" t="s">
-        <v>244</v>
-      </c>
       <c r="D222">
-        <f>SUM(E222,G222,I222,K222,M222,O222)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A223" s="2" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="B223" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C223" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="D223">
-        <f>SUM(E223,G223,I223,K223,M223,O223)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A224" s="2" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="B224" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="C224" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="D224">
-        <f>SUM(E224,G224,I224,K224,M224,O224)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="2" t="s">
-        <v>190</v>
+        <v>298</v>
       </c>
       <c r="B225" t="s">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="C225" t="s">
-        <v>458</v>
+        <v>291</v>
       </c>
       <c r="D225">
-        <f>SUM(E225,G225,I225,K225,M225,O225)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="2" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="B226" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C226" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="D226">
-        <f>SUM(E226,G226,I226,K226,M226,O226)</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A227" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B227" t="s">
+        <v>266</v>
+      </c>
+      <c r="C227" t="s">
+        <v>291</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A228" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B228" t="s">
+        <v>266</v>
+      </c>
+      <c r="C228" t="s">
+        <v>291</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A229" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B229" t="s">
+        <v>266</v>
+      </c>
+      <c r="C229" t="s">
+        <v>268</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A230" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B230" t="s">
+        <v>266</v>
+      </c>
+      <c r="C230" t="s">
+        <v>268</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A231" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B231" t="s">
+        <v>266</v>
+      </c>
+      <c r="C231" t="s">
+        <v>268</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A232" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B232" t="s">
+        <v>266</v>
+      </c>
+      <c r="C232" t="s">
+        <v>268</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A233" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B233" t="s">
+        <v>266</v>
+      </c>
+      <c r="C233" t="s">
+        <v>268</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A234" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B234" t="s">
+        <v>266</v>
+      </c>
+      <c r="C234" t="s">
+        <v>267</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A235" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B235" t="s">
+        <v>266</v>
+      </c>
+      <c r="C235" t="s">
+        <v>268</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A236" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B236" t="s">
+        <v>266</v>
+      </c>
+      <c r="C236" t="s">
+        <v>268</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/Painting Record.xlsx
+++ b/Painting Record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopez\Desktop\V2.3.6 Javier_LeonhArt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopez\Desktop\V2.4 Javier_LeonhArt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D96AE42-AC89-4725-A917-9B8648365015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E734D83-08F1-45FC-B569-F60200299678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{8FABD0BB-35D2-4746-8BF5-22ED6BD8493F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="493">
   <si>
     <t>Date</t>
   </si>
@@ -1393,9 +1393,6 @@
     <t>Leather Shadow</t>
   </si>
   <si>
-    <t>Skin /  Leather</t>
-  </si>
-  <si>
     <t>NMM / W. Wood</t>
   </si>
   <si>
@@ -1517,6 +1514,30 @@
   </si>
   <si>
     <t>Arch-Revenant</t>
+  </si>
+  <si>
+    <t>Dragonfly</t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t>Leaves</t>
+  </si>
+  <si>
+    <t>Leaves (up Yellow)</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Hair /  Leather</t>
+  </si>
+  <si>
+    <t>Wings</t>
+  </si>
+  <si>
+    <t>On Break</t>
   </si>
 </sst>
 </file>
@@ -2013,10 +2034,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$169</c:f>
+              <c:f>Sheet1!$A$2:$A$170</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="168"/>
+                <c:ptCount val="169"/>
                 <c:pt idx="0">
                   <c:v>43405</c:v>
                 </c:pt>
@@ -2516,6 +2537,9 @@
                   <c:v>45474</c:v>
                 </c:pt>
                 <c:pt idx="166">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="167">
                   <c:v>45505</c:v>
                 </c:pt>
               </c:numCache>
@@ -2523,10 +2547,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$169</c:f>
+              <c:f>Sheet1!$C$2:$C$170</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="168"/>
+                <c:ptCount val="169"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -3027,6 +3051,9 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3811,8 +3838,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{61558924-6BAF-41CB-A458-0F8F58CE51F4}" name="Table2" displayName="Table2" ref="A1:F169" totalsRowShown="0">
-  <autoFilter ref="A1:F169" xr:uid="{61558924-6BAF-41CB-A458-0F8F58CE51F4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{61558924-6BAF-41CB-A458-0F8F58CE51F4}" name="Table2" displayName="Table2" ref="A1:F170" totalsRowShown="0">
+  <autoFilter ref="A1:F170" xr:uid="{61558924-6BAF-41CB-A458-0F8F58CE51F4}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A1C8C315-1AF4-46A9-829B-F6F66670A080}" name="Date" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{5DD88343-1F7A-4E8C-82DC-76B842BC6326}" name="Project"/>
@@ -3840,7 +3867,7 @@
   <autoFilter ref="H1:H2" xr:uid="{E331850F-6965-449B-A1DC-94B726771513}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{55DB5F22-E9C6-43F4-91B3-C8775CAB6E79}" name="Total Painted">
-      <calculatedColumnFormula>SUM(C2:C1021)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(C2:C1022)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3883,7 +3910,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F21A842-DBF6-43AE-B39A-A0811F55AAD9}" name="Table5" displayName="Table5" ref="A1:P236" totalsRowShown="0">
   <autoFilter ref="A1:P236" xr:uid="{0F21A842-DBF6-43AE-B39A-A0811F55AAD9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P236">
-    <sortCondition descending="1" ref="D1:D236"/>
+    <sortCondition ref="A1:A236"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{303018FD-1CFE-44C3-A9A5-27F54CDD884C}" name="Paint"/>
@@ -4226,10 +4253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F725C0D8-4E5E-44F7-BED9-972635B5DB06}">
-  <dimension ref="A1:J169"/>
+  <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4290,8 +4317,8 @@
         <v>11</v>
       </c>
       <c r="H2">
-        <f>SUM(C2:C1021)</f>
-        <v>522</v>
+        <f>SUM(C2:C1022)</f>
+        <v>523</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
@@ -4366,7 +4393,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -4415,7 +4442,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
@@ -4496,7 +4523,7 @@
       </c>
       <c r="H10" t="str" cm="1">
         <f t="array" ref="H10">IFERROR(INDEX(Paints!A:A, SMALL(IF(Paints!D:D=LARGE(Paints!D:D, 3), ROW(Paints!D:D), ""), 3)), INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 4), Paints!D:D, 0)))</f>
-        <v>Dragon Blood</v>
+        <v>Grimy Grey</v>
       </c>
       <c r="J10" t="s">
         <v>30</v>
@@ -4523,7 +4550,7 @@
       </c>
       <c r="H11" t="str" cm="1">
         <f t="array" ref="H11">IFERROR(INDEX(Paints!A:A, SMALL(IF(Paints!D:D=LARGE(Paints!D:D, 4), ROW(Paints!D:D), ""), 4)), INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 5), Paints!D:D, 0)))</f>
-        <v>Grimy Grey</v>
+        <v>Heavy Warmgrey</v>
       </c>
       <c r="J11" t="s">
         <v>32</v>
@@ -4673,7 +4700,7 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -4765,7 +4792,7 @@
         <v>11</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -7443,7 +7470,27 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A169" s="1"/>
+      <c r="A169" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B169" t="s">
+        <v>32</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>484</v>
+      </c>
+      <c r="E169" t="s">
+        <v>170</v>
+      </c>
+      <c r="F169" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A170" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J11 B2:B1048576">
@@ -7501,8 +7548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD12CC97-8595-4312-A700-76C39152E1F0}">
   <dimension ref="A1:P236"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A93" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7536,7 +7583,7 @@
         <v>236</v>
       </c>
       <c r="D1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E1" t="s">
         <v>175</v>
@@ -7577,115 +7624,67 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D65" si="0">SUM(E2,G2,I2,K2,M2,O2)</f>
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>449</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>449</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>449</v>
+        <f>SUM(E2,G2,I2,K2,M2,O2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>452</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>421</v>
+        <f>SUM(E3,G3,I3,K3,M3,O3)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>449</v>
+        <f>SUM(E4,G4,I4,K4,M4,O4)</f>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>469</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B5" t="s">
         <v>294</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f>SUM(E5,G5,I5,K5,M5,O5)</f>
         <v>3</v>
       </c>
       <c r="E5">
@@ -7694,166 +7693,100 @@
       <c r="F5" t="s">
         <v>453</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>453</v>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>451</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>263</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>449</v>
+        <f>SUM(E6,G6,I6,K6,M6,O6)</f>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>484</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>449</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>482</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>449</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>329</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>447</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>446</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>444</v>
+        <f>SUM(E7,G7,I7,K7,M7,O7)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>434</v>
+        <v>388</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>447</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>446</v>
+        <f>SUM(E8,G8,I8,K8,M8,O8)</f>
+        <v>2</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>448</v>
+        <v>485</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>408</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>418</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
-        <v>464</v>
+        <f>SUM(E9,G9,I9,K9,M9,O9)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>212</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
         <v>294</v>
@@ -7862,292 +7795,217 @@
         <v>296</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f>SUM(E10,G10,I10,K10,M10,O10)</f>
         <v>2</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>447</v>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>416</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>417</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>452</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11" t="s">
-        <v>458</v>
+        <f>SUM(E11,G11,I11,K11,M11,O11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s">
         <v>274</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>455</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
+        <f>SUM(E12,G12,I12,K12,M12,O12)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="B13" t="s">
         <v>274</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>453</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>420</v>
+        <f>SUM(E13,G13,I13,K13,M13,O13)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C14" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>431</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14" t="s">
-        <v>465</v>
+        <f>SUM(E14,G14,I14,K14,M14,O14)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C15" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>458</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
+        <f>SUM(E15,G15,I15,K15,M15,O15)</f>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="B16" t="s">
         <v>266</v>
       </c>
       <c r="C16" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(E16,G16,I16,K16,M16,O16)</f>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>442</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16" t="s">
-        <v>466</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>428</v>
+        <v>299</v>
       </c>
       <c r="B17" t="s">
         <v>266</v>
       </c>
       <c r="C17" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>460</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
-        <v>429</v>
+        <f>SUM(E17,G17,I17,K17,M17,O17)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>388</v>
+        <v>270</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C18" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>450</v>
+        <f>SUM(E18,G18,I18,K18,M18,O18)</f>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>389</v>
+        <v>476</v>
       </c>
       <c r="B19" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
-        <v>296</v>
+        <v>471</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>450</v>
+        <f>SUM(E19,G19,I19,K19,M19,O19)</f>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>431</v>
+        <f>SUM(E20,G20,I20,K20,M20,O20)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>393</v>
+        <v>264</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C21" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>451</v>
+        <f>SUM(E21,G21,I21,K21,M21,O21)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="B22" t="s">
         <v>294</v>
@@ -8156,145 +8014,202 @@
         <v>296</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
-        <v>450</v>
+        <f>SUM(E22,G22,I22,K22,M22,O22)</f>
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>418</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="B23" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C23" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>418</v>
+        <f>SUM(E23,G23,I23,K23,M23,O23)</f>
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>454</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>424</v>
+        <v>314</v>
       </c>
       <c r="B24" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C24" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
-        <v>425</v>
+        <f>SUM(E24,G24,I24,K24,M24,O24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>433</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="C25" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(E25,G25,I25,K25,M25,O25)</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>461</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>461</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>461</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>431</v>
+        <v>444</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>461</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="B26" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>296</v>
+        <v>471</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f>SUM(E26,G26,I26,K26,M26,O26)</f>
         <v>1</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>313</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="C27" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(E27,G27,I27,K27,M27,O27)</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>461</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>416</v>
+        <v>461</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>461</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>444</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>461</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>315</v>
+        <v>219</v>
       </c>
       <c r="B28" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>452</v>
+        <f>SUM(E28,G28,I28,K28,M28,O28)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B29" t="s">
         <v>294</v>
@@ -8303,349 +8218,301 @@
         <v>296</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29" t="s">
-        <v>458</v>
+        <f>SUM(E29,G29,I29,K29,M29,O29)</f>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B30" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C30" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30" t="s">
-        <v>458</v>
+        <f>SUM(E30,G30,I30,K30,M30,O30)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>478</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>406</v>
+        <v>253</v>
       </c>
       <c r="C31" t="s">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31" t="s">
-        <v>483</v>
+        <f>SUM(E31,G31,I31,K31,M31,O31)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>480</v>
+        <v>397</v>
       </c>
       <c r="B32" t="s">
-        <v>406</v>
+        <v>266</v>
       </c>
       <c r="C32" t="s">
-        <v>479</v>
+        <v>268</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" t="s">
-        <v>483</v>
+        <f>SUM(E32,G32,I32,K32,M32,O32)</f>
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>431</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="B33" t="s">
-        <v>406</v>
+        <v>274</v>
       </c>
       <c r="C33" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
+        <f>SUM(E33,G33,I33,K33,M33,O33)</f>
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="B34" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C34" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34" t="s">
-        <v>431</v>
+        <f>SUM(E34,G34,I34,K34,M34,O34)</f>
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>442</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>387</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C35" t="s">
-        <v>275</v>
+        <v>455</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
+        <f>SUM(E35,G35,I35,K35,M35,O35)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>382</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="C36" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
+        <f>SUM(E36,G36,I36,K36,M36,O36)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>394</v>
+        <v>207</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C37" t="s">
-        <v>331</v>
+        <v>238</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37" t="s">
-        <v>451</v>
+        <f>SUM(E37,G37,I37,K37,M37,O37)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>377</v>
+        <v>208</v>
       </c>
       <c r="B38" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C38" t="s">
-        <v>331</v>
+        <v>238</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38" t="s">
-        <v>452</v>
+        <f>SUM(E38,G38,I38,K38,M38,O38)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="B39" t="s">
         <v>274</v>
       </c>
       <c r="C39" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39" t="s">
-        <v>451</v>
+        <f>SUM(E39,G39,I39,K39,M39,O39)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
-        <v>277</v>
+        <v>414</v>
       </c>
       <c r="B40" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C40" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f>SUM(E40,G40,I40,K40,M40,O40)</f>
         <v>1</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>443</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
-        <v>427</v>
+        <v>261</v>
       </c>
       <c r="B41" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C41" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41" t="s">
-        <v>425</v>
+        <f>SUM(E41,G41,I41,K41,M41,O41)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
-        <v>438</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C42" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42" t="s">
-        <v>420</v>
+        <f>SUM(E42,G42,I42,K42,M42,O42)</f>
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="B43" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C43" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>416</v>
+        <f>SUM(E43,G43,I43,K43,M43,O43)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
-        <v>276</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
-        <v>416</v>
+        <f>SUM(E44,G44,I44,K44,M44,O44)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
-        <v>330</v>
+        <v>192</v>
       </c>
       <c r="B45" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C45" t="s">
-        <v>331</v>
+        <v>455</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>1</v>
-      </c>
-      <c r="P45" t="s">
-        <v>465</v>
+        <f>SUM(E45,G45,I45,K45,M45,O45)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s">
         <v>274</v>
@@ -8654,61 +8521,58 @@
         <v>331</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
-        <v>447</v>
+        <f>SUM(E46,G46,I46,K46,M46,O46)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="B47" t="s">
         <v>274</v>
       </c>
       <c r="C47" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47" t="s">
-        <v>453</v>
+        <f>SUM(E47,G47,I47,K47,M47,O47)</f>
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>485</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>371</v>
+        <v>277</v>
       </c>
       <c r="B48" t="s">
         <v>274</v>
       </c>
       <c r="C48" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>1</v>
-      </c>
-      <c r="P48" t="s">
-        <v>453</v>
+        <f>SUM(E48,G48,I48,K48,M48,O48)</f>
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="B49" t="s">
         <v>274</v>
@@ -8717,61 +8581,61 @@
         <v>331</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>1</v>
-      </c>
-      <c r="P49" t="s">
-        <v>453</v>
+        <f>SUM(E49,G49,I49,K49,M49,O49)</f>
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>446</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>193</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="C50" t="s">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50" t="s">
-        <v>331</v>
+        <f>SUM(E50,G50,I50,K50,M50,O50)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
-        <v>195</v>
+        <v>472</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="C51" t="s">
-        <v>329</v>
+        <v>471</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
+        <f>SUM(E51,G51,I51,K51,M51,O51)</f>
         <v>1</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>331</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B52" t="s">
         <v>179</v>
@@ -8780,373 +8644,361 @@
         <v>329</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52" t="s">
-        <v>331</v>
+        <f>SUM(E52,G52,I52,K52,M52,O52)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="B53" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C53" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
+        <f>SUM(E53,G53,I53,K53,M53,O53)</f>
         <v>1</v>
       </c>
       <c r="G53">
         <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
-        <v>244</v>
+        <v>349</v>
       </c>
       <c r="B54" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="C54" t="s">
-        <v>243</v>
+        <v>335</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54" t="s">
-        <v>482</v>
+        <f>SUM(E54,G54,I54,K54,M54,O54)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
-        <v>221</v>
+        <v>292</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="C55" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
+        <f>SUM(E55,G55,I55,K55,M55,O55)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B56" t="s">
         <v>220</v>
       </c>
       <c r="C56" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
+        <f>SUM(E56,G56,I56,K56,M56,O56)</f>
         <v>1</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
-        <v>473</v>
+        <v>372</v>
       </c>
       <c r="B57" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="C57" t="s">
-        <v>472</v>
+        <v>335</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57" t="s">
-        <v>482</v>
+        <f>SUM(E57,G57,I57,K57,M57,O57)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
-        <v>474</v>
+        <v>265</v>
       </c>
       <c r="B58" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="C58" t="s">
-        <v>472</v>
+        <v>267</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58" t="s">
-        <v>482</v>
+        <f>SUM(E58,G58,I58,K58,M58,O58)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
-        <v>475</v>
+        <v>402</v>
       </c>
       <c r="B59" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="C59" t="s">
-        <v>472</v>
+        <v>268</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
+        <f>SUM(E59,G59,I59,K59,M59,O59)</f>
         <v>1</v>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>482</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
-        <v>476</v>
+        <v>432</v>
       </c>
       <c r="B60" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="C60" t="s">
-        <v>472</v>
+        <v>311</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
+        <f>SUM(E60,G60,I60,K60,M60,O60)</f>
         <v>1</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>482</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
-        <v>477</v>
+        <v>305</v>
       </c>
       <c r="B61" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="C61" t="s">
-        <v>472</v>
+        <v>287</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
+        <f>SUM(E61,G61,I61,K61,M61,O61)</f>
         <v>1</v>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B62" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="C62" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62" t="s">
-        <v>483</v>
+        <f>SUM(E62,G62,I62,K62,M62,O62)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>383</v>
+        <v>254</v>
       </c>
       <c r="B63" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C63" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(E63,G63,I63,K63,M63,O63)</f>
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>448</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>483</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>448</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
+        <v>481</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>459</v>
+        <v>448</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
-        <v>384</v>
+        <v>306</v>
       </c>
       <c r="B64" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C64" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E64,G64,I64,K64,M64,O64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
-        <v>391</v>
+        <v>199</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="C65" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E65,G65,I65,K65,M65,O65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
-        <v>392</v>
+        <v>477</v>
       </c>
       <c r="B66" t="s">
-        <v>266</v>
+        <v>406</v>
       </c>
       <c r="C66" t="s">
-        <v>311</v>
+        <v>478</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D129" si="1">SUM(E66,G66,I66,K66,M66,O66)</f>
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="N66" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E66,G66,I66,K66,M66,O66)</f>
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C67" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="D67">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="N67" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E67,G67,I67,K67,M67,O67)</f>
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
-        <v>385</v>
+        <v>222</v>
       </c>
       <c r="B68" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="C68" t="s">
-        <v>311</v>
+        <v>240</v>
       </c>
       <c r="D68">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-      <c r="N68" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E68,G68,I68,K68,M68,O68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
-        <v>415</v>
+        <v>307</v>
       </c>
       <c r="B69" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C69" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(E69,G69,I69,K69,M69,O69)</f>
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>448</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>468</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="L69" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="B70" t="s">
         <v>266</v>
@@ -9155,19 +9007,19 @@
         <v>311</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
+        <f>SUM(E70,G70,I70,K70,M70,O70)</f>
         <v>1</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
-        <v>402</v>
+        <v>308</v>
       </c>
       <c r="B71" t="s">
         <v>266</v>
@@ -9176,448 +9028,331 @@
         <v>268</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
+        <f>SUM(E71,G71,I71,K71,M71,O71)</f>
         <v>1</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="L71" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
-        <v>432</v>
+        <v>336</v>
       </c>
       <c r="B72" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C72" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E72,G72,I72,K72,M72,O72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
-        <v>305</v>
+        <v>430</v>
       </c>
       <c r="B73" t="s">
         <v>266</v>
       </c>
       <c r="C73" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="D73">
-        <f t="shared" si="1"/>
+        <f>SUM(E73,G73,I73,K73,M73,O73)</f>
         <v>1</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="L73" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="B74" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C74" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="L74" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E74,G74,I74,K74,M74,O74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
-        <v>430</v>
+        <v>216</v>
       </c>
       <c r="B75" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="C75" t="s">
-        <v>311</v>
+        <v>237</v>
       </c>
       <c r="D75">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="L75" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E75,G75,I75,K75,M75,O75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="B76" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C76" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="D76">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E76,G76,I76,K76,M76,O76)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
-        <v>439</v>
+        <v>252</v>
       </c>
       <c r="B77" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C77" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="D77">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E77,G77,I77,K77,M77,O77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
-        <v>401</v>
+        <v>343</v>
       </c>
       <c r="B78" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C78" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
       <c r="D78">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E78,G78,I78,K78,M78,O78)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="B79" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C79" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="D79">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="L79" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
+        <f>SUM(E79,G79,I79,K79,M79,O79)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
-        <v>422</v>
+        <v>293</v>
       </c>
       <c r="B80" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C80" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="D80">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80" t="s">
-        <v>331</v>
+        <f>SUM(E80,G80,I80,K80,M80,O80)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
-        <v>400</v>
+        <v>332</v>
       </c>
       <c r="B81" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C81" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="D81">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81" t="s">
-        <v>331</v>
+        <f>SUM(E81,G81,I81,K81,M81,O81)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
-        <v>411</v>
+        <v>328</v>
       </c>
       <c r="B82" t="s">
         <v>266</v>
       </c>
       <c r="C82" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="D82">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82" t="s">
-        <v>418</v>
+        <f>SUM(E82,G82,I82,K82,M82,O82)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
-        <v>436</v>
+        <v>310</v>
       </c>
       <c r="B83" t="s">
         <v>266</v>
       </c>
       <c r="C83" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="D83">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-      <c r="L83" t="s">
-        <v>431</v>
+        <f>SUM(E83,G83,I83,K83,M83,O83)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="B84" t="s">
         <v>266</v>
       </c>
       <c r="C84" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="D84">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84" t="s">
-        <v>416</v>
+        <f>SUM(E84,G84,I84,K84,M84,O84)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="B85" t="s">
         <v>266</v>
       </c>
       <c r="C85" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="D85">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>1</v>
-      </c>
-      <c r="P85" t="s">
-        <v>463</v>
+        <f>SUM(E85,G85,I85,K85,M85,O85)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
-        <v>324</v>
+        <v>209</v>
       </c>
       <c r="B86" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="D86">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86" t="s">
-        <v>452</v>
+        <f>SUM(E86,G86,I86,K86,M86,O86)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
-        <v>288</v>
+        <v>410</v>
       </c>
       <c r="B87" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C87" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="D87">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87" t="s">
-        <v>460</v>
+        <f>SUM(E87,G87,I87,K87,M87,O87)</f>
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="B88" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C88" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="D88">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88" t="s">
-        <v>461</v>
+        <f>SUM(E88,G88,I88,K88,M88,O88)</f>
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
-        <v>289</v>
+        <v>382</v>
       </c>
       <c r="B89" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C89" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89" t="s">
-        <v>457</v>
+        <f>SUM(E89,G89,I89,K89,M89,O89)</f>
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="B90" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C90" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90" t="s">
-        <v>462</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90" t="s">
-        <v>462</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90" t="s">
-        <v>462</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90" t="s">
-        <v>462</v>
+        <f>SUM(E90,G90,I90,K90,M90,O90)</f>
+        <v>1</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90" t="s">
-        <v>462</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
-        <v>435</v>
+        <v>295</v>
       </c>
       <c r="B91" t="s">
         <v>294</v>
@@ -9626,115 +9361,49 @@
         <v>296</v>
       </c>
       <c r="D91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91" t="s">
-        <v>462</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91" t="s">
-        <v>462</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91" t="s">
-        <v>462</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91" t="s">
-        <v>462</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91" t="s">
-        <v>462</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91" t="s">
-        <v>462</v>
+        <f>SUM(E91,G91,I91,K91,M91,O91)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
-        <v>407</v>
+        <v>301</v>
       </c>
       <c r="B92" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C92" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="D92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92" t="s">
-        <v>462</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92" t="s">
-        <v>462</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92" t="s">
-        <v>462</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92" t="s">
-        <v>462</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92" t="s">
-        <v>462</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92" t="s">
-        <v>462</v>
+        <f>SUM(E92,G92,I92,K92,M92,O92)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
-        <v>305</v>
+        <v>394</v>
       </c>
       <c r="B93" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C93" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="D93">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(E93,G93,I93,K93,M93,O93)</f>
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
-        <v>306</v>
+        <v>419</v>
       </c>
       <c r="B94" t="s">
         <v>294</v>
@@ -9743,439 +9412,538 @@
         <v>296</v>
       </c>
       <c r="D94">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(E94,G94,I94,K94,M94,O94)</f>
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>452</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>452</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
-        <v>293</v>
+        <v>215</v>
       </c>
       <c r="B95" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="C95" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="D95">
-        <f t="shared" si="1"/>
+        <f>SUM(E95,G95,I95,K95,M95,O95)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
-        <v>295</v>
+        <v>384</v>
       </c>
       <c r="B96" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C96" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D96">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(E96,G96,I96,K96,M96,O96)</f>
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="B97" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C97" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="D97">
-        <f t="shared" si="1"/>
+        <f>SUM(E97,G97,I97,K97,M97,O97)</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="B98" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C98" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="D98">
-        <f t="shared" si="1"/>
+        <f>SUM(E98,G98,I98,K98,M98,O98)</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B99" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C99" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D99">
-        <f t="shared" si="1"/>
+        <f>SUM(E99,G99,I99,K99,M99,O99)</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="B100" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C100" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D100">
-        <f t="shared" si="1"/>
+        <f>SUM(E100,G100,I100,K100,M100,O100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B101" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C101" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D101">
-        <f t="shared" si="1"/>
+        <f>SUM(E101,G101,I101,K101,M101,O101)</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B102" t="s">
-        <v>406</v>
+        <v>266</v>
       </c>
       <c r="C102" t="s">
-        <v>479</v>
+        <v>291</v>
       </c>
       <c r="D102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102" t="s">
-        <v>462</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102" t="s">
-        <v>462</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102" t="s">
-        <v>462</v>
+        <f>SUM(E102,G102,I102,K102,M102,O102)</f>
+        <v>1</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" t="s">
-        <v>462</v>
-      </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-      <c r="N102" t="s">
-        <v>462</v>
-      </c>
-      <c r="O102">
-        <v>0</v>
-      </c>
-      <c r="P102" t="s">
-        <v>462</v>
+        <v>331</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="B103" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C103" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="D103">
-        <f t="shared" si="1"/>
+        <f>SUM(E103,G103,I103,K103,M103,O103)</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B104" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C104" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="D104">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(E104,G104,I104,K104,M104,O104)</f>
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>457</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
-        <v>285</v>
+        <v>434</v>
       </c>
       <c r="B105" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C105" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="D105">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(E105,G105,I105,K105,M105,O105)</f>
+        <v>3</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>446</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>445</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
-        <v>344</v>
+        <v>480</v>
       </c>
       <c r="B106" t="s">
-        <v>274</v>
+        <v>406</v>
       </c>
       <c r="C106" t="s">
-        <v>331</v>
+        <v>478</v>
       </c>
       <c r="D106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(E106,G106,I106,K106,M106,O106)</f>
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A107" s="2" t="s">
-        <v>357</v>
+        <v>197</v>
       </c>
       <c r="B107" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C107" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D107">
-        <f t="shared" si="1"/>
+        <f>SUM(E107,G107,I107,K107,M107,O107)</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
-        <v>366</v>
+        <v>288</v>
       </c>
       <c r="B108" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C108" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="D108">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(E108,G108,I108,K108,M108,O108)</f>
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="B109" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C109" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="D109">
-        <f t="shared" si="1"/>
+        <f>SUM(E109,G109,I109,K109,M109,O109)</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B110" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C110" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="D110">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(E110,G110,I110,K110,M110,O110)</f>
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>461</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>461</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>461</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110" t="s">
+        <v>461</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110" t="s">
+        <v>461</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B111" t="s">
         <v>274</v>
       </c>
       <c r="C111" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D111">
-        <f t="shared" si="1"/>
+        <f>SUM(E111,G111,I111,K111,M111,O111)</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
-        <v>372</v>
+        <v>213</v>
       </c>
       <c r="B112" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C112" t="s">
-        <v>335</v>
+        <v>237</v>
       </c>
       <c r="D112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E112,G112,I112,K112,M112,O112)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="B113" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="C113" t="s">
-        <v>335</v>
+        <v>242</v>
       </c>
       <c r="D113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E113,G113,I113,K113,M113,O113)</f>
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="B114" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C114" t="s">
-        <v>335</v>
+        <v>268</v>
       </c>
       <c r="D114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E114,G114,I114,K114,M114,O114)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
-        <v>358</v>
+        <v>279</v>
       </c>
       <c r="B115" t="s">
         <v>274</v>
       </c>
       <c r="C115" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="D115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E115,G115,I115,K115,M115,O115)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="B116" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C116" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="D116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E116,G116,I116,K116,M116,O116)</f>
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116" t="s">
+        <v>451</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="B117" t="s">
         <v>274</v>
       </c>
       <c r="C117" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E117,G117,I117,K117,M117,O117)</f>
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="B118" t="s">
         <v>274</v>
       </c>
       <c r="C118" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E118,G118,I118,K118,M118,O118)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
-        <v>284</v>
+        <v>352</v>
       </c>
       <c r="B119" t="s">
         <v>274</v>
       </c>
       <c r="C119" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="D119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E119,G119,I119,K119,M119,O119)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
-        <v>278</v>
+        <v>439</v>
       </c>
       <c r="B120" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C120" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="D120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E120,G120,I120,K120,M120,O120)</f>
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B121" t="s">
         <v>274</v>
@@ -10184,523 +9952,703 @@
         <v>331</v>
       </c>
       <c r="D121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E121,G121,I121,K121,M121,O121)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="B122" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C122" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="D122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E122,G122,I122,K122,M122,O122)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="B123" t="s">
-        <v>274</v>
+        <v>406</v>
       </c>
       <c r="C123" t="s">
-        <v>335</v>
+        <v>478</v>
       </c>
       <c r="D123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E123,G123,I123,K123,M123,O123)</f>
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123" t="s">
+        <v>461</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>461</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>461</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123" t="s">
+        <v>461</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123" t="s">
+        <v>461</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="B124" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C124" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="D124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E124,G124,I124,K124,M124,O124)</f>
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124" t="s">
+        <v>461</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124" t="s">
+        <v>461</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>461</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124" t="s">
+        <v>461</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124" t="s">
+        <v>461</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
-        <v>338</v>
+        <v>435</v>
       </c>
       <c r="B125" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C125" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="D125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E125,G125,I125,K125,M125,O125)</f>
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125" t="s">
+        <v>461</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125" t="s">
+        <v>461</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125" t="s">
+        <v>461</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125" t="s">
+        <v>461</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125" t="s">
+        <v>461</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B126" t="s">
+        <v>294</v>
+      </c>
+      <c r="C126" t="s">
+        <v>296</v>
+      </c>
+      <c r="D126">
+        <f>SUM(E126,G126,I126,K126,M126,O126)</f>
+        <v>2</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126" t="s">
+        <v>485</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A127" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B127" t="s">
+        <v>266</v>
+      </c>
+      <c r="C127" t="s">
+        <v>268</v>
+      </c>
+      <c r="D127">
+        <f>SUM(E127,G127,I127,K127,M127,O127)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A128" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B128" t="s">
+        <v>294</v>
+      </c>
+      <c r="C128" t="s">
+        <v>296</v>
+      </c>
+      <c r="D128">
+        <f>SUM(E128,G128,I128,K128,M128,O128)</f>
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A129" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B129" t="s">
+        <v>294</v>
+      </c>
+      <c r="C129" t="s">
+        <v>296</v>
+      </c>
+      <c r="D129">
+        <f>SUM(E129,G129,I129,K129,M129,O129)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A130" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B130" t="s">
+        <v>294</v>
+      </c>
+      <c r="C130" t="s">
+        <v>296</v>
+      </c>
+      <c r="D130">
+        <f>SUM(E130,G130,I130,K130,M130,O130)</f>
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A131" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="B126" t="s">
-        <v>274</v>
-      </c>
-      <c r="C126" t="s">
-        <v>331</v>
-      </c>
-      <c r="D126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A127" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B127" t="s">
-        <v>274</v>
-      </c>
-      <c r="C127" t="s">
-        <v>331</v>
-      </c>
-      <c r="D127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A128" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B128" t="s">
-        <v>274</v>
-      </c>
-      <c r="C128" t="s">
-        <v>335</v>
-      </c>
-      <c r="D128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A129" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B129" t="s">
-        <v>274</v>
-      </c>
-      <c r="C129" t="s">
-        <v>331</v>
-      </c>
-      <c r="D129">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A130" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B130" t="s">
-        <v>274</v>
-      </c>
-      <c r="C130" t="s">
-        <v>331</v>
-      </c>
-      <c r="D130">
-        <f t="shared" ref="D130:D193" si="2">SUM(E130,G130,I130,K130,M130,O130)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A131" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="B131" t="s">
         <v>274</v>
       </c>
       <c r="C131" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="D131">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E131,G131,I131,K131,M131,O131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
-        <v>347</v>
+        <v>186</v>
       </c>
       <c r="B132" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C132" t="s">
-        <v>335</v>
+        <v>455</v>
       </c>
       <c r="D132">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E132,G132,I132,K132,M132,O132)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" s="2" t="s">
-        <v>351</v>
+        <v>196</v>
       </c>
       <c r="B133" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C133" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D133">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E133,G133,I133,K133,M133,O133)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B134" t="s">
         <v>274</v>
       </c>
       <c r="C134" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D134">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E134,G134,I134,K134,M134,O134)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" s="2" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="B135" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C135" t="s">
+        <v>268</v>
+      </c>
+      <c r="D135">
+        <f>SUM(E135,G135,I135,K135,M135,O135)</f>
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135" t="s">
         <v>331</v>
       </c>
-      <c r="D135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" s="2" t="s">
-        <v>363</v>
+        <v>256</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="C136" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="D136">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E136,G136,I136,K136,M136,O136)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
-        <v>333</v>
+        <v>403</v>
       </c>
       <c r="B137" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C137" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="D137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E137,G137,I137,K137,M137,O137)</f>
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
       <c r="B138" t="s">
         <v>274</v>
       </c>
       <c r="C138" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="D138">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E138,G138,I138,K138,M138,O138)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
-        <v>283</v>
+        <v>368</v>
       </c>
       <c r="B139" t="s">
         <v>274</v>
       </c>
       <c r="C139" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="D139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E139,G139,I139,K139,M139,O139)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
-        <v>362</v>
+        <v>214</v>
       </c>
       <c r="B140" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C140" t="s">
-        <v>335</v>
+        <v>237</v>
       </c>
       <c r="D140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E140,G140,I140,K140,M140,O140)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B141" t="s">
         <v>274</v>
       </c>
       <c r="C141" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D141">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E141,G141,I141,K141,M141,O141)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" s="2" t="s">
-        <v>356</v>
+        <v>286</v>
       </c>
       <c r="B142" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C142" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="D142">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E142,G142,I142,K142,M142,O142)</f>
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
-        <v>354</v>
+        <v>246</v>
       </c>
       <c r="B143" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="C143" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="D143">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E143,G143,I143,K143,M143,O143)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" s="2" t="s">
-        <v>355</v>
+        <v>249</v>
       </c>
       <c r="B144" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="C144" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="D144">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E144,G144,I144,K144,M144,O144)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A145" s="2" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="B145" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="C145" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="D145">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E145,G145,I145,K145,M145,O145)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A146" s="2" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
       <c r="B146" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="C146" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="D146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E146,G146,I146,K146,M146,O146)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A147" s="2" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="B147" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="C147" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="D147">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E147,G147,I147,K147,M147,O147)</f>
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
-        <v>341</v>
+        <v>232</v>
       </c>
       <c r="B148" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="C148" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="D148">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E148,G148,I148,K148,M148,O148)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
-        <v>365</v>
+        <v>282</v>
       </c>
       <c r="B149" t="s">
         <v>274</v>
       </c>
       <c r="C149" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
       <c r="D149">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E149,G149,I149,K149,M149,O149)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="B150" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C150" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="D150">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E150,G150,I150,K150,M150,O150)</f>
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="B151" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="C151" t="s">
-        <v>329</v>
+        <v>243</v>
       </c>
       <c r="D151">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E151,G151,I151,K151,M151,O151)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B152" t="s">
         <v>179</v>
       </c>
       <c r="C152" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E152,G152,I152,K152,M152,O152)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A153" s="2" t="s">
-        <v>207</v>
+        <v>470</v>
       </c>
       <c r="B153" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="C153" t="s">
-        <v>238</v>
+        <v>471</v>
       </c>
       <c r="D153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E153,G153,I153,K153,M153,O153)</f>
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B154" t="s">
         <v>179</v>
       </c>
       <c r="C154" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="D154">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E154,G154,I154,K154,M154,O154)</f>
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A155" s="2" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B155" t="s">
         <v>179</v>
       </c>
       <c r="C155" t="s">
-        <v>237</v>
+        <v>329</v>
       </c>
       <c r="D155">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E155,G155,I155,K155,M155,O155)</f>
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A156" s="2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B156" t="s">
         <v>179</v>
@@ -10709,208 +10657,214 @@
         <v>329</v>
       </c>
       <c r="D156">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E156,G156,I156,K156,M156,O156)</f>
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A157" s="2" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B157" t="s">
         <v>179</v>
       </c>
       <c r="C157" t="s">
-        <v>456</v>
+        <v>329</v>
       </c>
       <c r="D157">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E157,G157,I157,K157,M157,O157)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A158" s="2" t="s">
-        <v>198</v>
+        <v>302</v>
       </c>
       <c r="B158" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="C158" t="s">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="D158">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E158,G158,I158,K158,M158,O158)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A159" s="2" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
       <c r="B159" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="C159" t="s">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="D159">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E159,G159,I159,K159,M159,O159)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A160" s="2" t="s">
-        <v>216</v>
+        <v>347</v>
       </c>
       <c r="B160" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C160" t="s">
-        <v>237</v>
+        <v>335</v>
       </c>
       <c r="D160">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E160,G160,I160,K160,M160,O160)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" s="2" t="s">
-        <v>209</v>
+        <v>351</v>
       </c>
       <c r="B161" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C161" t="s">
-        <v>238</v>
+        <v>331</v>
       </c>
       <c r="D161">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E161,G161,I161,K161,M161,O161)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="2" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="B162" t="s">
         <v>179</v>
       </c>
       <c r="C162" t="s">
-        <v>237</v>
+        <v>455</v>
       </c>
       <c r="D162">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E162,G162,I162,K162,M162,O162)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B163" t="s">
         <v>179</v>
       </c>
       <c r="C163" t="s">
-        <v>329</v>
+        <v>455</v>
       </c>
       <c r="D163">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E163,G163,I163,K163,M163,O163)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="B164" t="s">
         <v>179</v>
       </c>
       <c r="C164" t="s">
-        <v>237</v>
+        <v>455</v>
       </c>
       <c r="D164">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E164,G164,I164,K164,M164,O164)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" s="2" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="B165" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="C165" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D165">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E165,G165,I165,K165,M165,O165)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" s="2" t="s">
-        <v>186</v>
+        <v>334</v>
       </c>
       <c r="B166" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C166" t="s">
-        <v>456</v>
+        <v>335</v>
       </c>
       <c r="D166">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E166,G166,I166,K166,M166,O166)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" s="2" t="s">
-        <v>196</v>
+        <v>327</v>
       </c>
       <c r="B167" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="C167" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="D167">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E167,G167,I167,K167,M167,O167)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" s="2" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="B168" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="C168" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="D168">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E168,G168,I168,K168,M168,O168)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" s="2" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B169" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="C169" t="s">
-        <v>456</v>
+        <v>296</v>
       </c>
       <c r="D169">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E169,G169,I169,K169,M169,O169)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B170" t="s">
         <v>179</v>
@@ -10919,86 +10873,116 @@
         <v>329</v>
       </c>
       <c r="D170">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E170,G170,I170,K170,M170,O170)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" s="2" t="s">
-        <v>184</v>
+        <v>326</v>
       </c>
       <c r="B171" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="C171" t="s">
-        <v>456</v>
+        <v>296</v>
       </c>
       <c r="D171">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E171,G171,I171,K171,M171,O171)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A172" s="2" t="s">
-        <v>185</v>
+        <v>370</v>
       </c>
       <c r="B172" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C172" t="s">
-        <v>456</v>
+        <v>331</v>
       </c>
       <c r="D172">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E172,G172,I172,K172,M172,O172)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A173" s="2" t="s">
-        <v>183</v>
+        <v>412</v>
       </c>
       <c r="B173" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C173" t="s">
-        <v>456</v>
+        <v>275</v>
       </c>
       <c r="D173">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E173,G173,I173,K173,M173,O173)</f>
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" t="s">
+        <v>452</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="B174" t="s">
         <v>179</v>
       </c>
       <c r="C174" t="s">
-        <v>329</v>
+        <v>455</v>
       </c>
       <c r="D174">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E174,G174,I174,K174,M174,O174)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A175" s="2" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B175" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="C175" t="s">
-        <v>456</v>
+        <v>241</v>
       </c>
       <c r="D175">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E175,G175,I175,K175,M175,O175)</f>
+        <v>3</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
+        <v>446</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175" t="s">
+        <v>445</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176" s="2" t="s">
         <v>188</v>
       </c>
@@ -11006,1019 +10990,1127 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D176">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E176,G176,I176,K176,M176,O176)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A177" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B177" t="s">
+        <v>294</v>
+      </c>
+      <c r="C177" t="s">
+        <v>296</v>
+      </c>
+      <c r="D177">
+        <f>SUM(E177,G177,I177,K177,M177,O177)</f>
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A178" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B178" t="s">
+        <v>274</v>
+      </c>
+      <c r="C178" t="s">
+        <v>331</v>
+      </c>
+      <c r="D178">
+        <f>SUM(E178,G178,I178,K178,M178,O178)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A179" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B177" t="s">
-        <v>179</v>
-      </c>
-      <c r="C177" t="s">
-        <v>329</v>
-      </c>
-      <c r="D177">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A178" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B178" t="s">
-        <v>179</v>
-      </c>
-      <c r="C178" t="s">
-        <v>238</v>
-      </c>
-      <c r="D178">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A179" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="B179" t="s">
         <v>179</v>
       </c>
       <c r="C179" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="D179">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E179,G179,I179,K179,M179,O179)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A180" s="2" t="s">
-        <v>218</v>
+        <v>319</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="C180" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="D180">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E180,G180,I180,K180,M180,O180)</f>
+        <v>1</v>
+      </c>
+      <c r="O180">
+        <v>1</v>
+      </c>
+      <c r="P180" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A181" s="2" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="B181" t="s">
         <v>179</v>
       </c>
       <c r="C181" t="s">
-        <v>456</v>
+        <v>238</v>
       </c>
       <c r="D181">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E181,G181,I181,K181,M181,O181)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A182" s="2" t="s">
-        <v>203</v>
+        <v>380</v>
       </c>
       <c r="B182" t="s">
+        <v>294</v>
+      </c>
+      <c r="C182" t="s">
+        <v>296</v>
+      </c>
+      <c r="D182">
+        <f>SUM(E182,G182,I182,K182,M182,O182)</f>
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A183" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B183" t="s">
+        <v>266</v>
+      </c>
+      <c r="C183" t="s">
+        <v>311</v>
+      </c>
+      <c r="D183">
+        <f>SUM(E183,G183,I183,K183,M183,O183)</f>
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A184" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B184" t="s">
+        <v>266</v>
+      </c>
+      <c r="C184" t="s">
+        <v>267</v>
+      </c>
+      <c r="D184">
+        <f>SUM(E184,G184,I184,K184,M184,O184)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A185" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B185" t="s">
+        <v>274</v>
+      </c>
+      <c r="C185" t="s">
+        <v>331</v>
+      </c>
+      <c r="D185">
+        <f>SUM(E185,G185,I185,K185,M185,O185)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A186" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B186" t="s">
+        <v>266</v>
+      </c>
+      <c r="C186" t="s">
+        <v>311</v>
+      </c>
+      <c r="D186">
+        <f>SUM(E186,G186,I186,K186,M186,O186)</f>
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A187" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B187" t="s">
+        <v>294</v>
+      </c>
+      <c r="C187" t="s">
+        <v>296</v>
+      </c>
+      <c r="D187">
+        <f>SUM(E187,G187,I187,K187,M187,O187)</f>
+        <v>2</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187" t="s">
+        <v>446</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A188" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B188" t="s">
         <v>179</v>
       </c>
-      <c r="C182" t="s">
-        <v>329</v>
-      </c>
-      <c r="D182">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A183" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B183" t="s">
-        <v>179</v>
-      </c>
-      <c r="C183" t="s">
-        <v>329</v>
-      </c>
-      <c r="D183">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A184" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B184" t="s">
-        <v>179</v>
-      </c>
-      <c r="C184" t="s">
-        <v>456</v>
-      </c>
-      <c r="D184">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A185" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B185" t="s">
-        <v>179</v>
-      </c>
-      <c r="C185" t="s">
-        <v>456</v>
-      </c>
-      <c r="D185">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A186" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B186" t="s">
-        <v>179</v>
-      </c>
-      <c r="C186" t="s">
-        <v>456</v>
-      </c>
-      <c r="D186">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A187" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B187" t="s">
-        <v>233</v>
-      </c>
-      <c r="C187" t="s">
-        <v>245</v>
-      </c>
-      <c r="D187">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A188" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B188" t="s">
-        <v>233</v>
-      </c>
       <c r="C188" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D188">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E188,G188,I188,K188,M188,O188)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A189" s="2" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="B189" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="C189" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="D189">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E189,G189,I189,K189,M189,O189)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A190" s="2" t="s">
-        <v>250</v>
+        <v>422</v>
       </c>
       <c r="B190" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="C190" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="D190">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E190,G190,I190,K190,M190,O190)</f>
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A191" s="2" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="B191" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="C191" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="D191">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E191,G191,I191,K191,M191,O191)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A192" s="2" t="s">
-        <v>232</v>
+        <v>362</v>
       </c>
       <c r="B192" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="C192" t="s">
-        <v>243</v>
+        <v>335</v>
       </c>
       <c r="D192">
-        <f t="shared" si="2"/>
+        <f>SUM(E192,G192,I192,K192,M192,O192)</f>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A193" s="2" t="s">
-        <v>235</v>
+        <v>438</v>
       </c>
       <c r="B193" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="C193" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="D193">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(E193,G193,I193,K193,M193,O193)</f>
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A194" s="2" t="s">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="B194" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="C194" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="D194">
-        <f t="shared" ref="D194:D257" si="3">SUM(E194,G194,I194,K194,M194,O194)</f>
-        <v>0</v>
+        <f>SUM(E194,G194,I194,K194,M194,O194)</f>
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A195" s="2" t="s">
-        <v>247</v>
+        <v>385</v>
       </c>
       <c r="B195" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="C195" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="D195">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(E195,G195,I195,K195,M195,O195)</f>
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A196" s="2" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B196" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="C196" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D196">
-        <f t="shared" si="3"/>
+        <f>SUM(E196,G196,I196,K196,M196,O196)</f>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A197" s="2" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="B197" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C197" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="D197">
-        <f t="shared" si="3"/>
+        <f>SUM(E197,G197,I197,K197,M197,O197)</f>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A198" s="2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B198" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C198" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="D198">
-        <f t="shared" si="3"/>
+        <f>SUM(E198,G198,I198,K198,M198,O198)</f>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A199" s="2" t="s">
-        <v>252</v>
+        <v>360</v>
       </c>
       <c r="B199" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C199" t="s">
-        <v>243</v>
+        <v>335</v>
       </c>
       <c r="D199">
-        <f t="shared" si="3"/>
+        <f>SUM(E199,G199,I199,K199,M199,O199)</f>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A200" s="2" t="s">
-        <v>256</v>
+        <v>356</v>
       </c>
       <c r="B200" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C200" t="s">
-        <v>243</v>
+        <v>335</v>
       </c>
       <c r="D200">
-        <f t="shared" si="3"/>
+        <f>SUM(E200,G200,I200,K200,M200,O200)</f>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A201" s="2" t="s">
-        <v>257</v>
+        <v>407</v>
       </c>
       <c r="B201" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="C201" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="D201">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(E201,G201,I201,K201,M201,O201)</f>
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201" t="s">
+        <v>461</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201" t="s">
+        <v>461</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201" t="s">
+        <v>461</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201" t="s">
+        <v>461</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201" t="s">
+        <v>461</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A202" s="2" t="s">
-        <v>258</v>
+        <v>354</v>
       </c>
       <c r="B202" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C202" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="D202">
-        <f t="shared" si="3"/>
+        <f>SUM(E202,G202,I202,K202,M202,O202)</f>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A203" s="2" t="s">
-        <v>259</v>
+        <v>355</v>
       </c>
       <c r="B203" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C203" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="D203">
-        <f t="shared" si="3"/>
+        <f>SUM(E203,G203,I203,K203,M203,O203)</f>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A204" s="2" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="B204" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="C204" t="s">
-        <v>242</v>
+        <v>335</v>
       </c>
       <c r="D204">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E204">
-        <v>0</v>
-      </c>
-      <c r="F204" t="s">
-        <v>462</v>
-      </c>
-      <c r="G204">
-        <v>0</v>
-      </c>
-      <c r="H204" t="s">
-        <v>462</v>
-      </c>
-      <c r="I204">
-        <v>0</v>
-      </c>
-      <c r="J204" t="s">
-        <v>462</v>
-      </c>
-      <c r="K204">
-        <v>0</v>
-      </c>
-      <c r="L204" t="s">
-        <v>445</v>
-      </c>
-      <c r="M204">
-        <v>0</v>
-      </c>
-      <c r="N204" t="s">
-        <v>462</v>
-      </c>
-      <c r="O204">
-        <v>0</v>
-      </c>
-      <c r="P204" t="s">
-        <v>462</v>
+        <f>SUM(E204,G204,I204,K204,M204,O204)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A205" s="2" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="B205" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C205" t="s">
-        <v>242</v>
+        <v>455</v>
       </c>
       <c r="D205">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E205">
-        <v>0</v>
-      </c>
-      <c r="F205" t="s">
-        <v>462</v>
-      </c>
-      <c r="G205">
-        <v>0</v>
-      </c>
-      <c r="H205" t="s">
-        <v>462</v>
-      </c>
-      <c r="I205">
-        <v>0</v>
-      </c>
-      <c r="J205" t="s">
-        <v>462</v>
-      </c>
-      <c r="K205">
-        <v>0</v>
-      </c>
-      <c r="L205" t="s">
-        <v>445</v>
-      </c>
-      <c r="M205">
-        <v>0</v>
-      </c>
-      <c r="N205" t="s">
-        <v>462</v>
-      </c>
-      <c r="O205">
-        <v>0</v>
-      </c>
-      <c r="P205" t="s">
-        <v>462</v>
+        <f>SUM(E205,G205,I205,K205,M205,O205)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A206" s="2" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="B206" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C206" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D206">
-        <f t="shared" si="3"/>
+        <f>SUM(E206,G206,I206,K206,M206,O206)</f>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A207" s="2" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B207" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C207" t="s">
-        <v>240</v>
+        <v>329</v>
       </c>
       <c r="D207">
-        <f t="shared" si="3"/>
+        <f>SUM(E207,G207,I207,K207,M207,O207)</f>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A208" s="2" t="s">
-        <v>264</v>
+        <v>411</v>
       </c>
       <c r="B208" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C208" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="D208">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(E208,G208,I208,K208,M208,O208)</f>
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A209" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B209" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C209" t="s">
         <v>243</v>
       </c>
       <c r="D209">
-        <f t="shared" si="3"/>
+        <f>SUM(E209,G209,I209,K209,M209,O209)</f>
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A210" s="2" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
       <c r="B210" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C210" t="s">
-        <v>243</v>
+        <v>335</v>
       </c>
       <c r="D210">
-        <f t="shared" si="3"/>
+        <f>SUM(E210,G210,I210,K210,M210,O210)</f>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A211" s="2" t="s">
-        <v>381</v>
+        <v>258</v>
       </c>
       <c r="B211" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C211" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D211">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E211">
-        <v>0</v>
-      </c>
-      <c r="F211" t="s">
-        <v>462</v>
-      </c>
-      <c r="G211">
-        <v>0</v>
-      </c>
-      <c r="H211" t="s">
-        <v>462</v>
-      </c>
-      <c r="I211">
-        <v>0</v>
-      </c>
-      <c r="J211" t="s">
-        <v>462</v>
-      </c>
-      <c r="K211">
-        <v>0</v>
-      </c>
-      <c r="L211" t="s">
-        <v>462</v>
-      </c>
-      <c r="M211">
-        <v>0</v>
-      </c>
-      <c r="N211" t="s">
-        <v>462</v>
-      </c>
-      <c r="O211">
-        <v>0</v>
-      </c>
-      <c r="P211" t="s">
-        <v>462</v>
+        <f>SUM(E211,G211,I211,K211,M211,O211)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A212" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B212" t="s">
         <v>266</v>
       </c>
       <c r="C212" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="D212">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(E212,G212,I212,K212,M212,O212)</f>
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A213" s="2" t="s">
-        <v>264</v>
+        <v>395</v>
       </c>
       <c r="B213" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C213" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
       <c r="D213">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(E213,G213,I213,K213,M213,O213)</f>
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+      <c r="N213" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A214" s="2" t="s">
-        <v>314</v>
+        <v>475</v>
       </c>
       <c r="B214" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="C214" t="s">
-        <v>268</v>
+        <v>471</v>
       </c>
       <c r="D214">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(E214,G214,I214,K214,M214,O214)</f>
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A215" s="2" t="s">
-        <v>322</v>
+        <v>202</v>
       </c>
       <c r="B215" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="C215" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="D215">
-        <f t="shared" si="3"/>
+        <f>SUM(E215,G215,I215,K215,M215,O215)</f>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A216" s="2" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="B216" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C216" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D216">
-        <f t="shared" si="3"/>
+        <f>SUM(E216,G216,I216,K216,M216,O216)</f>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A217" s="2" t="s">
-        <v>292</v>
+        <v>369</v>
       </c>
       <c r="B217" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C217" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
       <c r="D217">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(E217,G217,I217,K217,M217,O217)</f>
+        <v>1</v>
+      </c>
+      <c r="O217">
+        <v>1</v>
+      </c>
+      <c r="P217" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A218" s="2" t="s">
-        <v>265</v>
+        <v>436</v>
       </c>
       <c r="B218" t="s">
         <v>266</v>
       </c>
       <c r="C218" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="D218">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(E218,G218,I218,K218,M218,O218)</f>
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A219" s="2" t="s">
-        <v>308</v>
+        <v>433</v>
       </c>
       <c r="B219" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C219" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="D219">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(E219,G219,I219,K219,M219,O219)</f>
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A220" s="2" t="s">
-        <v>328</v>
+        <v>182</v>
       </c>
       <c r="B220" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="C220" t="s">
-        <v>268</v>
+        <v>455</v>
       </c>
       <c r="D220">
-        <f t="shared" si="3"/>
+        <f>SUM(E220,G220,I220,K220,M220,O220)</f>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A221" s="2" t="s">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="B221" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="C221" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="D221">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(E221,G221,I221,K221,M221,O221)</f>
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A222" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B222" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C222" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="D222">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(E222,G222,I222,K222,M222,O222)</f>
+        <v>1</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A223" s="2" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="B223" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C223" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="D223">
-        <f t="shared" si="3"/>
+        <f>SUM(E223,G223,I223,K223,M223,O223)</f>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A224" s="2" t="s">
-        <v>301</v>
+        <v>404</v>
       </c>
       <c r="B224" t="s">
         <v>266</v>
       </c>
       <c r="C224" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="D224">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E224,G224,I224,K224,M224,O224)</f>
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A225" s="2" t="s">
-        <v>298</v>
+        <v>191</v>
       </c>
       <c r="B225" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="C225" t="s">
-        <v>291</v>
+        <v>455</v>
       </c>
       <c r="D225">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E225,G225,I225,K225,M225,O225)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A226" s="2" t="s">
-        <v>290</v>
+        <v>479</v>
       </c>
       <c r="B226" t="s">
-        <v>266</v>
+        <v>406</v>
       </c>
       <c r="C226" t="s">
-        <v>291</v>
+        <v>478</v>
       </c>
       <c r="D226">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E226,G226,I226,K226,M226,O226)</f>
+        <v>1</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A227" s="2" t="s">
-        <v>317</v>
+        <v>428</v>
       </c>
       <c r="B227" t="s">
         <v>266</v>
       </c>
       <c r="C227" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D227">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E227,G227,I227,K227,M227,O227)</f>
+        <v>2</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227" t="s">
+        <v>459</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A228" s="2" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="B228" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C228" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="D228">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E228,G228,I228,K228,M228,O228)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A229" s="2" t="s">
-        <v>303</v>
+        <v>390</v>
       </c>
       <c r="B229" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C229" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="D229">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E229,G229,I229,K229,M229,O229)</f>
+        <v>4</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229" t="s">
+        <v>448</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229" t="s">
+        <v>488</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229" t="s">
+        <v>448</v>
+      </c>
+      <c r="O229">
+        <v>1</v>
+      </c>
+      <c r="P229" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A230" s="2" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="B230" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C230" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D230">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E230,G230,I230,K230,M230,O230)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A231" s="2" t="s">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="B231" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C231" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="D231">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E231,G231,I231,K231,M231,O231)</f>
+        <v>1</v>
+      </c>
+      <c r="O231">
+        <v>1</v>
+      </c>
+      <c r="P231" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A232" s="2" t="s">
-        <v>309</v>
+        <v>365</v>
       </c>
       <c r="B232" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C232" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="D232">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E232,G232,I232,K232,M232,O232)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A233" s="2" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="B233" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="C233" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D233">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E233,G233,I233,K233,M233,O233)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A234" s="2" t="s">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="B234" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="C234" t="s">
-        <v>267</v>
+        <v>455</v>
       </c>
       <c r="D234">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E234,G234,I234,K234,M234,O234)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A235" s="2" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="B235" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C235" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
       <c r="D235">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+        <f>SUM(E235,G235,I235,K235,M235,O235)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A236" s="2" t="s">
-        <v>269</v>
+        <v>367</v>
       </c>
       <c r="B236" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C236" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="D236">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(E236,G236,I236,K236,M236,O236)</f>
+        <v>1</v>
+      </c>
+      <c r="O236">
+        <v>1</v>
+      </c>
+      <c r="P236" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/Painting Record.xlsx
+++ b/Painting Record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopez\Desktop\V2.4 Javier_LeonhArt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopez\Desktop\V2.6 Javier_LeonhArt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E734D83-08F1-45FC-B569-F60200299678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB62A6D-77ED-43E0-B8FC-A66C2FB73BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{8FABD0BB-35D2-4746-8BF5-22ED6BD8493F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" activeTab="1" xr2:uid="{8FABD0BB-35D2-4746-8BF5-22ED6BD8493F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="498">
   <si>
     <t>Date</t>
   </si>
@@ -1510,9 +1510,6 @@
     <t>Lights</t>
   </si>
   <si>
-    <t>Shadows</t>
-  </si>
-  <si>
     <t>Arch-Revenant</t>
   </si>
   <si>
@@ -1538,6 +1535,24 @@
   </si>
   <si>
     <t>On Break</t>
+  </si>
+  <si>
+    <t>Ynnari Warlock</t>
+  </si>
+  <si>
+    <t>Purple clothes</t>
+  </si>
+  <si>
+    <t>NMM Silver</t>
+  </si>
+  <si>
+    <t>Base Mix</t>
+  </si>
+  <si>
+    <t>Base Energy</t>
+  </si>
+  <si>
+    <t>Gems Main</t>
   </si>
 </sst>
 </file>
@@ -2034,10 +2049,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$170</c:f>
+              <c:f>Sheet1!$A$2:$A$172</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="169"/>
+                <c:ptCount val="171"/>
                 <c:pt idx="0">
                   <c:v>43405</c:v>
                 </c:pt>
@@ -2534,12 +2549,18 @@
                   <c:v>45413</c:v>
                 </c:pt>
                 <c:pt idx="165">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="166">
                   <c:v>45474</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="167">
                   <c:v>45505</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="168">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="169">
                   <c:v>45505</c:v>
                 </c:pt>
               </c:numCache>
@@ -2547,10 +2568,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$170</c:f>
+              <c:f>Sheet1!$C$2:$C$172</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="169"/>
+                <c:ptCount val="171"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -3046,13 +3067,16 @@
                 <c:pt idx="164">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="165">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="166">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="167">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="169">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3838,8 +3862,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{61558924-6BAF-41CB-A458-0F8F58CE51F4}" name="Table2" displayName="Table2" ref="A1:F170" totalsRowShown="0">
-  <autoFilter ref="A1:F170" xr:uid="{61558924-6BAF-41CB-A458-0F8F58CE51F4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{61558924-6BAF-41CB-A458-0F8F58CE51F4}" name="Table2" displayName="Table2" ref="A1:F172" totalsRowShown="0">
+  <autoFilter ref="A1:F172" xr:uid="{61558924-6BAF-41CB-A458-0F8F58CE51F4}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A1C8C315-1AF4-46A9-829B-F6F66670A080}" name="Date" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{5DD88343-1F7A-4E8C-82DC-76B842BC6326}" name="Project"/>
@@ -3867,7 +3891,7 @@
   <autoFilter ref="H1:H2" xr:uid="{E331850F-6965-449B-A1DC-94B726771513}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{55DB5F22-E9C6-43F4-91B3-C8775CAB6E79}" name="Total Painted">
-      <calculatedColumnFormula>SUM(C2:C1022)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(C2:C1024)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3910,7 +3934,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F21A842-DBF6-43AE-B39A-A0811F55AAD9}" name="Table5" displayName="Table5" ref="A1:P236" totalsRowShown="0">
   <autoFilter ref="A1:P236" xr:uid="{0F21A842-DBF6-43AE-B39A-A0811F55AAD9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P236">
-    <sortCondition ref="A1:A236"/>
+    <sortCondition descending="1" ref="D1:D236"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{303018FD-1CFE-44C3-A9A5-27F54CDD884C}" name="Paint"/>
@@ -4253,10 +4277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F725C0D8-4E5E-44F7-BED9-972635B5DB06}">
-  <dimension ref="A1:J170"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4317,8 +4341,8 @@
         <v>11</v>
       </c>
       <c r="H2">
-        <f>SUM(C2:C1022)</f>
-        <v>523</v>
+        <f>SUM(C2:C1024)</f>
+        <v>524</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
@@ -4393,7 +4417,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -4469,7 +4493,7 @@
       </c>
       <c r="H8" t="str">
         <f>INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 1), Paints!D:D, 0))</f>
-        <v>Deep Scarlet</v>
+        <v>Wine Red</v>
       </c>
       <c r="J8" t="s">
         <v>26</v>
@@ -4496,7 +4520,7 @@
       </c>
       <c r="H9" t="str" cm="1">
         <f t="array" ref="H9">IFERROR(INDEX(Paints!A:A, SMALL(IF(Paints!D:D=LARGE(Paints!D:D, 2), ROW(Paints!D:D), ""), 2)), INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 3), Paints!D:D, 0)))</f>
-        <v>Afro Shadow</v>
+        <v>Dragon Blood</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
@@ -4550,7 +4574,7 @@
       </c>
       <c r="H11" t="str" cm="1">
         <f t="array" ref="H11">IFERROR(INDEX(Paints!A:A, SMALL(IF(Paints!D:D=LARGE(Paints!D:D, 4), ROW(Paints!D:D), ""), 4)), INDEX(Paints!A:A, MATCH(LARGE(Paints!D:D, 5), Paints!D:D, 0)))</f>
-        <v>Heavy Warmgrey</v>
+        <v>Violet</v>
       </c>
       <c r="J11" t="s">
         <v>32</v>
@@ -7431,27 +7455,12 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
-        <v>45474</v>
-      </c>
-      <c r="B167" t="s">
-        <v>32</v>
-      </c>
-      <c r="C167">
-        <v>5</v>
-      </c>
-      <c r="D167" t="s">
-        <v>172</v>
-      </c>
-      <c r="E167" t="s">
-        <v>170</v>
-      </c>
-      <c r="F167" t="s">
-        <v>11</v>
+        <v>45444</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B168" t="s">
         <v>32</v>
@@ -7477,10 +7486,10 @@
         <v>32</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D169" t="s">
-        <v>484</v>
+        <v>172</v>
       </c>
       <c r="E169" t="s">
         <v>170</v>
@@ -7490,7 +7499,47 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B170" t="s">
+        <v>32</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>483</v>
+      </c>
+      <c r="E170" t="s">
+        <v>170</v>
+      </c>
+      <c r="F170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A171" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>492</v>
+      </c>
+      <c r="E171" t="s">
+        <v>43</v>
+      </c>
+      <c r="F171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A172" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J11 B2:B1048576">
@@ -7548,8 +7597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD12CC97-8595-4312-A700-76C39152E1F0}">
   <dimension ref="A1:P236"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7624,58 +7673,130 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>376</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="D2">
         <f>SUM(E2,G2,I2,K2,M2,O2)</f>
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>461</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>461</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>461</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="D3">
         <f>SUM(E3,G3,I3,K3,M3,O3)</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>487</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>448</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>273</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="D4">
         <f>SUM(E4,G4,I4,K4,M4,O4)</f>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>453</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>416</v>
+        <v>451</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>413</v>
+        <v>307</v>
       </c>
       <c r="B5" t="s">
         <v>294</v>
@@ -7691,354 +7812,519 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>276</v>
+        <v>419</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="D6">
         <f>SUM(E6,G6,I6,K6,M6,O6)</f>
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>416</v>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>452</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>452</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
         <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>329</v>
+        <v>455</v>
       </c>
       <c r="D7">
         <f>SUM(E7,G7,I7,K7,M7,O7)</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>495</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>388</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="D8">
         <f>SUM(E8,G8,I8,K8,M8,O8)</f>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>446</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>445</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>485</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>285</v>
+        <v>434</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="D9">
         <f>SUM(E9,G9,I9,K9,M9,O9)</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>446</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>445</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D10">
         <f>SUM(E10,G10,I10,K10,M10,O10)</f>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>494</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>416</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>487</v>
+        <v>494</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>255</v>
+        <v>428</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="D11">
         <f>SUM(E11,G11,I11,K11,M11,O11)</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>459</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>459</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C12" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="D12">
         <f>SUM(E12,G12,I12,K12,M12,O12)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>416</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C13" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="D13">
         <f>SUM(E13,G13,I13,K13,M13,O13)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>451</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="B14" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C14" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="D14">
         <f>SUM(E14,G14,I14,K14,M14,O14)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>484</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>330</v>
+        <v>408</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C15" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="D15">
         <f>SUM(E15,G15,I15,K15,M15,O15)</f>
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>418</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="B16" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C16" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="D16">
         <f>SUM(E16,G16,I16,K16,M16,O16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>263</v>
+        <v>484</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C17" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="D17">
         <f>SUM(E17,G17,I17,K17,M17,O17)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>446</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>270</v>
+        <v>433</v>
       </c>
       <c r="B18" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C18" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="D18">
         <f>SUM(E18,G18,I18,K18,M18,O18)</f>
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18" t="s">
-        <v>462</v>
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>445</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>476</v>
+        <v>386</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="C19" t="s">
-        <v>471</v>
+        <v>275</v>
       </c>
       <c r="D19">
         <f>SUM(E19,G19,I19,K19,M19,O19)</f>
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
-        <v>481</v>
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>454</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>264</v>
+        <v>387</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C20" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="D20">
         <f>SUM(E20,G20,I20,K20,M20,O20)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>484</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>264</v>
+        <v>337</v>
       </c>
       <c r="B21" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C21" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="D21">
         <f>SUM(E21,G21,I21,K21,M21,O21)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>446</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B22" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C22" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="D22">
         <f>SUM(E22,G22,I22,K22,M22,O22)</f>
         <v>2</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>452</v>
+      </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>418</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22" t="s">
-        <v>463</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>386</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C23" t="s">
-        <v>275</v>
+        <v>455</v>
       </c>
       <c r="D23">
         <f>SUM(E23,G23,I23,K23,M23,O23)</f>
@@ -8048,178 +8334,166 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>454</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
+        <v>495</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>314</v>
+        <v>473</v>
       </c>
       <c r="B24" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="C24" t="s">
-        <v>268</v>
+        <v>471</v>
       </c>
       <c r="D24">
         <f>SUM(E24,G24,I24,K24,M24,O24)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>416</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>231</v>
+        <v>474</v>
       </c>
       <c r="B25" t="s">
         <v>220</v>
       </c>
       <c r="C25" t="s">
-        <v>242</v>
+        <v>471</v>
       </c>
       <c r="D25">
         <f>SUM(E25,G25,I25,K25,M25,O25)</f>
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>461</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>461</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>444</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
-        <v>461</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>473</v>
+        <v>378</v>
       </c>
       <c r="B26" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="C26" t="s">
-        <v>471</v>
+        <v>291</v>
       </c>
       <c r="D26">
         <f>SUM(E26,G26,I26,K26,M26,O26)</f>
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
-        <v>481</v>
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>457</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>230</v>
+        <v>397</v>
       </c>
       <c r="B27" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="C27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="D27">
         <f>SUM(E27,G27,I27,K27,M27,O27)</f>
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>461</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>461</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>461</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>219</v>
+        <v>441</v>
       </c>
       <c r="B28" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="C28" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="D28">
         <f>SUM(E28,G28,I28,K28,M28,O28)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>442</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B29" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C29" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="D29">
         <f>SUM(E29,G29,I29,K29,M29,O29)</f>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>451</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -8230,193 +8504,223 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B30" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C30" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="D30">
         <f>SUM(E30,G30,I30,K30,M30,O30)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="C31" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="D31">
         <f>SUM(E31,G31,I31,K31,M31,O31)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="B32" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C32" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="D32">
         <f>SUM(E32,G32,I32,K32,M32,O32)</f>
-        <v>2</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s">
-        <v>431</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32" t="s">
-        <v>464</v>
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>396</v>
+        <v>321</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C33" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="D33">
         <f>SUM(E33,G33,I33,K33,M33,O33)</f>
         <v>1</v>
       </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33" t="s">
-        <v>431</v>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="B34" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C34" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="D34">
         <f>SUM(E34,G34,I34,K34,M34,O34)</f>
-        <v>2</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34" t="s">
-        <v>442</v>
-      </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-      <c r="P34" t="s">
-        <v>465</v>
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>181</v>
+        <v>424</v>
       </c>
       <c r="B35" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="C35" t="s">
-        <v>455</v>
+        <v>296</v>
       </c>
       <c r="D35">
         <f>SUM(E35,G35,I35,K35,M35,O35)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>181</v>
+        <v>393</v>
       </c>
       <c r="B36" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="C36" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D36">
         <f>SUM(E36,G36,I36,K36,M36,O36)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>207</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="C37" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="D37">
         <f>SUM(E37,G37,I37,K37,M37,O37)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>208</v>
+        <v>380</v>
       </c>
       <c r="B38" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="C38" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="D38">
         <f>SUM(E38,G38,I38,K38,M38,O38)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="B39" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C39" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="D39">
         <f>SUM(E39,G39,I39,K39,M39,O39)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
-        <v>414</v>
+        <v>477</v>
       </c>
       <c r="B40" t="s">
-        <v>266</v>
+        <v>406</v>
       </c>
       <c r="C40" t="s">
-        <v>311</v>
+        <v>478</v>
       </c>
       <c r="D40">
         <f>SUM(E40,G40,I40,K40,M40,O40)</f>
@@ -8426,93 +8730,120 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>263</v>
+        <v>482</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
-        <v>261</v>
+        <v>480</v>
       </c>
       <c r="B41" t="s">
-        <v>262</v>
+        <v>406</v>
       </c>
       <c r="C41" t="s">
-        <v>243</v>
+        <v>478</v>
       </c>
       <c r="D41">
         <f>SUM(E41,G41,I41,K41,M41,O41)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
-        <v>324</v>
+        <v>479</v>
       </c>
       <c r="B42" t="s">
-        <v>266</v>
+        <v>406</v>
       </c>
       <c r="C42" t="s">
-        <v>268</v>
+        <v>478</v>
       </c>
       <c r="D42">
         <f>SUM(E42,G42,I42,K42,M42,O42)</f>
         <v>1</v>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>451</v>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="B43" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C43" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="D43">
         <f>SUM(E43,G43,I43,K43,M43,O43)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C44" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="D44">
         <f>SUM(E44,G44,I44,K44,M44,O44)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
-        <v>192</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C45" t="s">
-        <v>455</v>
+        <v>331</v>
       </c>
       <c r="D45">
         <f>SUM(E45,G45,I45,K45,M45,O45)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="B46" t="s">
         <v>274</v>
@@ -8522,12 +8853,18 @@
       </c>
       <c r="D46">
         <f>SUM(E46,G46,I46,K46,M46,O46)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
-        <v>387</v>
+        <v>277</v>
       </c>
       <c r="B47" t="s">
         <v>274</v>
@@ -8537,27 +8874,24 @@
       </c>
       <c r="D47">
         <f>SUM(E47,G47,I47,K47,M47,O47)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>485</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>277</v>
+        <v>427</v>
       </c>
       <c r="B48" t="s">
         <v>274</v>
       </c>
       <c r="C48" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="D48">
         <f>SUM(E48,G48,I48,K48,M48,O48)</f>
@@ -8567,108 +8901,114 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s">
         <v>274</v>
       </c>
       <c r="C49" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
       <c r="D49">
         <f>SUM(E49,G49,I49,K49,M49,O49)</f>
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>446</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49" t="s">
-        <v>486</v>
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>300</v>
+        <v>394</v>
       </c>
       <c r="B50" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C50" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="D50">
         <f>SUM(E50,G50,I50,K50,M50,O50)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
-        <v>472</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="C51" t="s">
-        <v>471</v>
+        <v>331</v>
       </c>
       <c r="D51">
         <f>SUM(E51,G51,I51,K51,M51,O51)</f>
         <v>1</v>
       </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51" t="s">
-        <v>481</v>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
-        <v>198</v>
+        <v>438</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C52" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D52">
         <f>SUM(E52,G52,I52,K52,M52,O52)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
-        <v>221</v>
+        <v>395</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="C53" t="s">
-        <v>241</v>
+        <v>335</v>
       </c>
       <c r="D53">
         <f>SUM(E53,G53,I53,K53,M53,O53)</f>
         <v>1</v>
       </c>
-      <c r="G53">
-        <v>1</v>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="B54" t="s">
         <v>274</v>
@@ -8678,84 +9018,108 @@
       </c>
       <c r="D54">
         <f>SUM(E54,G54,I54,K54,M54,O54)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
-        <v>292</v>
+        <v>371</v>
       </c>
       <c r="B55" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C55" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="D55">
         <f>SUM(E55,G55,I55,K55,M55,O55)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
-        <v>474</v>
+        <v>367</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="C56" t="s">
-        <v>471</v>
+        <v>331</v>
       </c>
       <c r="D56">
         <f>SUM(E56,G56,I56,K56,M56,O56)</f>
         <v>1</v>
       </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56" t="s">
-        <v>481</v>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
-        <v>372</v>
+        <v>206</v>
       </c>
       <c r="B57" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C57" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D57">
         <f>SUM(E57,G57,I57,K57,M57,O57)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="B58" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
       <c r="D58">
         <f>SUM(E58,G58,I58,K58,M58,O58)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
-        <v>402</v>
+        <v>195</v>
       </c>
       <c r="B59" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="D59">
         <f>SUM(E59,G59,I59,K59,M59,O59)</f>
@@ -8770,13 +9134,13 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
-        <v>432</v>
+        <v>194</v>
       </c>
       <c r="B60" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="D60">
         <f>SUM(E60,G60,I60,K60,M60,O60)</f>
@@ -8786,76 +9150,64 @@
         <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>431</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="B61" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="C61" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="D61">
         <f>SUM(E61,G61,I61,K61,M61,O61)</f>
         <v>1</v>
       </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
-        <v>437</v>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
-        <v>305</v>
+        <v>247</v>
       </c>
       <c r="B62" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
       <c r="C62" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="D62">
         <f>SUM(E62,G62,I62,K62,M62,O62)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B63" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="C63" t="s">
         <v>243</v>
       </c>
       <c r="D63">
         <f>SUM(E63,G63,I63,K63,M63,O63)</f>
-        <v>6</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>448</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63" t="s">
-        <v>483</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63" t="s">
-        <v>448</v>
+        <v>1</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -8863,79 +9215,79 @@
       <c r="L63" t="s">
         <v>481</v>
       </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63" t="s">
-        <v>448</v>
-      </c>
-      <c r="O63">
-        <v>1</v>
-      </c>
-      <c r="P63" t="s">
-        <v>448</v>
-      </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="B64" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="C64" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="D64">
         <f>SUM(E64,G64,I64,K64,M64,O64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
-        <v>199</v>
+        <v>476</v>
       </c>
       <c r="B65" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="C65" t="s">
-        <v>329</v>
+        <v>471</v>
       </c>
       <c r="D65">
         <f>SUM(E65,G65,I65,K65,M65,O65)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
-        <v>477</v>
+        <v>219</v>
       </c>
       <c r="B66" t="s">
-        <v>406</v>
+        <v>220</v>
       </c>
       <c r="C66" t="s">
-        <v>478</v>
+        <v>239</v>
       </c>
       <c r="D66">
         <f>SUM(E66,G66,I66,K66,M66,O66)</f>
         <v>1</v>
       </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="B67" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="C67" t="s">
-        <v>335</v>
+        <v>471</v>
       </c>
       <c r="D67">
         <f>SUM(E67,G67,I67,K67,M67,O67)</f>
@@ -8945,10 +9297,10 @@
         <v>1</v>
       </c>
       <c r="L67" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>222</v>
       </c>
@@ -8960,51 +9312,45 @@
       </c>
       <c r="D68">
         <f>SUM(E68,G68,I68,K68,M68,O68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
-        <v>307</v>
+        <v>470</v>
       </c>
       <c r="B69" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="C69" t="s">
-        <v>318</v>
+        <v>471</v>
       </c>
       <c r="D69">
         <f>SUM(E69,G69,I69,K69,M69,O69)</f>
-        <v>3</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" t="s">
-        <v>448</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
-        <v>468</v>
+        <v>1</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="L69" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="B70" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="C70" t="s">
-        <v>311</v>
+        <v>471</v>
       </c>
       <c r="D70">
         <f>SUM(E70,G70,I70,K70,M70,O70)</f>
@@ -9014,234 +9360,306 @@
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="B71" t="s">
         <v>266</v>
       </c>
       <c r="C71" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="D71">
         <f>SUM(E71,G71,I71,K71,M71,O71)</f>
         <v>1</v>
       </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="L71" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="B72" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C72" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="D72">
         <f>SUM(E72,G72,I72,K72,M72,O72)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
-        <v>430</v>
+        <v>270</v>
       </c>
       <c r="B73" t="s">
         <v>266</v>
       </c>
       <c r="C73" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="D73">
         <f>SUM(E73,G73,I73,K73,M73,O73)</f>
         <v>1</v>
       </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
-        <v>340</v>
+        <v>414</v>
       </c>
       <c r="B74" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C74" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="D74">
         <f>SUM(E74,G74,I74,K74,M74,O74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
-        <v>216</v>
+        <v>402</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="C75" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="D75">
         <f>SUM(E75,G75,I75,K75,M75,O75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
-        <v>358</v>
+        <v>432</v>
       </c>
       <c r="B76" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C76" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="D76">
         <f>SUM(E76,G76,I76,K76,M76,O76)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="B77" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C77" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="D77">
         <f>SUM(E77,G77,I77,K77,M77,O77)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
-        <v>343</v>
+        <v>440</v>
       </c>
       <c r="B78" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C78" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="D78">
         <f>SUM(E78,G78,I78,K78,M78,O78)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="B79" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C79" t="s">
-        <v>335</v>
+        <v>268</v>
       </c>
       <c r="D79">
         <f>SUM(E79,G79,I79,K79,M79,O79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
-        <v>293</v>
+        <v>430</v>
       </c>
       <c r="B80" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C80" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D80">
         <f>SUM(E80,G80,I80,K80,M80,O80)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="B81" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C81" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="D81">
         <f>SUM(E81,G81,I81,K81,M81,O81)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="B82" t="s">
         <v>266</v>
       </c>
       <c r="C82" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="D82">
         <f>SUM(E82,G82,I82,K82,M82,O82)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="B83" t="s">
         <v>266</v>
       </c>
       <c r="C83" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="D83">
         <f>SUM(E83,G83,I83,K83,M83,O83)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
-        <v>423</v>
+        <v>288</v>
       </c>
       <c r="B84" t="s">
         <v>266</v>
       </c>
       <c r="C84" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="D84">
         <f>SUM(E84,G84,I84,K84,M84,O84)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
-        <v>323</v>
+        <v>439</v>
       </c>
       <c r="B85" t="s">
         <v>266</v>
@@ -9251,33 +9669,45 @@
       </c>
       <c r="D85">
         <f>SUM(E85,G85,I85,K85,M85,O85)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
-        <v>209</v>
+        <v>401</v>
       </c>
       <c r="B86" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="C86" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="D86">
         <f>SUM(E86,G86,I86,K86,M86,O86)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B87" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C87" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D87">
         <f>SUM(E87,G87,I87,K87,M87,O87)</f>
@@ -9287,39 +9717,39 @@
         <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="B88" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C88" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D88">
         <f>SUM(E88,G88,I88,K88,M88,O88)</f>
         <v>1</v>
       </c>
-      <c r="O88">
-        <v>1</v>
-      </c>
-      <c r="P88" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B89" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C89" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="D89">
         <f>SUM(E89,G89,I89,K89,M89,O89)</f>
@@ -9328,10 +9758,13 @@
       <c r="M89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N89" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B90" t="s">
         <v>266</v>
@@ -9347,27 +9780,33 @@
         <v>1</v>
       </c>
       <c r="N90" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B91" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C91" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D91">
         <f>SUM(E91,G91,I91,K91,M91,O91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
-        <v>301</v>
+        <v>422</v>
       </c>
       <c r="B92" t="s">
         <v>266</v>
@@ -9377,168 +9816,282 @@
       </c>
       <c r="D92">
         <f>SUM(E92,G92,I92,K92,M92,O92)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B93" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C93" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="D93">
         <f>SUM(E93,G93,I93,K93,M93,O93)</f>
         <v>1</v>
       </c>
-      <c r="M93">
-        <v>1</v>
-      </c>
-      <c r="N93" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="B94" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C94" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D94">
         <f>SUM(E94,G94,I94,K94,M94,O94)</f>
-        <v>3</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94" t="s">
-        <v>452</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="J94" t="s">
-        <v>452</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="L94" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
-        <v>215</v>
+        <v>411</v>
       </c>
       <c r="B95" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="C95" t="s">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="D95">
         <f>SUM(E95,G95,I95,K95,M95,O95)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="B96" t="s">
         <v>266</v>
       </c>
       <c r="C96" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="D96">
         <f>SUM(E96,G96,I96,K96,M96,O96)</f>
         <v>1</v>
       </c>
-      <c r="M96">
-        <v>1</v>
-      </c>
-      <c r="N96" t="s">
-        <v>458</v>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
-        <v>284</v>
+        <v>404</v>
       </c>
       <c r="B97" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C97" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="D97">
         <f>SUM(E97,G97,I97,K97,M97,O97)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
-        <v>278</v>
+        <v>409</v>
       </c>
       <c r="B98" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C98" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="D98">
         <f>SUM(E98,G98,I98,K98,M98,O98)</f>
         <v>0</v>
       </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>461</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>461</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>461</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98" t="s">
+        <v>461</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
+        <v>461</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
-        <v>298</v>
+        <v>435</v>
       </c>
       <c r="B99" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C99" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D99">
         <f>SUM(E99,G99,I99,K99,M99,O99)</f>
         <v>0</v>
       </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>461</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>461</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>461</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99" t="s">
+        <v>461</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
+        <v>461</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
-        <v>290</v>
+        <v>407</v>
       </c>
       <c r="B100" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C100" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D100">
         <f>SUM(E100,G100,I100,K100,M100,O100)</f>
         <v>0</v>
       </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>461</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>461</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>461</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100" t="s">
+        <v>461</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
+        <v>461</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B101" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C101" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D101">
         <f>SUM(E101,G101,I101,K101,M101,O101)</f>
@@ -9547,34 +10100,28 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
-        <v>399</v>
+        <v>306</v>
       </c>
       <c r="B102" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C102" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D102">
         <f>SUM(E102,G102,I102,K102,M102,O102)</f>
-        <v>1</v>
-      </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="L102" t="s">
-        <v>331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B103" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C103" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D103">
         <f>SUM(E103,G103,I103,K103,M103,O103)</f>
@@ -9583,91 +10130,58 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
-        <v>378</v>
+        <v>304</v>
       </c>
       <c r="B104" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C104" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D104">
         <f>SUM(E104,G104,I104,K104,M104,O104)</f>
-        <v>2</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104" t="s">
-        <v>457</v>
-      </c>
-      <c r="M104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
-        <v>434</v>
+        <v>325</v>
       </c>
       <c r="B105" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C105" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D105">
         <f>SUM(E105,G105,I105,K105,M105,O105)</f>
-        <v>3</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105" t="s">
-        <v>446</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105" t="s">
-        <v>445</v>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="L105" t="s">
-        <v>447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
-        <v>480</v>
+        <v>327</v>
       </c>
       <c r="B106" t="s">
-        <v>406</v>
+        <v>294</v>
       </c>
       <c r="C106" t="s">
-        <v>478</v>
+        <v>296</v>
       </c>
       <c r="D106">
         <f>SUM(E106,G106,I106,K106,M106,O106)</f>
-        <v>1</v>
-      </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-      <c r="L106" t="s">
-        <v>489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A107" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B107" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="C107" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="D107">
         <f>SUM(E107,G107,I107,K107,M107,O107)</f>
@@ -9676,100 +10190,94 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="B108" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C108" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="D108">
         <f>SUM(E108,G108,I108,K108,M108,O108)</f>
-        <v>1</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108" t="s">
-        <v>459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
-        <v>304</v>
+        <v>405</v>
       </c>
       <c r="B109" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
       <c r="C109" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="D109">
         <f>SUM(E109,G109,I109,K109,M109,O109)</f>
         <v>0</v>
       </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>461</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>461</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>461</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109" t="s">
+        <v>461</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109" t="s">
+        <v>461</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B110" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C110" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="D110">
         <f>SUM(E110,G110,I110,K110,M110,O110)</f>
         <v>0</v>
       </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110" t="s">
-        <v>461</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110" t="s">
-        <v>461</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>461</v>
-      </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="L110" t="s">
-        <v>461</v>
-      </c>
-      <c r="M110">
-        <v>0</v>
-      </c>
-      <c r="N110" t="s">
-        <v>461</v>
-      </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-      <c r="P110" t="s">
-        <v>461</v>
-      </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="B111" t="s">
         <v>274</v>
       </c>
       <c r="C111" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D111">
         <f>SUM(E111,G111,I111,K111,M111,O111)</f>
@@ -9778,100 +10286,82 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="B112" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C112" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="D112">
         <f>SUM(E112,G112,I112,K112,M112,O112)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="B113" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="C113" t="s">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="D113">
         <f>SUM(E113,G113,I113,K113,M113,O113)</f>
-        <v>1</v>
-      </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
-      <c r="L113" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="B114" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C114" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
       <c r="D114">
         <f>SUM(E114,G114,I114,K114,M114,O114)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
-        <v>279</v>
+        <v>366</v>
       </c>
       <c r="B115" t="s">
         <v>274</v>
       </c>
       <c r="C115" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="D115">
         <f>SUM(E115,G115,I115,K115,M115,O115)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
-        <v>316</v>
+        <v>374</v>
       </c>
       <c r="B116" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C116" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="D116">
         <f>SUM(E116,G116,I116,K116,M116,O116)</f>
-        <v>2</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-      <c r="H116" t="s">
-        <v>451</v>
-      </c>
-      <c r="O116">
-        <v>1</v>
-      </c>
-      <c r="P116" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B117" t="s">
         <v>274</v>
@@ -9881,18 +10371,12 @@
       </c>
       <c r="D117">
         <f>SUM(E117,G117,I117,K117,M117,O117)</f>
-        <v>1</v>
-      </c>
-      <c r="M117">
-        <v>1</v>
-      </c>
-      <c r="N117" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B118" t="s">
         <v>274</v>
@@ -9905,9 +10389,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="B119" t="s">
         <v>274</v>
@@ -9920,355 +10404,217 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
-        <v>439</v>
+        <v>336</v>
       </c>
       <c r="B120" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C120" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="D120">
         <f>SUM(E120,G120,I120,K120,M120,O120)</f>
-        <v>1</v>
-      </c>
-      <c r="K120">
-        <v>1</v>
-      </c>
-      <c r="L120" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B121" t="s">
         <v>274</v>
       </c>
       <c r="C121" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D121">
         <f>SUM(E121,G121,I121,K121,M121,O121)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
-        <v>210</v>
+        <v>358</v>
       </c>
       <c r="B122" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C122" t="s">
-        <v>238</v>
+        <v>335</v>
       </c>
       <c r="D122">
         <f>SUM(E122,G122,I122,K122,M122,O122)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
-        <v>405</v>
+        <v>343</v>
       </c>
       <c r="B123" t="s">
-        <v>406</v>
+        <v>274</v>
       </c>
       <c r="C123" t="s">
-        <v>478</v>
+        <v>335</v>
       </c>
       <c r="D123">
         <f>SUM(E123,G123,I123,K123,M123,O123)</f>
         <v>0</v>
       </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123" t="s">
-        <v>461</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123" t="s">
-        <v>461</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123" t="s">
-        <v>461</v>
-      </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="L123" t="s">
-        <v>461</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-      <c r="N123" t="s">
-        <v>461</v>
-      </c>
-      <c r="O123">
-        <v>0</v>
-      </c>
-      <c r="P123" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
-        <v>409</v>
+        <v>346</v>
       </c>
       <c r="B124" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C124" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="D124">
         <f>SUM(E124,G124,I124,K124,M124,O124)</f>
         <v>0</v>
       </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124" t="s">
-        <v>461</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124" t="s">
-        <v>461</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124" t="s">
-        <v>461</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124" t="s">
-        <v>461</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="N124" t="s">
-        <v>461</v>
-      </c>
-      <c r="O124">
-        <v>0</v>
-      </c>
-      <c r="P124" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
-        <v>435</v>
+        <v>332</v>
       </c>
       <c r="B125" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C125" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="D125">
         <f>SUM(E125,G125,I125,K125,M125,O125)</f>
         <v>0</v>
       </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125" t="s">
-        <v>461</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125" t="s">
-        <v>461</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125" t="s">
-        <v>461</v>
-      </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125" t="s">
-        <v>461</v>
-      </c>
-      <c r="M125">
-        <v>0</v>
-      </c>
-      <c r="N125" t="s">
-        <v>461</v>
-      </c>
-      <c r="O125">
-        <v>0</v>
-      </c>
-      <c r="P125" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="B126" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C126" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="D126">
         <f>SUM(E126,G126,I126,K126,M126,O126)</f>
-        <v>2</v>
-      </c>
-      <c r="K126">
-        <v>1</v>
-      </c>
-      <c r="L126" t="s">
-        <v>485</v>
-      </c>
-      <c r="M126">
-        <v>1</v>
-      </c>
-      <c r="N126" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="B127" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C127" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D127">
         <f>SUM(E127,G127,I127,K127,M127,O127)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="B128" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C128" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="D128">
         <f>SUM(E128,G128,I128,K128,M128,O128)</f>
-        <v>1</v>
-      </c>
-      <c r="M128">
-        <v>1</v>
-      </c>
-      <c r="N128" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="2" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="B129" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C129" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="D129">
         <f>SUM(E129,G129,I129,K129,M129,O129)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="2" t="s">
-        <v>424</v>
+        <v>359</v>
       </c>
       <c r="B130" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C130" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="D130">
         <f>SUM(E130,G130,I130,K130,M130,O130)</f>
-        <v>1</v>
-      </c>
-      <c r="K130">
-        <v>1</v>
-      </c>
-      <c r="L130" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B131" t="s">
         <v>274</v>
       </c>
       <c r="C131" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D131">
         <f>SUM(E131,G131,I131,K131,M131,O131)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
-        <v>186</v>
+        <v>338</v>
       </c>
       <c r="B132" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C132" t="s">
-        <v>455</v>
+        <v>331</v>
       </c>
       <c r="D132">
         <f>SUM(E132,G132,I132,K132,M132,O132)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="2" t="s">
-        <v>196</v>
+        <v>353</v>
       </c>
       <c r="B133" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C133" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D133">
         <f>SUM(E133,G133,I133,K133,M133,O133)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="2" t="s">
         <v>339</v>
       </c>
@@ -10283,483 +10629,429 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="2" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="B135" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C135" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
       <c r="D135">
         <f>SUM(E135,G135,I135,K135,M135,O135)</f>
-        <v>1</v>
-      </c>
-      <c r="K135">
-        <v>1</v>
-      </c>
-      <c r="L135" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A136" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B136" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A136" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B136" t="s">
-        <v>253</v>
-      </c>
-      <c r="C136" t="s">
-        <v>243</v>
       </c>
       <c r="D136">
         <f>SUM(E136,G136,I136,K136,M136,O136)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="B137" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C137" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="D137">
         <f>SUM(E137,G137,I137,K137,M137,O137)</f>
-        <v>1</v>
-      </c>
-      <c r="K137">
-        <v>1</v>
-      </c>
-      <c r="L137" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
-        <v>361</v>
+        <v>282</v>
       </c>
       <c r="B138" t="s">
         <v>274</v>
       </c>
       <c r="C138" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="D138">
         <f>SUM(E138,G138,I138,K138,M138,O138)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="B139" t="s">
         <v>274</v>
       </c>
       <c r="C139" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D139">
         <f>SUM(E139,G139,I139,K139,M139,O139)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
-        <v>214</v>
+        <v>351</v>
       </c>
       <c r="B140" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C140" t="s">
-        <v>237</v>
+        <v>331</v>
       </c>
       <c r="D140">
         <f>SUM(E140,G140,I140,K140,M140,O140)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="B141" t="s">
         <v>274</v>
       </c>
       <c r="C141" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D141">
         <f>SUM(E141,G141,I141,K141,M141,O141)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="2" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="B142" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C142" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="D142">
         <f>SUM(E142,G142,I142,K142,M142,O142)</f>
-        <v>1</v>
-      </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-      <c r="F142" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
-        <v>246</v>
+        <v>363</v>
       </c>
       <c r="B143" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="C143" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="D143">
         <f>SUM(E143,G143,I143,K143,M143,O143)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="2" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="B144" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="C144" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="D144">
         <f>SUM(E144,G144,I144,K144,M144,O144)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="2" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="B145" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="C145" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="D145">
         <f>SUM(E145,G145,I145,K145,M145,O145)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="2" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="B146" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="C146" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="D146">
         <f>SUM(E146,G146,I146,K146,M146,O146)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="2" t="s">
-        <v>251</v>
+        <v>362</v>
       </c>
       <c r="B147" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="C147" t="s">
-        <v>243</v>
+        <v>335</v>
       </c>
       <c r="D147">
         <f>SUM(E147,G147,I147,K147,M147,O147)</f>
-        <v>1</v>
-      </c>
-      <c r="G147">
-        <v>1</v>
-      </c>
-      <c r="H147" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
-        <v>232</v>
+        <v>360</v>
       </c>
       <c r="B148" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="C148" t="s">
-        <v>243</v>
+        <v>335</v>
       </c>
       <c r="D148">
         <f>SUM(E148,G148,I148,K148,M148,O148)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="B149" t="s">
         <v>274</v>
       </c>
       <c r="C149" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="D149">
         <f>SUM(E149,G149,I149,K149,M149,O149)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="B150" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C150" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="D150">
         <f>SUM(E150,G150,I150,K150,M150,O150)</f>
-        <v>1</v>
-      </c>
-      <c r="M150">
-        <v>1</v>
-      </c>
-      <c r="N150" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
-        <v>257</v>
+        <v>355</v>
       </c>
       <c r="B151" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C151" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="D151">
         <f>SUM(E151,G151,I151,K151,M151,O151)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="B152" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C152" t="s">
-        <v>455</v>
+        <v>335</v>
       </c>
       <c r="D152">
         <f>SUM(E152,G152,I152,K152,M152,O152)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="2" t="s">
-        <v>470</v>
+        <v>342</v>
       </c>
       <c r="B153" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="C153" t="s">
-        <v>471</v>
+        <v>335</v>
       </c>
       <c r="D153">
         <f>SUM(E153,G153,I153,K153,M153,O153)</f>
-        <v>1</v>
-      </c>
-      <c r="K153">
-        <v>1</v>
-      </c>
-      <c r="L153" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="B154" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C154" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="D154">
         <f>SUM(E154,G154,I154,K154,M154,O154)</f>
-        <v>1</v>
-      </c>
-      <c r="K154">
-        <v>1</v>
-      </c>
-      <c r="L154" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="2" t="s">
-        <v>195</v>
+        <v>341</v>
       </c>
       <c r="B155" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C155" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D155">
         <f>SUM(E155,G155,I155,K155,M155,O155)</f>
-        <v>1</v>
-      </c>
-      <c r="K155">
-        <v>1</v>
-      </c>
-      <c r="L155" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A156" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B156" t="s">
+        <v>274</v>
+      </c>
+      <c r="C156" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A156" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B156" t="s">
-        <v>179</v>
-      </c>
-      <c r="C156" t="s">
-        <v>329</v>
       </c>
       <c r="D156">
         <f>SUM(E156,G156,I156,K156,M156,O156)</f>
-        <v>1</v>
-      </c>
-      <c r="K156">
-        <v>1</v>
-      </c>
-      <c r="L156" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="2" t="s">
-        <v>205</v>
+        <v>345</v>
       </c>
       <c r="B157" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C157" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D157">
         <f>SUM(E157,G157,I157,K157,M157,O157)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="2" t="s">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="B158" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="C158" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="D158">
         <f>SUM(E158,G158,I158,K158,M158,O158)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="2" t="s">
-        <v>309</v>
+        <v>181</v>
       </c>
       <c r="B159" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="C159" t="s">
-        <v>268</v>
+        <v>455</v>
       </c>
       <c r="D159">
         <f>SUM(E159,G159,I159,K159,M159,O159)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="2" t="s">
-        <v>347</v>
+        <v>207</v>
       </c>
       <c r="B160" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C160" t="s">
-        <v>335</v>
+        <v>238</v>
       </c>
       <c r="D160">
         <f>SUM(E160,G160,I160,K160,M160,O160)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="2" t="s">
-        <v>351</v>
+        <v>208</v>
       </c>
       <c r="B161" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C161" t="s">
-        <v>331</v>
+        <v>238</v>
       </c>
       <c r="D161">
         <f>SUM(E161,G161,I161,K161,M161,O161)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="2" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="B162" t="s">
         <v>179</v>
       </c>
       <c r="C162" t="s">
-        <v>455</v>
+        <v>237</v>
       </c>
       <c r="D162">
         <f>SUM(E162,G162,I162,K162,M162,O162)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B163" t="s">
         <v>179</v>
@@ -10772,171 +11064,159 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="2" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B164" t="s">
         <v>179</v>
       </c>
       <c r="C164" t="s">
-        <v>455</v>
+        <v>329</v>
       </c>
       <c r="D164">
         <f>SUM(E164,G164,I164,K164,M164,O164)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="2" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="B165" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="C165" t="s">
-        <v>243</v>
+        <v>329</v>
       </c>
       <c r="D165">
         <f>SUM(E165,G165,I165,K165,M165,O165)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="2" t="s">
-        <v>334</v>
+        <v>216</v>
       </c>
       <c r="B166" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C166" t="s">
-        <v>335</v>
+        <v>237</v>
       </c>
       <c r="D166">
         <f>SUM(E166,G166,I166,K166,M166,O166)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="2" t="s">
-        <v>327</v>
+        <v>209</v>
       </c>
       <c r="B167" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="C167" t="s">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="D167">
         <f>SUM(E167,G167,I167,K167,M167,O167)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="2" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="B168" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="C168" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="D168">
         <f>SUM(E168,G168,I168,K168,M168,O168)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B169" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="C169" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="D169">
         <f>SUM(E169,G169,I169,K169,M169,O169)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B170" t="s">
         <v>179</v>
       </c>
       <c r="C170" t="s">
-        <v>329</v>
+        <v>237</v>
       </c>
       <c r="D170">
         <f>SUM(E170,G170,I170,K170,M170,O170)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="2" t="s">
-        <v>326</v>
+        <v>210</v>
       </c>
       <c r="B171" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="C171" t="s">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="D171">
         <f>SUM(E171,G171,I171,K171,M171,O171)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="2" t="s">
-        <v>370</v>
+        <v>196</v>
       </c>
       <c r="B172" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D172">
         <f>SUM(E172,G172,I172,K172,M172,O172)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="2" t="s">
-        <v>412</v>
+        <v>214</v>
       </c>
       <c r="B173" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C173" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="D173">
         <f>SUM(E173,G173,I173,K173,M173,O173)</f>
-        <v>2</v>
-      </c>
-      <c r="E173">
-        <v>1</v>
-      </c>
-      <c r="F173" t="s">
-        <v>452</v>
-      </c>
-      <c r="K173">
-        <v>1</v>
-      </c>
-      <c r="L173" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B174" t="s">
         <v>179</v>
@@ -10949,42 +11229,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="2" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B175" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C175" t="s">
-        <v>241</v>
+        <v>329</v>
       </c>
       <c r="D175">
         <f>SUM(E175,G175,I175,K175,M175,O175)</f>
-        <v>3</v>
-      </c>
-      <c r="E175">
-        <v>1</v>
-      </c>
-      <c r="F175" t="s">
-        <v>446</v>
-      </c>
-      <c r="G175">
-        <v>1</v>
-      </c>
-      <c r="H175" t="s">
-        <v>445</v>
-      </c>
-      <c r="K175">
-        <v>1</v>
-      </c>
-      <c r="L175" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B176" t="s">
         <v>179</v>
@@ -10997,45 +11259,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="2" t="s">
-        <v>393</v>
+        <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>296</v>
+        <v>455</v>
       </c>
       <c r="D177">
         <f>SUM(E177,G177,I177,K177,M177,O177)</f>
-        <v>1</v>
-      </c>
-      <c r="M177">
-        <v>1</v>
-      </c>
-      <c r="N177" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="2" t="s">
-        <v>363</v>
+        <v>183</v>
       </c>
       <c r="B178" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>331</v>
+        <v>455</v>
       </c>
       <c r="D178">
         <f>SUM(E178,G178,I178,K178,M178,O178)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B179" t="s">
         <v>179</v>
@@ -11048,237 +11304,195 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="2" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="B180" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>296</v>
+        <v>455</v>
       </c>
       <c r="D180">
         <f>SUM(E180,G180,I180,K180,M180,O180)</f>
-        <v>1</v>
-      </c>
-      <c r="O180">
-        <v>1</v>
-      </c>
-      <c r="P180" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="2" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="B181" t="s">
         <v>179</v>
       </c>
       <c r="C181" t="s">
-        <v>238</v>
+        <v>455</v>
       </c>
       <c r="D181">
         <f>SUM(E181,G181,I181,K181,M181,O181)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="2" t="s">
-        <v>380</v>
+        <v>201</v>
       </c>
       <c r="B182" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="C182" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="D182">
         <f>SUM(E182,G182,I182,K182,M182,O182)</f>
-        <v>1</v>
-      </c>
-      <c r="M182">
-        <v>1</v>
-      </c>
-      <c r="N182" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="2" t="s">
-        <v>392</v>
+        <v>211</v>
       </c>
       <c r="B183" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="C183" t="s">
-        <v>311</v>
+        <v>238</v>
       </c>
       <c r="D183">
         <f>SUM(E183,G183,I183,K183,M183,O183)</f>
-        <v>1</v>
-      </c>
-      <c r="M183">
-        <v>1</v>
-      </c>
-      <c r="N183" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="2" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="B184" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="C184" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="D184">
         <f>SUM(E184,G184,I184,K184,M184,O184)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="2" t="s">
-        <v>333</v>
+        <v>218</v>
       </c>
       <c r="B185" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C185" t="s">
-        <v>331</v>
+        <v>237</v>
       </c>
       <c r="D185">
         <f>SUM(E185,G185,I185,K185,M185,O185)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="2" t="s">
-        <v>379</v>
+        <v>180</v>
       </c>
       <c r="B186" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="C186" t="s">
-        <v>311</v>
+        <v>455</v>
       </c>
       <c r="D186">
         <f>SUM(E186,G186,I186,K186,M186,O186)</f>
-        <v>1</v>
-      </c>
-      <c r="M186">
-        <v>1</v>
-      </c>
-      <c r="N186" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B187" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="C187" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="D187">
         <f>SUM(E187,G187,I187,K187,M187,O187)</f>
-        <v>2</v>
-      </c>
-      <c r="E187">
-        <v>1</v>
-      </c>
-      <c r="F187" t="s">
-        <v>446</v>
-      </c>
-      <c r="K187">
-        <v>1</v>
-      </c>
-      <c r="L187" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B188" t="s">
         <v>179</v>
       </c>
       <c r="C188" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="D188">
         <f>SUM(E188,G188,I188,K188,M188,O188)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="2" t="s">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C189" t="s">
-        <v>275</v>
+        <v>455</v>
       </c>
       <c r="D189">
         <f>SUM(E189,G189,I189,K189,M189,O189)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="2" t="s">
-        <v>422</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="C190" t="s">
-        <v>268</v>
+        <v>455</v>
       </c>
       <c r="D190">
         <f>SUM(E190,G190,I190,K190,M190,O190)</f>
-        <v>1</v>
-      </c>
-      <c r="K190">
-        <v>1</v>
-      </c>
-      <c r="L190" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="2" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="B191" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="C191" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="D191">
         <f>SUM(E191,G191,I191,K191,M191,O191)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="2" t="s">
-        <v>362</v>
+        <v>246</v>
       </c>
       <c r="B192" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="C192" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="D192">
         <f>SUM(E192,G192,I192,K192,M192,O192)</f>
@@ -11287,76 +11501,58 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A193" s="2" t="s">
-        <v>438</v>
+        <v>249</v>
       </c>
       <c r="B193" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="C193" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="D193">
         <f>SUM(E193,G193,I193,K193,M193,O193)</f>
-        <v>1</v>
-      </c>
-      <c r="K193">
-        <v>1</v>
-      </c>
-      <c r="L193" t="s">
-        <v>420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A194" s="2" t="s">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="B194" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="C194" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D194">
         <f>SUM(E194,G194,I194,K194,M194,O194)</f>
-        <v>1</v>
-      </c>
-      <c r="K194">
-        <v>1</v>
-      </c>
-      <c r="L194" t="s">
-        <v>331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A195" s="2" t="s">
-        <v>385</v>
+        <v>248</v>
       </c>
       <c r="B195" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="C195" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="D195">
         <f>SUM(E195,G195,I195,K195,M195,O195)</f>
-        <v>1</v>
-      </c>
-      <c r="M195">
-        <v>1</v>
-      </c>
-      <c r="N195" t="s">
-        <v>458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A196" s="2" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="B196" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="C196" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D196">
         <f>SUM(E196,G196,I196,K196,M196,O196)</f>
@@ -11365,13 +11561,13 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A197" s="2" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="B197" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="C197" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D197">
         <f>SUM(E197,G197,I197,K197,M197,O197)</f>
@@ -11380,13 +11576,13 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A198" s="2" t="s">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="B198" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="C198" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D198">
         <f>SUM(E198,G198,I198,K198,M198,O198)</f>
@@ -11395,13 +11591,13 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A199" s="2" t="s">
-        <v>360</v>
+        <v>234</v>
       </c>
       <c r="B199" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="C199" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="D199">
         <f>SUM(E199,G199,I199,K199,M199,O199)</f>
@@ -11410,13 +11606,13 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A200" s="2" t="s">
-        <v>356</v>
+        <v>255</v>
       </c>
       <c r="B200" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="C200" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="D200">
         <f>SUM(E200,G200,I200,K200,M200,O200)</f>
@@ -11425,64 +11621,28 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A201" s="2" t="s">
-        <v>407</v>
+        <v>260</v>
       </c>
       <c r="B201" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="C201" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="D201">
         <f>SUM(E201,G201,I201,K201,M201,O201)</f>
         <v>0</v>
       </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
-      <c r="F201" t="s">
-        <v>461</v>
-      </c>
-      <c r="G201">
-        <v>0</v>
-      </c>
-      <c r="H201" t="s">
-        <v>461</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
-      <c r="J201" t="s">
-        <v>461</v>
-      </c>
-      <c r="K201">
-        <v>0</v>
-      </c>
-      <c r="L201" t="s">
-        <v>461</v>
-      </c>
-      <c r="M201">
-        <v>0</v>
-      </c>
-      <c r="N201" t="s">
-        <v>461</v>
-      </c>
-      <c r="O201">
-        <v>0</v>
-      </c>
-      <c r="P201" t="s">
-        <v>461</v>
-      </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A202" s="2" t="s">
-        <v>354</v>
+        <v>252</v>
       </c>
       <c r="B202" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="C202" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="D202">
         <f>SUM(E202,G202,I202,K202,M202,O202)</f>
@@ -11491,13 +11651,13 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A203" s="2" t="s">
-        <v>355</v>
+        <v>256</v>
       </c>
       <c r="B203" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="C203" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="D203">
         <f>SUM(E203,G203,I203,K203,M203,O203)</f>
@@ -11506,13 +11666,13 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A204" s="2" t="s">
-        <v>350</v>
+        <v>257</v>
       </c>
       <c r="B204" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="C204" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="D204">
         <f>SUM(E204,G204,I204,K204,M204,O204)</f>
@@ -11521,13 +11681,13 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A205" s="2" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="B205" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="C205" t="s">
-        <v>455</v>
+        <v>243</v>
       </c>
       <c r="D205">
         <f>SUM(E205,G205,I205,K205,M205,O205)</f>
@@ -11536,10 +11696,10 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A206" s="2" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="B206" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="C206" t="s">
         <v>243</v>
@@ -11551,64 +11711,166 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A207" s="2" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="B207" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="C207" t="s">
-        <v>329</v>
+        <v>242</v>
       </c>
       <c r="D207">
         <f>SUM(E207,G207,I207,K207,M207,O207)</f>
         <v>0</v>
       </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207" t="s">
+        <v>461</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207" t="s">
+        <v>461</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207" t="s">
+        <v>461</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207" t="s">
+        <v>444</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207" t="s">
+        <v>461</v>
+      </c>
+      <c r="O207">
+        <v>0</v>
+      </c>
+      <c r="P207" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A208" s="2" t="s">
-        <v>411</v>
+        <v>230</v>
       </c>
       <c r="B208" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="C208" t="s">
-        <v>311</v>
+        <v>242</v>
       </c>
       <c r="D208">
         <f>SUM(E208,G208,I208,K208,M208,O208)</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208" t="s">
+        <v>461</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208" t="s">
+        <v>461</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208" t="s">
+        <v>461</v>
       </c>
       <c r="K208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L208" t="s">
-        <v>418</v>
+        <v>444</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208" t="s">
+        <v>461</v>
+      </c>
+      <c r="O208">
+        <v>0</v>
+      </c>
+      <c r="P208" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A209" s="2" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="B209" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C209" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D209">
         <f>SUM(E209,G209,I209,K209,M209,O209)</f>
         <v>0</v>
       </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209" t="s">
+        <v>461</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209" t="s">
+        <v>461</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209" t="s">
+        <v>461</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209" t="s">
+        <v>461</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209" t="s">
+        <v>461</v>
+      </c>
+      <c r="O209">
+        <v>0</v>
+      </c>
+      <c r="P209" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A210" s="2" t="s">
-        <v>342</v>
+        <v>264</v>
       </c>
       <c r="B210" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C210" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="D210">
         <f>SUM(E210,G210,I210,K210,M210,O210)</f>
@@ -11617,10 +11879,10 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A211" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B211" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C211" t="s">
         <v>243</v>
@@ -11632,76 +11894,94 @@
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A212" s="2" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="B212" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C212" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="D212">
         <f>SUM(E212,G212,I212,K212,M212,O212)</f>
-        <v>1</v>
-      </c>
-      <c r="G212">
-        <v>1</v>
-      </c>
-      <c r="H212" t="s">
-        <v>456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A213" s="2" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B213" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C213" t="s">
-        <v>335</v>
+        <v>268</v>
       </c>
       <c r="D213">
         <f>SUM(E213,G213,I213,K213,M213,O213)</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213" t="s">
+        <v>461</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213" t="s">
+        <v>461</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213" t="s">
+        <v>461</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213" t="s">
+        <v>461</v>
       </c>
       <c r="M213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N213" t="s">
-        <v>450</v>
+        <v>461</v>
+      </c>
+      <c r="O213">
+        <v>0</v>
+      </c>
+      <c r="P213" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A214" s="2" t="s">
-        <v>475</v>
+        <v>299</v>
       </c>
       <c r="B214" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="C214" t="s">
-        <v>471</v>
+        <v>268</v>
       </c>
       <c r="D214">
         <f>SUM(E214,G214,I214,K214,M214,O214)</f>
-        <v>1</v>
-      </c>
-      <c r="K214">
-        <v>1</v>
-      </c>
-      <c r="L214" t="s">
-        <v>481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A215" s="2" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="B215" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="C215" t="s">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="D215">
         <f>SUM(E215,G215,I215,K215,M215,O215)</f>
@@ -11710,13 +11990,13 @@
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A216" s="2" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="B216" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C216" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="D216">
         <f>SUM(E216,G216,I216,K216,M216,O216)</f>
@@ -11725,76 +12005,58 @@
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A217" s="2" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="B217" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C217" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="D217">
         <f>SUM(E217,G217,I217,K217,M217,O217)</f>
-        <v>1</v>
-      </c>
-      <c r="O217">
-        <v>1</v>
-      </c>
-      <c r="P217" t="s">
-        <v>452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A218" s="2" t="s">
-        <v>436</v>
+        <v>300</v>
       </c>
       <c r="B218" t="s">
         <v>266</v>
       </c>
       <c r="C218" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="D218">
         <f>SUM(E218,G218,I218,K218,M218,O218)</f>
-        <v>1</v>
-      </c>
-      <c r="K218">
-        <v>1</v>
-      </c>
-      <c r="L218" t="s">
-        <v>431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A219" s="2" t="s">
-        <v>433</v>
+        <v>292</v>
       </c>
       <c r="B219" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C219" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="D219">
         <f>SUM(E219,G219,I219,K219,M219,O219)</f>
-        <v>1</v>
-      </c>
-      <c r="K219">
-        <v>1</v>
-      </c>
-      <c r="L219" t="s">
-        <v>431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A220" s="2" t="s">
-        <v>182</v>
+        <v>265</v>
       </c>
       <c r="B220" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="C220" t="s">
-        <v>455</v>
+        <v>267</v>
       </c>
       <c r="D220">
         <f>SUM(E220,G220,I220,K220,M220,O220)</f>
@@ -11803,55 +12065,43 @@
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A221" s="2" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="B221" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="C221" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="D221">
         <f>SUM(E221,G221,I221,K221,M221,O221)</f>
-        <v>1</v>
-      </c>
-      <c r="K221">
-        <v>1</v>
-      </c>
-      <c r="L221" t="s">
-        <v>481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A222" s="2" t="s">
-        <v>426</v>
+        <v>310</v>
       </c>
       <c r="B222" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C222" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D222">
         <f>SUM(E222,G222,I222,K222,M222,O222)</f>
-        <v>1</v>
-      </c>
-      <c r="K222">
-        <v>1</v>
-      </c>
-      <c r="L222" t="s">
-        <v>425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A223" s="2" t="s">
-        <v>280</v>
+        <v>423</v>
       </c>
       <c r="B223" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C223" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D223">
         <f>SUM(E223,G223,I223,K223,M223,O223)</f>
@@ -11860,7 +12110,7 @@
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A224" s="2" t="s">
-        <v>404</v>
+        <v>323</v>
       </c>
       <c r="B224" t="s">
         <v>266</v>
@@ -11870,247 +12120,187 @@
       </c>
       <c r="D224">
         <f>SUM(E224,G224,I224,K224,M224,O224)</f>
-        <v>1</v>
-      </c>
-      <c r="K224">
-        <v>1</v>
-      </c>
-      <c r="L224" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="2" t="s">
-        <v>191</v>
+        <v>301</v>
       </c>
       <c r="B225" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="C225" t="s">
-        <v>455</v>
+        <v>268</v>
       </c>
       <c r="D225">
         <f>SUM(E225,G225,I225,K225,M225,O225)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="2" t="s">
-        <v>479</v>
+        <v>290</v>
       </c>
       <c r="B226" t="s">
-        <v>406</v>
+        <v>266</v>
       </c>
       <c r="C226" t="s">
-        <v>478</v>
+        <v>291</v>
       </c>
       <c r="D226">
         <f>SUM(E226,G226,I226,K226,M226,O226)</f>
-        <v>1</v>
-      </c>
-      <c r="K226">
-        <v>1</v>
-      </c>
-      <c r="L226" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="2" t="s">
-        <v>428</v>
+        <v>317</v>
       </c>
       <c r="B227" t="s">
         <v>266</v>
       </c>
       <c r="C227" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D227">
         <f>SUM(E227,G227,I227,K227,M227,O227)</f>
-        <v>2</v>
-      </c>
-      <c r="E227">
-        <v>1</v>
-      </c>
-      <c r="F227" t="s">
-        <v>459</v>
-      </c>
-      <c r="K227">
-        <v>1</v>
-      </c>
-      <c r="L227" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="2" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B228" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C228" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="D228">
         <f>SUM(E228,G228,I228,K228,M228,O228)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="2" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
       <c r="B229" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C229" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="D229">
         <f>SUM(E229,G229,I229,K229,M229,O229)</f>
-        <v>4</v>
-      </c>
-      <c r="E229">
-        <v>1</v>
-      </c>
-      <c r="F229" t="s">
-        <v>448</v>
-      </c>
-      <c r="K229">
-        <v>1</v>
-      </c>
-      <c r="L229" t="s">
-        <v>488</v>
-      </c>
-      <c r="M229">
-        <v>1</v>
-      </c>
-      <c r="N229" t="s">
-        <v>448</v>
-      </c>
-      <c r="O229">
-        <v>1</v>
-      </c>
-      <c r="P229" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="2" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="B230" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C230" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="D230">
         <f>SUM(E230,G230,I230,K230,M230,O230)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="2" t="s">
-        <v>371</v>
+        <v>302</v>
       </c>
       <c r="B231" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C231" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="D231">
         <f>SUM(E231,G231,I231,K231,M231,O231)</f>
-        <v>1</v>
-      </c>
-      <c r="O231">
-        <v>1</v>
-      </c>
-      <c r="P231" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="2" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="B232" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C232" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="D232">
         <f>SUM(E232,G232,I232,K232,M232,O232)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="2" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="B233" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="C233" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="D233">
         <f>SUM(E233,G233,I233,K233,M233,O233)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="2" t="s">
-        <v>189</v>
+        <v>312</v>
       </c>
       <c r="B234" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="C234" t="s">
-        <v>455</v>
+        <v>267</v>
       </c>
       <c r="D234">
         <f>SUM(E234,G234,I234,K234,M234,O234)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="2" t="s">
-        <v>345</v>
+        <v>271</v>
       </c>
       <c r="B235" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C235" t="s">
-        <v>335</v>
+        <v>268</v>
       </c>
       <c r="D235">
         <f>SUM(E235,G235,I235,K235,M235,O235)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="2" t="s">
-        <v>367</v>
+        <v>269</v>
       </c>
       <c r="B236" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C236" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="D236">
         <f>SUM(E236,G236,I236,K236,M236,O236)</f>
-        <v>1</v>
-      </c>
-      <c r="O236">
-        <v>1</v>
-      </c>
-      <c r="P236" t="s">
-        <v>452</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Painting Record.xlsx
+++ b/Painting Record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopez\Desktop\V2.6 Javier_LeonhArt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopez\Desktop\V3.0 Javier_LeonhArt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB62A6D-77ED-43E0-B8FC-A66C2FB73BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93DA299-C21B-42D3-991D-89BF8A0B77F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" activeTab="1" xr2:uid="{8FABD0BB-35D2-4746-8BF5-22ED6BD8493F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{8FABD0BB-35D2-4746-8BF5-22ED6BD8493F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1534,9 +1534,6 @@
     <t>Wings</t>
   </si>
   <si>
-    <t>On Break</t>
-  </si>
-  <si>
     <t>Ynnari Warlock</t>
   </si>
   <si>
@@ -1553,6 +1550,9 @@
   </si>
   <si>
     <t>Gems Main</t>
+  </si>
+  <si>
+    <t>5x Gossamid Archers</t>
   </si>
 </sst>
 </file>
@@ -4279,8 +4279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F725C0D8-4E5E-44F7-BED9-972635B5DB06}">
   <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4417,7 +4417,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E171" t="s">
         <v>43</v>
@@ -7597,7 +7597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD12CC97-8595-4312-A700-76C39152E1F0}">
   <dimension ref="A1:P236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="108" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -7682,7 +7682,7 @@
         <v>243</v>
       </c>
       <c r="D2">
-        <f>SUM(E2,G2,I2,K2,M2,O2)</f>
+        <f t="shared" ref="D2:D65" si="0">SUM(E2,G2,I2,K2,M2,O2)</f>
         <v>0</v>
       </c>
       <c r="E2">
@@ -7733,7 +7733,7 @@
         <v>296</v>
       </c>
       <c r="D3">
-        <f>SUM(E3,G3,I3,K3,M3,O3)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E3">
@@ -7772,7 +7772,7 @@
         <v>318</v>
       </c>
       <c r="D4">
-        <f>SUM(E4,G4,I4,K4,M4,O4)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E4">
@@ -7805,7 +7805,7 @@
         <v>318</v>
       </c>
       <c r="D5">
-        <f>SUM(E5,G5,I5,K5,M5,O5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E5">
@@ -7838,7 +7838,7 @@
         <v>296</v>
       </c>
       <c r="D6">
-        <f>SUM(E6,G6,I6,K6,M6,O6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E6">
@@ -7871,20 +7871,20 @@
         <v>455</v>
       </c>
       <c r="D7">
-        <f>SUM(E7,G7,I7,K7,M7,O7)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -7904,7 +7904,7 @@
         <v>241</v>
       </c>
       <c r="D8">
-        <f>SUM(E8,G8,I8,K8,M8,O8)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E8">
@@ -7937,7 +7937,7 @@
         <v>291</v>
       </c>
       <c r="D9">
-        <f>SUM(E9,G9,I9,K9,M9,O9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E9">
@@ -7970,26 +7970,26 @@
         <v>291</v>
       </c>
       <c r="D10">
-        <f>SUM(E10,G10,I10,K10,M10,O10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
@@ -8003,7 +8003,7 @@
         <v>287</v>
       </c>
       <c r="D11">
-        <f>SUM(E11,G11,I11,K11,M11,O11)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E11">
@@ -8036,7 +8036,7 @@
         <v>296</v>
       </c>
       <c r="D12">
-        <f>SUM(E12,G12,I12,K12,M12,O12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G12">
@@ -8063,7 +8063,7 @@
         <v>296</v>
       </c>
       <c r="D13">
-        <f>SUM(E13,G13,I13,K13,M13,O13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G13">
@@ -8090,7 +8090,7 @@
         <v>296</v>
       </c>
       <c r="D14">
-        <f>SUM(E14,G14,I14,K14,M14,O14)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K14">
@@ -8117,7 +8117,7 @@
         <v>296</v>
       </c>
       <c r="D15">
-        <f>SUM(E15,G15,I15,K15,M15,O15)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K15">
@@ -8144,7 +8144,7 @@
         <v>296</v>
       </c>
       <c r="D16">
-        <f>SUM(E16,G16,I16,K16,M16,O16)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K16">
@@ -8171,7 +8171,7 @@
         <v>296</v>
       </c>
       <c r="D17">
-        <f>SUM(E17,G17,I17,K17,M17,O17)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E17">
@@ -8198,7 +8198,7 @@
         <v>296</v>
       </c>
       <c r="D18">
-        <f>SUM(E18,G18,I18,K18,M18,O18)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G18">
@@ -8225,7 +8225,7 @@
         <v>275</v>
       </c>
       <c r="D19">
-        <f>SUM(E19,G19,I19,K19,M19,O19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E19">
@@ -8249,7 +8249,7 @@
         <v>275</v>
       </c>
       <c r="D20">
-        <f>SUM(E20,G20,I20,K20,M20,O20)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K20">
@@ -8273,7 +8273,7 @@
         <v>331</v>
       </c>
       <c r="D21">
-        <f>SUM(E21,G21,I21,K21,M21,O21)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E21">
@@ -8300,7 +8300,7 @@
         <v>275</v>
       </c>
       <c r="D22">
-        <f>SUM(E22,G22,I22,K22,M22,O22)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E22">
@@ -8327,20 +8327,20 @@
         <v>455</v>
       </c>
       <c r="D23">
-        <f>SUM(E23,G23,I23,K23,M23,O23)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
@@ -8354,7 +8354,7 @@
         <v>471</v>
       </c>
       <c r="D24">
-        <f>SUM(E24,G24,I24,K24,M24,O24)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G24">
@@ -8381,14 +8381,14 @@
         <v>471</v>
       </c>
       <c r="D25">
-        <f>SUM(E25,G25,I25,K25,M25,O25)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -8408,7 +8408,7 @@
         <v>291</v>
       </c>
       <c r="D26">
-        <f>SUM(E26,G26,I26,K26,M26,O26)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G26">
@@ -8432,7 +8432,7 @@
         <v>268</v>
       </c>
       <c r="D27">
-        <f>SUM(E27,G27,I27,K27,M27,O27)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M27">
@@ -8459,7 +8459,7 @@
         <v>268</v>
       </c>
       <c r="D28">
-        <f>SUM(E28,G28,I28,K28,M28,O28)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K28">
@@ -8486,7 +8486,7 @@
         <v>268</v>
       </c>
       <c r="D29">
-        <f>SUM(E29,G29,I29,K29,M29,O29)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E29">
@@ -8513,7 +8513,7 @@
         <v>296</v>
       </c>
       <c r="D30">
-        <f>SUM(E30,G30,I30,K30,M30,O30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G30">
@@ -8534,14 +8534,14 @@
         <v>296</v>
       </c>
       <c r="D31">
-        <f>SUM(E31,G31,I31,K31,M31,O31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
@@ -8555,7 +8555,7 @@
         <v>296</v>
       </c>
       <c r="D32">
-        <f>SUM(E32,G32,I32,K32,M32,O32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K32">
@@ -8576,7 +8576,7 @@
         <v>296</v>
       </c>
       <c r="D33">
-        <f>SUM(E33,G33,I33,K33,M33,O33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O33">
@@ -8597,7 +8597,7 @@
         <v>296</v>
       </c>
       <c r="D34">
-        <f>SUM(E34,G34,I34,K34,M34,O34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M34">
@@ -8618,7 +8618,7 @@
         <v>296</v>
       </c>
       <c r="D35">
-        <f>SUM(E35,G35,I35,K35,M35,O35)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K35">
@@ -8639,7 +8639,7 @@
         <v>296</v>
       </c>
       <c r="D36">
-        <f>SUM(E36,G36,I36,K36,M36,O36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M36">
@@ -8660,7 +8660,7 @@
         <v>296</v>
       </c>
       <c r="D37">
-        <f>SUM(E37,G37,I37,K37,M37,O37)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O37">
@@ -8681,7 +8681,7 @@
         <v>296</v>
       </c>
       <c r="D38">
-        <f>SUM(E38,G38,I38,K38,M38,O38)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M38">
@@ -8702,7 +8702,7 @@
         <v>296</v>
       </c>
       <c r="D39">
-        <f>SUM(E39,G39,I39,K39,M39,O39)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K39">
@@ -8723,7 +8723,7 @@
         <v>478</v>
       </c>
       <c r="D40">
-        <f>SUM(E40,G40,I40,K40,M40,O40)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K40">
@@ -8744,7 +8744,7 @@
         <v>478</v>
       </c>
       <c r="D41">
-        <f>SUM(E41,G41,I41,K41,M41,O41)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K41">
@@ -8765,7 +8765,7 @@
         <v>478</v>
       </c>
       <c r="D42">
-        <f>SUM(E42,G42,I42,K42,M42,O42)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K42">
@@ -8786,7 +8786,7 @@
         <v>275</v>
       </c>
       <c r="D43">
-        <f>SUM(E43,G43,I43,K43,M43,O43)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G43">
@@ -8807,7 +8807,7 @@
         <v>275</v>
       </c>
       <c r="D44">
-        <f>SUM(E44,G44,I44,K44,M44,O44)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G44">
@@ -8828,7 +8828,7 @@
         <v>331</v>
       </c>
       <c r="D45">
-        <f>SUM(E45,G45,I45,K45,M45,O45)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H45">
@@ -8852,7 +8852,7 @@
         <v>331</v>
       </c>
       <c r="D46">
-        <f>SUM(E46,G46,I46,K46,M46,O46)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M46">
@@ -8873,7 +8873,7 @@
         <v>275</v>
       </c>
       <c r="D47">
-        <f>SUM(E47,G47,I47,K47,M47,O47)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K47">
@@ -8894,7 +8894,7 @@
         <v>335</v>
       </c>
       <c r="D48">
-        <f>SUM(E48,G48,I48,K48,M48,O48)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K48">
@@ -8915,7 +8915,7 @@
         <v>275</v>
       </c>
       <c r="D49">
-        <f>SUM(E49,G49,I49,K49,M49,O49)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M49">
@@ -8933,7 +8933,7 @@
         <v>331</v>
       </c>
       <c r="D50">
-        <f>SUM(E50,G50,I50,K50,M50,O50)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M50">
@@ -8954,7 +8954,7 @@
         <v>331</v>
       </c>
       <c r="D51">
-        <f>SUM(E51,G51,I51,K51,M51,O51)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M51">
@@ -8975,7 +8975,7 @@
         <v>331</v>
       </c>
       <c r="D52">
-        <f>SUM(E52,G52,I52,K52,M52,O52)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K52">
@@ -8996,7 +8996,7 @@
         <v>335</v>
       </c>
       <c r="D53">
-        <f>SUM(E53,G53,I53,K53,M53,O53)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M53">
@@ -9017,7 +9017,7 @@
         <v>335</v>
       </c>
       <c r="D54">
-        <f>SUM(E54,G54,I54,K54,M54,O54)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O54">
@@ -9038,7 +9038,7 @@
         <v>331</v>
       </c>
       <c r="D55">
-        <f>SUM(E55,G55,I55,K55,M55,O55)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O55">
@@ -9059,7 +9059,7 @@
         <v>331</v>
       </c>
       <c r="D56">
-        <f>SUM(E56,G56,I56,K56,M56,O56)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O56">
@@ -9080,14 +9080,14 @@
         <v>329</v>
       </c>
       <c r="D57">
-        <f>SUM(E57,G57,I57,K57,M57,O57)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.45">
@@ -9101,7 +9101,7 @@
         <v>329</v>
       </c>
       <c r="D58">
-        <f>SUM(E58,G58,I58,K58,M58,O58)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K58">
@@ -9122,7 +9122,7 @@
         <v>329</v>
       </c>
       <c r="D59">
-        <f>SUM(E59,G59,I59,K59,M59,O59)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K59">
@@ -9143,7 +9143,7 @@
         <v>329</v>
       </c>
       <c r="D60">
-        <f>SUM(E60,G60,I60,K60,M60,O60)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K60">
@@ -9164,7 +9164,7 @@
         <v>243</v>
       </c>
       <c r="D61">
-        <f>SUM(E61,G61,I61,K61,M61,O61)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G61">
@@ -9185,7 +9185,7 @@
         <v>243</v>
       </c>
       <c r="D62">
-        <f>SUM(E62,G62,I62,K62,M62,O62)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G62">
@@ -9206,7 +9206,7 @@
         <v>243</v>
       </c>
       <c r="D63">
-        <f>SUM(E63,G63,I63,K63,M63,O63)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K63">
@@ -9227,14 +9227,14 @@
         <v>241</v>
       </c>
       <c r="D64">
-        <f>SUM(E64,G64,I64,K64,M64,O64)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.45">
@@ -9248,7 +9248,7 @@
         <v>471</v>
       </c>
       <c r="D65">
-        <f>SUM(E65,G65,I65,K65,M65,O65)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K65">
@@ -9269,7 +9269,7 @@
         <v>239</v>
       </c>
       <c r="D66">
-        <f>SUM(E66,G66,I66,K66,M66,O66)</f>
+        <f t="shared" ref="D66:D129" si="1">SUM(E66,G66,I66,K66,M66,O66)</f>
         <v>1</v>
       </c>
       <c r="G66">
@@ -9290,7 +9290,7 @@
         <v>471</v>
       </c>
       <c r="D67">
-        <f>SUM(E67,G67,I67,K67,M67,O67)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K67">
@@ -9311,7 +9311,7 @@
         <v>240</v>
       </c>
       <c r="D68">
-        <f>SUM(E68,G68,I68,K68,M68,O68)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G68">
@@ -9332,7 +9332,7 @@
         <v>471</v>
       </c>
       <c r="D69">
-        <f>SUM(E69,G69,I69,K69,M69,O69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K69">
@@ -9353,7 +9353,7 @@
         <v>471</v>
       </c>
       <c r="D70">
-        <f>SUM(E70,G70,I70,K70,M70,O70)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K70">
@@ -9374,7 +9374,7 @@
         <v>287</v>
       </c>
       <c r="D71">
-        <f>SUM(E71,G71,I71,K71,M71,O71)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G71">
@@ -9395,7 +9395,7 @@
         <v>311</v>
       </c>
       <c r="D72">
-        <f>SUM(E72,G72,I72,K72,M72,O72)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K72">
@@ -9416,7 +9416,7 @@
         <v>268</v>
       </c>
       <c r="D73">
-        <f>SUM(E73,G73,I73,K73,M73,O73)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O73">
@@ -9437,7 +9437,7 @@
         <v>311</v>
       </c>
       <c r="D74">
-        <f>SUM(E74,G74,I74,K74,M74,O74)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K74">
@@ -9458,7 +9458,7 @@
         <v>268</v>
       </c>
       <c r="D75">
-        <f>SUM(E75,G75,I75,K75,M75,O75)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K75">
@@ -9479,7 +9479,7 @@
         <v>311</v>
       </c>
       <c r="D76">
-        <f>SUM(E76,G76,I76,K76,M76,O76)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K76">
@@ -9500,7 +9500,7 @@
         <v>287</v>
       </c>
       <c r="D77">
-        <f>SUM(E77,G77,I77,K77,M77,O77)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K77">
@@ -9521,7 +9521,7 @@
         <v>311</v>
       </c>
       <c r="D78">
-        <f>SUM(E78,G78,I78,K78,M78,O78)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K78">
@@ -9542,7 +9542,7 @@
         <v>268</v>
       </c>
       <c r="D79">
-        <f>SUM(E79,G79,I79,K79,M79,O79)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K79">
@@ -9563,7 +9563,7 @@
         <v>311</v>
       </c>
       <c r="D80">
-        <f>SUM(E80,G80,I80,K80,M80,O80)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K80">
@@ -9584,7 +9584,7 @@
         <v>311</v>
       </c>
       <c r="D81">
-        <f>SUM(E81,G81,I81,K81,M81,O81)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M81">
@@ -9605,7 +9605,7 @@
         <v>311</v>
       </c>
       <c r="D82">
-        <f>SUM(E82,G82,I82,K82,M82,O82)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M82">
@@ -9626,7 +9626,7 @@
         <v>291</v>
       </c>
       <c r="D83">
-        <f>SUM(E83,G83,I83,K83,M83,O83)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K83">
@@ -9647,7 +9647,7 @@
         <v>287</v>
       </c>
       <c r="D84">
-        <f>SUM(E84,G84,I84,K84,M84,O84)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E84">
@@ -9668,7 +9668,7 @@
         <v>311</v>
       </c>
       <c r="D85">
-        <f>SUM(E85,G85,I85,K85,M85,O85)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K85">
@@ -9689,7 +9689,7 @@
         <v>268</v>
       </c>
       <c r="D86">
-        <f>SUM(E86,G86,I86,K86,M86,O86)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K86">
@@ -9710,7 +9710,7 @@
         <v>311</v>
       </c>
       <c r="D87">
-        <f>SUM(E87,G87,I87,K87,M87,O87)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K87">
@@ -9731,7 +9731,7 @@
         <v>287</v>
       </c>
       <c r="D88">
-        <f>SUM(E88,G88,I88,K88,M88,O88)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E88">
@@ -9752,7 +9752,7 @@
         <v>311</v>
       </c>
       <c r="D89">
-        <f>SUM(E89,G89,I89,K89,M89,O89)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M89">
@@ -9773,7 +9773,7 @@
         <v>311</v>
       </c>
       <c r="D90">
-        <f>SUM(E90,G90,I90,K90,M90,O90)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M90">
@@ -9794,7 +9794,7 @@
         <v>311</v>
       </c>
       <c r="D91">
-        <f>SUM(E91,G91,I91,K91,M91,O91)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M91">
@@ -9815,7 +9815,7 @@
         <v>268</v>
       </c>
       <c r="D92">
-        <f>SUM(E92,G92,I92,K92,M92,O92)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K92">
@@ -9836,7 +9836,7 @@
         <v>268</v>
       </c>
       <c r="D93">
-        <f>SUM(E93,G93,I93,K93,M93,O93)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K93">
@@ -9857,7 +9857,7 @@
         <v>311</v>
       </c>
       <c r="D94">
-        <f>SUM(E94,G94,I94,K94,M94,O94)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M94">
@@ -9878,7 +9878,7 @@
         <v>311</v>
       </c>
       <c r="D95">
-        <f>SUM(E95,G95,I95,K95,M95,O95)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K95">
@@ -9899,7 +9899,7 @@
         <v>287</v>
       </c>
       <c r="D96">
-        <f>SUM(E96,G96,I96,K96,M96,O96)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K96">
@@ -9920,7 +9920,7 @@
         <v>311</v>
       </c>
       <c r="D97">
-        <f>SUM(E97,G97,I97,K97,M97,O97)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K97">
@@ -9941,7 +9941,7 @@
         <v>296</v>
       </c>
       <c r="D98">
-        <f>SUM(E98,G98,I98,K98,M98,O98)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E98">
@@ -9992,7 +9992,7 @@
         <v>296</v>
       </c>
       <c r="D99">
-        <f>SUM(E99,G99,I99,K99,M99,O99)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E99">
@@ -10043,7 +10043,7 @@
         <v>296</v>
       </c>
       <c r="D100">
-        <f>SUM(E100,G100,I100,K100,M100,O100)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E100">
@@ -10094,7 +10094,7 @@
         <v>296</v>
       </c>
       <c r="D101">
-        <f>SUM(E101,G101,I101,K101,M101,O101)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
         <v>296</v>
       </c>
       <c r="D102">
-        <f>SUM(E102,G102,I102,K102,M102,O102)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10124,7 +10124,7 @@
         <v>296</v>
       </c>
       <c r="D103">
-        <f>SUM(E103,G103,I103,K103,M103,O103)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10139,7 +10139,7 @@
         <v>296</v>
       </c>
       <c r="D104">
-        <f>SUM(E104,G104,I104,K104,M104,O104)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10154,7 +10154,7 @@
         <v>296</v>
       </c>
       <c r="D105">
-        <f>SUM(E105,G105,I105,K105,M105,O105)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10169,7 +10169,7 @@
         <v>296</v>
       </c>
       <c r="D106">
-        <f>SUM(E106,G106,I106,K106,M106,O106)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10184,7 +10184,7 @@
         <v>296</v>
       </c>
       <c r="D107">
-        <f>SUM(E107,G107,I107,K107,M107,O107)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10199,7 +10199,7 @@
         <v>296</v>
       </c>
       <c r="D108">
-        <f>SUM(E108,G108,I108,K108,M108,O108)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10214,7 +10214,7 @@
         <v>478</v>
       </c>
       <c r="D109">
-        <f>SUM(E109,G109,I109,K109,M109,O109)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E109">
@@ -10265,7 +10265,7 @@
         <v>331</v>
       </c>
       <c r="D110">
-        <f>SUM(E110,G110,I110,K110,M110,O110)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10280,7 +10280,7 @@
         <v>335</v>
       </c>
       <c r="D111">
-        <f>SUM(E111,G111,I111,K111,M111,O111)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10295,7 +10295,7 @@
         <v>275</v>
       </c>
       <c r="D112">
-        <f>SUM(E112,G112,I112,K112,M112,O112)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10310,7 +10310,7 @@
         <v>331</v>
       </c>
       <c r="D113">
-        <f>SUM(E113,G113,I113,K113,M113,O113)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
         <v>335</v>
       </c>
       <c r="D114">
-        <f>SUM(E114,G114,I114,K114,M114,O114)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10340,7 +10340,7 @@
         <v>335</v>
       </c>
       <c r="D115">
-        <f>SUM(E115,G115,I115,K115,M115,O115)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10355,7 +10355,7 @@
         <v>331</v>
       </c>
       <c r="D116">
-        <f>SUM(E116,G116,I116,K116,M116,O116)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10370,7 +10370,7 @@
         <v>331</v>
       </c>
       <c r="D117">
-        <f>SUM(E117,G117,I117,K117,M117,O117)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10385,7 +10385,7 @@
         <v>335</v>
       </c>
       <c r="D118">
-        <f>SUM(E118,G118,I118,K118,M118,O118)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10400,7 +10400,7 @@
         <v>335</v>
       </c>
       <c r="D119">
-        <f>SUM(E119,G119,I119,K119,M119,O119)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10415,7 +10415,7 @@
         <v>335</v>
       </c>
       <c r="D120">
-        <f>SUM(E120,G120,I120,K120,M120,O120)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10430,7 +10430,7 @@
         <v>335</v>
       </c>
       <c r="D121">
-        <f>SUM(E121,G121,I121,K121,M121,O121)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10445,7 +10445,7 @@
         <v>335</v>
       </c>
       <c r="D122">
-        <f>SUM(E122,G122,I122,K122,M122,O122)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10460,7 +10460,7 @@
         <v>335</v>
       </c>
       <c r="D123">
-        <f>SUM(E123,G123,I123,K123,M123,O123)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10475,7 +10475,7 @@
         <v>335</v>
       </c>
       <c r="D124">
-        <f>SUM(E124,G124,I124,K124,M124,O124)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10490,7 +10490,7 @@
         <v>331</v>
       </c>
       <c r="D125">
-        <f>SUM(E125,G125,I125,K125,M125,O125)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10505,7 +10505,7 @@
         <v>275</v>
       </c>
       <c r="D126">
-        <f>SUM(E126,G126,I126,K126,M126,O126)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10520,7 +10520,7 @@
         <v>275</v>
       </c>
       <c r="D127">
-        <f>SUM(E127,G127,I127,K127,M127,O127)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10535,7 +10535,7 @@
         <v>331</v>
       </c>
       <c r="D128">
-        <f>SUM(E128,G128,I128,K128,M128,O128)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10550,7 +10550,7 @@
         <v>275</v>
       </c>
       <c r="D129">
-        <f>SUM(E129,G129,I129,K129,M129,O129)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10565,7 +10565,7 @@
         <v>335</v>
       </c>
       <c r="D130">
-        <f>SUM(E130,G130,I130,K130,M130,O130)</f>
+        <f t="shared" ref="D130:D193" si="2">SUM(E130,G130,I130,K130,M130,O130)</f>
         <v>0</v>
       </c>
     </row>
@@ -10580,7 +10580,7 @@
         <v>335</v>
       </c>
       <c r="D131">
-        <f>SUM(E131,G131,I131,K131,M131,O131)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10595,7 +10595,7 @@
         <v>331</v>
       </c>
       <c r="D132">
-        <f>SUM(E132,G132,I132,K132,M132,O132)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10610,7 +10610,7 @@
         <v>331</v>
       </c>
       <c r="D133">
-        <f>SUM(E133,G133,I133,K133,M133,O133)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10625,7 +10625,7 @@
         <v>331</v>
       </c>
       <c r="D134">
-        <f>SUM(E134,G134,I134,K134,M134,O134)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10640,7 +10640,7 @@
         <v>335</v>
       </c>
       <c r="D135">
-        <f>SUM(E135,G135,I135,K135,M135,O135)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10655,7 +10655,7 @@
         <v>331</v>
       </c>
       <c r="D136">
-        <f>SUM(E136,G136,I136,K136,M136,O136)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
         <v>331</v>
       </c>
       <c r="D137">
-        <f>SUM(E137,G137,I137,K137,M137,O137)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10685,7 +10685,7 @@
         <v>275</v>
       </c>
       <c r="D138">
-        <f>SUM(E138,G138,I138,K138,M138,O138)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10700,7 +10700,7 @@
         <v>335</v>
       </c>
       <c r="D139">
-        <f>SUM(E139,G139,I139,K139,M139,O139)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10715,7 +10715,7 @@
         <v>331</v>
       </c>
       <c r="D140">
-        <f>SUM(E140,G140,I140,K140,M140,O140)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10730,7 +10730,7 @@
         <v>335</v>
       </c>
       <c r="D141">
-        <f>SUM(E141,G141,I141,K141,M141,O141)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10745,7 +10745,7 @@
         <v>331</v>
       </c>
       <c r="D142">
-        <f>SUM(E142,G142,I142,K142,M142,O142)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10760,7 +10760,7 @@
         <v>331</v>
       </c>
       <c r="D143">
-        <f>SUM(E143,G143,I143,K143,M143,O143)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10775,7 +10775,7 @@
         <v>331</v>
       </c>
       <c r="D144">
-        <f>SUM(E144,G144,I144,K144,M144,O144)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10790,7 +10790,7 @@
         <v>275</v>
       </c>
       <c r="D145">
-        <f>SUM(E145,G145,I145,K145,M145,O145)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10805,7 +10805,7 @@
         <v>275</v>
       </c>
       <c r="D146">
-        <f>SUM(E146,G146,I146,K146,M146,O146)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10820,7 +10820,7 @@
         <v>335</v>
       </c>
       <c r="D147">
-        <f>SUM(E147,G147,I147,K147,M147,O147)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10835,7 +10835,7 @@
         <v>335</v>
       </c>
       <c r="D148">
-        <f>SUM(E148,G148,I148,K148,M148,O148)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10850,7 +10850,7 @@
         <v>335</v>
       </c>
       <c r="D149">
-        <f>SUM(E149,G149,I149,K149,M149,O149)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10865,7 +10865,7 @@
         <v>331</v>
       </c>
       <c r="D150">
-        <f>SUM(E150,G150,I150,K150,M150,O150)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10880,7 +10880,7 @@
         <v>331</v>
       </c>
       <c r="D151">
-        <f>SUM(E151,G151,I151,K151,M151,O151)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10895,7 +10895,7 @@
         <v>335</v>
       </c>
       <c r="D152">
-        <f>SUM(E152,G152,I152,K152,M152,O152)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10910,7 +10910,7 @@
         <v>335</v>
       </c>
       <c r="D153">
-        <f>SUM(E153,G153,I153,K153,M153,O153)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10925,7 +10925,7 @@
         <v>275</v>
       </c>
       <c r="D154">
-        <f>SUM(E154,G154,I154,K154,M154,O154)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10940,7 +10940,7 @@
         <v>335</v>
       </c>
       <c r="D155">
-        <f>SUM(E155,G155,I155,K155,M155,O155)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10955,7 +10955,7 @@
         <v>331</v>
       </c>
       <c r="D156">
-        <f>SUM(E156,G156,I156,K156,M156,O156)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10970,7 +10970,7 @@
         <v>335</v>
       </c>
       <c r="D157">
-        <f>SUM(E157,G157,I157,K157,M157,O157)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10985,7 +10985,7 @@
         <v>329</v>
       </c>
       <c r="D158">
-        <f>SUM(E158,G158,I158,K158,M158,O158)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11000,7 +11000,7 @@
         <v>455</v>
       </c>
       <c r="D159">
-        <f>SUM(E159,G159,I159,K159,M159,O159)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11015,7 +11015,7 @@
         <v>238</v>
       </c>
       <c r="D160">
-        <f>SUM(E160,G160,I160,K160,M160,O160)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11030,7 +11030,7 @@
         <v>238</v>
       </c>
       <c r="D161">
-        <f>SUM(E161,G161,I161,K161,M161,O161)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11045,7 +11045,7 @@
         <v>237</v>
       </c>
       <c r="D162">
-        <f>SUM(E162,G162,I162,K162,M162,O162)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11060,7 +11060,7 @@
         <v>455</v>
       </c>
       <c r="D163">
-        <f>SUM(E163,G163,I163,K163,M163,O163)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11075,7 +11075,7 @@
         <v>329</v>
       </c>
       <c r="D164">
-        <f>SUM(E164,G164,I164,K164,M164,O164)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11090,7 +11090,7 @@
         <v>329</v>
       </c>
       <c r="D165">
-        <f>SUM(E165,G165,I165,K165,M165,O165)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11105,7 +11105,7 @@
         <v>237</v>
       </c>
       <c r="D166">
-        <f>SUM(E166,G166,I166,K166,M166,O166)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11120,7 +11120,7 @@
         <v>238</v>
       </c>
       <c r="D167">
-        <f>SUM(E167,G167,I167,K167,M167,O167)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11135,7 +11135,7 @@
         <v>237</v>
       </c>
       <c r="D168">
-        <f>SUM(E168,G168,I168,K168,M168,O168)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11150,7 +11150,7 @@
         <v>329</v>
       </c>
       <c r="D169">
-        <f>SUM(E169,G169,I169,K169,M169,O169)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11165,7 +11165,7 @@
         <v>237</v>
       </c>
       <c r="D170">
-        <f>SUM(E170,G170,I170,K170,M170,O170)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
         <v>238</v>
       </c>
       <c r="D171">
-        <f>SUM(E171,G171,I171,K171,M171,O171)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11195,7 +11195,7 @@
         <v>329</v>
       </c>
       <c r="D172">
-        <f>SUM(E172,G172,I172,K172,M172,O172)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11210,7 +11210,7 @@
         <v>237</v>
       </c>
       <c r="D173">
-        <f>SUM(E173,G173,I173,K173,M173,O173)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11225,7 +11225,7 @@
         <v>455</v>
       </c>
       <c r="D174">
-        <f>SUM(E174,G174,I174,K174,M174,O174)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11240,7 +11240,7 @@
         <v>329</v>
       </c>
       <c r="D175">
-        <f>SUM(E175,G175,I175,K175,M175,O175)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11255,7 +11255,7 @@
         <v>455</v>
       </c>
       <c r="D176">
-        <f>SUM(E176,G176,I176,K176,M176,O176)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11270,7 +11270,7 @@
         <v>455</v>
       </c>
       <c r="D177">
-        <f>SUM(E177,G177,I177,K177,M177,O177)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11285,7 +11285,7 @@
         <v>455</v>
       </c>
       <c r="D178">
-        <f>SUM(E178,G178,I178,K178,M178,O178)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11300,7 +11300,7 @@
         <v>329</v>
       </c>
       <c r="D179">
-        <f>SUM(E179,G179,I179,K179,M179,O179)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11315,7 +11315,7 @@
         <v>455</v>
       </c>
       <c r="D180">
-        <f>SUM(E180,G180,I180,K180,M180,O180)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11330,7 +11330,7 @@
         <v>455</v>
       </c>
       <c r="D181">
-        <f>SUM(E181,G181,I181,K181,M181,O181)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11345,7 +11345,7 @@
         <v>329</v>
       </c>
       <c r="D182">
-        <f>SUM(E182,G182,I182,K182,M182,O182)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11360,7 +11360,7 @@
         <v>238</v>
       </c>
       <c r="D183">
-        <f>SUM(E183,G183,I183,K183,M183,O183)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11375,7 +11375,7 @@
         <v>238</v>
       </c>
       <c r="D184">
-        <f>SUM(E184,G184,I184,K184,M184,O184)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11390,7 +11390,7 @@
         <v>237</v>
       </c>
       <c r="D185">
-        <f>SUM(E185,G185,I185,K185,M185,O185)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11405,7 +11405,7 @@
         <v>455</v>
       </c>
       <c r="D186">
-        <f>SUM(E186,G186,I186,K186,M186,O186)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11420,7 +11420,7 @@
         <v>329</v>
       </c>
       <c r="D187">
-        <f>SUM(E187,G187,I187,K187,M187,O187)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
         <v>329</v>
       </c>
       <c r="D188">
-        <f>SUM(E188,G188,I188,K188,M188,O188)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11450,7 +11450,7 @@
         <v>455</v>
       </c>
       <c r="D189">
-        <f>SUM(E189,G189,I189,K189,M189,O189)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11465,7 +11465,7 @@
         <v>455</v>
       </c>
       <c r="D190">
-        <f>SUM(E190,G190,I190,K190,M190,O190)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11480,7 +11480,7 @@
         <v>245</v>
       </c>
       <c r="D191">
-        <f>SUM(E191,G191,I191,K191,M191,O191)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11495,7 +11495,7 @@
         <v>243</v>
       </c>
       <c r="D192">
-        <f>SUM(E192,G192,I192,K192,M192,O192)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11510,7 +11510,7 @@
         <v>243</v>
       </c>
       <c r="D193">
-        <f>SUM(E193,G193,I193,K193,M193,O193)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11525,7 +11525,7 @@
         <v>243</v>
       </c>
       <c r="D194">
-        <f>SUM(E194,G194,I194,K194,M194,O194)</f>
+        <f t="shared" ref="D194:D257" si="3">SUM(E194,G194,I194,K194,M194,O194)</f>
         <v>0</v>
       </c>
     </row>
@@ -11540,7 +11540,7 @@
         <v>243</v>
       </c>
       <c r="D195">
-        <f>SUM(E195,G195,I195,K195,M195,O195)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11555,7 +11555,7 @@
         <v>243</v>
       </c>
       <c r="D196">
-        <f>SUM(E196,G196,I196,K196,M196,O196)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11570,7 +11570,7 @@
         <v>243</v>
       </c>
       <c r="D197">
-        <f>SUM(E197,G197,I197,K197,M197,O197)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11585,7 +11585,7 @@
         <v>243</v>
       </c>
       <c r="D198">
-        <f>SUM(E198,G198,I198,K198,M198,O198)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11600,7 +11600,7 @@
         <v>243</v>
       </c>
       <c r="D199">
-        <f>SUM(E199,G199,I199,K199,M199,O199)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11615,7 +11615,7 @@
         <v>243</v>
       </c>
       <c r="D200">
-        <f>SUM(E200,G200,I200,K200,M200,O200)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11630,7 +11630,7 @@
         <v>243</v>
       </c>
       <c r="D201">
-        <f>SUM(E201,G201,I201,K201,M201,O201)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11645,7 +11645,7 @@
         <v>243</v>
       </c>
       <c r="D202">
-        <f>SUM(E202,G202,I202,K202,M202,O202)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11660,7 +11660,7 @@
         <v>243</v>
       </c>
       <c r="D203">
-        <f>SUM(E203,G203,I203,K203,M203,O203)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11675,7 +11675,7 @@
         <v>243</v>
       </c>
       <c r="D204">
-        <f>SUM(E204,G204,I204,K204,M204,O204)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11690,7 +11690,7 @@
         <v>243</v>
       </c>
       <c r="D205">
-        <f>SUM(E205,G205,I205,K205,M205,O205)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
         <v>243</v>
       </c>
       <c r="D206">
-        <f>SUM(E206,G206,I206,K206,M206,O206)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11720,7 +11720,7 @@
         <v>242</v>
       </c>
       <c r="D207">
-        <f>SUM(E207,G207,I207,K207,M207,O207)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E207">
@@ -11771,7 +11771,7 @@
         <v>242</v>
       </c>
       <c r="D208">
-        <f>SUM(E208,G208,I208,K208,M208,O208)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E208">
@@ -11822,7 +11822,7 @@
         <v>242</v>
       </c>
       <c r="D209">
-        <f>SUM(E209,G209,I209,K209,M209,O209)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E209">
@@ -11873,7 +11873,7 @@
         <v>243</v>
       </c>
       <c r="D210">
-        <f>SUM(E210,G210,I210,K210,M210,O210)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11888,7 +11888,7 @@
         <v>243</v>
       </c>
       <c r="D211">
-        <f>SUM(E211,G211,I211,K211,M211,O211)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11903,7 +11903,7 @@
         <v>243</v>
       </c>
       <c r="D212">
-        <f>SUM(E212,G212,I212,K212,M212,O212)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11918,7 +11918,7 @@
         <v>268</v>
       </c>
       <c r="D213">
-        <f>SUM(E213,G213,I213,K213,M213,O213)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E213">
@@ -11969,7 +11969,7 @@
         <v>268</v>
       </c>
       <c r="D214">
-        <f>SUM(E214,G214,I214,K214,M214,O214)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11984,7 +11984,7 @@
         <v>268</v>
       </c>
       <c r="D215">
-        <f>SUM(E215,G215,I215,K215,M215,O215)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11999,7 +11999,7 @@
         <v>268</v>
       </c>
       <c r="D216">
-        <f>SUM(E216,G216,I216,K216,M216,O216)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12014,7 +12014,7 @@
         <v>311</v>
       </c>
       <c r="D217">
-        <f>SUM(E217,G217,I217,K217,M217,O217)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12029,7 +12029,7 @@
         <v>268</v>
       </c>
       <c r="D218">
-        <f>SUM(E218,G218,I218,K218,M218,O218)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12044,7 +12044,7 @@
         <v>268</v>
       </c>
       <c r="D219">
-        <f>SUM(E219,G219,I219,K219,M219,O219)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12059,7 +12059,7 @@
         <v>267</v>
       </c>
       <c r="D220">
-        <f>SUM(E220,G220,I220,K220,M220,O220)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12074,7 +12074,7 @@
         <v>268</v>
       </c>
       <c r="D221">
-        <f>SUM(E221,G221,I221,K221,M221,O221)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12089,7 +12089,7 @@
         <v>311</v>
       </c>
       <c r="D222">
-        <f>SUM(E222,G222,I222,K222,M222,O222)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12104,7 +12104,7 @@
         <v>267</v>
       </c>
       <c r="D223">
-        <f>SUM(E223,G223,I223,K223,M223,O223)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12119,7 +12119,7 @@
         <v>311</v>
       </c>
       <c r="D224">
-        <f>SUM(E224,G224,I224,K224,M224,O224)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12134,7 +12134,7 @@
         <v>268</v>
       </c>
       <c r="D225">
-        <f>SUM(E225,G225,I225,K225,M225,O225)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12149,7 +12149,7 @@
         <v>291</v>
       </c>
       <c r="D226">
-        <f>SUM(E226,G226,I226,K226,M226,O226)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12164,7 +12164,7 @@
         <v>291</v>
       </c>
       <c r="D227">
-        <f>SUM(E227,G227,I227,K227,M227,O227)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12179,7 +12179,7 @@
         <v>291</v>
       </c>
       <c r="D228">
-        <f>SUM(E228,G228,I228,K228,M228,O228)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12194,7 +12194,7 @@
         <v>268</v>
       </c>
       <c r="D229">
-        <f>SUM(E229,G229,I229,K229,M229,O229)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12209,7 +12209,7 @@
         <v>268</v>
       </c>
       <c r="D230">
-        <f>SUM(E230,G230,I230,K230,M230,O230)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12224,7 +12224,7 @@
         <v>268</v>
       </c>
       <c r="D231">
-        <f>SUM(E231,G231,I231,K231,M231,O231)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12239,7 +12239,7 @@
         <v>268</v>
       </c>
       <c r="D232">
-        <f>SUM(E232,G232,I232,K232,M232,O232)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12254,7 +12254,7 @@
         <v>268</v>
       </c>
       <c r="D233">
-        <f>SUM(E233,G233,I233,K233,M233,O233)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12269,7 +12269,7 @@
         <v>267</v>
       </c>
       <c r="D234">
-        <f>SUM(E234,G234,I234,K234,M234,O234)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12284,7 +12284,7 @@
         <v>268</v>
       </c>
       <c r="D235">
-        <f>SUM(E235,G235,I235,K235,M235,O235)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12299,7 +12299,7 @@
         <v>268</v>
       </c>
       <c r="D236">
-        <f>SUM(E236,G236,I236,K236,M236,O236)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
